--- a/fMRI-anovas/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/fMRI-anovas/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/NMxTotalUsexAccuracy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/fMRI-anovas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A4F0B6-BE86-0C42-90A7-201E95DBF1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925FDEC-7452-FE45-A558-C91FC34E1CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28500" yWindow="1720" windowWidth="25600" windowHeight="14840" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>MVSL_Incorrect</t>
   </si>
@@ -170,6 +170,42 @@
   <si>
     <t>CDSR_Contrast</t>
   </si>
+  <si>
+    <t>MVS_Incorrect</t>
+  </si>
+  <si>
+    <t>MVS_Correct</t>
+  </si>
+  <si>
+    <t>MVS_Contrast</t>
+  </si>
+  <si>
+    <t>SVS_Incorrect</t>
+  </si>
+  <si>
+    <t>SVS_Correct</t>
+  </si>
+  <si>
+    <t>SVS_Contrast</t>
+  </si>
+  <si>
+    <t>SDS_Incorrect</t>
+  </si>
+  <si>
+    <t>SDS_Correct</t>
+  </si>
+  <si>
+    <t>SDS_Contrast</t>
+  </si>
+  <si>
+    <t>MDS_Incorrect</t>
+  </si>
+  <si>
+    <t>MDS_Correct</t>
+  </si>
+  <si>
+    <t>MDS_Contrast</t>
+  </si>
 </sst>
 </file>
 
@@ -208,12 +244,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -353,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -444,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE6266C-C2C9-0545-A621-E0AD7AF2C0DA}">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:BE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,7 +814,7 @@
     <col min="1" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
@@ -815,98 +860,134 @@
       <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AQ1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR1" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>3836</v>
       </c>
@@ -955,116 +1036,164 @@
         <f t="shared" ref="O2:O36" si="1">N2-M2</f>
         <v>2.6745000000000005E-2</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="14">
+        <f>AVERAGE(J2,M2)</f>
+        <v>-9.6953000000000011E-2</v>
+      </c>
+      <c r="Q2" s="14">
+        <f>AVERAGE(K2,N2)</f>
+        <v>-0.1300385</v>
+      </c>
+      <c r="R2" s="14">
+        <f>AVERAGE(L2,O2)</f>
+        <v>-3.308549999999999E-2</v>
+      </c>
+      <c r="S2" s="12">
         <v>3.8214999999999999E-2</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="T2" s="12">
         <v>-8.404E-3</v>
       </c>
-      <c r="R2" s="13">
-        <f t="shared" ref="R2:R36" si="2">Q2-P2</f>
+      <c r="U2" s="13">
+        <f t="shared" ref="U2:U36" si="2">T2-S2</f>
         <v>-4.6619000000000001E-2</v>
       </c>
-      <c r="S2" s="12">
+      <c r="V2" s="12">
         <v>1.4739E-2</v>
       </c>
-      <c r="T2" s="12">
+      <c r="W2" s="12">
         <v>-4.8593999999999998E-2</v>
       </c>
-      <c r="U2" s="14">
-        <f t="shared" ref="U2:U36" si="3">T2-S2</f>
+      <c r="X2" s="14">
+        <f t="shared" ref="X2:X36" si="3">W2-V2</f>
         <v>-6.3333E-2</v>
       </c>
-      <c r="V2" s="11">
+      <c r="Y2" s="14">
+        <f>AVERAGE(S2,V2)</f>
+        <v>2.6477000000000001E-2</v>
+      </c>
+      <c r="Z2" s="14">
+        <f>AVERAGE(T2,W2)</f>
+        <v>-2.8499E-2</v>
+      </c>
+      <c r="AA2" s="14">
+        <f>AVERAGE(U2,X2)</f>
+        <v>-5.4975999999999997E-2</v>
+      </c>
+      <c r="AB2" s="11">
         <v>0.10792300000000001</v>
       </c>
-      <c r="W2" s="12">
+      <c r="AC2" s="12">
         <v>7.7044000000000001E-2</v>
       </c>
-      <c r="X2" s="13">
-        <f t="shared" ref="X2:X36" si="4">W2-V2</f>
+      <c r="AD2" s="13">
+        <f t="shared" ref="AD2:AD36" si="4">AC2-AB2</f>
         <v>-3.0879000000000004E-2</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="AE2" s="11">
         <v>5.0793999999999999E-2</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="AF2" s="12">
         <v>0.103228</v>
       </c>
-      <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA36" si="5">Z2-Y2</f>
+      <c r="AG2" s="13">
+        <f t="shared" ref="AG2:AG36" si="5">AF2-AE2</f>
         <v>5.2434000000000001E-2</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AH2" s="14">
+        <f>AVERAGE(AB2,AE2)</f>
+        <v>7.9358499999999998E-2</v>
+      </c>
+      <c r="AI2" s="14">
+        <f>AVERAGE(AC2,AF2)</f>
+        <v>9.0135999999999994E-2</v>
+      </c>
+      <c r="AJ2" s="14">
+        <f>AVERAGE(AD2,AG2)</f>
+        <v>1.0777499999999999E-2</v>
+      </c>
+      <c r="AK2" s="12">
         <v>-7.3726E-2</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AL2" s="12">
         <v>1.7937999999999999E-2</v>
       </c>
-      <c r="AD2" s="13">
-        <f t="shared" ref="AD2:AD36" si="6">AC2-AB2</f>
+      <c r="AM2" s="13">
+        <f t="shared" ref="AM2:AM36" si="6">AL2-AK2</f>
         <v>9.1663999999999995E-2</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AN2" s="12">
         <v>-5.9027999999999997E-2</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AO2" s="12">
         <v>6.9194000000000006E-2</v>
       </c>
-      <c r="AG2" s="13">
-        <f>AF2-AE2</f>
+      <c r="AP2" s="13">
+        <f>AO2-AN2</f>
         <v>0.128222</v>
       </c>
-      <c r="AH2" s="11">
-        <f t="shared" ref="AH2:AH36" si="7">AVERAGE(J2,K2,P2,Q2,)</f>
+      <c r="AQ2" s="14">
+        <f>AVERAGE(AK2,AN2)</f>
+        <v>-6.6376999999999992E-2</v>
+      </c>
+      <c r="AR2" s="14">
+        <f t="shared" ref="AR2:AS2" si="7">AVERAGE(AL2,AO2)</f>
+        <v>4.3566000000000001E-2</v>
+      </c>
+      <c r="AS2" s="14">
+        <f t="shared" si="7"/>
+        <v>0.109943</v>
+      </c>
+      <c r="AT2" s="11">
+        <f t="shared" ref="AT2:AT36" si="8">AVERAGE(J2,K2,S2,T2,)</f>
         <v>-3.9237799999999996E-2</v>
       </c>
-      <c r="AI2" s="14">
-        <f t="shared" ref="AI2:AI36" si="8">AVERAGE(M2,N2,S2,T2)</f>
+      <c r="AU2" s="14">
+        <f t="shared" ref="AU2:AU36" si="9">AVERAGE(M2,N2,V2,W2)</f>
         <v>-6.5459500000000004E-2</v>
       </c>
-      <c r="AJ2" s="14">
-        <f t="shared" ref="AJ2:AJ36" si="9">AVERAGE(V2,W2,AB2,AC2)</f>
+      <c r="AV2" s="14">
+        <f t="shared" ref="AV2:AV36" si="10">AVERAGE(AB2,AC2,AK2,AL2)</f>
         <v>3.2294749999999997E-2</v>
       </c>
-      <c r="AK2" s="13">
-        <f t="shared" ref="AK2:AK36" si="10">AVERAGE(Y2,Z2,AE2,AF2)</f>
+      <c r="AW2" s="13">
+        <f t="shared" ref="AW2:AW36" si="11">AVERAGE(AE2,AF2,AN2,AO2)</f>
         <v>4.1047E-2</v>
       </c>
-      <c r="AL2" s="12">
-        <f>P2-J2</f>
+      <c r="AX2" s="12">
+        <f>S2-J2</f>
         <v>0.104757</v>
       </c>
-      <c r="AM2" s="12">
-        <f>Q2-K2</f>
+      <c r="AY2" s="12">
+        <f>T2-K2</f>
         <v>0.15105399999999999</v>
       </c>
-      <c r="AN2" s="12">
-        <f>S2-M2</f>
+      <c r="AZ2" s="12">
+        <f>V2-M2</f>
         <v>0.14210300000000001</v>
       </c>
-      <c r="AO2" s="12">
-        <f>T2-N2</f>
+      <c r="BA2" s="12">
+        <f>W2-N2</f>
         <v>5.2025000000000002E-2</v>
       </c>
-      <c r="AP2" s="12">
-        <f>V2-AB2</f>
+      <c r="BB2" s="12">
+        <f>AB2-AK2</f>
         <v>0.181649</v>
       </c>
-      <c r="AQ2" s="12">
-        <f>W2-AC2</f>
+      <c r="BC2" s="12">
+        <f>AC2-AL2</f>
         <v>5.9106000000000006E-2</v>
       </c>
-      <c r="AR2" s="12">
-        <f>Y2-AE2</f>
+      <c r="BD2" s="12">
+        <f>AE2-AN2</f>
         <v>0.109822</v>
       </c>
-      <c r="AS2" s="12">
-        <f>Z2-AF2</f>
+      <c r="BE2" s="12">
+        <f>AF2-AO2</f>
         <v>3.4033999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>3845</v>
       </c>
@@ -1087,7 +1216,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H36" si="11">SUM(E3,F3,G3)</f>
+        <f t="shared" ref="H3:H36" si="12">SUM(E3,F3,G3)</f>
         <v>57</v>
       </c>
       <c r="I3" s="27">
@@ -1113,116 +1242,164 @@
         <f t="shared" si="1"/>
         <v>0.23267699999999999</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="14">
+        <f t="shared" ref="P3:P36" si="13">AVERAGE(J3,M3)</f>
+        <v>-4.4757000000000005E-2</v>
+      </c>
+      <c r="Q3" s="14">
+        <f t="shared" ref="Q3:Q36" si="14">AVERAGE(K3,N3)</f>
+        <v>0.20445249999999998</v>
+      </c>
+      <c r="R3" s="14">
+        <f t="shared" ref="R3:R36" si="15">AVERAGE(L3,O3)</f>
+        <v>0.24920949999999997</v>
+      </c>
+      <c r="S3" s="12">
         <v>-1.5193999999999999E-2</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="T3" s="12">
         <v>7.8881000000000007E-2</v>
       </c>
-      <c r="R3" s="13">
+      <c r="U3" s="13">
         <f t="shared" si="2"/>
         <v>9.4075000000000006E-2</v>
       </c>
-      <c r="S3" s="12">
+      <c r="V3" s="12">
         <v>0.14275299999999999</v>
       </c>
-      <c r="T3" s="12">
+      <c r="W3" s="12">
         <v>0.14035700000000001</v>
       </c>
-      <c r="U3" s="14">
+      <c r="X3" s="14">
         <f t="shared" si="3"/>
         <v>-2.3959999999999815E-3</v>
       </c>
-      <c r="V3" s="11">
+      <c r="Y3" s="14">
+        <f t="shared" ref="Y3:Y36" si="16">AVERAGE(S3,V3)</f>
+        <v>6.3779499999999989E-2</v>
+      </c>
+      <c r="Z3" s="14">
+        <f t="shared" ref="Z3:Z36" si="17">AVERAGE(T3,W3)</f>
+        <v>0.10961900000000001</v>
+      </c>
+      <c r="AA3" s="14">
+        <f t="shared" ref="AA3:AA36" si="18">AVERAGE(U3,X3)</f>
+        <v>4.5839500000000012E-2</v>
+      </c>
+      <c r="AB3" s="11">
         <v>-8.5683999999999996E-2</v>
       </c>
-      <c r="W3" s="12">
+      <c r="AC3" s="12">
         <v>5.3681E-2</v>
       </c>
-      <c r="X3" s="13">
+      <c r="AD3" s="13">
         <f t="shared" si="4"/>
         <v>0.13936499999999999</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="AE3" s="11">
         <v>1.8766999999999999E-2</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="AF3" s="12">
         <v>0.105311</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AG3" s="13">
         <f t="shared" si="5"/>
         <v>8.654400000000001E-2</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AH3" s="14">
+        <f t="shared" ref="AH3:AH36" si="19">AVERAGE(AB3,AE3)</f>
+        <v>-3.3458500000000002E-2</v>
+      </c>
+      <c r="AI3" s="14">
+        <f t="shared" ref="AI3:AI36" si="20">AVERAGE(AC3,AF3)</f>
+        <v>7.9495999999999997E-2</v>
+      </c>
+      <c r="AJ3" s="14">
+        <f t="shared" ref="AJ3:AJ36" si="21">AVERAGE(AD3,AG3)</f>
+        <v>0.1129545</v>
+      </c>
+      <c r="AK3" s="12">
         <v>6.0252E-2</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AL3" s="12">
         <v>0.193687</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AM3" s="13">
         <f t="shared" si="6"/>
         <v>0.133435</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AN3" s="12">
         <v>-2.3734000000000002E-2</v>
       </c>
-      <c r="AF3" s="12">
+      <c r="AO3" s="12">
         <v>9.2760999999999996E-2</v>
       </c>
-      <c r="AG3" s="13">
-        <f t="shared" ref="AG3:AG36" si="12">AF3-AE3</f>
+      <c r="AP3" s="13">
+        <f t="shared" ref="AP3:AP36" si="22">AO3-AN3</f>
         <v>0.116495</v>
       </c>
-      <c r="AH3" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ3" s="14">
+        <f t="shared" ref="AQ3:AQ36" si="23">AVERAGE(AK3,AN3)</f>
+        <v>1.8258999999999997E-2</v>
+      </c>
+      <c r="AR3" s="14">
+        <f t="shared" ref="AR3:AR36" si="24">AVERAGE(AL3,AO3)</f>
+        <v>0.14322399999999999</v>
+      </c>
+      <c r="AS3" s="14">
+        <f t="shared" ref="AS3:AS36" si="25">AVERAGE(AM3,AP3)</f>
+        <v>0.12496499999999999</v>
+      </c>
+      <c r="AT3" s="11">
+        <f t="shared" si="8"/>
         <v>4.7954199999999995E-2</v>
       </c>
-      <c r="AI3" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU3" s="14">
+        <f t="shared" si="9"/>
         <v>0.10660425</v>
       </c>
-      <c r="AJ3" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV3" s="14">
+        <f t="shared" si="10"/>
         <v>5.5483999999999999E-2</v>
       </c>
-      <c r="AK3" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW3" s="13">
+        <f t="shared" si="11"/>
         <v>4.8276249999999993E-2</v>
       </c>
-      <c r="AL3" s="12">
-        <f t="shared" ref="AL3:AL36" si="13">P3-J3</f>
+      <c r="AX3" s="12">
+        <f t="shared" ref="AX3:AX36" si="26">S3-J3</f>
         <v>2.9635000000000002E-2</v>
       </c>
-      <c r="AM3" s="12">
-        <f t="shared" ref="AM3:AM36" si="14">Q3-K3</f>
+      <c r="AY3" s="12">
+        <f t="shared" ref="AY3:AY36" si="27">T3-K3</f>
         <v>-0.14203199999999999</v>
       </c>
-      <c r="AN3" s="12">
-        <f t="shared" ref="AN3:AN36" si="15">S3-M3</f>
+      <c r="AZ3" s="12">
+        <f t="shared" ref="AZ3:AZ36" si="28">V3-M3</f>
         <v>0.18743799999999999</v>
       </c>
-      <c r="AO3" s="12">
-        <f t="shared" ref="AO3:AO36" si="16">T3-N3</f>
+      <c r="BA3" s="12">
+        <f t="shared" ref="BA3:BA36" si="29">W3-N3</f>
         <v>-4.7634999999999983E-2</v>
       </c>
-      <c r="AP3" s="12">
-        <f t="shared" ref="AP3:AP36" si="17">V3-AB3</f>
+      <c r="BB3" s="12">
+        <f t="shared" ref="BB3:BB36" si="30">AB3-AK3</f>
         <v>-0.14593600000000001</v>
       </c>
-      <c r="AQ3" s="12">
-        <f t="shared" ref="AQ3:AQ36" si="18">W3-AC3</f>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC36" si="31">AC3-AL3</f>
         <v>-0.14000599999999999</v>
       </c>
-      <c r="AR3" s="12">
-        <f t="shared" ref="AR3:AR36" si="19">Y3-AE3</f>
+      <c r="BD3" s="12">
+        <f t="shared" ref="BD3:BD36" si="32">AE3-AN3</f>
         <v>4.2500999999999997E-2</v>
       </c>
-      <c r="AS3" s="12">
-        <f t="shared" ref="AS3:AS36" si="20">Z3-AF3</f>
+      <c r="BE3" s="12">
+        <f t="shared" ref="BE3:BE36" si="33">AF3-AO3</f>
         <v>1.2550000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3846</v>
       </c>
@@ -1245,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="I4" s="27">
@@ -1271,116 +1448,164 @@
         <f t="shared" si="1"/>
         <v>-2.7556999999999998E-2</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="14">
+        <f t="shared" si="13"/>
+        <v>-8.9199000000000001E-2</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="14"/>
+        <v>-0.1692205</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" si="15"/>
+        <v>-8.0021499999999995E-2</v>
+      </c>
+      <c r="S4" s="12">
         <v>-6.8329000000000001E-2</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="T4" s="12">
         <v>5.9101000000000001E-2</v>
       </c>
-      <c r="R4" s="13">
+      <c r="U4" s="13">
         <f t="shared" si="2"/>
         <v>0.12742999999999999</v>
       </c>
-      <c r="S4" s="12">
+      <c r="V4" s="12">
         <v>-0.181476</v>
       </c>
-      <c r="T4" s="12">
+      <c r="W4" s="12">
         <v>0.207646</v>
       </c>
-      <c r="U4" s="14">
+      <c r="X4" s="14">
         <f t="shared" si="3"/>
         <v>0.38912199999999997</v>
       </c>
-      <c r="V4" s="11">
+      <c r="Y4" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.1249025</v>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" si="17"/>
+        <v>0.13337350000000001</v>
+      </c>
+      <c r="AA4" s="14">
+        <f t="shared" si="18"/>
+        <v>0.25827599999999995</v>
+      </c>
+      <c r="AB4" s="11">
         <v>-0.12708</v>
       </c>
-      <c r="W4" s="12">
+      <c r="AC4" s="12">
         <v>0.10972</v>
       </c>
-      <c r="X4" s="13">
+      <c r="AD4" s="13">
         <f t="shared" si="4"/>
         <v>0.23680000000000001</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="AE4" s="11">
         <v>-6.7714999999999997E-2</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="AF4" s="12">
         <v>0.148752</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AG4" s="13">
         <f t="shared" si="5"/>
         <v>0.21646699999999999</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AH4" s="14">
+        <f t="shared" si="19"/>
+        <v>-9.7397499999999998E-2</v>
+      </c>
+      <c r="AI4" s="14">
+        <f t="shared" si="20"/>
+        <v>0.12923599999999999</v>
+      </c>
+      <c r="AJ4" s="14">
+        <f t="shared" si="21"/>
+        <v>0.22663349999999999</v>
+      </c>
+      <c r="AK4" s="12">
         <v>5.9560000000000004E-3</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AL4" s="12">
         <v>-1.9528E-2</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AM4" s="13">
         <f t="shared" si="6"/>
         <v>-2.5484E-2</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AN4" s="12">
         <v>-3.6502E-2</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AO4" s="12">
         <v>-6.4127000000000003E-2</v>
       </c>
-      <c r="AG4" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP4" s="13">
+        <f t="shared" si="22"/>
         <v>-2.7625000000000004E-2</v>
       </c>
-      <c r="AH4" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ4" s="14">
+        <f t="shared" si="23"/>
+        <v>-1.5273E-2</v>
+      </c>
+      <c r="AR4" s="14">
+        <f t="shared" si="24"/>
+        <v>-4.1827500000000004E-2</v>
+      </c>
+      <c r="AS4" s="14">
+        <f t="shared" si="25"/>
+        <v>-2.6554500000000002E-2</v>
+      </c>
+      <c r="AT4" s="11">
+        <f t="shared" si="8"/>
         <v>-6.6209599999999993E-2</v>
       </c>
-      <c r="AI4" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU4" s="14">
+        <f t="shared" si="9"/>
         <v>-4.2212250000000007E-2</v>
       </c>
-      <c r="AJ4" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV4" s="14">
+        <f t="shared" si="10"/>
         <v>-7.7330000000000003E-3</v>
       </c>
-      <c r="AK4" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW4" s="13">
+        <f t="shared" si="11"/>
         <v>-4.8980000000000013E-3</v>
       </c>
-      <c r="AL4" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX4" s="12">
+        <f t="shared" si="26"/>
         <v>2.6338E-2</v>
       </c>
-      <c r="AM4" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY4" s="12">
+        <f t="shared" si="27"/>
         <v>0.28625400000000001</v>
       </c>
-      <c r="AN4" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ4" s="12">
+        <f t="shared" si="28"/>
         <v>-9.7744999999999999E-2</v>
       </c>
-      <c r="AO4" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA4" s="12">
+        <f t="shared" si="29"/>
         <v>0.318934</v>
       </c>
-      <c r="AP4" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB4" s="12">
+        <f t="shared" si="30"/>
         <v>-0.13303599999999999</v>
       </c>
-      <c r="AQ4" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC4" s="12">
+        <f t="shared" si="31"/>
         <v>0.129248</v>
       </c>
-      <c r="AR4" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD4" s="12">
+        <f t="shared" si="32"/>
         <v>-3.1212999999999998E-2</v>
       </c>
-      <c r="AS4" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE4" s="12">
+        <f t="shared" si="33"/>
         <v>0.21287899999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3847</v>
       </c>
@@ -1403,7 +1628,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="I5" s="27">
@@ -1429,116 +1654,164 @@
         <f t="shared" si="1"/>
         <v>0.20227600000000001</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="14">
+        <f t="shared" si="13"/>
+        <v>-2.5585499999999997E-2</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" si="14"/>
+        <v>0.2122675</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="15"/>
+        <v>0.23785300000000001</v>
+      </c>
+      <c r="S5" s="12">
         <v>-9.4317999999999999E-2</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="T5" s="12">
         <v>0.12393700000000001</v>
       </c>
-      <c r="R5" s="13">
+      <c r="U5" s="13">
         <f t="shared" si="2"/>
         <v>0.218255</v>
       </c>
-      <c r="S5" s="12">
+      <c r="V5" s="12">
         <v>-7.2405999999999998E-2</v>
       </c>
-      <c r="T5" s="12">
+      <c r="W5" s="12">
         <v>0.23905000000000001</v>
       </c>
-      <c r="U5" s="14">
+      <c r="X5" s="14">
         <f t="shared" si="3"/>
         <v>0.31145600000000001</v>
       </c>
-      <c r="V5" s="11">
+      <c r="Y5" s="14">
+        <f t="shared" si="16"/>
+        <v>-8.3361999999999992E-2</v>
+      </c>
+      <c r="Z5" s="14">
+        <f t="shared" si="17"/>
+        <v>0.1814935</v>
+      </c>
+      <c r="AA5" s="14">
+        <f t="shared" si="18"/>
+        <v>0.26485550000000002</v>
+      </c>
+      <c r="AB5" s="11">
         <v>-5.7637000000000001E-2</v>
       </c>
-      <c r="W5" s="12">
+      <c r="AC5" s="12">
         <v>9.7147999999999998E-2</v>
       </c>
-      <c r="X5" s="13">
+      <c r="AD5" s="13">
         <f t="shared" si="4"/>
         <v>0.15478500000000001</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="AE5" s="11">
         <v>8.6390000000000008E-3</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="AF5" s="12">
         <v>7.0703000000000002E-2</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AG5" s="13">
         <f t="shared" si="5"/>
         <v>6.2064000000000001E-2</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AH5" s="14">
+        <f t="shared" si="19"/>
+        <v>-2.4499E-2</v>
+      </c>
+      <c r="AI5" s="14">
+        <f t="shared" si="20"/>
+        <v>8.39255E-2</v>
+      </c>
+      <c r="AJ5" s="14">
+        <f t="shared" si="21"/>
+        <v>0.10842450000000001</v>
+      </c>
+      <c r="AK5" s="12">
         <v>5.5053999999999999E-2</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AL5" s="12">
         <v>7.7166999999999999E-2</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AM5" s="13">
         <f t="shared" si="6"/>
         <v>2.2113000000000001E-2</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AN5" s="12">
         <v>0.10002</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AO5" s="12">
         <v>9.3731999999999996E-2</v>
       </c>
-      <c r="AG5" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP5" s="13">
+        <f t="shared" si="22"/>
         <v>-6.2880000000000019E-3</v>
       </c>
-      <c r="AH5" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ5" s="14">
+        <f t="shared" si="23"/>
+        <v>7.7536999999999995E-2</v>
+      </c>
+      <c r="AR5" s="14">
+        <f t="shared" si="24"/>
+        <v>8.5449499999999998E-2</v>
+      </c>
+      <c r="AS5" s="14">
+        <f t="shared" si="25"/>
+        <v>7.9124999999999994E-3</v>
+      </c>
+      <c r="AT5" s="11">
+        <f t="shared" si="8"/>
         <v>2.9134199999999999E-2</v>
       </c>
-      <c r="AI5" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU5" s="14">
+        <f t="shared" si="9"/>
         <v>0.105989</v>
       </c>
-      <c r="AJ5" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV5" s="14">
+        <f t="shared" si="10"/>
         <v>4.2932999999999999E-2</v>
       </c>
-      <c r="AK5" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW5" s="13">
+        <f t="shared" si="11"/>
         <v>6.8273500000000001E-2</v>
       </c>
-      <c r="AL5" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX5" s="12">
+        <f t="shared" si="26"/>
         <v>-1.5629000000000004E-2</v>
       </c>
-      <c r="AM5" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY5" s="12">
+        <f t="shared" si="27"/>
         <v>-7.0803999999999992E-2</v>
       </c>
-      <c r="AN5" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ5" s="12">
+        <f t="shared" si="28"/>
         <v>-9.9923999999999999E-2</v>
       </c>
-      <c r="AO5" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA5" s="12">
+        <f t="shared" si="29"/>
         <v>9.2560000000000142E-3</v>
       </c>
-      <c r="AP5" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB5" s="12">
+        <f t="shared" si="30"/>
         <v>-0.112691</v>
       </c>
-      <c r="AQ5" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC5" s="12">
+        <f t="shared" si="31"/>
         <v>1.9980999999999999E-2</v>
       </c>
-      <c r="AR5" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD5" s="12">
+        <f t="shared" si="32"/>
         <v>-9.138099999999999E-2</v>
       </c>
-      <c r="AS5" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE5" s="12">
+        <f t="shared" si="33"/>
         <v>-2.3028999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3848</v>
       </c>
@@ -1561,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="I6" s="27">
@@ -1587,116 +1860,164 @@
         <f t="shared" si="1"/>
         <v>0.12597800000000001</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.30197600000000002</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="14"/>
+        <v>-0.14957500000000001</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="15"/>
+        <v>0.15240100000000001</v>
+      </c>
+      <c r="S6" s="12">
         <v>9.1269000000000003E-2</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="T6" s="12">
         <v>0.12825500000000001</v>
       </c>
-      <c r="R6" s="13">
+      <c r="U6" s="13">
         <f t="shared" si="2"/>
         <v>3.6986000000000005E-2</v>
       </c>
-      <c r="S6" s="12">
+      <c r="V6" s="12">
         <v>0.118052</v>
       </c>
-      <c r="T6" s="12">
+      <c r="W6" s="12">
         <v>0.17574200000000001</v>
       </c>
-      <c r="U6" s="14">
+      <c r="X6" s="14">
         <f t="shared" si="3"/>
         <v>5.7690000000000005E-2</v>
       </c>
-      <c r="V6" s="11">
+      <c r="Y6" s="14">
+        <f t="shared" si="16"/>
+        <v>0.1046605</v>
+      </c>
+      <c r="Z6" s="14">
+        <f t="shared" si="17"/>
+        <v>0.15199850000000001</v>
+      </c>
+      <c r="AA6" s="14">
+        <f t="shared" si="18"/>
+        <v>4.7338000000000005E-2</v>
+      </c>
+      <c r="AB6" s="11">
         <v>0.194524</v>
       </c>
-      <c r="W6" s="12">
+      <c r="AC6" s="12">
         <v>0.210281</v>
       </c>
-      <c r="X6" s="13">
+      <c r="AD6" s="13">
         <f t="shared" si="4"/>
         <v>1.5756999999999993E-2</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="AE6" s="11">
         <v>0.154333</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="AF6" s="12">
         <v>0.17183999999999999</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AG6" s="13">
         <f t="shared" si="5"/>
         <v>1.7506999999999995E-2</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AH6" s="14">
+        <f t="shared" si="19"/>
+        <v>0.17442849999999999</v>
+      </c>
+      <c r="AI6" s="14">
+        <f t="shared" si="20"/>
+        <v>0.19106049999999999</v>
+      </c>
+      <c r="AJ6" s="14">
+        <f t="shared" si="21"/>
+        <v>1.6631999999999994E-2</v>
+      </c>
+      <c r="AK6" s="12">
         <v>8.7134000000000003E-2</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AL6" s="12">
         <v>6.0614000000000001E-2</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AM6" s="13">
         <f t="shared" si="6"/>
         <v>-2.6520000000000002E-2</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AN6" s="12">
         <v>3.9179999999999996E-3</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AO6" s="12">
         <v>-1.4874999999999999E-2</v>
       </c>
-      <c r="AG6" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP6" s="13">
+        <f t="shared" si="22"/>
         <v>-1.8792999999999997E-2</v>
       </c>
-      <c r="AH6" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ6" s="14">
+        <f t="shared" si="23"/>
+        <v>4.5526000000000004E-2</v>
+      </c>
+      <c r="AR6" s="14">
+        <f t="shared" si="24"/>
+        <v>2.2869500000000001E-2</v>
+      </c>
+      <c r="AS6" s="14">
+        <f t="shared" si="25"/>
+        <v>-2.26565E-2</v>
+      </c>
+      <c r="AT6" s="11">
+        <f t="shared" si="8"/>
         <v>-2.3648800000000005E-2</v>
       </c>
-      <c r="AI6" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU6" s="14">
+        <f t="shared" si="9"/>
         <v>-6.7885000000000001E-2</v>
       </c>
-      <c r="AJ6" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV6" s="14">
+        <f t="shared" si="10"/>
         <v>0.13813824999999999</v>
       </c>
-      <c r="AK6" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW6" s="13">
+        <f t="shared" si="11"/>
         <v>7.8803999999999985E-2</v>
       </c>
-      <c r="AL6" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX6" s="12">
+        <f t="shared" si="26"/>
         <v>0.34956500000000001</v>
       </c>
-      <c r="AM6" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY6" s="12">
+        <f t="shared" si="27"/>
         <v>0.20772699999999999</v>
       </c>
-      <c r="AN6" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ6" s="12">
+        <f t="shared" si="28"/>
         <v>0.46370800000000001</v>
       </c>
-      <c r="AO6" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA6" s="12">
+        <f t="shared" si="29"/>
         <v>0.39541999999999999</v>
       </c>
-      <c r="AP6" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB6" s="12">
+        <f t="shared" si="30"/>
         <v>0.10739</v>
       </c>
-      <c r="AQ6" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC6" s="12">
+        <f t="shared" si="31"/>
         <v>0.14966699999999999</v>
       </c>
-      <c r="AR6" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD6" s="12">
+        <f t="shared" si="32"/>
         <v>0.15041499999999999</v>
       </c>
-      <c r="AS6" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE6" s="12">
+        <f t="shared" si="33"/>
         <v>0.18671499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3849</v>
       </c>
@@ -1719,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I7" s="27">
@@ -1745,116 +2066,164 @@
         <f t="shared" si="1"/>
         <v>0.17597400000000002</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.17773949999999999</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="14"/>
+        <v>2.5348500000000003E-2</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="15"/>
+        <v>0.20308800000000002</v>
+      </c>
+      <c r="S7" s="12">
         <v>-0.10992200000000001</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="T7" s="12">
         <v>-7.4576000000000003E-2</v>
       </c>
-      <c r="R7" s="13">
+      <c r="U7" s="13">
         <f t="shared" si="2"/>
         <v>3.5346000000000002E-2</v>
       </c>
-      <c r="S7" s="12">
+      <c r="V7" s="12">
         <v>1.2394000000000001E-2</v>
       </c>
-      <c r="T7" s="12">
+      <c r="W7" s="12">
         <v>-1.1429E-2</v>
       </c>
-      <c r="U7" s="14">
+      <c r="X7" s="14">
         <f t="shared" si="3"/>
         <v>-2.3823E-2</v>
       </c>
-      <c r="V7" s="11">
+      <c r="Y7" s="14">
+        <f t="shared" si="16"/>
+        <v>-4.8764000000000002E-2</v>
+      </c>
+      <c r="Z7" s="14">
+        <f t="shared" si="17"/>
+        <v>-4.3002499999999999E-2</v>
+      </c>
+      <c r="AA7" s="14">
+        <f t="shared" si="18"/>
+        <v>5.761500000000001E-3</v>
+      </c>
+      <c r="AB7" s="11">
         <v>-7.0095000000000005E-2</v>
       </c>
-      <c r="W7" s="12">
+      <c r="AC7" s="12">
         <v>-1.325E-2</v>
       </c>
-      <c r="X7" s="13">
+      <c r="AD7" s="13">
         <f t="shared" si="4"/>
         <v>5.6845000000000007E-2</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="AE7" s="11">
         <v>-6.8348000000000006E-2</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AF7" s="12">
         <v>-2.4538000000000001E-2</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AG7" s="13">
         <f t="shared" si="5"/>
         <v>4.3810000000000002E-2</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AH7" s="14">
+        <f t="shared" si="19"/>
+        <v>-6.9221500000000005E-2</v>
+      </c>
+      <c r="AI7" s="14">
+        <f t="shared" si="20"/>
+        <v>-1.8894000000000001E-2</v>
+      </c>
+      <c r="AJ7" s="14">
+        <f t="shared" si="21"/>
+        <v>5.0327500000000004E-2</v>
+      </c>
+      <c r="AK7" s="12">
         <v>-0.102829</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AL7" s="12">
         <v>-5.705E-3</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AM7" s="13">
         <f t="shared" si="6"/>
         <v>9.7124000000000002E-2</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AN7" s="12">
         <v>-9.2687000000000005E-2</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AO7" s="12">
         <v>7.8172000000000005E-2</v>
       </c>
-      <c r="AG7" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP7" s="13">
+        <f t="shared" si="22"/>
         <v>0.17085900000000001</v>
       </c>
-      <c r="AH7" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ7" s="14">
+        <f t="shared" si="23"/>
+        <v>-9.7758000000000012E-2</v>
+      </c>
+      <c r="AR7" s="14">
+        <f t="shared" si="24"/>
+        <v>3.6233500000000002E-2</v>
+      </c>
+      <c r="AS7" s="14">
+        <f t="shared" si="25"/>
+        <v>0.13399150000000001</v>
+      </c>
+      <c r="AT7" s="11">
+        <f t="shared" si="8"/>
         <v>-5.6217200000000009E-2</v>
       </c>
-      <c r="AI7" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU7" s="14">
+        <f t="shared" si="9"/>
         <v>-5.1807249999999999E-2</v>
       </c>
-      <c r="AJ7" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV7" s="14">
+        <f t="shared" si="10"/>
         <v>-4.7969749999999999E-2</v>
       </c>
-      <c r="AK7" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW7" s="13">
+        <f t="shared" si="11"/>
         <v>-2.6850250000000003E-2</v>
       </c>
-      <c r="AL7" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX7" s="12">
+        <f t="shared" si="26"/>
         <v>5.3473000000000007E-2</v>
       </c>
-      <c r="AM7" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY7" s="12">
+        <f t="shared" si="27"/>
         <v>-0.14138300000000001</v>
       </c>
-      <c r="AN7" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ7" s="12">
+        <f t="shared" si="28"/>
         <v>0.20447799999999999</v>
       </c>
-      <c r="AO7" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA7" s="12">
+        <f t="shared" si="29"/>
         <v>4.6809999999999994E-3</v>
       </c>
-      <c r="AP7" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB7" s="12">
+        <f t="shared" si="30"/>
         <v>3.2733999999999999E-2</v>
       </c>
-      <c r="AQ7" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC7" s="12">
+        <f t="shared" si="31"/>
         <v>-7.5449999999999996E-3</v>
       </c>
-      <c r="AR7" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD7" s="12">
+        <f t="shared" si="32"/>
         <v>2.4339E-2</v>
       </c>
-      <c r="AS7" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE7" s="12">
+        <f t="shared" si="33"/>
         <v>-0.10271000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>3851</v>
       </c>
@@ -1877,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I8" s="27">
@@ -1903,116 +2272,164 @@
         <f t="shared" si="1"/>
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="14">
+        <f t="shared" si="13"/>
+        <v>-4.2699500000000001E-2</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="14"/>
+        <v>2.6543500000000001E-2</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="15"/>
+        <v>6.9242999999999999E-2</v>
+      </c>
+      <c r="S8" s="12">
         <v>-5.646E-3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="T8" s="12">
         <v>7.2881000000000001E-2</v>
       </c>
-      <c r="R8" s="13">
+      <c r="U8" s="13">
         <f t="shared" si="2"/>
         <v>7.8527E-2</v>
       </c>
-      <c r="S8" s="12">
+      <c r="V8" s="12">
         <v>3.0953000000000001E-2</v>
       </c>
-      <c r="T8" s="12">
+      <c r="W8" s="12">
         <v>0.19786000000000001</v>
       </c>
-      <c r="U8" s="14">
+      <c r="X8" s="14">
         <f t="shared" si="3"/>
         <v>0.166907</v>
       </c>
-      <c r="V8" s="11">
+      <c r="Y8" s="14">
+        <f t="shared" si="16"/>
+        <v>1.2653500000000002E-2</v>
+      </c>
+      <c r="Z8" s="14">
+        <f t="shared" si="17"/>
+        <v>0.1353705</v>
+      </c>
+      <c r="AA8" s="14">
+        <f t="shared" si="18"/>
+        <v>0.12271699999999999</v>
+      </c>
+      <c r="AB8" s="11">
         <v>-9.2638999999999999E-2</v>
       </c>
-      <c r="W8" s="12">
+      <c r="AC8" s="12">
         <v>8.1949999999999995E-2</v>
       </c>
-      <c r="X8" s="13">
+      <c r="AD8" s="13">
         <f t="shared" si="4"/>
         <v>0.17458899999999999</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="AE8" s="11">
         <v>-7.9360000000000003E-3</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="AF8" s="12">
         <v>0.132909</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AG8" s="13">
         <f t="shared" si="5"/>
         <v>0.140845</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AH8" s="14">
+        <f t="shared" si="19"/>
+        <v>-5.0287499999999999E-2</v>
+      </c>
+      <c r="AI8" s="14">
+        <f t="shared" si="20"/>
+        <v>0.1074295</v>
+      </c>
+      <c r="AJ8" s="14">
+        <f t="shared" si="21"/>
+        <v>0.157717</v>
+      </c>
+      <c r="AK8" s="12">
         <v>-2.4506E-2</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AL8" s="12">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AM8" s="13">
         <f t="shared" si="6"/>
         <v>2.7945999999999999E-2</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AN8" s="12">
         <v>3.5227000000000001E-2</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AO8" s="12">
         <v>0.10079100000000001</v>
       </c>
-      <c r="AG8" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP8" s="13">
+        <f t="shared" si="22"/>
         <v>6.5564000000000011E-2</v>
       </c>
-      <c r="AH8" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ8" s="14">
+        <f t="shared" si="23"/>
+        <v>5.3605000000000007E-3</v>
+      </c>
+      <c r="AR8" s="14">
+        <f t="shared" si="24"/>
+        <v>5.2115500000000002E-2</v>
+      </c>
+      <c r="AS8" s="14">
+        <f t="shared" si="25"/>
+        <v>4.6755000000000005E-2</v>
+      </c>
+      <c r="AT8" s="11">
+        <f t="shared" si="8"/>
         <v>-2.2724200000000007E-2</v>
       </c>
-      <c r="AI8" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU8" s="14">
+        <f t="shared" si="9"/>
         <v>9.4339250000000013E-2</v>
       </c>
-      <c r="AJ8" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV8" s="14">
+        <f t="shared" si="10"/>
         <v>-7.9387500000000014E-3</v>
       </c>
-      <c r="AK8" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW8" s="13">
+        <f t="shared" si="11"/>
         <v>6.5247750000000007E-2</v>
       </c>
-      <c r="AL8" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX8" s="12">
+        <f t="shared" si="26"/>
         <v>0.125775</v>
       </c>
-      <c r="AM8" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY8" s="12">
+        <f t="shared" si="27"/>
         <v>0.12231600000000001</v>
       </c>
-      <c r="AN8" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ8" s="12">
+        <f t="shared" si="28"/>
         <v>-1.5068999999999999E-2</v>
       </c>
-      <c r="AO8" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA8" s="12">
+        <f t="shared" si="29"/>
         <v>9.5338000000000006E-2</v>
       </c>
-      <c r="AP8" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB8" s="12">
+        <f t="shared" si="30"/>
         <v>-6.8132999999999999E-2</v>
       </c>
-      <c r="AQ8" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC8" s="12">
+        <f t="shared" si="31"/>
         <v>7.8509999999999996E-2</v>
       </c>
-      <c r="AR8" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD8" s="12">
+        <f t="shared" si="32"/>
         <v>-4.3163E-2</v>
       </c>
-      <c r="AS8" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE8" s="12">
+        <f t="shared" si="33"/>
         <v>3.2117999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>3852</v>
       </c>
@@ -2035,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="I9" s="27">
@@ -2061,116 +2478,164 @@
         <f t="shared" si="1"/>
         <v>6.3671000000000005E-2</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="14">
+        <f t="shared" si="13"/>
+        <v>1.8943499999999999E-2</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="14"/>
+        <v>3.6229499999999998E-2</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="15"/>
+        <v>1.7286000000000003E-2</v>
+      </c>
+      <c r="S9" s="12">
         <v>-0.117303</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="T9" s="12">
         <v>6.9787000000000002E-2</v>
       </c>
-      <c r="R9" s="13">
+      <c r="U9" s="13">
         <f t="shared" si="2"/>
         <v>0.18709000000000001</v>
       </c>
-      <c r="S9" s="12">
+      <c r="V9" s="12">
         <v>-3.5751999999999999E-2</v>
       </c>
-      <c r="T9" s="12">
+      <c r="W9" s="12">
         <v>3.9681000000000001E-2</v>
       </c>
-      <c r="U9" s="14">
+      <c r="X9" s="14">
         <f t="shared" si="3"/>
         <v>7.5433E-2</v>
       </c>
-      <c r="V9" s="11">
+      <c r="Y9" s="14">
+        <f t="shared" si="16"/>
+        <v>-7.6527499999999998E-2</v>
+      </c>
+      <c r="Z9" s="14">
+        <f t="shared" si="17"/>
+        <v>5.4734000000000005E-2</v>
+      </c>
+      <c r="AA9" s="14">
+        <f t="shared" si="18"/>
+        <v>0.1312615</v>
+      </c>
+      <c r="AB9" s="11">
         <v>-3.4381000000000002E-2</v>
       </c>
-      <c r="W9" s="12">
+      <c r="AC9" s="12">
         <v>4.0021000000000001E-2</v>
       </c>
-      <c r="X9" s="13">
+      <c r="AD9" s="13">
         <f t="shared" si="4"/>
         <v>7.4401999999999996E-2</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="AE9" s="11">
         <v>-4.823E-3</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="AF9" s="12">
         <v>5.2283999999999997E-2</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AG9" s="13">
         <f t="shared" si="5"/>
         <v>5.7106999999999998E-2</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AH9" s="14">
+        <f t="shared" si="19"/>
+        <v>-1.9602000000000001E-2</v>
+      </c>
+      <c r="AI9" s="14">
+        <f t="shared" si="20"/>
+        <v>4.6152499999999999E-2</v>
+      </c>
+      <c r="AJ9" s="14">
+        <f t="shared" si="21"/>
+        <v>6.5754499999999994E-2</v>
+      </c>
+      <c r="AK9" s="12">
         <v>8.7328000000000003E-2</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AL9" s="12">
         <v>3.0273999999999999E-2</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AM9" s="13">
         <f t="shared" si="6"/>
         <v>-5.7054000000000007E-2</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AN9" s="12">
         <v>4.4574000000000003E-2</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AO9" s="12">
         <v>7.3447999999999999E-2</v>
       </c>
-      <c r="AG9" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP9" s="13">
+        <f t="shared" si="22"/>
         <v>2.8873999999999997E-2</v>
       </c>
-      <c r="AH9" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ9" s="14">
+        <f t="shared" si="23"/>
+        <v>6.595100000000001E-2</v>
+      </c>
+      <c r="AR9" s="14">
+        <f t="shared" si="24"/>
+        <v>5.1860999999999997E-2</v>
+      </c>
+      <c r="AS9" s="14">
+        <f t="shared" si="25"/>
+        <v>-1.4090000000000005E-2</v>
+      </c>
+      <c r="AT9" s="11">
+        <f t="shared" si="8"/>
         <v>1.7913400000000003E-2</v>
       </c>
-      <c r="AI9" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU9" s="14">
+        <f t="shared" si="9"/>
         <v>-5.7020000000000005E-3</v>
       </c>
-      <c r="AJ9" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV9" s="14">
+        <f t="shared" si="10"/>
         <v>3.0810499999999998E-2</v>
       </c>
-      <c r="AK9" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW9" s="13">
+        <f t="shared" si="11"/>
         <v>4.1370749999999998E-2</v>
       </c>
-      <c r="AL9" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX9" s="12">
+        <f t="shared" si="26"/>
         <v>-0.20039400000000002</v>
       </c>
-      <c r="AM9" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY9" s="12">
+        <f t="shared" si="27"/>
         <v>1.5795000000000003E-2</v>
       </c>
-      <c r="AN9" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ9" s="12">
+        <f t="shared" si="28"/>
         <v>9.4520000000000021E-3</v>
       </c>
-      <c r="AO9" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA9" s="12">
+        <f t="shared" si="29"/>
         <v>2.1214E-2</v>
       </c>
-      <c r="AP9" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB9" s="12">
+        <f t="shared" si="30"/>
         <v>-0.12170900000000001</v>
       </c>
-      <c r="AQ9" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC9" s="12">
+        <f t="shared" si="31"/>
         <v>9.7470000000000022E-3</v>
       </c>
-      <c r="AR9" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD9" s="12">
+        <f t="shared" si="32"/>
         <v>-4.9397000000000003E-2</v>
       </c>
-      <c r="AS9" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE9" s="12">
+        <f t="shared" si="33"/>
         <v>-2.1164000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3855</v>
       </c>
@@ -2193,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I10" s="27">
@@ -2219,116 +2684,164 @@
         <f t="shared" si="1"/>
         <v>-9.644599999999999E-2</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="14">
+        <f t="shared" si="13"/>
+        <v>-1.8413499999999999E-2</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="14"/>
+        <v>-7.6849499999999987E-2</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="15"/>
+        <v>-5.8435999999999995E-2</v>
+      </c>
+      <c r="S10" s="12">
         <v>-0.20017199999999999</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="T10" s="12">
         <v>-0.18756100000000001</v>
       </c>
-      <c r="R10" s="13">
+      <c r="U10" s="13">
         <f t="shared" si="2"/>
         <v>1.2610999999999983E-2</v>
       </c>
-      <c r="S10" s="12">
+      <c r="V10" s="12">
         <v>-9.4769000000000006E-2</v>
       </c>
-      <c r="T10" s="12">
+      <c r="W10" s="12">
         <v>3.3930000000000002E-2</v>
       </c>
-      <c r="U10" s="14">
+      <c r="X10" s="14">
         <f t="shared" si="3"/>
         <v>0.12869900000000001</v>
       </c>
-      <c r="V10" s="11">
+      <c r="Y10" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.1474705</v>
+      </c>
+      <c r="Z10" s="14">
+        <f t="shared" si="17"/>
+        <v>-7.6815500000000009E-2</v>
+      </c>
+      <c r="AA10" s="14">
+        <f t="shared" si="18"/>
+        <v>7.0654999999999996E-2</v>
+      </c>
+      <c r="AB10" s="11">
         <v>-3.4209999999999997E-2</v>
       </c>
-      <c r="W10" s="12">
+      <c r="AC10" s="12">
         <v>-8.2423999999999997E-2</v>
       </c>
-      <c r="X10" s="13">
+      <c r="AD10" s="13">
         <f t="shared" si="4"/>
         <v>-4.8214E-2</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="AE10" s="11">
         <v>-7.5482999999999995E-2</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="AF10" s="12">
         <v>-5.8012000000000001E-2</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AG10" s="13">
         <f t="shared" si="5"/>
         <v>1.7470999999999993E-2</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AH10" s="14">
+        <f t="shared" si="19"/>
+        <v>-5.4846499999999992E-2</v>
+      </c>
+      <c r="AI10" s="14">
+        <f t="shared" si="20"/>
+        <v>-7.0218000000000003E-2</v>
+      </c>
+      <c r="AJ10" s="14">
+        <f t="shared" si="21"/>
+        <v>-1.5371500000000003E-2</v>
+      </c>
+      <c r="AK10" s="12">
         <v>8.7159999999999998E-3</v>
       </c>
-      <c r="AC10" s="12">
+      <c r="AL10" s="12">
         <v>1.0061E-2</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AM10" s="13">
         <f t="shared" si="6"/>
         <v>1.3450000000000007E-3</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AN10" s="12">
         <v>6.5639000000000003E-2</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AO10" s="12">
         <v>3.0689999999999999E-2</v>
       </c>
-      <c r="AG10" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP10" s="13">
+        <f t="shared" si="22"/>
         <v>-3.4949000000000008E-2</v>
       </c>
-      <c r="AH10" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ10" s="14">
+        <f t="shared" si="23"/>
+        <v>3.7177500000000002E-2</v>
+      </c>
+      <c r="AR10" s="14">
+        <f t="shared" si="24"/>
+        <v>2.0375499999999998E-2</v>
+      </c>
+      <c r="AS10" s="14">
+        <f t="shared" si="25"/>
+        <v>-1.6802000000000004E-2</v>
+      </c>
+      <c r="AT10" s="11">
+        <f t="shared" si="8"/>
         <v>-6.1989000000000002E-2</v>
       </c>
-      <c r="AI10" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU10" s="14">
+        <f t="shared" si="9"/>
         <v>-8.2288249999999993E-2</v>
       </c>
-      <c r="AJ10" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV10" s="14">
+        <f t="shared" si="10"/>
         <v>-2.4464249999999996E-2</v>
       </c>
-      <c r="AK10" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW10" s="13">
+        <f t="shared" si="11"/>
         <v>-9.2915000000000011E-3</v>
       </c>
-      <c r="AL10" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX10" s="12">
+        <f t="shared" si="26"/>
         <v>-0.24927899999999997</v>
       </c>
-      <c r="AM10" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY10" s="12">
+        <f t="shared" si="27"/>
         <v>-0.21624200000000002</v>
       </c>
-      <c r="AN10" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ10" s="12">
+        <f t="shared" si="28"/>
         <v>-8.8350000000000095E-3</v>
       </c>
-      <c r="AO10" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA10" s="12">
+        <f t="shared" si="29"/>
         <v>0.21631</v>
       </c>
-      <c r="AP10" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB10" s="12">
+        <f t="shared" si="30"/>
         <v>-4.2925999999999999E-2</v>
       </c>
-      <c r="AQ10" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC10" s="12">
+        <f t="shared" si="31"/>
         <v>-9.2484999999999998E-2</v>
       </c>
-      <c r="AR10" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD10" s="12">
+        <f t="shared" si="32"/>
         <v>-0.141122</v>
       </c>
-      <c r="AS10" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE10" s="12">
+        <f t="shared" si="33"/>
         <v>-8.8702000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3864</v>
       </c>
@@ -2351,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I11" s="27">
@@ -2377,116 +2890,164 @@
         <f t="shared" si="1"/>
         <v>0.12973999999999999</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="14">
+        <f t="shared" si="13"/>
+        <v>-3.0740999999999997E-2</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="14"/>
+        <v>0.13872950000000001</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="15"/>
+        <v>0.16947050000000002</v>
+      </c>
+      <c r="S11" s="12">
         <v>-9.8692000000000002E-2</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="T11" s="12">
         <v>-5.2871000000000001E-2</v>
       </c>
-      <c r="R11" s="13">
+      <c r="U11" s="13">
         <f t="shared" si="2"/>
         <v>4.5821000000000001E-2</v>
       </c>
-      <c r="S11" s="12">
+      <c r="V11" s="12">
         <v>6.7863000000000007E-2</v>
       </c>
-      <c r="T11" s="12">
+      <c r="W11" s="12">
         <v>0.12706000000000001</v>
       </c>
-      <c r="U11" s="14">
+      <c r="X11" s="14">
         <f t="shared" si="3"/>
         <v>5.9197E-2</v>
       </c>
-      <c r="V11" s="11">
+      <c r="Y11" s="14">
+        <f t="shared" si="16"/>
+        <v>-1.5414499999999998E-2</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="17"/>
+        <v>3.7094500000000002E-2</v>
+      </c>
+      <c r="AA11" s="14">
+        <f t="shared" si="18"/>
+        <v>5.2509E-2</v>
+      </c>
+      <c r="AB11" s="11">
         <v>-1.6175999999999999E-2</v>
       </c>
-      <c r="W11" s="12">
+      <c r="AC11" s="12">
         <v>0.117577</v>
       </c>
-      <c r="X11" s="13">
+      <c r="AD11" s="13">
         <f t="shared" si="4"/>
         <v>0.13375300000000001</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="AE11" s="11">
         <v>-4.3059E-2</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="AF11" s="12">
         <v>9.4061000000000006E-2</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AG11" s="13">
         <f t="shared" si="5"/>
         <v>0.13712000000000002</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AH11" s="14">
+        <f t="shared" si="19"/>
+        <v>-2.9617499999999998E-2</v>
+      </c>
+      <c r="AI11" s="14">
+        <f t="shared" si="20"/>
+        <v>0.105819</v>
+      </c>
+      <c r="AJ11" s="14">
+        <f t="shared" si="21"/>
+        <v>0.13543650000000002</v>
+      </c>
+      <c r="AK11" s="12">
         <v>-0.31575900000000001</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AL11" s="12">
         <v>-5.3365000000000003E-2</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AM11" s="13">
         <f t="shared" si="6"/>
         <v>0.26239400000000002</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AN11" s="12">
         <v>-0.15962899999999999</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AO11" s="12">
         <v>-2.0787E-2</v>
       </c>
-      <c r="AG11" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP11" s="13">
+        <f t="shared" si="22"/>
         <v>0.13884199999999999</v>
       </c>
-      <c r="AH11" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ11" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.23769400000000002</v>
+      </c>
+      <c r="AR11" s="14">
+        <f t="shared" si="24"/>
+        <v>-3.7075999999999998E-2</v>
+      </c>
+      <c r="AS11" s="14">
+        <f t="shared" si="25"/>
+        <v>0.20061800000000002</v>
+      </c>
+      <c r="AT11" s="11">
+        <f t="shared" si="8"/>
         <v>-1.0657599999999998E-2</v>
       </c>
-      <c r="AI11" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU11" s="14">
+        <f t="shared" si="9"/>
         <v>7.815625000000001E-2</v>
       </c>
-      <c r="AJ11" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV11" s="14">
+        <f t="shared" si="10"/>
         <v>-6.6930749999999997E-2</v>
       </c>
-      <c r="AK11" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW11" s="13">
+        <f t="shared" si="11"/>
         <v>-3.2353499999999993E-2</v>
       </c>
-      <c r="AL11" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX11" s="12">
+        <f t="shared" si="26"/>
         <v>-4.3229000000000004E-2</v>
       </c>
-      <c r="AM11" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY11" s="12">
+        <f t="shared" si="27"/>
         <v>-0.20660900000000001</v>
       </c>
-      <c r="AN11" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ11" s="12">
+        <f t="shared" si="28"/>
         <v>7.3882000000000003E-2</v>
       </c>
-      <c r="AO11" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA11" s="12">
+        <f t="shared" si="29"/>
         <v>3.3390000000000086E-3</v>
       </c>
-      <c r="AP11" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB11" s="12">
+        <f t="shared" si="30"/>
         <v>0.29958299999999999</v>
       </c>
-      <c r="AQ11" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC11" s="12">
+        <f t="shared" si="31"/>
         <v>0.17094200000000001</v>
       </c>
-      <c r="AR11" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD11" s="12">
+        <f t="shared" si="32"/>
         <v>0.11656999999999999</v>
       </c>
-      <c r="AS11" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE11" s="12">
+        <f t="shared" si="33"/>
         <v>0.11484800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3865</v>
       </c>
@@ -2509,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I12" s="27">
@@ -2535,116 +3096,164 @@
         <f t="shared" si="1"/>
         <v>0.205933</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.235064</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="14"/>
+        <v>-9.6784000000000009E-2</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="15"/>
+        <v>0.13828000000000001</v>
+      </c>
+      <c r="S12" s="12">
         <v>0.28608899999999998</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="T12" s="12">
         <v>0.128694</v>
       </c>
-      <c r="R12" s="13">
+      <c r="U12" s="13">
         <f t="shared" si="2"/>
         <v>-0.15739499999999998</v>
       </c>
-      <c r="S12" s="12">
+      <c r="V12" s="12">
         <v>6.7775000000000002E-2</v>
       </c>
-      <c r="T12" s="12">
+      <c r="W12" s="12">
         <v>3.6677000000000001E-2</v>
       </c>
-      <c r="U12" s="14">
+      <c r="X12" s="14">
         <f t="shared" si="3"/>
         <v>-3.1098000000000001E-2</v>
       </c>
-      <c r="V12" s="11">
+      <c r="Y12" s="14">
+        <f t="shared" si="16"/>
+        <v>0.17693199999999998</v>
+      </c>
+      <c r="Z12" s="14">
+        <f t="shared" si="17"/>
+        <v>8.2685499999999995E-2</v>
+      </c>
+      <c r="AA12" s="14">
+        <f t="shared" si="18"/>
+        <v>-9.4246499999999983E-2</v>
+      </c>
+      <c r="AB12" s="11">
         <v>6.3053999999999999E-2</v>
       </c>
-      <c r="W12" s="12">
+      <c r="AC12" s="12">
         <v>0.215258</v>
       </c>
-      <c r="X12" s="13">
+      <c r="AD12" s="13">
         <f t="shared" si="4"/>
         <v>0.15220400000000001</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="AE12" s="11">
         <v>4.6105E-2</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="AF12" s="12">
         <v>0.137603</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AG12" s="13">
         <f t="shared" si="5"/>
         <v>9.1497999999999996E-2</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AH12" s="14">
+        <f t="shared" si="19"/>
+        <v>5.4579500000000003E-2</v>
+      </c>
+      <c r="AI12" s="14">
+        <f t="shared" si="20"/>
+        <v>0.17643049999999999</v>
+      </c>
+      <c r="AJ12" s="14">
+        <f t="shared" si="21"/>
+        <v>0.121851</v>
+      </c>
+      <c r="AK12" s="12">
         <v>-0.13494</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AL12" s="12">
         <v>-7.7329999999999996E-2</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AM12" s="13">
         <f t="shared" si="6"/>
         <v>5.7610000000000008E-2</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AN12" s="12">
         <v>-0.138872</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AO12" s="12">
         <v>-2.4535000000000001E-2</v>
       </c>
-      <c r="AG12" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP12" s="13">
+        <f t="shared" si="22"/>
         <v>0.11433699999999999</v>
       </c>
-      <c r="AH12" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ12" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.136906</v>
+      </c>
+      <c r="AR12" s="14">
+        <f t="shared" si="24"/>
+        <v>-5.0932499999999999E-2</v>
+      </c>
+      <c r="AS12" s="14">
+        <f t="shared" si="25"/>
+        <v>8.5973500000000008E-2</v>
+      </c>
+      <c r="AT12" s="11">
+        <f t="shared" si="8"/>
         <v>4.1785999999999997E-2</v>
       </c>
-      <c r="AI12" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU12" s="14">
+        <f t="shared" si="9"/>
         <v>-8.8347749999999989E-2</v>
       </c>
-      <c r="AJ12" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV12" s="14">
+        <f t="shared" si="10"/>
         <v>1.6510500000000001E-2</v>
       </c>
-      <c r="AK12" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW12" s="13">
+        <f t="shared" si="11"/>
         <v>5.0752500000000034E-3</v>
       </c>
-      <c r="AL12" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX12" s="12">
+        <f t="shared" si="26"/>
         <v>0.42432899999999996</v>
       </c>
-      <c r="AM12" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY12" s="12">
+        <f t="shared" si="27"/>
         <v>0.19630700000000001</v>
       </c>
-      <c r="AN12" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ12" s="12">
+        <f t="shared" si="28"/>
         <v>0.39966299999999999</v>
       </c>
-      <c r="AO12" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA12" s="12">
+        <f t="shared" si="29"/>
         <v>0.162632</v>
       </c>
-      <c r="AP12" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB12" s="12">
+        <f t="shared" si="30"/>
         <v>0.197994</v>
       </c>
-      <c r="AQ12" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC12" s="12">
+        <f t="shared" si="31"/>
         <v>0.29258800000000001</v>
       </c>
-      <c r="AR12" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD12" s="12">
+        <f t="shared" si="32"/>
         <v>0.184977</v>
       </c>
-      <c r="AS12" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE12" s="12">
+        <f t="shared" si="33"/>
         <v>0.162138</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>3871</v>
       </c>
@@ -2667,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="I13" s="27">
@@ -2693,116 +3302,164 @@
         <f t="shared" si="1"/>
         <v>0.36597800000000003</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.27285700000000002</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="14"/>
+        <v>0.16839500000000002</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="15"/>
+        <v>0.44125200000000003</v>
+      </c>
+      <c r="S13" s="12">
         <v>-0.234845</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="T13" s="12">
         <v>7.8531000000000004E-2</v>
       </c>
-      <c r="R13" s="13">
+      <c r="U13" s="13">
         <f t="shared" si="2"/>
         <v>0.31337599999999999</v>
       </c>
-      <c r="S13" s="12">
+      <c r="V13" s="12">
         <v>-0.13272600000000001</v>
       </c>
-      <c r="T13" s="12">
+      <c r="W13" s="12">
         <v>0.11221399999999999</v>
       </c>
-      <c r="U13" s="14">
+      <c r="X13" s="14">
         <f t="shared" si="3"/>
         <v>0.24493999999999999</v>
       </c>
-      <c r="V13" s="11">
+      <c r="Y13" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.18378549999999999</v>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="17"/>
+        <v>9.5372499999999999E-2</v>
+      </c>
+      <c r="AA13" s="14">
+        <f t="shared" si="18"/>
+        <v>0.27915800000000002</v>
+      </c>
+      <c r="AB13" s="11">
         <v>-0.33115699999999998</v>
       </c>
-      <c r="W13" s="12">
+      <c r="AC13" s="12">
         <v>-0.11538</v>
       </c>
-      <c r="X13" s="13">
+      <c r="AD13" s="13">
         <f t="shared" si="4"/>
         <v>0.215777</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="AE13" s="11">
         <v>-0.25545400000000001</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="AF13" s="12">
         <v>8.3829999999999998E-3</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AG13" s="13">
         <f t="shared" si="5"/>
         <v>0.26383699999999999</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AH13" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.2933055</v>
+      </c>
+      <c r="AI13" s="14">
+        <f t="shared" si="20"/>
+        <v>-5.3498499999999997E-2</v>
+      </c>
+      <c r="AJ13" s="14">
+        <f t="shared" si="21"/>
+        <v>0.23980699999999999</v>
+      </c>
+      <c r="AK13" s="12">
         <v>-0.28307199999999999</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AL13" s="12">
         <v>9.3473000000000001E-2</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AM13" s="13">
         <f t="shared" si="6"/>
         <v>0.37654500000000002</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AN13" s="12">
         <v>-0.17643600000000001</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AO13" s="12">
         <v>0.11176899999999999</v>
       </c>
-      <c r="AG13" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP13" s="13">
+        <f t="shared" si="22"/>
         <v>0.28820499999999999</v>
       </c>
-      <c r="AH13" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ13" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.22975400000000001</v>
+      </c>
+      <c r="AR13" s="14">
+        <f t="shared" si="24"/>
+        <v>0.10262099999999999</v>
+      </c>
+      <c r="AS13" s="14">
+        <f t="shared" si="25"/>
+        <v>0.33237499999999998</v>
+      </c>
+      <c r="AT13" s="11">
+        <f t="shared" si="8"/>
         <v>-8.3315999999999987E-2</v>
       </c>
-      <c r="AI13" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU13" s="14">
+        <f t="shared" si="9"/>
         <v>7.7074999999999956E-3</v>
       </c>
-      <c r="AJ13" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV13" s="14">
+        <f t="shared" si="10"/>
         <v>-0.15903399999999998</v>
       </c>
-      <c r="AK13" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW13" s="13">
+        <f t="shared" si="11"/>
         <v>-7.7934500000000004E-2</v>
       </c>
-      <c r="AL13" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX13" s="12">
+        <f t="shared" si="26"/>
         <v>0.15355100000000002</v>
       </c>
-      <c r="AM13" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY13" s="12">
+        <f t="shared" si="27"/>
         <v>-4.959899999999999E-2</v>
       </c>
-      <c r="AN13" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ13" s="12">
+        <f t="shared" si="28"/>
         <v>2.4592000000000003E-2</v>
       </c>
-      <c r="AO13" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA13" s="12">
+        <f t="shared" si="29"/>
         <v>-9.6446000000000018E-2</v>
       </c>
-      <c r="AP13" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB13" s="12">
+        <f t="shared" si="30"/>
         <v>-4.8084999999999989E-2</v>
       </c>
-      <c r="AQ13" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC13" s="12">
+        <f t="shared" si="31"/>
         <v>-0.20885300000000001</v>
       </c>
-      <c r="AR13" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD13" s="12">
+        <f t="shared" si="32"/>
         <v>-7.9018000000000005E-2</v>
       </c>
-      <c r="AS13" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE13" s="12">
+        <f t="shared" si="33"/>
         <v>-0.10338599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>3877</v>
       </c>
@@ -2825,7 +3482,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I14" s="27">
@@ -2851,116 +3508,164 @@
         <f t="shared" si="1"/>
         <v>0.16405</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="14">
+        <f t="shared" si="13"/>
+        <v>-8.2378000000000007E-2</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="14"/>
+        <v>0.1037415</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="15"/>
+        <v>0.18611949999999999</v>
+      </c>
+      <c r="S14" s="12">
         <v>6.4426999999999998E-2</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="T14" s="12">
         <v>0.10111000000000001</v>
       </c>
-      <c r="R14" s="13">
+      <c r="U14" s="13">
         <f t="shared" si="2"/>
         <v>3.6683000000000007E-2</v>
       </c>
-      <c r="S14" s="12">
+      <c r="V14" s="12">
         <v>2.0008000000000001E-2</v>
       </c>
-      <c r="T14" s="12">
+      <c r="W14" s="12">
         <v>0.19539500000000001</v>
       </c>
-      <c r="U14" s="14">
+      <c r="X14" s="14">
         <f t="shared" si="3"/>
         <v>0.17538700000000002</v>
       </c>
-      <c r="V14" s="11">
+      <c r="Y14" s="14">
+        <f t="shared" si="16"/>
+        <v>4.2217499999999998E-2</v>
+      </c>
+      <c r="Z14" s="14">
+        <f t="shared" si="17"/>
+        <v>0.14825250000000001</v>
+      </c>
+      <c r="AA14" s="14">
+        <f t="shared" si="18"/>
+        <v>0.10603500000000002</v>
+      </c>
+      <c r="AB14" s="11">
         <v>1.7904E-2</v>
       </c>
-      <c r="W14" s="12">
+      <c r="AC14" s="12">
         <v>3.7615000000000003E-2</v>
       </c>
-      <c r="X14" s="13">
+      <c r="AD14" s="13">
         <f t="shared" si="4"/>
         <v>1.9711000000000003E-2</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="AE14" s="11">
         <v>4.6669000000000002E-2</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="AF14" s="12">
         <v>8.4153000000000006E-2</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AG14" s="13">
         <f t="shared" si="5"/>
         <v>3.7484000000000003E-2</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AH14" s="14">
+        <f t="shared" si="19"/>
+        <v>3.2286500000000003E-2</v>
+      </c>
+      <c r="AI14" s="14">
+        <f t="shared" si="20"/>
+        <v>6.0884000000000008E-2</v>
+      </c>
+      <c r="AJ14" s="14">
+        <f t="shared" si="21"/>
+        <v>2.8597500000000005E-2</v>
+      </c>
+      <c r="AK14" s="12">
         <v>-2.4698999999999999E-2</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AL14" s="12">
         <v>1.1417E-2</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AM14" s="13">
         <f t="shared" si="6"/>
         <v>3.6115999999999995E-2</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AN14" s="12">
         <v>5.0214000000000002E-2</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AO14" s="12">
         <v>5.8465000000000003E-2</v>
       </c>
-      <c r="AG14" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP14" s="13">
+        <f t="shared" si="22"/>
         <v>8.2510000000000014E-3</v>
       </c>
-      <c r="AH14" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ14" s="14">
+        <f t="shared" si="23"/>
+        <v>1.2757500000000001E-2</v>
+      </c>
+      <c r="AR14" s="14">
+        <f t="shared" si="24"/>
+        <v>3.4941E-2</v>
+      </c>
+      <c r="AS14" s="14">
+        <f t="shared" si="25"/>
+        <v>2.2183499999999998E-2</v>
+      </c>
+      <c r="AT14" s="11">
+        <f t="shared" si="8"/>
         <v>3.0297200000000003E-2</v>
       </c>
-      <c r="AI14" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU14" s="14">
+        <f t="shared" si="9"/>
         <v>6.8045250000000002E-2</v>
       </c>
-      <c r="AJ14" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV14" s="14">
+        <f t="shared" si="10"/>
         <v>1.0559249999999999E-2</v>
       </c>
-      <c r="AK14" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW14" s="13">
+        <f t="shared" si="11"/>
         <v>5.9875250000000005E-2</v>
       </c>
-      <c r="AL14" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX14" s="12">
+        <f t="shared" si="26"/>
         <v>0.17554700000000001</v>
       </c>
-      <c r="AM14" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY14" s="12">
+        <f t="shared" si="27"/>
         <v>4.0410000000000029E-3</v>
       </c>
-      <c r="AN14" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ14" s="12">
+        <f t="shared" si="28"/>
         <v>7.3644000000000001E-2</v>
       </c>
-      <c r="AO14" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA14" s="12">
+        <f t="shared" si="29"/>
         <v>8.4981000000000015E-2</v>
       </c>
-      <c r="AP14" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB14" s="12">
+        <f t="shared" si="30"/>
         <v>4.2603000000000002E-2</v>
       </c>
-      <c r="AQ14" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC14" s="12">
+        <f t="shared" si="31"/>
         <v>2.6198000000000003E-2</v>
       </c>
-      <c r="AR14" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD14" s="12">
+        <f t="shared" si="32"/>
         <v>-3.5449999999999995E-3</v>
       </c>
-      <c r="AS14" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE14" s="12">
+        <f t="shared" si="33"/>
         <v>2.5688000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>3880</v>
       </c>
@@ -2983,7 +3688,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I15" s="27">
@@ -3009,116 +3714,164 @@
         <f t="shared" si="1"/>
         <v>-7.4195999999999998E-2</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="14">
+        <f t="shared" si="13"/>
+        <v>9.95085E-2</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" si="14"/>
+        <v>8.7649000000000005E-2</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="15"/>
+        <v>-1.1859499999999999E-2</v>
+      </c>
+      <c r="S15" s="12">
         <v>1.7017999999999998E-2</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="T15" s="12">
         <v>2.6889E-2</v>
       </c>
-      <c r="R15" s="13">
+      <c r="U15" s="13">
         <f t="shared" si="2"/>
         <v>9.8710000000000013E-3</v>
       </c>
-      <c r="S15" s="12">
+      <c r="V15" s="12">
         <v>-9.9944000000000005E-2</v>
       </c>
-      <c r="T15" s="12">
+      <c r="W15" s="12">
         <v>-4.7113000000000002E-2</v>
       </c>
-      <c r="U15" s="14">
+      <c r="X15" s="14">
         <f t="shared" si="3"/>
         <v>5.2831000000000003E-2</v>
       </c>
-      <c r="V15" s="11">
+      <c r="Y15" s="14">
+        <f t="shared" si="16"/>
+        <v>-4.1463E-2</v>
+      </c>
+      <c r="Z15" s="14">
+        <f t="shared" si="17"/>
+        <v>-1.0112000000000001E-2</v>
+      </c>
+      <c r="AA15" s="14">
+        <f t="shared" si="18"/>
+        <v>3.1351000000000004E-2</v>
+      </c>
+      <c r="AB15" s="11">
         <v>3.1689000000000002E-2</v>
       </c>
-      <c r="W15" s="12">
+      <c r="AC15" s="12">
         <v>5.5965000000000001E-2</v>
       </c>
-      <c r="X15" s="13">
+      <c r="AD15" s="13">
         <f t="shared" si="4"/>
         <v>2.4275999999999999E-2</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="AE15" s="11">
         <v>8.5344000000000003E-2</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="AF15" s="12">
         <v>0.13961200000000001</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AG15" s="13">
         <f t="shared" si="5"/>
         <v>5.4268000000000011E-2</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="AH15" s="14">
+        <f t="shared" si="19"/>
+        <v>5.8516499999999999E-2</v>
+      </c>
+      <c r="AI15" s="14">
+        <f t="shared" si="20"/>
+        <v>9.77885E-2</v>
+      </c>
+      <c r="AJ15" s="14">
+        <f t="shared" si="21"/>
+        <v>3.9272000000000001E-2</v>
+      </c>
+      <c r="AK15" s="12">
         <v>6.3926999999999998E-2</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AL15" s="12">
         <v>0.22964499999999999</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AM15" s="13">
         <f t="shared" si="6"/>
         <v>0.16571799999999998</v>
       </c>
-      <c r="AE15" s="12">
+      <c r="AN15" s="12">
         <v>6.3673999999999994E-2</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AO15" s="12">
         <v>0.23819199999999999</v>
       </c>
-      <c r="AG15" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP15" s="13">
+        <f t="shared" si="22"/>
         <v>0.17451800000000001</v>
       </c>
-      <c r="AH15" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ15" s="14">
+        <f t="shared" si="23"/>
+        <v>6.3800499999999996E-2</v>
+      </c>
+      <c r="AR15" s="14">
+        <f t="shared" si="24"/>
+        <v>0.23391849999999997</v>
+      </c>
+      <c r="AS15" s="14">
+        <f t="shared" si="25"/>
+        <v>0.17011799999999999</v>
+      </c>
+      <c r="AT15" s="11">
+        <f t="shared" si="8"/>
         <v>2.2809600000000003E-2</v>
       </c>
-      <c r="AI15" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU15" s="14">
+        <f t="shared" si="9"/>
         <v>3.9279250000000002E-2</v>
       </c>
-      <c r="AJ15" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV15" s="14">
+        <f t="shared" si="10"/>
         <v>9.5306500000000002E-2</v>
       </c>
-      <c r="AK15" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW15" s="13">
+        <f t="shared" si="11"/>
         <v>0.1317055</v>
       </c>
-      <c r="AL15" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX15" s="12">
+        <f t="shared" si="26"/>
         <v>7.1859999999999979E-3</v>
       </c>
-      <c r="AM15" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY15" s="12">
+        <f t="shared" si="27"/>
         <v>-3.3420000000000005E-2</v>
       </c>
-      <c r="AN15" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ15" s="12">
+        <f t="shared" si="28"/>
         <v>-0.28912899999999997</v>
       </c>
-      <c r="AO15" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA15" s="12">
+        <f t="shared" si="29"/>
         <v>-0.162102</v>
       </c>
-      <c r="AP15" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB15" s="12">
+        <f t="shared" si="30"/>
         <v>-3.2237999999999996E-2</v>
       </c>
-      <c r="AQ15" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC15" s="12">
+        <f t="shared" si="31"/>
         <v>-0.17368</v>
       </c>
-      <c r="AR15" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD15" s="12">
+        <f t="shared" si="32"/>
         <v>2.1670000000000009E-2</v>
       </c>
-      <c r="AS15" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE15" s="12">
+        <f t="shared" si="33"/>
         <v>-9.8579999999999973E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>3882</v>
       </c>
@@ -3141,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I16" s="27">
@@ -3167,116 +3920,164 @@
         <f t="shared" si="1"/>
         <v>0.146367</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="14">
+        <f t="shared" si="13"/>
+        <v>-4.1527000000000001E-2</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="14"/>
+        <v>6.2715999999999994E-2</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="15"/>
+        <v>0.104243</v>
+      </c>
+      <c r="S16" s="12">
         <v>3.5961E-2</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="T16" s="12">
         <v>0.21001400000000001</v>
       </c>
-      <c r="R16" s="13">
+      <c r="U16" s="13">
         <f t="shared" si="2"/>
         <v>0.17405300000000001</v>
       </c>
-      <c r="S16" s="12">
+      <c r="V16" s="12">
         <v>9.8876000000000006E-2</v>
       </c>
-      <c r="T16" s="12">
+      <c r="W16" s="12">
         <v>0.143349</v>
       </c>
-      <c r="U16" s="14">
+      <c r="X16" s="14">
         <f t="shared" si="3"/>
         <v>4.4472999999999999E-2</v>
       </c>
-      <c r="V16" s="11">
+      <c r="Y16" s="14">
+        <f t="shared" si="16"/>
+        <v>6.7418500000000006E-2</v>
+      </c>
+      <c r="Z16" s="14">
+        <f t="shared" si="17"/>
+        <v>0.17668149999999999</v>
+      </c>
+      <c r="AA16" s="14">
+        <f t="shared" si="18"/>
+        <v>0.109263</v>
+      </c>
+      <c r="AB16" s="11">
         <v>9.1829999999999995E-2</v>
       </c>
-      <c r="W16" s="12">
+      <c r="AC16" s="12">
         <v>6.5917000000000003E-2</v>
       </c>
-      <c r="X16" s="13">
+      <c r="AD16" s="13">
         <f t="shared" si="4"/>
         <v>-2.5912999999999992E-2</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="AE16" s="11">
         <v>4.2819000000000003E-2</v>
       </c>
-      <c r="Z16" s="12">
+      <c r="AF16" s="12">
         <v>7.9843999999999998E-2</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AG16" s="13">
         <f t="shared" si="5"/>
         <v>3.7024999999999995E-2</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AH16" s="14">
+        <f t="shared" si="19"/>
+        <v>6.7324499999999995E-2</v>
+      </c>
+      <c r="AI16" s="14">
+        <f t="shared" si="20"/>
+        <v>7.2880500000000001E-2</v>
+      </c>
+      <c r="AJ16" s="14">
+        <f t="shared" si="21"/>
+        <v>5.5560000000000019E-3</v>
+      </c>
+      <c r="AK16" s="12">
         <v>-0.10734399999999999</v>
       </c>
-      <c r="AC16" s="12">
+      <c r="AL16" s="12">
         <v>-6.8446000000000007E-2</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AM16" s="13">
         <f t="shared" si="6"/>
         <v>3.8897999999999988E-2</v>
       </c>
-      <c r="AE16" s="12">
+      <c r="AN16" s="12">
         <v>-5.1285999999999998E-2</v>
       </c>
-      <c r="AF16" s="12">
+      <c r="AO16" s="12">
         <v>1.9552E-2</v>
       </c>
-      <c r="AG16" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP16" s="13">
+        <f t="shared" si="22"/>
         <v>7.0837999999999998E-2</v>
       </c>
-      <c r="AH16" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ16" s="14">
+        <f t="shared" si="23"/>
+        <v>-7.9314999999999997E-2</v>
+      </c>
+      <c r="AR16" s="14">
+        <f t="shared" si="24"/>
+        <v>-2.4447000000000003E-2</v>
+      </c>
+      <c r="AS16" s="14">
+        <f t="shared" si="25"/>
+        <v>5.4867999999999993E-2</v>
+      </c>
+      <c r="AT16" s="11">
+        <f t="shared" si="8"/>
         <v>4.0528799999999997E-2</v>
       </c>
-      <c r="AI16" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU16" s="14">
+        <f t="shared" si="9"/>
         <v>8.1983500000000001E-2</v>
       </c>
-      <c r="AJ16" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV16" s="14">
+        <f t="shared" si="10"/>
         <v>-4.5107500000000009E-3</v>
       </c>
-      <c r="AK16" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW16" s="13">
+        <f t="shared" si="11"/>
         <v>2.2732249999999999E-2</v>
       </c>
-      <c r="AL16" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX16" s="12">
+        <f t="shared" si="26"/>
         <v>8.8686000000000001E-2</v>
       </c>
-      <c r="AM16" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY16" s="12">
+        <f t="shared" si="27"/>
         <v>0.20062000000000002</v>
       </c>
-      <c r="AN16" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ16" s="12">
+        <f t="shared" si="28"/>
         <v>0.12920500000000001</v>
       </c>
-      <c r="AO16" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA16" s="12">
+        <f t="shared" si="29"/>
         <v>2.7311000000000002E-2</v>
       </c>
-      <c r="AP16" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB16" s="12">
+        <f t="shared" si="30"/>
         <v>0.19917399999999999</v>
       </c>
-      <c r="AQ16" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC16" s="12">
+        <f t="shared" si="31"/>
         <v>0.13436300000000001</v>
       </c>
-      <c r="AR16" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD16" s="12">
+        <f t="shared" si="32"/>
         <v>9.4104999999999994E-2</v>
       </c>
-      <c r="AS16" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE16" s="12">
+        <f t="shared" si="33"/>
         <v>6.0291999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>3883</v>
       </c>
@@ -3299,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I17" s="27">
@@ -3325,116 +4126,164 @@
         <f t="shared" si="1"/>
         <v>-2.8815E-2</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.1514675</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="14"/>
+        <v>-6.5981499999999998E-2</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="15"/>
+        <v>8.5486000000000006E-2</v>
+      </c>
+      <c r="S17" s="12">
         <v>-0.26075799999999999</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="T17" s="12">
         <v>-0.123182</v>
       </c>
-      <c r="R17" s="13">
+      <c r="U17" s="13">
         <f t="shared" si="2"/>
         <v>0.13757599999999998</v>
       </c>
-      <c r="S17" s="12">
+      <c r="V17" s="12">
         <v>-9.4880999999999993E-2</v>
       </c>
-      <c r="T17" s="12">
+      <c r="W17" s="12">
         <v>-8.4975999999999996E-2</v>
       </c>
-      <c r="U17" s="14">
+      <c r="X17" s="14">
         <f t="shared" si="3"/>
         <v>9.9049999999999971E-3</v>
       </c>
-      <c r="V17" s="11">
+      <c r="Y17" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.17781949999999999</v>
+      </c>
+      <c r="Z17" s="14">
+        <f t="shared" si="17"/>
+        <v>-0.104079</v>
+      </c>
+      <c r="AA17" s="14">
+        <f t="shared" si="18"/>
+        <v>7.3740499999999987E-2</v>
+      </c>
+      <c r="AB17" s="11">
         <v>-5.3668E-2</v>
       </c>
-      <c r="W17" s="12">
+      <c r="AC17" s="12">
         <v>-0.140128</v>
       </c>
-      <c r="X17" s="13">
+      <c r="AD17" s="13">
         <f t="shared" si="4"/>
         <v>-8.6460000000000009E-2</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="AE17" s="11">
         <v>-6.9585999999999995E-2</v>
       </c>
-      <c r="Z17" s="12">
+      <c r="AF17" s="12">
         <v>-0.186363</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AG17" s="13">
         <f t="shared" si="5"/>
         <v>-0.11677700000000001</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AH17" s="14">
+        <f t="shared" si="19"/>
+        <v>-6.1627000000000001E-2</v>
+      </c>
+      <c r="AI17" s="14">
+        <f t="shared" si="20"/>
+        <v>-0.16324549999999999</v>
+      </c>
+      <c r="AJ17" s="14">
+        <f t="shared" si="21"/>
+        <v>-0.1016185</v>
+      </c>
+      <c r="AK17" s="12">
         <v>-9.3715999999999994E-2</v>
       </c>
-      <c r="AC17" s="12">
+      <c r="AL17" s="12">
         <v>-4.2680000000000003E-2</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AM17" s="13">
         <f t="shared" si="6"/>
         <v>5.1035999999999991E-2</v>
       </c>
-      <c r="AE17" s="12">
+      <c r="AN17" s="12">
         <v>1.4598E-2</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AO17" s="12">
         <v>6.6969999999999998E-3</v>
       </c>
-      <c r="AG17" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP17" s="13">
+        <f t="shared" si="22"/>
         <v>-7.901E-3</v>
       </c>
-      <c r="AH17" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ17" s="14">
+        <f t="shared" si="23"/>
+        <v>-3.9558999999999997E-2</v>
+      </c>
+      <c r="AR17" s="14">
+        <f t="shared" si="24"/>
+        <v>-1.7991500000000001E-2</v>
+      </c>
+      <c r="AS17" s="14">
+        <f t="shared" si="25"/>
+        <v>2.1567499999999996E-2</v>
+      </c>
+      <c r="AT17" s="11">
+        <f t="shared" si="8"/>
         <v>-0.15754300000000002</v>
       </c>
-      <c r="AI17" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU17" s="14">
+        <f t="shared" si="9"/>
         <v>-5.2745E-2</v>
       </c>
-      <c r="AJ17" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV17" s="14">
+        <f t="shared" si="10"/>
         <v>-8.2547999999999996E-2</v>
       </c>
-      <c r="AK17" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW17" s="13">
+        <f t="shared" si="11"/>
         <v>-5.8663499999999993E-2</v>
       </c>
-      <c r="AL17" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX17" s="12">
+        <f t="shared" si="26"/>
         <v>4.1023000000000032E-2</v>
       </c>
-      <c r="AM17" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY17" s="12">
+        <f t="shared" si="27"/>
         <v>-2.1187999999999999E-2</v>
       </c>
-      <c r="AN17" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ17" s="12">
+        <f t="shared" si="28"/>
         <v>-9.3726999999999991E-2</v>
       </c>
-      <c r="AO17" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA17" s="12">
+        <f t="shared" si="29"/>
         <v>-5.5007E-2</v>
       </c>
-      <c r="AP17" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB17" s="12">
+        <f t="shared" si="30"/>
         <v>4.0047999999999993E-2</v>
       </c>
-      <c r="AQ17" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC17" s="12">
+        <f t="shared" si="31"/>
         <v>-9.7448000000000007E-2</v>
       </c>
-      <c r="AR17" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD17" s="12">
+        <f t="shared" si="32"/>
         <v>-8.4183999999999995E-2</v>
       </c>
-      <c r="AS17" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE17" s="12">
+        <f t="shared" si="33"/>
         <v>-0.19306000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>3886</v>
       </c>
@@ -3457,7 +4306,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="I18" s="27">
@@ -3483,116 +4332,164 @@
         <f t="shared" si="1"/>
         <v>-0.14161100000000001</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="14">
+        <f t="shared" si="13"/>
+        <v>6.8585000000000007E-2</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="14"/>
+        <v>-2.5538999999999999E-2</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="15"/>
+        <v>-9.4124000000000013E-2</v>
+      </c>
+      <c r="S18" s="12">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="T18" s="12">
         <v>0.22051399999999999</v>
       </c>
-      <c r="R18" s="13">
+      <c r="U18" s="13">
         <f t="shared" si="2"/>
         <v>0.176644</v>
       </c>
-      <c r="S18" s="12">
+      <c r="V18" s="12">
         <v>8.4360000000000008E-3</v>
       </c>
-      <c r="T18" s="12">
+      <c r="W18" s="12">
         <v>0.21227699999999999</v>
       </c>
-      <c r="U18" s="14">
+      <c r="X18" s="14">
         <f t="shared" si="3"/>
         <v>0.20384099999999999</v>
       </c>
-      <c r="V18" s="11">
+      <c r="Y18" s="14">
+        <f t="shared" si="16"/>
+        <v>2.6152999999999999E-2</v>
+      </c>
+      <c r="Z18" s="14">
+        <f t="shared" si="17"/>
+        <v>0.21639549999999999</v>
+      </c>
+      <c r="AA18" s="14">
+        <f t="shared" si="18"/>
+        <v>0.19024249999999998</v>
+      </c>
+      <c r="AB18" s="11">
         <v>3.2371999999999998E-2</v>
       </c>
-      <c r="W18" s="12">
+      <c r="AC18" s="12">
         <v>0.141262</v>
       </c>
-      <c r="X18" s="13">
+      <c r="AD18" s="13">
         <f t="shared" si="4"/>
         <v>0.10889</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="AE18" s="11">
         <v>3.6924999999999999E-2</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="AF18" s="12">
         <v>0.131714</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AG18" s="13">
         <f t="shared" si="5"/>
         <v>9.4788999999999998E-2</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AH18" s="14">
+        <f t="shared" si="19"/>
+        <v>3.4648499999999999E-2</v>
+      </c>
+      <c r="AI18" s="14">
+        <f t="shared" si="20"/>
+        <v>0.136488</v>
+      </c>
+      <c r="AJ18" s="14">
+        <f t="shared" si="21"/>
+        <v>0.1018395</v>
+      </c>
+      <c r="AK18" s="12">
         <v>6.8989999999999996E-2</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="AL18" s="12">
         <v>-3.8386999999999998E-2</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AM18" s="13">
         <f t="shared" si="6"/>
         <v>-0.107377</v>
       </c>
-      <c r="AE18" s="12">
+      <c r="AN18" s="12">
         <v>8.5816000000000003E-2</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AO18" s="12">
         <v>4.1669999999999997E-3</v>
       </c>
-      <c r="AG18" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP18" s="13">
+        <f t="shared" si="22"/>
         <v>-8.1648999999999999E-2</v>
       </c>
-      <c r="AH18" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ18" s="14">
+        <f t="shared" si="23"/>
+        <v>7.7403E-2</v>
+      </c>
+      <c r="AR18" s="14">
+        <f t="shared" si="24"/>
+        <v>-1.711E-2</v>
+      </c>
+      <c r="AS18" s="14">
+        <f t="shared" si="25"/>
+        <v>-9.4513E-2</v>
+      </c>
+      <c r="AT18" s="11">
+        <f t="shared" si="8"/>
         <v>6.4694999999999989E-2</v>
       </c>
-      <c r="AI18" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU18" s="14">
+        <f t="shared" si="9"/>
         <v>6.1928499999999997E-2</v>
       </c>
-      <c r="AJ18" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV18" s="14">
+        <f t="shared" si="10"/>
         <v>5.105925E-2</v>
       </c>
-      <c r="AK18" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW18" s="13">
+        <f t="shared" si="11"/>
         <v>6.4655499999999991E-2</v>
       </c>
-      <c r="AL18" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX18" s="12">
+        <f t="shared" si="26"/>
         <v>-8.994000000000002E-3</v>
       </c>
-      <c r="AM18" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY18" s="12">
+        <f t="shared" si="27"/>
         <v>0.21428699999999998</v>
       </c>
-      <c r="AN18" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ18" s="12">
+        <f t="shared" si="28"/>
         <v>-7.5870000000000007E-2</v>
       </c>
-      <c r="AO18" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA18" s="12">
+        <f t="shared" si="29"/>
         <v>0.26958199999999999</v>
       </c>
-      <c r="AP18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB18" s="12">
+        <f t="shared" si="30"/>
         <v>-3.6617999999999998E-2</v>
       </c>
-      <c r="AQ18" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC18" s="12">
+        <f t="shared" si="31"/>
         <v>0.179649</v>
       </c>
-      <c r="AR18" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD18" s="12">
+        <f t="shared" si="32"/>
         <v>-4.8891000000000004E-2</v>
       </c>
-      <c r="AS18" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE18" s="12">
+        <f t="shared" si="33"/>
         <v>0.12754699999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>3887</v>
       </c>
@@ -3615,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I19" s="27">
@@ -3641,116 +4538,164 @@
         <f t="shared" si="1"/>
         <v>0.11139</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="14">
+        <f t="shared" si="13"/>
+        <v>-5.9248000000000002E-2</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="14"/>
+        <v>2.03115E-2</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="15"/>
+        <v>7.9559500000000005E-2</v>
+      </c>
+      <c r="S19" s="12">
         <v>0.14959800000000001</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="T19" s="12">
         <v>0.110315</v>
       </c>
-      <c r="R19" s="13">
+      <c r="U19" s="13">
         <f t="shared" si="2"/>
         <v>-3.9283000000000012E-2</v>
       </c>
-      <c r="S19" s="12">
+      <c r="V19" s="12">
         <v>0.27354899999999999</v>
       </c>
-      <c r="T19" s="12">
+      <c r="W19" s="12">
         <v>9.5028000000000001E-2</v>
       </c>
-      <c r="U19" s="14">
+      <c r="X19" s="14">
         <f t="shared" si="3"/>
         <v>-0.17852099999999999</v>
       </c>
-      <c r="V19" s="11">
+      <c r="Y19" s="14">
+        <f t="shared" si="16"/>
+        <v>0.2115735</v>
+      </c>
+      <c r="Z19" s="14">
+        <f t="shared" si="17"/>
+        <v>0.1026715</v>
+      </c>
+      <c r="AA19" s="14">
+        <f t="shared" si="18"/>
+        <v>-0.108902</v>
+      </c>
+      <c r="AB19" s="11">
         <v>9.8251000000000005E-2</v>
       </c>
-      <c r="W19" s="12">
+      <c r="AC19" s="12">
         <v>4.7572000000000003E-2</v>
       </c>
-      <c r="X19" s="13">
+      <c r="AD19" s="13">
         <f t="shared" si="4"/>
         <v>-5.0679000000000002E-2</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="AE19" s="11">
         <v>0.15524299999999999</v>
       </c>
-      <c r="Z19" s="12">
+      <c r="AF19" s="12">
         <v>-3.0850000000000001E-3</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AG19" s="13">
         <f t="shared" si="5"/>
         <v>-0.158328</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AH19" s="14">
+        <f t="shared" si="19"/>
+        <v>0.126747</v>
+      </c>
+      <c r="AI19" s="14">
+        <f t="shared" si="20"/>
+        <v>2.2243500000000003E-2</v>
+      </c>
+      <c r="AJ19" s="14">
+        <f t="shared" si="21"/>
+        <v>-0.1045035</v>
+      </c>
+      <c r="AK19" s="12">
         <v>6.3425999999999996E-2</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AL19" s="12">
         <v>5.1610000000000003E-2</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AM19" s="13">
         <f t="shared" si="6"/>
         <v>-1.1815999999999993E-2</v>
       </c>
-      <c r="AE19" s="12">
+      <c r="AN19" s="12">
         <v>2.6165999999999998E-2</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AO19" s="12">
         <v>8.0058000000000004E-2</v>
       </c>
-      <c r="AG19" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP19" s="13">
+        <f t="shared" si="22"/>
         <v>5.3892000000000009E-2</v>
       </c>
-      <c r="AH19" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ19" s="14">
+        <f t="shared" si="23"/>
+        <v>4.4795999999999996E-2</v>
+      </c>
+      <c r="AR19" s="14">
+        <f t="shared" si="24"/>
+        <v>6.5834000000000004E-2</v>
+      </c>
+      <c r="AS19" s="14">
+        <f t="shared" si="25"/>
+        <v>2.1038000000000008E-2</v>
+      </c>
+      <c r="AT19" s="11">
+        <f t="shared" si="8"/>
         <v>2.8167999999999999E-2</v>
       </c>
-      <c r="AI19" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU19" s="14">
+        <f t="shared" si="9"/>
         <v>0.10244425</v>
       </c>
-      <c r="AJ19" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV19" s="14">
+        <f t="shared" si="10"/>
         <v>6.5214750000000002E-2</v>
       </c>
-      <c r="AK19" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW19" s="13">
+        <f t="shared" si="11"/>
         <v>6.45955E-2</v>
       </c>
-      <c r="AL19" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX19" s="12">
+        <f t="shared" si="26"/>
         <v>0.23299900000000001</v>
       </c>
-      <c r="AM19" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY19" s="12">
+        <f t="shared" si="27"/>
         <v>0.14598700000000001</v>
       </c>
-      <c r="AN19" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ19" s="12">
+        <f t="shared" si="28"/>
         <v>0.30864399999999997</v>
       </c>
-      <c r="AO19" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA19" s="12">
+        <f t="shared" si="29"/>
         <v>1.8733E-2</v>
       </c>
-      <c r="AP19" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB19" s="12">
+        <f t="shared" si="30"/>
         <v>3.4825000000000009E-2</v>
       </c>
-      <c r="AQ19" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC19" s="12">
+        <f t="shared" si="31"/>
         <v>-4.0379999999999999E-3</v>
       </c>
-      <c r="AR19" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD19" s="12">
+        <f t="shared" si="32"/>
         <v>0.129077</v>
       </c>
-      <c r="AS19" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE19" s="12">
+        <f t="shared" si="33"/>
         <v>-8.3143000000000009E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3889</v>
       </c>
@@ -3773,7 +4718,7 @@
         <v>22</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="I20" s="27">
@@ -3799,116 +4744,164 @@
         <f t="shared" si="1"/>
         <v>2.9069999999999999E-2</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="14">
+        <f t="shared" si="13"/>
+        <v>1.0822E-2</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="14"/>
+        <v>2.0958499999999998E-2</v>
+      </c>
+      <c r="R20" s="14">
+        <f t="shared" si="15"/>
+        <v>1.01365E-2</v>
+      </c>
+      <c r="S20" s="12">
         <v>-0.21440799999999999</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="T20" s="12">
         <v>-0.20683399999999999</v>
       </c>
-      <c r="R20" s="13">
+      <c r="U20" s="13">
         <f t="shared" si="2"/>
         <v>7.5739999999999974E-3</v>
       </c>
-      <c r="S20" s="12">
+      <c r="V20" s="12">
         <v>-4.7932000000000002E-2</v>
       </c>
-      <c r="T20" s="12">
+      <c r="W20" s="12">
         <v>-0.108635</v>
       </c>
-      <c r="U20" s="14">
+      <c r="X20" s="14">
         <f t="shared" si="3"/>
         <v>-6.0702999999999993E-2</v>
       </c>
-      <c r="V20" s="11">
+      <c r="Y20" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.13117000000000001</v>
+      </c>
+      <c r="Z20" s="14">
+        <f t="shared" si="17"/>
+        <v>-0.1577345</v>
+      </c>
+      <c r="AA20" s="14">
+        <f t="shared" si="18"/>
+        <v>-2.6564499999999998E-2</v>
+      </c>
+      <c r="AB20" s="11">
         <v>-0.19381599999999999</v>
       </c>
-      <c r="W20" s="12">
+      <c r="AC20" s="12">
         <v>-0.22386500000000001</v>
       </c>
-      <c r="X20" s="13">
+      <c r="AD20" s="13">
         <f t="shared" si="4"/>
         <v>-3.004900000000002E-2</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="AE20" s="11">
         <v>-0.17955499999999999</v>
       </c>
-      <c r="Z20" s="12">
+      <c r="AF20" s="12">
         <v>-0.243644</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AG20" s="13">
         <f t="shared" si="5"/>
         <v>-6.4089000000000007E-2</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AH20" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.1866855</v>
+      </c>
+      <c r="AI20" s="14">
+        <f t="shared" si="20"/>
+        <v>-0.2337545</v>
+      </c>
+      <c r="AJ20" s="14">
+        <f t="shared" si="21"/>
+        <v>-4.7069000000000014E-2</v>
+      </c>
+      <c r="AK20" s="12">
         <v>-6.2890000000000003E-3</v>
       </c>
-      <c r="AC20" s="12">
+      <c r="AL20" s="12">
         <v>5.4892999999999997E-2</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AM20" s="13">
         <f t="shared" si="6"/>
         <v>6.1182E-2</v>
       </c>
-      <c r="AE20" s="12">
+      <c r="AN20" s="12">
         <v>-2.7833E-2</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AO20" s="12">
         <v>-2.7099999999999997E-4</v>
       </c>
-      <c r="AG20" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP20" s="13">
+        <f t="shared" si="22"/>
         <v>2.7562E-2</v>
       </c>
-      <c r="AH20" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ20" s="14">
+        <f t="shared" si="23"/>
+        <v>-1.7061E-2</v>
+      </c>
+      <c r="AR20" s="14">
+        <f t="shared" si="24"/>
+        <v>2.7310999999999998E-2</v>
+      </c>
+      <c r="AS20" s="14">
+        <f t="shared" si="25"/>
+        <v>4.4372000000000002E-2</v>
+      </c>
+      <c r="AT20" s="11">
+        <f t="shared" si="8"/>
         <v>-8.8270600000000005E-2</v>
       </c>
-      <c r="AI20" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU20" s="14">
+        <f t="shared" si="9"/>
         <v>-1.822375E-2</v>
       </c>
-      <c r="AJ20" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV20" s="14">
+        <f t="shared" si="10"/>
         <v>-9.2269249999999997E-2</v>
       </c>
-      <c r="AK20" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW20" s="13">
+        <f t="shared" si="11"/>
         <v>-0.11282575</v>
       </c>
-      <c r="AL20" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX20" s="12">
+        <f t="shared" si="26"/>
         <v>-0.20875099999999999</v>
       </c>
-      <c r="AM20" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY20" s="12">
+        <f t="shared" si="27"/>
         <v>-0.19238</v>
       </c>
-      <c r="AN20" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ20" s="12">
+        <f t="shared" si="28"/>
         <v>-7.5232999999999994E-2</v>
       </c>
-      <c r="AO20" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA20" s="12">
+        <f t="shared" si="29"/>
         <v>-0.16500599999999999</v>
       </c>
-      <c r="AP20" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB20" s="12">
+        <f t="shared" si="30"/>
         <v>-0.187527</v>
       </c>
-      <c r="AQ20" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC20" s="12">
+        <f t="shared" si="31"/>
         <v>-0.27875800000000001</v>
       </c>
-      <c r="AR20" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD20" s="12">
+        <f t="shared" si="32"/>
         <v>-0.151722</v>
       </c>
-      <c r="AS20" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE20" s="12">
+        <f t="shared" si="33"/>
         <v>-0.24337300000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>3890</v>
       </c>
@@ -3931,7 +4924,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="I21" s="27">
@@ -3957,116 +4950,164 @@
         <f t="shared" si="1"/>
         <v>3.9131999999999986E-2</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="14">
+        <f t="shared" si="13"/>
+        <v>0.1214655</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="14"/>
+        <v>4.812799999999999E-2</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="15"/>
+        <v>-7.33375E-2</v>
+      </c>
+      <c r="S21" s="12">
         <v>-0.18335099999999999</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="T21" s="12">
         <v>4.7473000000000001E-2</v>
       </c>
-      <c r="R21" s="13">
+      <c r="U21" s="13">
         <f t="shared" si="2"/>
         <v>0.23082399999999997</v>
       </c>
-      <c r="S21" s="12">
+      <c r="V21" s="12">
         <v>-4.718E-2</v>
       </c>
-      <c r="T21" s="12">
+      <c r="W21" s="12">
         <v>0.28090999999999999</v>
       </c>
-      <c r="U21" s="14">
+      <c r="X21" s="14">
         <f t="shared" si="3"/>
         <v>0.32808999999999999</v>
       </c>
-      <c r="V21" s="11">
+      <c r="Y21" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.11526549999999999</v>
+      </c>
+      <c r="Z21" s="14">
+        <f t="shared" si="17"/>
+        <v>0.16419149999999999</v>
+      </c>
+      <c r="AA21" s="14">
+        <f t="shared" si="18"/>
+        <v>0.27945699999999996</v>
+      </c>
+      <c r="AB21" s="11">
         <v>-3.8438E-2</v>
       </c>
-      <c r="W21" s="12">
+      <c r="AC21" s="12">
         <v>0.12843599999999999</v>
       </c>
-      <c r="X21" s="13">
+      <c r="AD21" s="13">
         <f t="shared" si="4"/>
         <v>0.16687399999999999</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="AE21" s="11">
         <v>-8.1141000000000005E-2</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="AF21" s="12">
         <v>0.148115</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AG21" s="13">
         <f t="shared" si="5"/>
         <v>0.22925600000000002</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AH21" s="14">
+        <f t="shared" si="19"/>
+        <v>-5.9789500000000002E-2</v>
+      </c>
+      <c r="AI21" s="14">
+        <f t="shared" si="20"/>
+        <v>0.1382755</v>
+      </c>
+      <c r="AJ21" s="14">
+        <f t="shared" si="21"/>
+        <v>0.19806499999999999</v>
+      </c>
+      <c r="AK21" s="12">
         <v>6.2327E-2</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AL21" s="12">
         <v>6.5765000000000004E-2</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AM21" s="13">
         <f t="shared" si="6"/>
         <v>3.4380000000000036E-3</v>
       </c>
-      <c r="AE21" s="12">
+      <c r="AN21" s="12">
         <v>3.0948E-2</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AO21" s="12">
         <v>6.0911E-2</v>
       </c>
-      <c r="AG21" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP21" s="13">
+        <f t="shared" si="22"/>
         <v>2.9963E-2</v>
       </c>
-      <c r="AH21" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ21" s="14">
+        <f t="shared" si="23"/>
+        <v>4.6637499999999998E-2</v>
+      </c>
+      <c r="AR21" s="14">
+        <f t="shared" si="24"/>
+        <v>6.3338000000000005E-2</v>
+      </c>
+      <c r="AS21" s="14">
+        <f t="shared" si="25"/>
+        <v>1.67005E-2</v>
+      </c>
+      <c r="AT21" s="11">
+        <f t="shared" si="8"/>
         <v>-5.1382000000000008E-3</v>
       </c>
-      <c r="AI21" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU21" s="14">
+        <f t="shared" si="9"/>
         <v>0.11568249999999999</v>
       </c>
-      <c r="AJ21" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV21" s="14">
+        <f t="shared" si="10"/>
         <v>5.4522500000000002E-2</v>
       </c>
-      <c r="AK21" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW21" s="13">
+        <f t="shared" si="11"/>
         <v>3.970825E-2</v>
       </c>
-      <c r="AL21" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX21" s="12">
+        <f t="shared" si="26"/>
         <v>-0.33134799999999998</v>
       </c>
-      <c r="AM21" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY21" s="12">
+        <f t="shared" si="27"/>
         <v>8.5282999999999998E-2</v>
       </c>
-      <c r="AN21" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ21" s="12">
+        <f t="shared" si="28"/>
         <v>-0.14211400000000002</v>
       </c>
-      <c r="AO21" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA21" s="12">
+        <f t="shared" si="29"/>
         <v>0.146844</v>
       </c>
-      <c r="AP21" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB21" s="12">
+        <f t="shared" si="30"/>
         <v>-0.10076499999999999</v>
       </c>
-      <c r="AQ21" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC21" s="12">
+        <f t="shared" si="31"/>
         <v>6.2670999999999991E-2</v>
       </c>
-      <c r="AR21" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD21" s="12">
+        <f t="shared" si="32"/>
         <v>-0.11208900000000001</v>
       </c>
-      <c r="AS21" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE21" s="12">
+        <f t="shared" si="33"/>
         <v>8.7204000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>3891</v>
       </c>
@@ -4089,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I22" s="27">
@@ -4115,116 +5156,164 @@
         <f t="shared" si="1"/>
         <v>0.12580799999999998</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.163326</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="14"/>
+        <v>-3.5323E-2</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="15"/>
+        <v>0.12800299999999998</v>
+      </c>
+      <c r="S22" s="12">
         <v>-0.16670099999999999</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="T22" s="12">
         <v>-0.195438</v>
       </c>
-      <c r="R22" s="13">
+      <c r="U22" s="13">
         <f t="shared" si="2"/>
         <v>-2.8737000000000013E-2</v>
       </c>
-      <c r="S22" s="12">
+      <c r="V22" s="12">
         <v>-8.8109999999999994E-2</v>
       </c>
-      <c r="T22" s="12">
+      <c r="W22" s="12">
         <v>-0.141933</v>
       </c>
-      <c r="U22" s="14">
+      <c r="X22" s="14">
         <f t="shared" si="3"/>
         <v>-5.382300000000001E-2</v>
       </c>
-      <c r="V22" s="11">
+      <c r="Y22" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.1274055</v>
+      </c>
+      <c r="Z22" s="14">
+        <f t="shared" si="17"/>
+        <v>-0.16868549999999999</v>
+      </c>
+      <c r="AA22" s="14">
+        <f t="shared" si="18"/>
+        <v>-4.1280000000000011E-2</v>
+      </c>
+      <c r="AB22" s="11">
         <v>-0.19656100000000001</v>
       </c>
-      <c r="W22" s="12">
+      <c r="AC22" s="12">
         <v>-0.16364600000000001</v>
       </c>
-      <c r="X22" s="13">
+      <c r="AD22" s="13">
         <f t="shared" si="4"/>
         <v>3.2915E-2</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="AE22" s="11">
         <v>-0.13891500000000001</v>
       </c>
-      <c r="Z22" s="12">
+      <c r="AF22" s="12">
         <v>-0.101881</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AG22" s="13">
         <f t="shared" si="5"/>
         <v>3.7034000000000011E-2</v>
       </c>
-      <c r="AB22" s="12">
+      <c r="AH22" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.167738</v>
+      </c>
+      <c r="AI22" s="14">
+        <f t="shared" si="20"/>
+        <v>-0.13276350000000001</v>
+      </c>
+      <c r="AJ22" s="14">
+        <f t="shared" si="21"/>
+        <v>3.4974500000000006E-2</v>
+      </c>
+      <c r="AK22" s="12">
         <v>-0.19371099999999999</v>
       </c>
-      <c r="AC22" s="12">
+      <c r="AL22" s="12">
         <v>-7.2621000000000005E-2</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AM22" s="13">
         <f t="shared" si="6"/>
         <v>0.12108999999999999</v>
       </c>
-      <c r="AE22" s="12">
+      <c r="AN22" s="12">
         <v>-7.0663000000000004E-2</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AO22" s="12">
         <v>-7.2345000000000007E-2</v>
       </c>
-      <c r="AG22" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP22" s="13">
+        <f t="shared" si="22"/>
         <v>-1.6820000000000029E-3</v>
       </c>
-      <c r="AH22" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ22" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.132187</v>
+      </c>
+      <c r="AR22" s="14">
+        <f t="shared" si="24"/>
+        <v>-7.2483000000000006E-2</v>
+      </c>
+      <c r="AS22" s="14">
+        <f t="shared" si="25"/>
+        <v>5.9703999999999993E-2</v>
+      </c>
+      <c r="AT22" s="11">
+        <f t="shared" si="8"/>
         <v>-9.7035399999999994E-2</v>
       </c>
-      <c r="AI22" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU22" s="14">
+        <f t="shared" si="9"/>
         <v>-0.12607574999999999</v>
       </c>
-      <c r="AJ22" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV22" s="14">
+        <f t="shared" si="10"/>
         <v>-0.15663475000000002</v>
       </c>
-      <c r="AK22" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW22" s="13">
+        <f t="shared" si="11"/>
         <v>-9.5951000000000009E-2</v>
       </c>
-      <c r="AL22" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX22" s="12">
+        <f t="shared" si="26"/>
         <v>-4.008299999999998E-2</v>
       </c>
-      <c r="AM22" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY22" s="12">
+        <f t="shared" si="27"/>
         <v>-0.199018</v>
       </c>
-      <c r="AN22" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ22" s="12">
+        <f t="shared" si="28"/>
         <v>0.111924</v>
       </c>
-      <c r="AO22" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA22" s="12">
+        <f t="shared" si="29"/>
         <v>-6.7707000000000003E-2</v>
       </c>
-      <c r="AP22" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB22" s="12">
+        <f t="shared" si="30"/>
         <v>-2.8500000000000192E-3</v>
       </c>
-      <c r="AQ22" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC22" s="12">
+        <f t="shared" si="31"/>
         <v>-9.1025000000000009E-2</v>
       </c>
-      <c r="AR22" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD22" s="12">
+        <f t="shared" si="32"/>
         <v>-6.8252000000000007E-2</v>
       </c>
-      <c r="AS22" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE22" s="12">
+        <f t="shared" si="33"/>
         <v>-2.9535999999999993E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>3892</v>
       </c>
@@ -4247,7 +5336,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="I23" s="27">
@@ -4273,116 +5362,164 @@
         <f t="shared" si="1"/>
         <v>8.7354999999999988E-2</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="14">
+        <f t="shared" si="13"/>
+        <v>-7.0611499999999994E-2</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="14"/>
+        <v>4.5471999999999999E-2</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="15"/>
+        <v>0.11608349999999999</v>
+      </c>
+      <c r="S23" s="12">
         <v>2.5676999999999998E-2</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="T23" s="12">
         <v>8.0515000000000003E-2</v>
       </c>
-      <c r="R23" s="13">
+      <c r="U23" s="13">
         <f t="shared" si="2"/>
         <v>5.4838000000000005E-2</v>
       </c>
-      <c r="S23" s="12">
+      <c r="V23" s="12">
         <v>9.1490000000000002E-2</v>
       </c>
-      <c r="T23" s="12">
+      <c r="W23" s="12">
         <v>0.136959</v>
       </c>
-      <c r="U23" s="14">
+      <c r="X23" s="14">
         <f t="shared" si="3"/>
         <v>4.5468999999999996E-2</v>
       </c>
-      <c r="V23" s="11">
+      <c r="Y23" s="14">
+        <f t="shared" si="16"/>
+        <v>5.8583499999999997E-2</v>
+      </c>
+      <c r="Z23" s="14">
+        <f t="shared" si="17"/>
+        <v>0.108737</v>
+      </c>
+      <c r="AA23" s="14">
+        <f t="shared" si="18"/>
+        <v>5.0153500000000004E-2</v>
+      </c>
+      <c r="AB23" s="11">
         <v>5.3599000000000001E-2</v>
       </c>
-      <c r="W23" s="12">
+      <c r="AC23" s="12">
         <v>7.3729000000000003E-2</v>
       </c>
-      <c r="X23" s="13">
+      <c r="AD23" s="13">
         <f t="shared" si="4"/>
         <v>2.0130000000000002E-2</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="AE23" s="11">
         <v>-1.0194999999999999E-2</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="AF23" s="12">
         <v>-6.5180000000000004E-3</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AG23" s="13">
         <f t="shared" si="5"/>
         <v>3.6769999999999988E-3</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AH23" s="14">
+        <f t="shared" si="19"/>
+        <v>2.1701999999999999E-2</v>
+      </c>
+      <c r="AI23" s="14">
+        <f t="shared" si="20"/>
+        <v>3.3605500000000003E-2</v>
+      </c>
+      <c r="AJ23" s="14">
+        <f t="shared" si="21"/>
+        <v>1.1903500000000001E-2</v>
+      </c>
+      <c r="AK23" s="12">
         <v>2.9855E-2</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AL23" s="12">
         <v>8.9883000000000005E-2</v>
       </c>
-      <c r="AD23" s="13">
+      <c r="AM23" s="13">
         <f t="shared" si="6"/>
         <v>6.0028000000000005E-2</v>
       </c>
-      <c r="AE23" s="12">
+      <c r="AN23" s="12">
         <v>-1.7505E-2</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AO23" s="12">
         <v>4.8473000000000002E-2</v>
       </c>
-      <c r="AG23" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP23" s="13">
+        <f t="shared" si="22"/>
         <v>6.5978000000000009E-2</v>
       </c>
-      <c r="AH23" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ23" s="14">
+        <f t="shared" si="23"/>
+        <v>6.1749999999999999E-3</v>
+      </c>
+      <c r="AR23" s="14">
+        <f t="shared" si="24"/>
+        <v>6.9178000000000003E-2</v>
+      </c>
+      <c r="AS23" s="14">
+        <f t="shared" si="25"/>
+        <v>6.3003000000000003E-2</v>
+      </c>
+      <c r="AT23" s="11">
+        <f t="shared" si="8"/>
         <v>2.4576399999999998E-2</v>
       </c>
-      <c r="AI23" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU23" s="14">
+        <f t="shared" si="9"/>
         <v>4.0370000000000003E-2</v>
       </c>
-      <c r="AJ23" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV23" s="14">
+        <f t="shared" si="10"/>
         <v>6.1766500000000002E-2</v>
       </c>
-      <c r="AK23" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW23" s="13">
+        <f t="shared" si="11"/>
         <v>3.5637500000000009E-3</v>
       </c>
-      <c r="AL23" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX23" s="12">
+        <f t="shared" si="26"/>
         <v>8.9738000000000012E-2</v>
       </c>
-      <c r="AM23" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY23" s="12">
+        <f t="shared" si="27"/>
         <v>-2.360000000000001E-4</v>
       </c>
-      <c r="AN23" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ23" s="12">
+        <f t="shared" si="28"/>
         <v>0.168652</v>
       </c>
-      <c r="AO23" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA23" s="12">
+        <f t="shared" si="29"/>
         <v>0.12676599999999999</v>
       </c>
-      <c r="AP23" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB23" s="12">
+        <f t="shared" si="30"/>
         <v>2.3744000000000001E-2</v>
       </c>
-      <c r="AQ23" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC23" s="12">
+        <f t="shared" si="31"/>
         <v>-1.6154000000000002E-2</v>
       </c>
-      <c r="AR23" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD23" s="12">
+        <f t="shared" si="32"/>
         <v>7.3100000000000005E-3</v>
       </c>
-      <c r="AS23" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE23" s="12">
+        <f t="shared" si="33"/>
         <v>-5.4991000000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>3893</v>
       </c>
@@ -4405,7 +5542,7 @@
         <v>18</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="I24" s="27">
@@ -4431,116 +5568,164 @@
         <f t="shared" si="1"/>
         <v>0.140038</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="14">
+        <f t="shared" si="13"/>
+        <v>-9.2540499999999998E-2</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="14"/>
+        <v>2.0188000000000001E-2</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="15"/>
+        <v>0.1127285</v>
+      </c>
+      <c r="S24" s="12">
         <v>-8.3612000000000006E-2</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="T24" s="12">
         <v>-7.6049999999999998E-3</v>
       </c>
-      <c r="R24" s="13">
+      <c r="U24" s="13">
         <f t="shared" si="2"/>
         <v>7.6007000000000005E-2</v>
       </c>
-      <c r="S24" s="12">
+      <c r="V24" s="12">
         <v>-7.9240000000000005E-2</v>
       </c>
-      <c r="T24" s="12">
+      <c r="W24" s="12">
         <v>9.1889999999999999E-2</v>
       </c>
-      <c r="U24" s="14">
+      <c r="X24" s="14">
         <f t="shared" si="3"/>
         <v>0.17113</v>
       </c>
-      <c r="V24" s="11">
+      <c r="Y24" s="14">
+        <f t="shared" si="16"/>
+        <v>-8.1425999999999998E-2</v>
+      </c>
+      <c r="Z24" s="14">
+        <f t="shared" si="17"/>
+        <v>4.2142499999999999E-2</v>
+      </c>
+      <c r="AA24" s="14">
+        <f t="shared" si="18"/>
+        <v>0.1235685</v>
+      </c>
+      <c r="AB24" s="11">
         <v>-0.32269999999999999</v>
       </c>
-      <c r="W24" s="12">
+      <c r="AC24" s="12">
         <v>-0.120354</v>
       </c>
-      <c r="X24" s="13">
+      <c r="AD24" s="13">
         <f t="shared" si="4"/>
         <v>0.20234599999999997</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="AE24" s="11">
         <v>-0.180978</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="AF24" s="12">
         <v>2.1330999999999999E-2</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AG24" s="13">
         <f t="shared" si="5"/>
         <v>0.20230899999999999</v>
       </c>
-      <c r="AB24" s="12">
+      <c r="AH24" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.25183899999999998</v>
+      </c>
+      <c r="AI24" s="14">
+        <f t="shared" si="20"/>
+        <v>-4.95115E-2</v>
+      </c>
+      <c r="AJ24" s="14">
+        <f t="shared" si="21"/>
+        <v>0.20232749999999999</v>
+      </c>
+      <c r="AK24" s="12">
         <v>-0.16256899999999999</v>
       </c>
-      <c r="AC24" s="12">
+      <c r="AL24" s="12">
         <v>-4.326E-2</v>
       </c>
-      <c r="AD24" s="13">
+      <c r="AM24" s="13">
         <f t="shared" si="6"/>
         <v>0.119309</v>
       </c>
-      <c r="AE24" s="12">
+      <c r="AN24" s="12">
         <v>-4.0952000000000002E-2</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AO24" s="12">
         <v>1.6598999999999999E-2</v>
       </c>
-      <c r="AG24" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP24" s="13">
+        <f t="shared" si="22"/>
         <v>5.7551000000000005E-2</v>
       </c>
-      <c r="AH24" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ24" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.1017605</v>
+      </c>
+      <c r="AR24" s="14">
+        <f t="shared" si="24"/>
+        <v>-1.33305E-2</v>
+      </c>
+      <c r="AS24" s="14">
+        <f t="shared" si="25"/>
+        <v>8.8430000000000009E-2</v>
+      </c>
+      <c r="AT24" s="11">
+        <f t="shared" si="8"/>
         <v>-5.5067199999999997E-2</v>
       </c>
-      <c r="AI24" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU24" s="14">
+        <f t="shared" si="9"/>
         <v>1.3015999999999998E-2</v>
       </c>
-      <c r="AJ24" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV24" s="14">
+        <f t="shared" si="10"/>
         <v>-0.16222075</v>
       </c>
-      <c r="AK24" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW24" s="13">
+        <f t="shared" si="11"/>
         <v>-4.6000000000000006E-2</v>
       </c>
-      <c r="AL24" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX24" s="12">
+        <f t="shared" si="26"/>
         <v>5.1156999999999994E-2</v>
       </c>
-      <c r="AM24" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY24" s="12">
+        <f t="shared" si="27"/>
         <v>4.1744999999999997E-2</v>
       </c>
-      <c r="AN24" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ24" s="12">
+        <f t="shared" si="28"/>
         <v>-2.8928000000000002E-2</v>
       </c>
-      <c r="AO24" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA24" s="12">
+        <f t="shared" si="29"/>
         <v>2.1639999999999993E-3</v>
       </c>
-      <c r="AP24" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB24" s="12">
+        <f t="shared" si="30"/>
         <v>-0.160131</v>
       </c>
-      <c r="AQ24" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC24" s="12">
+        <f t="shared" si="31"/>
         <v>-7.7093999999999996E-2</v>
       </c>
-      <c r="AR24" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD24" s="12">
+        <f t="shared" si="32"/>
         <v>-0.14002599999999998</v>
       </c>
-      <c r="AS24" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE24" s="12">
+        <f t="shared" si="33"/>
         <v>4.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>3895</v>
       </c>
@@ -4563,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="I25" s="27">
@@ -4589,116 +5774,164 @@
         <f t="shared" si="1"/>
         <v>4.2577000000000004E-2</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.17187150000000001</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="14"/>
+        <v>-2.2508999999999994E-2</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="15"/>
+        <v>0.14936250000000001</v>
+      </c>
+      <c r="S25" s="12">
         <v>6.6763000000000003E-2</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="T25" s="12">
         <v>5.8187000000000003E-2</v>
       </c>
-      <c r="R25" s="13">
+      <c r="U25" s="13">
         <f t="shared" si="2"/>
         <v>-8.5760000000000003E-3</v>
       </c>
-      <c r="S25" s="12">
+      <c r="V25" s="12">
         <v>0.109371</v>
       </c>
-      <c r="T25" s="12">
+      <c r="W25" s="12">
         <v>8.9312000000000002E-2</v>
       </c>
-      <c r="U25" s="14">
+      <c r="X25" s="14">
         <f t="shared" si="3"/>
         <v>-2.0058999999999994E-2</v>
       </c>
-      <c r="V25" s="11">
+      <c r="Y25" s="14">
+        <f t="shared" si="16"/>
+        <v>8.8067000000000006E-2</v>
+      </c>
+      <c r="Z25" s="14">
+        <f t="shared" si="17"/>
+        <v>7.3749499999999996E-2</v>
+      </c>
+      <c r="AA25" s="14">
+        <f t="shared" si="18"/>
+        <v>-1.4317499999999997E-2</v>
+      </c>
+      <c r="AB25" s="11">
         <v>1.3393E-2</v>
       </c>
-      <c r="W25" s="12">
+      <c r="AC25" s="12">
         <v>0.151031</v>
       </c>
-      <c r="X25" s="13">
+      <c r="AD25" s="13">
         <f t="shared" si="4"/>
         <v>0.13763800000000001</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="AE25" s="11">
         <v>3.6181999999999999E-2</v>
       </c>
-      <c r="Z25" s="12">
+      <c r="AF25" s="12">
         <v>9.5702999999999996E-2</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AG25" s="13">
         <f t="shared" si="5"/>
         <v>5.9520999999999998E-2</v>
       </c>
-      <c r="AB25" s="12">
+      <c r="AH25" s="14">
+        <f t="shared" si="19"/>
+        <v>2.4787500000000001E-2</v>
+      </c>
+      <c r="AI25" s="14">
+        <f t="shared" si="20"/>
+        <v>0.123367</v>
+      </c>
+      <c r="AJ25" s="14">
+        <f t="shared" si="21"/>
+        <v>9.85795E-2</v>
+      </c>
+      <c r="AK25" s="12">
         <v>-0.127494</v>
       </c>
-      <c r="AC25" s="12">
+      <c r="AL25" s="12">
         <v>-4.6290000000000003E-3</v>
       </c>
-      <c r="AD25" s="13">
+      <c r="AM25" s="13">
         <f t="shared" si="6"/>
         <v>0.122865</v>
       </c>
-      <c r="AE25" s="12">
+      <c r="AN25" s="12">
         <v>-7.4638999999999997E-2</v>
       </c>
-      <c r="AF25" s="12">
+      <c r="AO25" s="12">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="AG25" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP25" s="13">
+        <f t="shared" si="22"/>
         <v>0.11473899999999999</v>
       </c>
-      <c r="AH25" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ25" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.1010665</v>
+      </c>
+      <c r="AR25" s="14">
+        <f t="shared" si="24"/>
+        <v>1.7735499999999998E-2</v>
+      </c>
+      <c r="AS25" s="14">
+        <f t="shared" si="25"/>
+        <v>0.11880199999999999</v>
+      </c>
+      <c r="AT25" s="11">
+        <f t="shared" si="8"/>
         <v>4.1524000000000031E-3</v>
       </c>
-      <c r="AI25" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU25" s="14">
+        <f t="shared" si="9"/>
         <v>-2.1472499999999992E-2</v>
       </c>
-      <c r="AJ25" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV25" s="14">
+        <f t="shared" si="10"/>
         <v>8.0752499999999974E-3</v>
       </c>
-      <c r="AK25" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW25" s="13">
+        <f t="shared" si="11"/>
         <v>2.43365E-2</v>
       </c>
-      <c r="AL25" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX25" s="12">
+        <f t="shared" si="26"/>
         <v>0.24693100000000001</v>
       </c>
-      <c r="AM25" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY25" s="12">
+        <f t="shared" si="27"/>
         <v>-1.7793000000000003E-2</v>
       </c>
-      <c r="AN25" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ25" s="12">
+        <f t="shared" si="28"/>
         <v>0.27294600000000002</v>
       </c>
-      <c r="AO25" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA25" s="12">
+        <f t="shared" si="29"/>
         <v>0.21031</v>
       </c>
-      <c r="AP25" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB25" s="12">
+        <f t="shared" si="30"/>
         <v>0.14088699999999998</v>
       </c>
-      <c r="AQ25" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC25" s="12">
+        <f t="shared" si="31"/>
         <v>0.15565999999999999</v>
       </c>
-      <c r="AR25" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD25" s="12">
+        <f t="shared" si="32"/>
         <v>0.110821</v>
       </c>
-      <c r="AS25" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE25" s="12">
+        <f t="shared" si="33"/>
         <v>5.5603E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>3896</v>
       </c>
@@ -4721,7 +5954,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="I26" s="27">
@@ -4747,116 +5980,164 @@
         <f t="shared" si="1"/>
         <v>0.140713</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="14">
+        <f t="shared" si="13"/>
+        <v>-1.6561000000000003E-2</v>
+      </c>
+      <c r="Q26" s="14">
+        <f t="shared" si="14"/>
+        <v>0.23388150000000002</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" si="15"/>
+        <v>0.25044250000000001</v>
+      </c>
+      <c r="S26" s="12">
         <v>5.9305999999999998E-2</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="T26" s="12">
         <v>0.16288</v>
       </c>
-      <c r="R26" s="13">
+      <c r="U26" s="13">
         <f t="shared" si="2"/>
         <v>0.103574</v>
       </c>
-      <c r="S26" s="12">
+      <c r="V26" s="12">
         <v>-5.4826E-2</v>
       </c>
-      <c r="T26" s="12">
+      <c r="W26" s="12">
         <v>1.7403999999999999E-2</v>
       </c>
-      <c r="U26" s="14">
+      <c r="X26" s="14">
         <f t="shared" si="3"/>
         <v>7.2230000000000003E-2</v>
       </c>
-      <c r="V26" s="11">
+      <c r="Y26" s="14">
+        <f t="shared" si="16"/>
+        <v>2.2399999999999989E-3</v>
+      </c>
+      <c r="Z26" s="14">
+        <f t="shared" si="17"/>
+        <v>9.0142E-2</v>
+      </c>
+      <c r="AA26" s="14">
+        <f t="shared" si="18"/>
+        <v>8.7902000000000008E-2</v>
+      </c>
+      <c r="AB26" s="11">
         <v>4.9820999999999997E-2</v>
       </c>
-      <c r="W26" s="12">
+      <c r="AC26" s="12">
         <v>0.13849800000000001</v>
       </c>
-      <c r="X26" s="13">
+      <c r="AD26" s="13">
         <f t="shared" si="4"/>
         <v>8.8677000000000006E-2</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="AE26" s="11">
         <v>3.1959000000000001E-2</v>
       </c>
-      <c r="Z26" s="12">
+      <c r="AF26" s="12">
         <v>0.161245</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AG26" s="13">
         <f t="shared" si="5"/>
         <v>0.12928600000000001</v>
       </c>
-      <c r="AB26" s="12">
+      <c r="AH26" s="14">
+        <f t="shared" si="19"/>
+        <v>4.0889999999999996E-2</v>
+      </c>
+      <c r="AI26" s="14">
+        <f t="shared" si="20"/>
+        <v>0.14987149999999999</v>
+      </c>
+      <c r="AJ26" s="14">
+        <f t="shared" si="21"/>
+        <v>0.10898150000000001</v>
+      </c>
+      <c r="AK26" s="12">
         <v>2.0195000000000001E-2</v>
       </c>
-      <c r="AC26" s="12">
+      <c r="AL26" s="12">
         <v>8.8067000000000006E-2</v>
       </c>
-      <c r="AD26" s="13">
+      <c r="AM26" s="13">
         <f t="shared" si="6"/>
         <v>6.7872000000000002E-2</v>
       </c>
-      <c r="AE26" s="12">
+      <c r="AN26" s="12">
         <v>8.3649000000000001E-2</v>
       </c>
-      <c r="AF26" s="12">
+      <c r="AO26" s="12">
         <v>0.19259299999999999</v>
       </c>
-      <c r="AG26" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP26" s="13">
+        <f t="shared" si="22"/>
         <v>0.10894399999999999</v>
       </c>
-      <c r="AH26" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ26" s="14">
+        <f t="shared" si="23"/>
+        <v>5.1922000000000003E-2</v>
+      </c>
+      <c r="AR26" s="14">
+        <f t="shared" si="24"/>
+        <v>0.14033000000000001</v>
+      </c>
+      <c r="AS26" s="14">
+        <f t="shared" si="25"/>
+        <v>8.8407999999999987E-2</v>
+      </c>
+      <c r="AT26" s="11">
+        <f t="shared" si="8"/>
         <v>8.9776000000000009E-2</v>
       </c>
-      <c r="AI26" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU26" s="14">
+        <f t="shared" si="9"/>
         <v>4.2631250000000002E-2</v>
       </c>
-      <c r="AJ26" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV26" s="14">
+        <f t="shared" si="10"/>
         <v>7.4145249999999996E-2</v>
       </c>
-      <c r="AK26" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW26" s="13">
+        <f t="shared" si="11"/>
         <v>0.11736150000000001</v>
       </c>
-      <c r="AL26" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX26" s="12">
+        <f t="shared" si="26"/>
         <v>0.12604500000000002</v>
       </c>
-      <c r="AM26" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY26" s="12">
+        <f t="shared" si="27"/>
         <v>-0.130553</v>
       </c>
-      <c r="AN26" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ26" s="12">
+        <f t="shared" si="28"/>
         <v>-8.8442999999999994E-2</v>
       </c>
-      <c r="AO26" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA26" s="12">
+        <f t="shared" si="29"/>
         <v>-0.15692600000000001</v>
       </c>
-      <c r="AP26" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB26" s="12">
+        <f t="shared" si="30"/>
         <v>2.9625999999999996E-2</v>
       </c>
-      <c r="AQ26" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC26" s="12">
+        <f t="shared" si="31"/>
         <v>5.0431000000000004E-2</v>
       </c>
-      <c r="AR26" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD26" s="12">
+        <f t="shared" si="32"/>
         <v>-5.169E-2</v>
       </c>
-      <c r="AS26" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE26" s="12">
+        <f t="shared" si="33"/>
         <v>-3.1347999999999987E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>3910</v>
       </c>
@@ -4879,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I27" s="27">
@@ -4905,116 +6186,164 @@
         <f t="shared" si="1"/>
         <v>0.145845</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.162936</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="14"/>
+        <v>-2.8428500000000002E-2</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="15"/>
+        <v>0.1345075</v>
+      </c>
+      <c r="S27" s="12">
         <v>-4.6586000000000002E-2</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="T27" s="12">
         <v>-0.114108</v>
       </c>
-      <c r="R27" s="13">
+      <c r="U27" s="13">
         <f t="shared" si="2"/>
         <v>-6.7521999999999999E-2</v>
       </c>
-      <c r="S27" s="12">
+      <c r="V27" s="12">
         <v>-1.4815999999999999E-2</v>
       </c>
-      <c r="T27" s="12">
+      <c r="W27" s="12">
         <v>-0.12833700000000001</v>
       </c>
-      <c r="U27" s="14">
+      <c r="X27" s="14">
         <f t="shared" si="3"/>
         <v>-0.11352100000000001</v>
       </c>
-      <c r="V27" s="11">
+      <c r="Y27" s="14">
+        <f t="shared" si="16"/>
+        <v>-3.0700999999999999E-2</v>
+      </c>
+      <c r="Z27" s="14">
+        <f t="shared" si="17"/>
+        <v>-0.12122250000000001</v>
+      </c>
+      <c r="AA27" s="14">
+        <f t="shared" si="18"/>
+        <v>-9.0521500000000005E-2</v>
+      </c>
+      <c r="AB27" s="11">
         <v>3.5944999999999998E-2</v>
       </c>
-      <c r="W27" s="12">
+      <c r="AC27" s="12">
         <v>-6.9070999999999994E-2</v>
       </c>
-      <c r="X27" s="13">
+      <c r="AD27" s="13">
         <f t="shared" si="4"/>
         <v>-0.105016</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="AE27" s="11">
         <v>2.2284999999999999E-2</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="AF27" s="12">
         <v>-0.123275</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AG27" s="13">
         <f t="shared" si="5"/>
         <v>-0.14555999999999999</v>
       </c>
-      <c r="AB27" s="12">
+      <c r="AH27" s="14">
+        <f t="shared" si="19"/>
+        <v>2.9114999999999999E-2</v>
+      </c>
+      <c r="AI27" s="14">
+        <f t="shared" si="20"/>
+        <v>-9.6172999999999995E-2</v>
+      </c>
+      <c r="AJ27" s="14">
+        <f t="shared" si="21"/>
+        <v>-0.12528800000000001</v>
+      </c>
+      <c r="AK27" s="12">
         <v>-0.15120800000000001</v>
       </c>
-      <c r="AC27" s="12">
+      <c r="AL27" s="12">
         <v>-6.1436999999999999E-2</v>
       </c>
-      <c r="AD27" s="13">
+      <c r="AM27" s="13">
         <f t="shared" si="6"/>
         <v>8.9771000000000017E-2</v>
       </c>
-      <c r="AE27" s="12">
+      <c r="AN27" s="12">
         <v>-0.13892099999999999</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AO27" s="12">
         <v>-6.5240999999999993E-2</v>
       </c>
-      <c r="AG27" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP27" s="13">
+        <f t="shared" si="22"/>
         <v>7.3679999999999995E-2</v>
       </c>
-      <c r="AH27" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ27" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.14506449999999999</v>
+      </c>
+      <c r="AR27" s="14">
+        <f t="shared" si="24"/>
+        <v>-6.3338999999999993E-2</v>
+      </c>
+      <c r="AS27" s="14">
+        <f t="shared" si="25"/>
+        <v>8.1725500000000006E-2</v>
+      </c>
+      <c r="AT27" s="11">
+        <f t="shared" si="8"/>
         <v>-5.7021199999999994E-2</v>
       </c>
-      <c r="AI27" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU27" s="14">
+        <f t="shared" si="9"/>
         <v>-0.1003675</v>
       </c>
-      <c r="AJ27" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV27" s="14">
+        <f t="shared" si="10"/>
         <v>-6.1442749999999997E-2</v>
       </c>
-      <c r="AK27" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW27" s="13">
+        <f t="shared" si="11"/>
         <v>-7.6287999999999995E-2</v>
       </c>
-      <c r="AL27" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX27" s="12">
+        <f t="shared" si="26"/>
         <v>7.7204999999999996E-2</v>
       </c>
-      <c r="AM27" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY27" s="12">
+        <f t="shared" si="27"/>
         <v>-0.113487</v>
       </c>
-      <c r="AN27" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ27" s="12">
+        <f t="shared" si="28"/>
         <v>0.18726500000000001</v>
       </c>
-      <c r="AO27" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA27" s="12">
+        <f t="shared" si="29"/>
         <v>-7.2100999999999998E-2</v>
       </c>
-      <c r="AP27" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB27" s="12">
+        <f t="shared" si="30"/>
         <v>0.18715300000000001</v>
       </c>
-      <c r="AQ27" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC27" s="12">
+        <f t="shared" si="31"/>
         <v>-7.633999999999995E-3</v>
       </c>
-      <c r="AR27" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD27" s="12">
+        <f t="shared" si="32"/>
         <v>0.16120599999999999</v>
       </c>
-      <c r="AS27" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE27" s="12">
+        <f t="shared" si="33"/>
         <v>-5.8034000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>3912</v>
       </c>
@@ -5037,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="I28" s="27">
@@ -5063,116 +6392,164 @@
         <f t="shared" si="1"/>
         <v>0.12703200000000001</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.15967600000000001</v>
+      </c>
+      <c r="Q28" s="14">
+        <f t="shared" si="14"/>
+        <v>-3.1807500000000002E-2</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" si="15"/>
+        <v>0.1278685</v>
+      </c>
+      <c r="S28" s="12">
         <v>-0.14354800000000001</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="T28" s="12">
         <v>6.3961000000000004E-2</v>
       </c>
-      <c r="R28" s="13">
+      <c r="U28" s="13">
         <f t="shared" si="2"/>
         <v>0.207509</v>
       </c>
-      <c r="S28" s="12">
+      <c r="V28" s="12">
         <v>-0.187551</v>
       </c>
-      <c r="T28" s="12">
+      <c r="W28" s="12">
         <v>6.6267999999999994E-2</v>
       </c>
-      <c r="U28" s="14">
+      <c r="X28" s="14">
         <f t="shared" si="3"/>
         <v>0.25381900000000002</v>
       </c>
-      <c r="V28" s="11">
+      <c r="Y28" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.16554950000000002</v>
+      </c>
+      <c r="Z28" s="14">
+        <f t="shared" si="17"/>
+        <v>6.5114499999999992E-2</v>
+      </c>
+      <c r="AA28" s="14">
+        <f t="shared" si="18"/>
+        <v>0.23066400000000001</v>
+      </c>
+      <c r="AB28" s="11">
         <v>1.6114E-2</v>
       </c>
-      <c r="W28" s="12">
+      <c r="AC28" s="12">
         <v>0.11569400000000001</v>
       </c>
-      <c r="X28" s="13">
+      <c r="AD28" s="13">
         <f t="shared" si="4"/>
         <v>9.9580000000000002E-2</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="AE28" s="11">
         <v>0.13467999999999999</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="AF28" s="12">
         <v>0.19463</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AG28" s="13">
         <f t="shared" si="5"/>
         <v>5.9950000000000003E-2</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AH28" s="14">
+        <f t="shared" si="19"/>
+        <v>7.5396999999999992E-2</v>
+      </c>
+      <c r="AI28" s="14">
+        <f t="shared" si="20"/>
+        <v>0.15516199999999999</v>
+      </c>
+      <c r="AJ28" s="14">
+        <f t="shared" si="21"/>
+        <v>7.9765000000000003E-2</v>
+      </c>
+      <c r="AK28" s="12">
         <v>0.12603200000000001</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AL28" s="12">
         <v>2.8617E-2</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AM28" s="13">
         <f t="shared" si="6"/>
         <v>-9.7415000000000002E-2</v>
       </c>
-      <c r="AE28" s="12">
+      <c r="AN28" s="12">
         <v>-3.3774999999999999E-2</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AO28" s="12">
         <v>-1.9386E-2</v>
       </c>
-      <c r="AG28" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP28" s="13">
+        <f t="shared" si="22"/>
         <v>1.4388999999999999E-2</v>
       </c>
-      <c r="AH28" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ28" s="14">
+        <f t="shared" si="23"/>
+        <v>4.6128500000000003E-2</v>
+      </c>
+      <c r="AR28" s="14">
+        <f t="shared" si="24"/>
+        <v>4.6154999999999998E-3</v>
+      </c>
+      <c r="AS28" s="14">
+        <f t="shared" si="25"/>
+        <v>-4.1513000000000001E-2</v>
+      </c>
+      <c r="AT28" s="11">
+        <f t="shared" si="8"/>
         <v>-2.5907999999999997E-2</v>
       </c>
-      <c r="AI28" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU28" s="14">
+        <f t="shared" si="9"/>
         <v>-0.11357425000000002</v>
       </c>
-      <c r="AJ28" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV28" s="14">
+        <f t="shared" si="10"/>
         <v>7.1614250000000004E-2</v>
       </c>
-      <c r="AK28" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW28" s="13">
+        <f t="shared" si="11"/>
         <v>6.9037249999999994E-2</v>
       </c>
-      <c r="AL28" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX28" s="12">
+        <f t="shared" si="26"/>
         <v>-5.4219000000000003E-2</v>
       </c>
-      <c r="AM28" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY28" s="12">
+        <f t="shared" si="27"/>
         <v>2.4585000000000003E-2</v>
       </c>
-      <c r="AN28" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ28" s="12">
+        <f t="shared" si="28"/>
         <v>4.247200000000001E-2</v>
       </c>
-      <c r="AO28" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA28" s="12">
+        <f t="shared" si="29"/>
         <v>0.16925899999999999</v>
       </c>
-      <c r="AP28" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB28" s="12">
+        <f t="shared" si="30"/>
         <v>-0.109918</v>
       </c>
-      <c r="AQ28" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC28" s="12">
+        <f t="shared" si="31"/>
         <v>8.7077000000000002E-2</v>
       </c>
-      <c r="AR28" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD28" s="12">
+        <f t="shared" si="32"/>
         <v>0.16845499999999999</v>
       </c>
-      <c r="AS28" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE28" s="12">
+        <f t="shared" si="33"/>
         <v>0.21401599999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>3914</v>
       </c>
@@ -5195,7 +6572,7 @@
         <v>21</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="I29" s="27">
@@ -5221,116 +6598,164 @@
         <f t="shared" si="1"/>
         <v>0.15528499999999998</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="14">
+        <f t="shared" si="13"/>
+        <v>-4.1850999999999999E-2</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" si="14"/>
+        <v>0.1047535</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="15"/>
+        <v>0.14660449999999997</v>
+      </c>
+      <c r="S29" s="12">
         <v>-5.3199999999999997E-2</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="T29" s="12">
         <v>8.3458000000000004E-2</v>
       </c>
-      <c r="R29" s="13">
+      <c r="U29" s="13">
         <f t="shared" si="2"/>
         <v>0.136658</v>
       </c>
-      <c r="S29" s="12">
+      <c r="V29" s="12">
         <v>0.119044</v>
       </c>
-      <c r="T29" s="12">
+      <c r="W29" s="12">
         <v>0.19715199999999999</v>
       </c>
-      <c r="U29" s="14">
+      <c r="X29" s="14">
         <f t="shared" si="3"/>
         <v>7.8107999999999997E-2</v>
       </c>
-      <c r="V29" s="11">
+      <c r="Y29" s="14">
+        <f t="shared" si="16"/>
+        <v>3.2922E-2</v>
+      </c>
+      <c r="Z29" s="14">
+        <f t="shared" si="17"/>
+        <v>0.14030500000000001</v>
+      </c>
+      <c r="AA29" s="14">
+        <f t="shared" si="18"/>
+        <v>0.10738300000000001</v>
+      </c>
+      <c r="AB29" s="11">
         <v>-0.161076</v>
       </c>
-      <c r="W29" s="12">
+      <c r="AC29" s="12">
         <v>-8.8548000000000002E-2</v>
       </c>
-      <c r="X29" s="13">
+      <c r="AD29" s="13">
         <f t="shared" si="4"/>
         <v>7.2527999999999995E-2</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="AE29" s="11">
         <v>-6.1520999999999999E-2</v>
       </c>
-      <c r="Z29" s="12">
+      <c r="AF29" s="12">
         <v>-4.7421999999999999E-2</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AG29" s="13">
         <f t="shared" si="5"/>
         <v>1.4099E-2</v>
       </c>
-      <c r="AB29" s="12">
+      <c r="AH29" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.11129849999999999</v>
+      </c>
+      <c r="AI29" s="14">
+        <f t="shared" si="20"/>
+        <v>-6.7985000000000004E-2</v>
+      </c>
+      <c r="AJ29" s="14">
+        <f t="shared" si="21"/>
+        <v>4.3313499999999998E-2</v>
+      </c>
+      <c r="AK29" s="12">
         <v>-0.15851899999999999</v>
       </c>
-      <c r="AC29" s="12">
+      <c r="AL29" s="12">
         <v>2.1512E-2</v>
       </c>
-      <c r="AD29" s="13">
+      <c r="AM29" s="13">
         <f t="shared" si="6"/>
         <v>0.180031</v>
       </c>
-      <c r="AE29" s="12">
+      <c r="AN29" s="12">
         <v>-9.2040999999999998E-2</v>
       </c>
-      <c r="AF29" s="12">
+      <c r="AO29" s="12">
         <v>8.5773000000000002E-2</v>
       </c>
-      <c r="AG29" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP29" s="13">
+        <f t="shared" si="22"/>
         <v>0.177814</v>
       </c>
-      <c r="AH29" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ29" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.12528</v>
+      </c>
+      <c r="AR29" s="14">
+        <f t="shared" si="24"/>
+        <v>5.3642500000000003E-2</v>
+      </c>
+      <c r="AS29" s="14">
+        <f t="shared" si="25"/>
+        <v>0.17892249999999998</v>
+      </c>
+      <c r="AT29" s="11">
+        <f t="shared" si="8"/>
         <v>-1.2303999999999999E-2</v>
       </c>
-      <c r="AI29" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU29" s="14">
+        <f t="shared" si="9"/>
         <v>0.13344475</v>
       </c>
-      <c r="AJ29" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV29" s="14">
+        <f t="shared" si="10"/>
         <v>-9.6657750000000014E-2</v>
       </c>
-      <c r="AK29" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW29" s="13">
+        <f t="shared" si="11"/>
         <v>-2.8802749999999998E-2</v>
       </c>
-      <c r="AL29" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX29" s="12">
+        <f t="shared" si="26"/>
         <v>6.1650999999999997E-2</v>
       </c>
-      <c r="AM29" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY29" s="12">
+        <f t="shared" si="27"/>
         <v>6.0385000000000008E-2</v>
       </c>
-      <c r="AN29" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ29" s="12">
+        <f t="shared" si="28"/>
         <v>8.7895000000000001E-2</v>
       </c>
-      <c r="AO29" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA29" s="12">
+        <f t="shared" si="29"/>
         <v>1.0718000000000005E-2</v>
       </c>
-      <c r="AP29" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB29" s="12">
+        <f t="shared" si="30"/>
         <v>-2.5570000000000037E-3</v>
       </c>
-      <c r="AQ29" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC29" s="12">
+        <f t="shared" si="31"/>
         <v>-0.11006000000000001</v>
       </c>
-      <c r="AR29" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD29" s="12">
+        <f t="shared" si="32"/>
         <v>3.0519999999999999E-2</v>
       </c>
-      <c r="AS29" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE29" s="12">
+        <f t="shared" si="33"/>
         <v>-0.13319500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>3920</v>
       </c>
@@ -5353,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I30" s="27">
@@ -5379,116 +6804,164 @@
         <f t="shared" si="1"/>
         <v>0.18113299999999999</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.19819799999999999</v>
+      </c>
+      <c r="Q30" s="14">
+        <f t="shared" si="14"/>
+        <v>2.034E-2</v>
+      </c>
+      <c r="R30" s="14">
+        <f t="shared" si="15"/>
+        <v>0.21853800000000001</v>
+      </c>
+      <c r="S30" s="12">
         <v>0.17960000000000001</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="T30" s="12">
         <v>1.6688000000000001E-2</v>
       </c>
-      <c r="R30" s="13">
+      <c r="U30" s="13">
         <f t="shared" si="2"/>
         <v>-0.162912</v>
       </c>
-      <c r="S30" s="12">
+      <c r="V30" s="12">
         <v>0.21753500000000001</v>
       </c>
-      <c r="T30" s="12">
+      <c r="W30" s="12">
         <v>0.18332100000000001</v>
       </c>
-      <c r="U30" s="14">
+      <c r="X30" s="14">
         <f t="shared" si="3"/>
         <v>-3.4213999999999994E-2</v>
       </c>
-      <c r="V30" s="11">
+      <c r="Y30" s="14">
+        <f t="shared" si="16"/>
+        <v>0.19856750000000001</v>
+      </c>
+      <c r="Z30" s="14">
+        <f t="shared" si="17"/>
+        <v>0.10000450000000001</v>
+      </c>
+      <c r="AA30" s="14">
+        <f t="shared" si="18"/>
+        <v>-9.8562999999999998E-2</v>
+      </c>
+      <c r="AB30" s="11">
         <v>0.114172</v>
       </c>
-      <c r="W30" s="12">
+      <c r="AC30" s="12">
         <v>0.136208</v>
       </c>
-      <c r="X30" s="13">
+      <c r="AD30" s="13">
         <f t="shared" si="4"/>
         <v>2.2036E-2</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="AE30" s="11">
         <v>0.13848099999999999</v>
       </c>
-      <c r="Z30" s="12">
+      <c r="AF30" s="12">
         <v>0.122512</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AG30" s="13">
         <f t="shared" si="5"/>
         <v>-1.5968999999999997E-2</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AH30" s="14">
+        <f t="shared" si="19"/>
+        <v>0.12632650000000001</v>
+      </c>
+      <c r="AI30" s="14">
+        <f t="shared" si="20"/>
+        <v>0.12936</v>
+      </c>
+      <c r="AJ30" s="14">
+        <f t="shared" si="21"/>
+        <v>3.0335000000000015E-3</v>
+      </c>
+      <c r="AK30" s="12">
         <v>-8.1018000000000007E-2</v>
       </c>
-      <c r="AC30" s="12">
+      <c r="AL30" s="12">
         <v>2.7618E-2</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AM30" s="13">
         <f t="shared" si="6"/>
         <v>0.10863600000000001</v>
       </c>
-      <c r="AE30" s="12">
+      <c r="AN30" s="12">
         <v>-6.9511000000000003E-2</v>
       </c>
-      <c r="AF30" s="12">
+      <c r="AO30" s="12">
         <v>6.8507999999999999E-2</v>
       </c>
-      <c r="AG30" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP30" s="13">
+        <f t="shared" si="22"/>
         <v>0.138019</v>
       </c>
-      <c r="AH30" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ30" s="14">
+        <f t="shared" si="23"/>
+        <v>-7.5264500000000012E-2</v>
+      </c>
+      <c r="AR30" s="14">
+        <f t="shared" si="24"/>
+        <v>4.8063000000000002E-2</v>
+      </c>
+      <c r="AS30" s="14">
+        <f t="shared" si="25"/>
+        <v>0.12332750000000001</v>
+      </c>
+      <c r="AT30" s="11">
+        <f t="shared" si="8"/>
         <v>3.4562000000000022E-3</v>
       </c>
-      <c r="AI30" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU30" s="14">
+        <f t="shared" si="9"/>
         <v>5.6036750000000003E-2</v>
       </c>
-      <c r="AJ30" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV30" s="14">
+        <f t="shared" si="10"/>
         <v>4.9244999999999997E-2</v>
       </c>
-      <c r="AK30" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW30" s="13">
+        <f t="shared" si="11"/>
         <v>6.49975E-2</v>
       </c>
-      <c r="AL30" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX30" s="12">
+        <f t="shared" si="26"/>
         <v>0.39707500000000001</v>
       </c>
-      <c r="AM30" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY30" s="12">
+        <f t="shared" si="27"/>
         <v>-2.1780000000000001E-2</v>
       </c>
-      <c r="AN30" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ30" s="12">
+        <f t="shared" si="28"/>
         <v>0.39645600000000003</v>
       </c>
-      <c r="AO30" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA30" s="12">
+        <f t="shared" si="29"/>
         <v>0.18110900000000002</v>
       </c>
-      <c r="AP30" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB30" s="12">
+        <f t="shared" si="30"/>
         <v>0.19519</v>
       </c>
-      <c r="AQ30" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC30" s="12">
+        <f t="shared" si="31"/>
         <v>0.10858999999999999</v>
       </c>
-      <c r="AR30" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD30" s="12">
+        <f t="shared" si="32"/>
         <v>0.20799200000000001</v>
       </c>
-      <c r="AS30" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE30" s="12">
+        <f t="shared" si="33"/>
         <v>5.4003999999999996E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>3967</v>
       </c>
@@ -5511,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I31" s="27">
@@ -5537,116 +7010,164 @@
         <f t="shared" si="1"/>
         <v>0.13848099999999999</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.19357799999999997</v>
+      </c>
+      <c r="Q31" s="14">
+        <f t="shared" si="14"/>
+        <v>-9.7470000000000005E-3</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" si="15"/>
+        <v>0.18383099999999997</v>
+      </c>
+      <c r="S31" s="12">
         <v>-0.17371800000000001</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="T31" s="12">
         <v>0.151338</v>
       </c>
-      <c r="R31" s="13">
+      <c r="U31" s="13">
         <f t="shared" si="2"/>
         <v>0.32505600000000001</v>
       </c>
-      <c r="S31" s="12">
+      <c r="V31" s="12">
         <v>-0.19462699999999999</v>
       </c>
-      <c r="T31" s="12">
+      <c r="W31" s="12">
         <v>0.28891099999999997</v>
       </c>
-      <c r="U31" s="14">
+      <c r="X31" s="14">
         <f t="shared" si="3"/>
         <v>0.48353799999999997</v>
       </c>
-      <c r="V31" s="11">
+      <c r="Y31" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.18417250000000002</v>
+      </c>
+      <c r="Z31" s="14">
+        <f t="shared" si="17"/>
+        <v>0.2201245</v>
+      </c>
+      <c r="AA31" s="14">
+        <f t="shared" si="18"/>
+        <v>0.40429700000000002</v>
+      </c>
+      <c r="AB31" s="11">
         <v>-0.19425000000000001</v>
       </c>
-      <c r="W31" s="12">
+      <c r="AC31" s="12">
         <v>0.18018500000000001</v>
       </c>
-      <c r="X31" s="13">
+      <c r="AD31" s="13">
         <f t="shared" si="4"/>
         <v>0.37443500000000002</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="AE31" s="11">
         <v>-0.15457199999999999</v>
       </c>
-      <c r="Z31" s="12">
+      <c r="AF31" s="12">
         <v>0.156164</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AG31" s="13">
         <f t="shared" si="5"/>
         <v>0.31073600000000001</v>
       </c>
-      <c r="AB31" s="12">
+      <c r="AH31" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.17441099999999998</v>
+      </c>
+      <c r="AI31" s="14">
+        <f t="shared" si="20"/>
+        <v>0.1681745</v>
+      </c>
+      <c r="AJ31" s="14">
+        <f t="shared" si="21"/>
+        <v>0.34258549999999999</v>
+      </c>
+      <c r="AK31" s="12">
         <v>-1.0366999999999999E-2</v>
       </c>
-      <c r="AC31" s="12">
+      <c r="AL31" s="12">
         <v>5.2230000000000002E-3</v>
       </c>
-      <c r="AD31" s="13">
+      <c r="AM31" s="13">
         <f t="shared" si="6"/>
         <v>1.559E-2</v>
       </c>
-      <c r="AE31" s="12">
+      <c r="AN31" s="12">
         <v>-2.3716999999999998E-2</v>
       </c>
-      <c r="AF31" s="12">
+      <c r="AO31" s="12">
         <v>4.7199999999999998E-4</v>
       </c>
-      <c r="AG31" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP31" s="13">
+        <f t="shared" si="22"/>
         <v>2.4188999999999999E-2</v>
       </c>
-      <c r="AH31" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ31" s="14">
+        <f t="shared" si="23"/>
+        <v>-1.7041999999999998E-2</v>
+      </c>
+      <c r="AR31" s="14">
+        <f t="shared" si="24"/>
+        <v>2.8475000000000002E-3</v>
+      </c>
+      <c r="AS31" s="14">
+        <f t="shared" si="25"/>
+        <v>1.9889499999999997E-2</v>
+      </c>
+      <c r="AT31" s="11">
+        <f t="shared" si="8"/>
         <v>-6.7578200000000005E-2</v>
       </c>
-      <c r="AI31" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU31" s="14">
+        <f t="shared" si="9"/>
         <v>7.8625000000000222E-4</v>
       </c>
-      <c r="AJ31" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV31" s="14">
+        <f t="shared" si="10"/>
         <v>-4.8022499999999992E-3</v>
       </c>
-      <c r="AK31" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW31" s="13">
+        <f t="shared" si="11"/>
         <v>-5.4132499999999971E-3</v>
       </c>
-      <c r="AL31" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX31" s="12">
+        <f t="shared" si="26"/>
         <v>9.8627999999999966E-2</v>
       </c>
-      <c r="AM31" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY31" s="12">
+        <f t="shared" si="27"/>
         <v>0.19450300000000001</v>
       </c>
-      <c r="AN31" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ31" s="12">
+        <f t="shared" si="28"/>
         <v>-7.9816999999999999E-2</v>
       </c>
-      <c r="AO31" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA31" s="12">
+        <f t="shared" si="29"/>
         <v>0.26523999999999998</v>
       </c>
-      <c r="AP31" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB31" s="12">
+        <f t="shared" si="30"/>
         <v>-0.18388300000000002</v>
       </c>
-      <c r="AQ31" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC31" s="12">
+        <f t="shared" si="31"/>
         <v>0.17496200000000001</v>
       </c>
-      <c r="AR31" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD31" s="12">
+        <f t="shared" si="32"/>
         <v>-0.130855</v>
       </c>
-      <c r="AS31" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE31" s="12">
+        <f t="shared" si="33"/>
         <v>0.155692</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>3992</v>
       </c>
@@ -5669,7 +7190,7 @@
         <v>23</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="I32" s="27">
@@ -5695,116 +7216,164 @@
         <f t="shared" si="1"/>
         <v>9.0119000000000005E-2</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="14">
+        <f t="shared" si="13"/>
+        <v>2.3279000000000001E-2</v>
+      </c>
+      <c r="Q32" s="14">
+        <f t="shared" si="14"/>
+        <v>0.12726299999999999</v>
+      </c>
+      <c r="R32" s="14">
+        <f t="shared" si="15"/>
+        <v>0.10398399999999999</v>
+      </c>
+      <c r="S32" s="12">
         <v>4.0141999999999997E-2</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="T32" s="12">
         <v>2.6144000000000001E-2</v>
       </c>
-      <c r="R32" s="13">
+      <c r="U32" s="13">
         <f t="shared" si="2"/>
         <v>-1.3997999999999997E-2</v>
       </c>
-      <c r="S32" s="12">
+      <c r="V32" s="12">
         <v>0.11580600000000001</v>
       </c>
-      <c r="T32" s="12">
+      <c r="W32" s="12">
         <v>-4.6249999999999998E-3</v>
       </c>
-      <c r="U32" s="14">
+      <c r="X32" s="14">
         <f t="shared" si="3"/>
         <v>-0.12043100000000001</v>
       </c>
-      <c r="V32" s="11">
+      <c r="Y32" s="14">
+        <f t="shared" si="16"/>
+        <v>7.7974000000000002E-2</v>
+      </c>
+      <c r="Z32" s="14">
+        <f t="shared" si="17"/>
+        <v>1.07595E-2</v>
+      </c>
+      <c r="AA32" s="14">
+        <f t="shared" si="18"/>
+        <v>-6.721450000000001E-2</v>
+      </c>
+      <c r="AB32" s="11">
         <v>2.0549000000000001E-2</v>
       </c>
-      <c r="W32" s="12">
+      <c r="AC32" s="12">
         <v>7.8139999999999998E-3</v>
       </c>
-      <c r="X32" s="13">
+      <c r="AD32" s="13">
         <f t="shared" si="4"/>
         <v>-1.2735000000000002E-2</v>
       </c>
-      <c r="Y32" s="11">
+      <c r="AE32" s="11">
         <v>-1.2631E-2</v>
       </c>
-      <c r="Z32" s="12">
+      <c r="AF32" s="12">
         <v>-4.5734999999999998E-2</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AG32" s="13">
         <f t="shared" si="5"/>
         <v>-3.3103999999999995E-2</v>
       </c>
-      <c r="AB32" s="12">
+      <c r="AH32" s="14">
+        <f t="shared" si="19"/>
+        <v>3.9590000000000007E-3</v>
+      </c>
+      <c r="AI32" s="14">
+        <f t="shared" si="20"/>
+        <v>-1.8960499999999998E-2</v>
+      </c>
+      <c r="AJ32" s="14">
+        <f t="shared" si="21"/>
+        <v>-2.2919499999999999E-2</v>
+      </c>
+      <c r="AK32" s="12">
         <v>-3.3739999999999998E-3</v>
       </c>
-      <c r="AC32" s="12">
+      <c r="AL32" s="12">
         <v>5.6363000000000003E-2</v>
       </c>
-      <c r="AD32" s="13">
+      <c r="AM32" s="13">
         <f t="shared" si="6"/>
         <v>5.9737000000000005E-2</v>
       </c>
-      <c r="AE32" s="12">
+      <c r="AN32" s="12">
         <v>-5.1005000000000002E-2</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AO32" s="12">
         <v>7.8109999999999999E-2</v>
       </c>
-      <c r="AG32" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP32" s="13">
+        <f t="shared" si="22"/>
         <v>0.12911500000000001</v>
       </c>
-      <c r="AH32" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ32" s="14">
+        <f t="shared" si="23"/>
+        <v>-2.7189500000000002E-2</v>
+      </c>
+      <c r="AR32" s="14">
+        <f t="shared" si="24"/>
+        <v>6.7236500000000005E-2</v>
+      </c>
+      <c r="AS32" s="14">
+        <f t="shared" si="25"/>
+        <v>9.442600000000001E-2</v>
+      </c>
+      <c r="AT32" s="11">
+        <f t="shared" si="8"/>
         <v>4.1747800000000002E-2</v>
       </c>
-      <c r="AI32" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU32" s="14">
+        <f t="shared" si="9"/>
         <v>6.7452999999999999E-2</v>
       </c>
-      <c r="AJ32" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV32" s="14">
+        <f t="shared" si="10"/>
         <v>2.0338000000000002E-2</v>
       </c>
-      <c r="AK32" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW32" s="13">
+        <f t="shared" si="11"/>
         <v>-7.8152499999999993E-3</v>
       </c>
-      <c r="AL32" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX32" s="12">
+        <f t="shared" si="26"/>
         <v>2.7839999999999997E-2</v>
       </c>
-      <c r="AM32" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY32" s="12">
+        <f t="shared" si="27"/>
         <v>-0.10400699999999999</v>
       </c>
-      <c r="AN32" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ32" s="12">
+        <f t="shared" si="28"/>
         <v>8.1550000000000011E-2</v>
       </c>
-      <c r="AO32" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA32" s="12">
+        <f t="shared" si="29"/>
         <v>-0.129</v>
       </c>
-      <c r="AP32" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB32" s="12">
+        <f t="shared" si="30"/>
         <v>2.3923E-2</v>
       </c>
-      <c r="AQ32" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC32" s="12">
+        <f t="shared" si="31"/>
         <v>-4.8549000000000002E-2</v>
       </c>
-      <c r="AR32" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD32" s="12">
+        <f t="shared" si="32"/>
         <v>3.8374000000000005E-2</v>
       </c>
-      <c r="AS32" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE32" s="12">
+        <f t="shared" si="33"/>
         <v>-0.123845</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>4017</v>
       </c>
@@ -5827,7 +7396,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="I33" s="27">
@@ -5853,116 +7422,164 @@
         <f t="shared" si="1"/>
         <v>0.37129299999999998</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.140926</v>
+      </c>
+      <c r="Q33" s="14">
+        <f t="shared" si="14"/>
+        <v>0.25682749999999999</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" si="15"/>
+        <v>0.39775349999999998</v>
+      </c>
+      <c r="S33" s="12">
         <v>0.26120700000000002</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="T33" s="12">
         <v>-4.0544999999999998E-2</v>
       </c>
-      <c r="R33" s="13">
+      <c r="U33" s="13">
         <f t="shared" si="2"/>
         <v>-0.30175200000000002</v>
       </c>
-      <c r="S33" s="12">
+      <c r="V33" s="12">
         <v>0.23862700000000001</v>
       </c>
-      <c r="T33" s="12">
+      <c r="W33" s="12">
         <v>-7.2652999999999995E-2</v>
       </c>
-      <c r="U33" s="14">
+      <c r="X33" s="14">
         <f t="shared" si="3"/>
         <v>-0.31128</v>
       </c>
-      <c r="V33" s="11">
+      <c r="Y33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.249917</v>
+      </c>
+      <c r="Z33" s="14">
+        <f t="shared" si="17"/>
+        <v>-5.6598999999999997E-2</v>
+      </c>
+      <c r="AA33" s="14">
+        <f t="shared" si="18"/>
+        <v>-0.30651600000000001</v>
+      </c>
+      <c r="AB33" s="11">
         <v>0.12012</v>
       </c>
-      <c r="W33" s="12">
+      <c r="AC33" s="12">
         <v>0.16584499999999999</v>
       </c>
-      <c r="X33" s="13">
+      <c r="AD33" s="13">
         <f t="shared" si="4"/>
         <v>4.5724999999999988E-2</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="AE33" s="11">
         <v>0.13563500000000001</v>
       </c>
-      <c r="Z33" s="12">
+      <c r="AF33" s="12">
         <v>0.18754899999999999</v>
       </c>
-      <c r="AA33" s="13">
+      <c r="AG33" s="13">
         <f t="shared" si="5"/>
         <v>5.1913999999999988E-2</v>
       </c>
-      <c r="AB33" s="12">
+      <c r="AH33" s="14">
+        <f t="shared" si="19"/>
+        <v>0.12787750000000001</v>
+      </c>
+      <c r="AI33" s="14">
+        <f t="shared" si="20"/>
+        <v>0.17669699999999999</v>
+      </c>
+      <c r="AJ33" s="14">
+        <f t="shared" si="21"/>
+        <v>4.8819499999999988E-2</v>
+      </c>
+      <c r="AK33" s="12">
         <v>-0.16443199999999999</v>
       </c>
-      <c r="AC33" s="12">
+      <c r="AL33" s="12">
         <v>-7.5204999999999994E-2</v>
       </c>
-      <c r="AD33" s="13">
+      <c r="AM33" s="13">
         <f t="shared" si="6"/>
         <v>8.9227000000000001E-2</v>
       </c>
-      <c r="AE33" s="12">
+      <c r="AN33" s="12">
         <v>-0.10000299999999999</v>
       </c>
-      <c r="AF33" s="12">
+      <c r="AO33" s="12">
         <v>3.7670000000000002E-2</v>
       </c>
-      <c r="AG33" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP33" s="13">
+        <f t="shared" si="22"/>
         <v>0.13767299999999999</v>
       </c>
-      <c r="AH33" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ33" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.13221749999999999</v>
+      </c>
+      <c r="AR33" s="14">
+        <f t="shared" si="24"/>
+        <v>-1.8767499999999996E-2</v>
+      </c>
+      <c r="AS33" s="14">
+        <f t="shared" si="25"/>
+        <v>0.11345</v>
+      </c>
+      <c r="AT33" s="11">
+        <f t="shared" si="8"/>
         <v>7.9752000000000003E-2</v>
       </c>
-      <c r="AI33" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU33" s="14">
+        <f t="shared" si="9"/>
         <v>5.491975000000001E-2</v>
       </c>
-      <c r="AJ33" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV33" s="14">
+        <f t="shared" si="10"/>
         <v>1.1582000000000009E-2</v>
       </c>
-      <c r="AK33" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW33" s="13">
+        <f t="shared" si="11"/>
         <v>6.521275E-2</v>
       </c>
-      <c r="AL33" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX33" s="12">
+        <f t="shared" si="26"/>
         <v>0.38426500000000002</v>
       </c>
-      <c r="AM33" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY33" s="12">
+        <f t="shared" si="27"/>
         <v>-0.34170099999999998</v>
       </c>
-      <c r="AN33" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ33" s="12">
+        <f t="shared" si="28"/>
         <v>0.39742100000000002</v>
       </c>
-      <c r="AO33" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA33" s="12">
+        <f t="shared" si="29"/>
         <v>-0.28515199999999996</v>
       </c>
-      <c r="AP33" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB33" s="12">
+        <f t="shared" si="30"/>
         <v>0.28455200000000003</v>
       </c>
-      <c r="AQ33" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC33" s="12">
+        <f t="shared" si="31"/>
         <v>0.24104999999999999</v>
       </c>
-      <c r="AR33" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD33" s="12">
+        <f t="shared" si="32"/>
         <v>0.23563800000000001</v>
       </c>
-      <c r="AS33" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE33" s="12">
+        <f t="shared" si="33"/>
         <v>0.14987899999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>4018</v>
       </c>
@@ -5985,7 +7602,7 @@
         <v>18</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="I34" s="27">
@@ -6011,116 +7628,164 @@
         <f t="shared" si="1"/>
         <v>3.1021E-2</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="14">
+        <f t="shared" si="13"/>
+        <v>9.9430000000000004E-3</v>
+      </c>
+      <c r="Q34" s="14">
+        <f t="shared" si="14"/>
+        <v>-6.6050499999999998E-2</v>
+      </c>
+      <c r="R34" s="14">
+        <f t="shared" si="15"/>
+        <v>-7.5993500000000005E-2</v>
+      </c>
+      <c r="S34" s="12">
         <v>-0.1232</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="T34" s="12">
         <v>-6.8015999999999993E-2</v>
       </c>
-      <c r="R34" s="13">
+      <c r="U34" s="13">
         <f t="shared" si="2"/>
         <v>5.5184000000000011E-2</v>
       </c>
-      <c r="S34" s="12">
+      <c r="V34" s="12">
         <v>-0.30429</v>
       </c>
-      <c r="T34" s="12">
+      <c r="W34" s="12">
         <v>-8.6794999999999997E-2</v>
       </c>
-      <c r="U34" s="14">
+      <c r="X34" s="14">
         <f t="shared" si="3"/>
         <v>0.21749499999999999</v>
       </c>
-      <c r="V34" s="11">
+      <c r="Y34" s="14">
+        <f t="shared" si="16"/>
+        <v>-0.21374500000000002</v>
+      </c>
+      <c r="Z34" s="14">
+        <f t="shared" si="17"/>
+        <v>-7.7405499999999988E-2</v>
+      </c>
+      <c r="AA34" s="14">
+        <f t="shared" si="18"/>
+        <v>0.1363395</v>
+      </c>
+      <c r="AB34" s="11">
         <v>-6.1380999999999998E-2</v>
       </c>
-      <c r="W34" s="12">
+      <c r="AC34" s="12">
         <v>-5.3992999999999999E-2</v>
       </c>
-      <c r="X34" s="13">
+      <c r="AD34" s="13">
         <f t="shared" si="4"/>
         <v>7.3879999999999987E-3</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="AE34" s="11">
         <v>-0.161796</v>
       </c>
-      <c r="Z34" s="12">
+      <c r="AF34" s="12">
         <v>-9.8267999999999994E-2</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AG34" s="13">
         <f t="shared" si="5"/>
         <v>6.3528000000000001E-2</v>
       </c>
-      <c r="AB34" s="12">
+      <c r="AH34" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.11158849999999999</v>
+      </c>
+      <c r="AI34" s="14">
+        <f t="shared" si="20"/>
+        <v>-7.613049999999999E-2</v>
+      </c>
+      <c r="AJ34" s="14">
+        <f t="shared" si="21"/>
+        <v>3.5458000000000003E-2</v>
+      </c>
+      <c r="AK34" s="12">
         <v>0.116092</v>
       </c>
-      <c r="AC34" s="12">
+      <c r="AL34" s="12">
         <v>-3.8662000000000002E-2</v>
       </c>
-      <c r="AD34" s="13">
+      <c r="AM34" s="13">
         <f t="shared" si="6"/>
         <v>-0.154754</v>
       </c>
-      <c r="AE34" s="12">
+      <c r="AN34" s="12">
         <v>0.12664800000000001</v>
       </c>
-      <c r="AF34" s="12">
+      <c r="AO34" s="12">
         <v>6.2628000000000003E-2</v>
       </c>
-      <c r="AG34" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP34" s="13">
+        <f t="shared" si="22"/>
         <v>-6.4020000000000007E-2</v>
       </c>
-      <c r="AH34" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ34" s="14">
+        <f t="shared" si="23"/>
+        <v>0.12137000000000001</v>
+      </c>
+      <c r="AR34" s="14">
+        <f t="shared" si="24"/>
+        <v>1.1983000000000001E-2</v>
+      </c>
+      <c r="AS34" s="14">
+        <f t="shared" si="25"/>
+        <v>-0.10938700000000001</v>
+      </c>
+      <c r="AT34" s="11">
+        <f t="shared" si="8"/>
         <v>-6.8100799999999989E-2</v>
       </c>
-      <c r="AI34" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU34" s="14">
+        <f t="shared" si="9"/>
         <v>-8.8502999999999998E-2</v>
       </c>
-      <c r="AJ34" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV34" s="14">
+        <f t="shared" si="10"/>
         <v>-9.4860000000000014E-3</v>
       </c>
-      <c r="AK34" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW34" s="13">
+        <f t="shared" si="11"/>
         <v>-1.7696999999999987E-2</v>
       </c>
-      <c r="AL34" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX34" s="12">
+        <f t="shared" si="26"/>
         <v>-0.14006000000000002</v>
       </c>
-      <c r="AM34" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY34" s="12">
+        <f t="shared" si="27"/>
         <v>9.8131999999999997E-2</v>
       </c>
-      <c r="AN34" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ34" s="12">
+        <f t="shared" si="28"/>
         <v>-0.30731599999999998</v>
       </c>
-      <c r="AO34" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA34" s="12">
+        <f t="shared" si="29"/>
         <v>-0.120842</v>
       </c>
-      <c r="AP34" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB34" s="12">
+        <f t="shared" si="30"/>
         <v>-0.17747299999999999</v>
       </c>
-      <c r="AQ34" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC34" s="12">
+        <f t="shared" si="31"/>
         <v>-1.5330999999999997E-2</v>
       </c>
-      <c r="AR34" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD34" s="12">
+        <f t="shared" si="32"/>
         <v>-0.28844400000000003</v>
       </c>
-      <c r="AS34" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE34" s="12">
+        <f t="shared" si="33"/>
         <v>-0.16089599999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>4019</v>
       </c>
@@ -6143,7 +7808,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="I35" s="27">
@@ -6169,116 +7834,164 @@
         <f t="shared" si="1"/>
         <v>-8.4435999999999983E-2</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="14">
+        <f t="shared" si="13"/>
+        <v>-0.16462749999999998</v>
+      </c>
+      <c r="Q35" s="14">
+        <f t="shared" si="14"/>
+        <v>-0.23227700000000001</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" si="15"/>
+        <v>-6.7649500000000001E-2</v>
+      </c>
+      <c r="S35" s="12">
         <v>3.8027999999999999E-2</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="T35" s="12">
         <v>1.6508999999999999E-2</v>
       </c>
-      <c r="R35" s="13">
+      <c r="U35" s="13">
         <f t="shared" si="2"/>
         <v>-2.1519E-2</v>
       </c>
-      <c r="S35" s="12">
+      <c r="V35" s="12">
         <v>-3.3804000000000001E-2</v>
       </c>
-      <c r="T35" s="12">
+      <c r="W35" s="12">
         <v>-0.11378000000000001</v>
       </c>
-      <c r="U35" s="14">
+      <c r="X35" s="14">
         <f t="shared" si="3"/>
         <v>-7.9976000000000005E-2</v>
       </c>
-      <c r="V35" s="11">
+      <c r="Y35" s="14">
+        <f t="shared" si="16"/>
+        <v>2.1119999999999993E-3</v>
+      </c>
+      <c r="Z35" s="14">
+        <f t="shared" si="17"/>
+        <v>-4.8635500000000005E-2</v>
+      </c>
+      <c r="AA35" s="14">
+        <f t="shared" si="18"/>
+        <v>-5.0747500000000001E-2</v>
+      </c>
+      <c r="AB35" s="11">
         <v>1.89E-2</v>
       </c>
-      <c r="W35" s="12">
+      <c r="AC35" s="12">
         <v>-7.9951999999999995E-2</v>
       </c>
-      <c r="X35" s="13">
+      <c r="AD35" s="13">
         <f t="shared" si="4"/>
         <v>-9.8851999999999995E-2</v>
       </c>
-      <c r="Y35" s="11">
+      <c r="AE35" s="11">
         <v>7.5648000000000007E-2</v>
       </c>
-      <c r="Z35" s="12">
+      <c r="AF35" s="12">
         <v>2.2464000000000001E-2</v>
       </c>
-      <c r="AA35" s="13">
+      <c r="AG35" s="13">
         <f t="shared" si="5"/>
         <v>-5.3184000000000009E-2</v>
       </c>
-      <c r="AB35" s="12">
+      <c r="AH35" s="14">
+        <f t="shared" si="19"/>
+        <v>4.7274000000000004E-2</v>
+      </c>
+      <c r="AI35" s="14">
+        <f t="shared" si="20"/>
+        <v>-2.8743999999999999E-2</v>
+      </c>
+      <c r="AJ35" s="14">
+        <f t="shared" si="21"/>
+        <v>-7.6018000000000002E-2</v>
+      </c>
+      <c r="AK35" s="12">
         <v>-0.19728599999999999</v>
       </c>
-      <c r="AC35" s="12">
+      <c r="AL35" s="12">
         <v>-0.16514200000000001</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AM35" s="13">
         <f t="shared" si="6"/>
         <v>3.2143999999999978E-2</v>
       </c>
-      <c r="AE35" s="12">
+      <c r="AN35" s="12">
         <v>-8.1860000000000002E-2</v>
       </c>
-      <c r="AF35" s="12">
+      <c r="AO35" s="12">
         <v>-5.527E-2</v>
       </c>
-      <c r="AG35" s="13">
-        <f t="shared" si="12"/>
+      <c r="AP35" s="13">
+        <f t="shared" si="22"/>
         <v>2.6590000000000003E-2</v>
       </c>
-      <c r="AH35" s="11">
-        <f t="shared" si="7"/>
+      <c r="AQ35" s="14">
+        <f t="shared" si="23"/>
+        <v>-0.139573</v>
+      </c>
+      <c r="AR35" s="14">
+        <f t="shared" si="24"/>
+        <v>-0.110206</v>
+      </c>
+      <c r="AS35" s="14">
+        <f t="shared" si="25"/>
+        <v>2.936699999999999E-2</v>
+      </c>
+      <c r="AT35" s="11">
+        <f t="shared" si="8"/>
         <v>-8.3086000000000007E-2</v>
       </c>
-      <c r="AI35" s="14">
-        <f t="shared" si="8"/>
+      <c r="AU35" s="14">
+        <f t="shared" si="9"/>
         <v>-0.11785649999999999</v>
       </c>
-      <c r="AJ35" s="14">
-        <f t="shared" si="9"/>
+      <c r="AV35" s="14">
+        <f t="shared" si="10"/>
         <v>-0.10586999999999999</v>
       </c>
-      <c r="AK35" s="13">
-        <f t="shared" si="10"/>
+      <c r="AW35" s="13">
+        <f t="shared" si="11"/>
         <v>-9.7544999999999993E-3</v>
       </c>
-      <c r="AL35" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX35" s="12">
+        <f t="shared" si="26"/>
         <v>0.24757999999999999</v>
       </c>
-      <c r="AM35" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY35" s="12">
+        <f t="shared" si="27"/>
         <v>0.276924</v>
       </c>
-      <c r="AN35" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ35" s="12">
+        <f t="shared" si="28"/>
         <v>8.5899000000000003E-2</v>
       </c>
-      <c r="AO35" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA35" s="12">
+        <f t="shared" si="29"/>
         <v>9.0358999999999981E-2</v>
       </c>
-      <c r="AP35" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB35" s="12">
+        <f t="shared" si="30"/>
         <v>0.21618599999999999</v>
       </c>
-      <c r="AQ35" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC35" s="12">
+        <f t="shared" si="31"/>
         <v>8.5190000000000016E-2</v>
       </c>
-      <c r="AR35" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD35" s="12">
+        <f t="shared" si="32"/>
         <v>0.15750800000000001</v>
       </c>
-      <c r="AS35" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE35" s="12">
+        <f t="shared" si="33"/>
         <v>7.7733999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>4020</v>
       </c>
@@ -6301,7 +8014,7 @@
         <v>20</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="I36" s="22">
@@ -6327,112 +8040,160 @@
         <f t="shared" si="1"/>
         <v>0.10097400000000001</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="14">
+        <f t="shared" si="13"/>
+        <v>5.8689999999999999E-2</v>
+      </c>
+      <c r="Q36" s="14">
+        <f t="shared" si="14"/>
+        <v>0.16444400000000001</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="15"/>
+        <v>0.105754</v>
+      </c>
+      <c r="S36" s="20">
         <v>-2.6162000000000001E-2</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="T36" s="20">
         <v>1.6882000000000001E-2</v>
       </c>
-      <c r="R36" s="21">
+      <c r="U36" s="21">
         <f t="shared" si="2"/>
         <v>4.3043999999999999E-2</v>
       </c>
-      <c r="S36" s="20">
+      <c r="V36" s="20">
         <v>-6.1238000000000001E-2</v>
       </c>
-      <c r="T36" s="20">
+      <c r="W36" s="20">
         <v>-3.3007000000000002E-2</v>
       </c>
-      <c r="U36" s="20">
+      <c r="X36" s="20">
         <f t="shared" si="3"/>
         <v>2.8230999999999999E-2</v>
       </c>
-      <c r="V36" s="19">
+      <c r="Y36" s="14">
+        <f t="shared" si="16"/>
+        <v>-4.3700000000000003E-2</v>
+      </c>
+      <c r="Z36" s="14">
+        <f t="shared" si="17"/>
+        <v>-8.0625000000000002E-3</v>
+      </c>
+      <c r="AA36" s="14">
+        <f t="shared" si="18"/>
+        <v>3.5637500000000003E-2</v>
+      </c>
+      <c r="AB36" s="19">
         <v>3.5002999999999999E-2</v>
       </c>
-      <c r="W36" s="20">
+      <c r="AC36" s="20">
         <v>2.9975999999999999E-2</v>
       </c>
-      <c r="X36" s="21">
+      <c r="AD36" s="21">
         <f t="shared" si="4"/>
         <v>-5.0270000000000002E-3</v>
       </c>
-      <c r="Y36" s="19">
+      <c r="AE36" s="19">
         <v>2.5399999999999999E-4</v>
       </c>
-      <c r="Z36" s="20">
+      <c r="AF36" s="20">
         <v>-3.39E-4</v>
       </c>
-      <c r="AA36" s="21">
+      <c r="AG36" s="21">
         <f t="shared" si="5"/>
         <v>-5.9299999999999999E-4</v>
       </c>
-      <c r="AB36" s="20">
+      <c r="AH36" s="14">
+        <f t="shared" si="19"/>
+        <v>1.7628499999999998E-2</v>
+      </c>
+      <c r="AI36" s="14">
+        <f t="shared" si="20"/>
+        <v>1.48185E-2</v>
+      </c>
+      <c r="AJ36" s="14">
+        <f t="shared" si="21"/>
+        <v>-2.81E-3</v>
+      </c>
+      <c r="AK36" s="20">
         <v>5.3415999999999998E-2</v>
       </c>
-      <c r="AC36" s="20">
+      <c r="AL36" s="20">
         <v>0.13294400000000001</v>
       </c>
-      <c r="AD36" s="21">
+      <c r="AM36" s="21">
         <f t="shared" si="6"/>
         <v>7.9528000000000015E-2</v>
       </c>
-      <c r="AE36" s="20">
+      <c r="AN36" s="20">
         <v>6.8223000000000006E-2</v>
       </c>
-      <c r="AF36" s="20">
+      <c r="AO36" s="20">
         <v>0.190882</v>
       </c>
-      <c r="AG36" s="21">
-        <f t="shared" si="12"/>
+      <c r="AP36" s="21">
+        <f t="shared" si="22"/>
         <v>0.12265899999999999</v>
       </c>
-      <c r="AH36" s="19">
-        <f t="shared" si="7"/>
+      <c r="AQ36" s="14">
+        <f t="shared" si="23"/>
+        <v>6.0819499999999999E-2</v>
+      </c>
+      <c r="AR36" s="14">
+        <f t="shared" si="24"/>
+        <v>0.161913</v>
+      </c>
+      <c r="AS36" s="14">
+        <f t="shared" si="25"/>
+        <v>0.1010935</v>
+      </c>
+      <c r="AT36" s="19">
+        <f t="shared" si="8"/>
         <v>6.1770800000000001E-2</v>
       </c>
-      <c r="AI36" s="20">
-        <f t="shared" si="8"/>
+      <c r="AU36" s="20">
+        <f t="shared" si="9"/>
         <v>8.4722499999999989E-3</v>
       </c>
-      <c r="AJ36" s="20">
-        <f t="shared" si="9"/>
+      <c r="AV36" s="20">
+        <f t="shared" si="10"/>
         <v>6.2834749999999995E-2</v>
       </c>
-      <c r="AK36" s="21">
-        <f t="shared" si="10"/>
+      <c r="AW36" s="21">
+        <f t="shared" si="11"/>
         <v>6.4755000000000007E-2</v>
       </c>
-      <c r="AL36" s="12">
-        <f t="shared" si="13"/>
+      <c r="AX36" s="12">
+        <f t="shared" si="26"/>
         <v>-0.12996199999999999</v>
       </c>
-      <c r="AM36" s="12">
-        <f t="shared" si="14"/>
+      <c r="AY36" s="12">
+        <f t="shared" si="27"/>
         <v>-0.19745199999999999</v>
       </c>
-      <c r="AN36" s="12">
-        <f t="shared" si="15"/>
+      <c r="AZ36" s="12">
+        <f t="shared" si="28"/>
         <v>-7.4817999999999996E-2</v>
       </c>
-      <c r="AO36" s="12">
-        <f t="shared" si="16"/>
+      <c r="BA36" s="12">
+        <f t="shared" si="29"/>
         <v>-0.147561</v>
       </c>
-      <c r="AP36" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB36" s="12">
+        <f t="shared" si="30"/>
         <v>-1.8412999999999999E-2</v>
       </c>
-      <c r="AQ36" s="12">
-        <f t="shared" si="18"/>
+      <c r="BC36" s="12">
+        <f t="shared" si="31"/>
         <v>-0.102968</v>
       </c>
-      <c r="AR36" s="12">
-        <f t="shared" si="19"/>
+      <c r="BD36" s="12">
+        <f t="shared" si="32"/>
         <v>-6.7969000000000002E-2</v>
       </c>
-      <c r="AS36" s="12">
-        <f t="shared" si="20"/>
+      <c r="BE36" s="12">
+        <f t="shared" si="33"/>
         <v>-0.191221</v>
       </c>
     </row>

--- a/fMRI-anovas/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/fMRI-anovas/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/fMRI-anovas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EF6AD-5D3D-CD4D-893C-A671D298ECFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833FAFA-199B-8D41-9DDF-5B5ADA4C0759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>MVSL_Incorrect</t>
   </si>
@@ -224,6 +224,12 @@
   <si>
     <t>MVSL = Monetary Ventral Striatum Left; Striatal Activation for Correct and Incorrect Trials for the doors task in the left ventral striatum. MVSL_Contrast = Correct - Incorrect</t>
   </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -310,6 +316,9 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -628,7330 +637,7338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE6266C-C2C9-0545-A621-E0AD7AF2C0DA}">
-  <dimension ref="A1:BF37"/>
+  <dimension ref="A1:BH37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="5"/>
-    <col min="9" max="9" width="24.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="6" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="12.33203125" style="5" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="24.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="9" t="s">
+    <row r="1" spans="1:60" s="1" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>3836</v>
       </c>
-      <c r="D3" s="6">
+      <c r="F3" s="6">
         <v>7.0149834110000002</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="5">
         <v>6.6323999999999996</v>
       </c>
-      <c r="F3" s="7">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="I3" s="7">
         <v>9</v>
       </c>
-      <c r="H3" s="7">
+      <c r="J3" s="7">
         <v>15</v>
       </c>
-      <c r="I3" s="7">
-        <f>SUM(F3,G3,H3)</f>
+      <c r="K3" s="7">
+        <f>SUM(H3,I3,J3)</f>
         <v>24</v>
       </c>
-      <c r="J3" s="8">
+      <c r="L3" s="8">
         <v>24</v>
       </c>
-      <c r="K3" s="5">
+      <c r="M3" s="5">
         <v>-6.6542000000000004E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="N3" s="5">
         <v>-0.15945799999999999</v>
       </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
+      <c r="O3" s="5">
+        <f>N3-M3</f>
         <v>-9.2915999999999985E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="P3" s="5">
         <v>-0.127364</v>
       </c>
-      <c r="O3" s="5">
+      <c r="Q3" s="5">
         <v>-0.100619</v>
       </c>
-      <c r="P3" s="5">
-        <f t="shared" ref="P3:P37" si="0">O3-N3</f>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R37" si="0">Q3-P3</f>
         <v>2.6745000000000005E-2</v>
-      </c>
-      <c r="Q3" s="5">
-        <f>AVERAGE(K3,N3)</f>
-        <v>-9.6953000000000011E-2</v>
-      </c>
-      <c r="R3" s="5">
-        <f>AVERAGE(L3,O3)</f>
-        <v>-0.1300385</v>
       </c>
       <c r="S3" s="5">
         <f>AVERAGE(M3,P3)</f>
+        <v>-9.6953000000000011E-2</v>
+      </c>
+      <c r="T3" s="5">
+        <f>AVERAGE(N3,Q3)</f>
+        <v>-0.1300385</v>
+      </c>
+      <c r="U3" s="5">
+        <f>AVERAGE(O3,R3)</f>
         <v>-3.308549999999999E-2</v>
       </c>
-      <c r="T3" s="5">
+      <c r="V3" s="5">
         <v>3.8214999999999999E-2</v>
       </c>
-      <c r="U3" s="5">
+      <c r="W3" s="5">
         <v>-8.404E-3</v>
       </c>
-      <c r="V3" s="5">
-        <f t="shared" ref="V3:V37" si="1">U3-T3</f>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:X37" si="1">W3-V3</f>
         <v>-4.6619000000000001E-2</v>
       </c>
-      <c r="W3" s="5">
+      <c r="Y3" s="5">
         <v>1.4739E-2</v>
       </c>
-      <c r="X3" s="5">
+      <c r="Z3" s="5">
         <v>-4.8593999999999998E-2</v>
       </c>
-      <c r="Y3" s="5">
-        <f t="shared" ref="Y3:Y37" si="2">X3-W3</f>
+      <c r="AA3" s="5">
+        <f t="shared" ref="AA3:AA37" si="2">Z3-Y3</f>
         <v>-6.3333E-2</v>
-      </c>
-      <c r="Z3" s="5">
-        <f>AVERAGE(T3,W3)</f>
-        <v>2.6477000000000001E-2</v>
-      </c>
-      <c r="AA3" s="5">
-        <f>AVERAGE(U3,X3)</f>
-        <v>-2.8499E-2</v>
       </c>
       <c r="AB3" s="5">
         <f>AVERAGE(V3,Y3)</f>
+        <v>2.6477000000000001E-2</v>
+      </c>
+      <c r="AC3" s="5">
+        <f>AVERAGE(W3,Z3)</f>
+        <v>-2.8499E-2</v>
+      </c>
+      <c r="AD3" s="5">
+        <f>AVERAGE(X3,AA3)</f>
         <v>-5.4975999999999997E-2</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AE3" s="5">
         <v>0.10792300000000001</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AF3" s="5">
         <v>7.7044000000000001E-2</v>
       </c>
-      <c r="AE3" s="5">
-        <f t="shared" ref="AE3:AE37" si="3">AD3-AC3</f>
+      <c r="AG3" s="5">
+        <f t="shared" ref="AG3:AG37" si="3">AF3-AE3</f>
         <v>-3.0879000000000004E-2</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AH3" s="5">
         <v>5.0793999999999999E-2</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AI3" s="5">
         <v>0.103228</v>
       </c>
-      <c r="AH3" s="5">
-        <f t="shared" ref="AH3:AH37" si="4">AG3-AF3</f>
+      <c r="AJ3" s="5">
+        <f t="shared" ref="AJ3:AJ37" si="4">AI3-AH3</f>
         <v>5.2434000000000001E-2</v>
-      </c>
-      <c r="AI3" s="5">
-        <f>AVERAGE(AC3,AF3)</f>
-        <v>7.9358499999999998E-2</v>
-      </c>
-      <c r="AJ3" s="5">
-        <f>AVERAGE(AD3,AG3)</f>
-        <v>9.0135999999999994E-2</v>
       </c>
       <c r="AK3" s="5">
         <f>AVERAGE(AE3,AH3)</f>
+        <v>7.9358499999999998E-2</v>
+      </c>
+      <c r="AL3" s="5">
+        <f>AVERAGE(AF3,AI3)</f>
+        <v>9.0135999999999994E-2</v>
+      </c>
+      <c r="AM3" s="5">
+        <f>AVERAGE(AG3,AJ3)</f>
         <v>1.0777499999999999E-2</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AN3" s="5">
         <v>-7.3726E-2</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AO3" s="5">
         <v>1.7937999999999999E-2</v>
       </c>
-      <c r="AN3" s="5">
-        <f t="shared" ref="AN3:AN37" si="5">AM3-AL3</f>
+      <c r="AP3" s="5">
+        <f t="shared" ref="AP3:AP37" si="5">AO3-AN3</f>
         <v>9.1663999999999995E-2</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AQ3" s="5">
         <v>-5.9027999999999997E-2</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AR3" s="5">
         <v>6.9194000000000006E-2</v>
       </c>
-      <c r="AQ3" s="5">
-        <f>AP3-AO3</f>
+      <c r="AS3" s="5">
+        <f>AR3-AQ3</f>
         <v>0.128222</v>
       </c>
-      <c r="AR3" s="5">
-        <f>AVERAGE(AL3,AO3)</f>
+      <c r="AT3" s="5">
+        <f>AVERAGE(AN3,AQ3)</f>
         <v>-6.6376999999999992E-2</v>
       </c>
-      <c r="AS3" s="5">
-        <f t="shared" ref="AS3:AT3" si="6">AVERAGE(AM3,AP3)</f>
+      <c r="AU3" s="5">
+        <f t="shared" ref="AU3:AV3" si="6">AVERAGE(AO3,AR3)</f>
         <v>4.3566000000000001E-2</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="AV3" s="5">
         <f t="shared" si="6"/>
         <v>0.109943</v>
       </c>
-      <c r="AU3" s="5">
-        <f t="shared" ref="AU3:AU37" si="7">AVERAGE(K3,L3,T3,U3,)</f>
+      <c r="AW3" s="5">
+        <f t="shared" ref="AW3:AW37" si="7">AVERAGE(M3,N3,V3,W3,)</f>
         <v>-3.9237799999999996E-2</v>
       </c>
-      <c r="AV3" s="5">
-        <f t="shared" ref="AV3:AV37" si="8">AVERAGE(N3,O3,W3,X3)</f>
+      <c r="AX3" s="5">
+        <f t="shared" ref="AX3:AX37" si="8">AVERAGE(P3,Q3,Y3,Z3)</f>
         <v>-6.5459500000000004E-2</v>
       </c>
-      <c r="AW3" s="5">
-        <f t="shared" ref="AW3:AW37" si="9">AVERAGE(AC3,AD3,AL3,AM3)</f>
+      <c r="AY3" s="5">
+        <f t="shared" ref="AY3:AY37" si="9">AVERAGE(AE3,AF3,AN3,AO3)</f>
         <v>3.2294749999999997E-2</v>
       </c>
-      <c r="AX3" s="5">
-        <f t="shared" ref="AX3:AX37" si="10">AVERAGE(AF3,AG3,AO3,AP3)</f>
+      <c r="AZ3" s="5">
+        <f t="shared" ref="AZ3:AZ37" si="10">AVERAGE(AH3,AI3,AQ3,AR3)</f>
         <v>4.1047E-2</v>
       </c>
-      <c r="AY3" s="5">
-        <f>T3-K3</f>
+      <c r="BA3" s="5">
+        <f>V3-M3</f>
         <v>0.104757</v>
       </c>
-      <c r="AZ3" s="5">
-        <f>U3-L3</f>
+      <c r="BB3" s="5">
+        <f>W3-N3</f>
         <v>0.15105399999999999</v>
       </c>
-      <c r="BA3" s="5">
-        <f>W3-N3</f>
+      <c r="BC3" s="5">
+        <f>Y3-P3</f>
         <v>0.14210300000000001</v>
       </c>
-      <c r="BB3" s="5">
-        <f>X3-O3</f>
+      <c r="BD3" s="5">
+        <f>Z3-Q3</f>
         <v>5.2025000000000002E-2</v>
       </c>
-      <c r="BC3" s="5">
-        <f>AC3-AL3</f>
+      <c r="BE3" s="5">
+        <f>AE3-AN3</f>
         <v>0.181649</v>
       </c>
-      <c r="BD3" s="5">
-        <f>AD3-AM3</f>
+      <c r="BF3" s="5">
+        <f>AF3-AO3</f>
         <v>5.9106000000000006E-2</v>
       </c>
-      <c r="BE3" s="5">
-        <f>AF3-AO3</f>
+      <c r="BG3" s="5">
+        <f>AH3-AQ3</f>
         <v>0.109822</v>
       </c>
-      <c r="BF3" s="5">
-        <f>AG3-AP3</f>
+      <c r="BH3" s="5">
+        <f>AI3-AR3</f>
         <v>3.4033999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3845</v>
       </c>
-      <c r="D4" s="6">
+      <c r="F4" s="6">
         <v>5.2837627459999998</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <v>5.8707000000000003</v>
       </c>
-      <c r="F4" s="7">
+      <c r="H4" s="7">
         <v>21</v>
       </c>
-      <c r="G4" s="7">
+      <c r="I4" s="7">
         <v>17</v>
       </c>
-      <c r="H4" s="7">
+      <c r="J4" s="7">
         <v>19</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" ref="I4:I37" si="11">SUM(F4,G4,H4)</f>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K37" si="11">SUM(H4,I4,J4)</f>
         <v>57</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="8">
         <v>64</v>
       </c>
-      <c r="K4" s="5">
+      <c r="M4" s="5">
         <v>-4.4829000000000001E-2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="N4" s="5">
         <v>0.220913</v>
       </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M3:M37" si="12">L4-K4</f>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O37" si="12">N4-M4</f>
         <v>0.26574199999999998</v>
       </c>
-      <c r="N4" s="5">
+      <c r="P4" s="5">
         <v>-4.4685000000000002E-2</v>
       </c>
-      <c r="O4" s="5">
+      <c r="Q4" s="5">
         <v>0.18799199999999999</v>
       </c>
-      <c r="P4" s="5">
+      <c r="R4" s="5">
         <f t="shared" si="0"/>
         <v>0.23267699999999999</v>
       </c>
-      <c r="Q4" s="5">
-        <f t="shared" ref="Q4:Q37" si="13">AVERAGE(K4,N4)</f>
+      <c r="S4" s="5">
+        <f t="shared" ref="S4:S37" si="13">AVERAGE(M4,P4)</f>
         <v>-4.4757000000000005E-2</v>
       </c>
-      <c r="R4" s="5">
-        <f t="shared" ref="R4:R37" si="14">AVERAGE(L4,O4)</f>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4:T37" si="14">AVERAGE(N4,Q4)</f>
         <v>0.20445249999999998</v>
       </c>
-      <c r="S4" s="5">
-        <f t="shared" ref="S4:S37" si="15">AVERAGE(M4,P4)</f>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4:U37" si="15">AVERAGE(O4,R4)</f>
         <v>0.24920949999999997</v>
       </c>
-      <c r="T4" s="5">
+      <c r="V4" s="5">
         <v>-1.5193999999999999E-2</v>
       </c>
-      <c r="U4" s="5">
+      <c r="W4" s="5">
         <v>7.8881000000000007E-2</v>
       </c>
-      <c r="V4" s="5">
+      <c r="X4" s="5">
         <f t="shared" si="1"/>
         <v>9.4075000000000006E-2</v>
       </c>
-      <c r="W4" s="5">
+      <c r="Y4" s="5">
         <v>0.14275299999999999</v>
       </c>
-      <c r="X4" s="5">
+      <c r="Z4" s="5">
         <v>0.14035700000000001</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="AA4" s="5">
         <f t="shared" si="2"/>
         <v>-2.3959999999999815E-3</v>
       </c>
-      <c r="Z4" s="5">
-        <f t="shared" ref="Z4:Z37" si="16">AVERAGE(T4,W4)</f>
+      <c r="AB4" s="5">
+        <f t="shared" ref="AB4:AB37" si="16">AVERAGE(V4,Y4)</f>
         <v>6.3779499999999989E-2</v>
       </c>
-      <c r="AA4" s="5">
-        <f t="shared" ref="AA4:AA37" si="17">AVERAGE(U4,X4)</f>
+      <c r="AC4" s="5">
+        <f t="shared" ref="AC4:AC37" si="17">AVERAGE(W4,Z4)</f>
         <v>0.10961900000000001</v>
       </c>
-      <c r="AB4" s="5">
-        <f t="shared" ref="AB4:AB37" si="18">AVERAGE(V4,Y4)</f>
+      <c r="AD4" s="5">
+        <f t="shared" ref="AD4:AD37" si="18">AVERAGE(X4,AA4)</f>
         <v>4.5839500000000012E-2</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AE4" s="5">
         <v>-8.5683999999999996E-2</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AF4" s="5">
         <v>5.3681E-2</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AG4" s="5">
         <f t="shared" si="3"/>
         <v>0.13936499999999999</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AH4" s="5">
         <v>1.8766999999999999E-2</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AI4" s="5">
         <v>0.105311</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AJ4" s="5">
         <f t="shared" si="4"/>
         <v>8.654400000000001E-2</v>
       </c>
-      <c r="AI4" s="5">
-        <f t="shared" ref="AI4:AI37" si="19">AVERAGE(AC4,AF4)</f>
+      <c r="AK4" s="5">
+        <f t="shared" ref="AK4:AK37" si="19">AVERAGE(AE4,AH4)</f>
         <v>-3.3458500000000002E-2</v>
       </c>
-      <c r="AJ4" s="5">
-        <f t="shared" ref="AJ4:AJ37" si="20">AVERAGE(AD4,AG4)</f>
+      <c r="AL4" s="5">
+        <f t="shared" ref="AL4:AL37" si="20">AVERAGE(AF4,AI4)</f>
         <v>7.9495999999999997E-2</v>
       </c>
-      <c r="AK4" s="5">
-        <f t="shared" ref="AK4:AK37" si="21">AVERAGE(AE4,AH4)</f>
+      <c r="AM4" s="5">
+        <f t="shared" ref="AM4:AM37" si="21">AVERAGE(AG4,AJ4)</f>
         <v>0.1129545</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AN4" s="5">
         <v>6.0252E-2</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AO4" s="5">
         <v>0.193687</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AP4" s="5">
         <f t="shared" si="5"/>
         <v>0.133435</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AQ4" s="5">
         <v>-2.3734000000000002E-2</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AR4" s="5">
         <v>9.2760999999999996E-2</v>
       </c>
-      <c r="AQ4" s="5">
-        <f t="shared" ref="AQ4:AQ37" si="22">AP4-AO4</f>
+      <c r="AS4" s="5">
+        <f t="shared" ref="AS4:AS37" si="22">AR4-AQ4</f>
         <v>0.116495</v>
       </c>
-      <c r="AR4" s="5">
-        <f t="shared" ref="AR4:AR37" si="23">AVERAGE(AL4,AO4)</f>
+      <c r="AT4" s="5">
+        <f t="shared" ref="AT4:AT37" si="23">AVERAGE(AN4,AQ4)</f>
         <v>1.8258999999999997E-2</v>
       </c>
-      <c r="AS4" s="5">
-        <f t="shared" ref="AS4:AS37" si="24">AVERAGE(AM4,AP4)</f>
+      <c r="AU4" s="5">
+        <f t="shared" ref="AU4:AU37" si="24">AVERAGE(AO4,AR4)</f>
         <v>0.14322399999999999</v>
       </c>
-      <c r="AT4" s="5">
-        <f t="shared" ref="AT4:AT37" si="25">AVERAGE(AN4,AQ4)</f>
+      <c r="AV4" s="5">
+        <f t="shared" ref="AV4:AV37" si="25">AVERAGE(AP4,AS4)</f>
         <v>0.12496499999999999</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AW4" s="5">
         <f t="shared" si="7"/>
         <v>4.7954199999999995E-2</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="AX4" s="5">
         <f t="shared" si="8"/>
         <v>0.10660425</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AY4" s="5">
         <f t="shared" si="9"/>
         <v>5.5483999999999999E-2</v>
       </c>
-      <c r="AX4" s="5">
+      <c r="AZ4" s="5">
         <f t="shared" si="10"/>
         <v>4.8276249999999993E-2</v>
       </c>
-      <c r="AY4" s="5">
-        <f t="shared" ref="AY4:AY37" si="26">T4-K4</f>
+      <c r="BA4" s="5">
+        <f t="shared" ref="BA4:BA37" si="26">V4-M4</f>
         <v>2.9635000000000002E-2</v>
       </c>
-      <c r="AZ4" s="5">
-        <f t="shared" ref="AZ4:AZ37" si="27">U4-L4</f>
+      <c r="BB4" s="5">
+        <f t="shared" ref="BB4:BB37" si="27">W4-N4</f>
         <v>-0.14203199999999999</v>
       </c>
-      <c r="BA4" s="5">
-        <f t="shared" ref="BA4:BA37" si="28">W4-N4</f>
+      <c r="BC4" s="5">
+        <f t="shared" ref="BC4:BC37" si="28">Y4-P4</f>
         <v>0.18743799999999999</v>
       </c>
-      <c r="BB4" s="5">
-        <f t="shared" ref="BB4:BB37" si="29">X4-O4</f>
+      <c r="BD4" s="5">
+        <f t="shared" ref="BD4:BD37" si="29">Z4-Q4</f>
         <v>-4.7634999999999983E-2</v>
       </c>
-      <c r="BC4" s="5">
-        <f t="shared" ref="BC4:BC37" si="30">AC4-AL4</f>
+      <c r="BE4" s="5">
+        <f t="shared" ref="BE4:BE37" si="30">AE4-AN4</f>
         <v>-0.14593600000000001</v>
       </c>
-      <c r="BD4" s="5">
-        <f t="shared" ref="BD4:BD37" si="31">AD4-AM4</f>
+      <c r="BF4" s="5">
+        <f t="shared" ref="BF4:BF37" si="31">AF4-AO4</f>
         <v>-0.14000599999999999</v>
       </c>
-      <c r="BE4" s="5">
-        <f t="shared" ref="BE4:BE37" si="32">AF4-AO4</f>
+      <c r="BG4" s="5">
+        <f t="shared" ref="BG4:BG37" si="32">AH4-AQ4</f>
         <v>4.2500999999999997E-2</v>
       </c>
-      <c r="BF4" s="5">
-        <f t="shared" ref="BF4:BF37" si="33">AG4-AP4</f>
+      <c r="BH4" s="5">
+        <f t="shared" ref="BH4:BH37" si="33">AI4-AR4</f>
         <v>1.2550000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3846</v>
       </c>
-      <c r="D5" s="6">
+      <c r="F5" s="6">
         <v>11.89285005</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>10.6219</v>
       </c>
-      <c r="F5" s="7">
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
+      <c r="J5" s="7">
         <v>20</v>
       </c>
-      <c r="I5" s="7">
+      <c r="K5" s="7">
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="J5" s="8">
+      <c r="L5" s="8">
         <v>30</v>
       </c>
-      <c r="K5" s="5">
+      <c r="M5" s="5">
         <v>-9.4667000000000001E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="N5" s="5">
         <v>-0.22715299999999999</v>
       </c>
-      <c r="M5" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="12"/>
         <v>-0.13248599999999999</v>
       </c>
-      <c r="N5" s="5">
+      <c r="P5" s="5">
         <v>-8.3731E-2</v>
       </c>
-      <c r="O5" s="5">
+      <c r="Q5" s="5">
         <v>-0.111288</v>
       </c>
-      <c r="P5" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="0"/>
         <v>-2.7556999999999998E-2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="S5" s="5">
         <f t="shared" si="13"/>
         <v>-8.9199000000000001E-2</v>
       </c>
-      <c r="R5" s="5">
+      <c r="T5" s="5">
         <f t="shared" si="14"/>
         <v>-0.1692205</v>
       </c>
-      <c r="S5" s="5">
+      <c r="U5" s="5">
         <f t="shared" si="15"/>
         <v>-8.0021499999999995E-2</v>
       </c>
-      <c r="T5" s="5">
+      <c r="V5" s="5">
         <v>-6.8329000000000001E-2</v>
       </c>
-      <c r="U5" s="5">
+      <c r="W5" s="5">
         <v>5.9101000000000001E-2</v>
       </c>
-      <c r="V5" s="5">
+      <c r="X5" s="5">
         <f t="shared" si="1"/>
         <v>0.12742999999999999</v>
       </c>
-      <c r="W5" s="5">
+      <c r="Y5" s="5">
         <v>-0.181476</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Z5" s="5">
         <v>0.207646</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="AA5" s="5">
         <f t="shared" si="2"/>
         <v>0.38912199999999997</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AB5" s="5">
         <f t="shared" si="16"/>
         <v>-0.1249025</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AC5" s="5">
         <f t="shared" si="17"/>
         <v>0.13337350000000001</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AD5" s="5">
         <f t="shared" si="18"/>
         <v>0.25827599999999995</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AE5" s="5">
         <v>-0.12708</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AF5" s="5">
         <v>0.10972</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AG5" s="5">
         <f t="shared" si="3"/>
         <v>0.23680000000000001</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AH5" s="5">
         <v>-6.7714999999999997E-2</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AI5" s="5">
         <v>0.148752</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AJ5" s="5">
         <f t="shared" si="4"/>
         <v>0.21646699999999999</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AK5" s="5">
         <f t="shared" si="19"/>
         <v>-9.7397499999999998E-2</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AL5" s="5">
         <f t="shared" si="20"/>
         <v>0.12923599999999999</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AM5" s="5">
         <f t="shared" si="21"/>
         <v>0.22663349999999999</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AN5" s="5">
         <v>5.9560000000000004E-3</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AO5" s="5">
         <v>-1.9528E-2</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AP5" s="5">
         <f t="shared" si="5"/>
         <v>-2.5484E-2</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AQ5" s="5">
         <v>-3.6502E-2</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AR5" s="5">
         <v>-6.4127000000000003E-2</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AS5" s="5">
         <f t="shared" si="22"/>
         <v>-2.7625000000000004E-2</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AT5" s="5">
         <f t="shared" si="23"/>
         <v>-1.5273E-2</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AU5" s="5">
         <f t="shared" si="24"/>
         <v>-4.1827500000000004E-2</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AV5" s="5">
         <f t="shared" si="25"/>
         <v>-2.6554500000000002E-2</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AW5" s="5">
         <f t="shared" si="7"/>
         <v>-6.6209599999999993E-2</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AX5" s="5">
         <f t="shared" si="8"/>
         <v>-4.2212250000000007E-2</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AY5" s="5">
         <f t="shared" si="9"/>
         <v>-7.7330000000000003E-3</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AZ5" s="5">
         <f t="shared" si="10"/>
         <v>-4.8980000000000013E-3</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="BA5" s="5">
         <f t="shared" si="26"/>
         <v>2.6338E-2</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="BB5" s="5">
         <f t="shared" si="27"/>
         <v>0.28625400000000001</v>
       </c>
-      <c r="BA5" s="5">
+      <c r="BC5" s="5">
         <f t="shared" si="28"/>
         <v>-9.7744999999999999E-2</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BD5" s="5">
         <f t="shared" si="29"/>
         <v>0.318934</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BE5" s="5">
         <f t="shared" si="30"/>
         <v>-0.13303599999999999</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BF5" s="5">
         <f t="shared" si="31"/>
         <v>0.129248</v>
       </c>
-      <c r="BE5" s="5">
+      <c r="BG5" s="5">
         <f t="shared" si="32"/>
         <v>-3.1212999999999998E-2</v>
       </c>
-      <c r="BF5" s="5">
+      <c r="BH5" s="5">
         <f t="shared" si="33"/>
         <v>0.21287899999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3847</v>
       </c>
-      <c r="D6" s="6">
+      <c r="F6" s="6">
         <v>7.4700715549999996</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>6.7069999999999999</v>
       </c>
-      <c r="F6" s="7">
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="G6" s="7">
+      <c r="I6" s="7">
         <v>9</v>
       </c>
-      <c r="H6" s="7">
+      <c r="J6" s="7">
         <v>24</v>
       </c>
-      <c r="I6" s="7">
+      <c r="K6" s="7">
         <f t="shared" si="11"/>
         <v>52</v>
       </c>
-      <c r="J6" s="8">
+      <c r="L6" s="8">
         <v>50</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>-7.8688999999999995E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="N6" s="5">
         <v>0.194741</v>
       </c>
-      <c r="M6" s="5">
+      <c r="O6" s="5">
         <f t="shared" si="12"/>
         <v>0.27343000000000001</v>
       </c>
-      <c r="N6" s="5">
+      <c r="P6" s="5">
         <v>2.7518000000000001E-2</v>
       </c>
-      <c r="O6" s="5">
+      <c r="Q6" s="5">
         <v>0.229794</v>
       </c>
-      <c r="P6" s="5">
+      <c r="R6" s="5">
         <f t="shared" si="0"/>
         <v>0.20227600000000001</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="S6" s="5">
         <f t="shared" si="13"/>
         <v>-2.5585499999999997E-2</v>
       </c>
-      <c r="R6" s="5">
+      <c r="T6" s="5">
         <f t="shared" si="14"/>
         <v>0.2122675</v>
       </c>
-      <c r="S6" s="5">
+      <c r="U6" s="5">
         <f t="shared" si="15"/>
         <v>0.23785300000000001</v>
       </c>
-      <c r="T6" s="5">
+      <c r="V6" s="5">
         <v>-9.4317999999999999E-2</v>
       </c>
-      <c r="U6" s="5">
+      <c r="W6" s="5">
         <v>0.12393700000000001</v>
       </c>
-      <c r="V6" s="5">
+      <c r="X6" s="5">
         <f t="shared" si="1"/>
         <v>0.218255</v>
       </c>
-      <c r="W6" s="5">
+      <c r="Y6" s="5">
         <v>-7.2405999999999998E-2</v>
       </c>
-      <c r="X6" s="5">
+      <c r="Z6" s="5">
         <v>0.23905000000000001</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="AA6" s="5">
         <f t="shared" si="2"/>
         <v>0.31145600000000001</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AB6" s="5">
         <f t="shared" si="16"/>
         <v>-8.3361999999999992E-2</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AC6" s="5">
         <f t="shared" si="17"/>
         <v>0.1814935</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AD6" s="5">
         <f t="shared" si="18"/>
         <v>0.26485550000000002</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AE6" s="5">
         <v>-5.7637000000000001E-2</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AF6" s="5">
         <v>9.7147999999999998E-2</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AG6" s="5">
         <f t="shared" si="3"/>
         <v>0.15478500000000001</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AH6" s="5">
         <v>8.6390000000000008E-3</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AI6" s="5">
         <v>7.0703000000000002E-2</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AJ6" s="5">
         <f t="shared" si="4"/>
         <v>6.2064000000000001E-2</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AK6" s="5">
         <f t="shared" si="19"/>
         <v>-2.4499E-2</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AL6" s="5">
         <f t="shared" si="20"/>
         <v>8.39255E-2</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AM6" s="5">
         <f t="shared" si="21"/>
         <v>0.10842450000000001</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AN6" s="5">
         <v>5.5053999999999999E-2</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AO6" s="5">
         <v>7.7166999999999999E-2</v>
       </c>
-      <c r="AN6" s="5">
+      <c r="AP6" s="5">
         <f t="shared" si="5"/>
         <v>2.2113000000000001E-2</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="AQ6" s="5">
         <v>0.10002</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AR6" s="5">
         <v>9.3731999999999996E-2</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="AS6" s="5">
         <f t="shared" si="22"/>
         <v>-6.2880000000000019E-3</v>
       </c>
-      <c r="AR6" s="5">
+      <c r="AT6" s="5">
         <f t="shared" si="23"/>
         <v>7.7536999999999995E-2</v>
       </c>
-      <c r="AS6" s="5">
+      <c r="AU6" s="5">
         <f t="shared" si="24"/>
         <v>8.5449499999999998E-2</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AV6" s="5">
         <f t="shared" si="25"/>
         <v>7.9124999999999994E-3</v>
       </c>
-      <c r="AU6" s="5">
+      <c r="AW6" s="5">
         <f t="shared" si="7"/>
         <v>2.9134199999999999E-2</v>
       </c>
-      <c r="AV6" s="5">
+      <c r="AX6" s="5">
         <f t="shared" si="8"/>
         <v>0.105989</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AY6" s="5">
         <f t="shared" si="9"/>
         <v>4.2932999999999999E-2</v>
       </c>
-      <c r="AX6" s="5">
+      <c r="AZ6" s="5">
         <f t="shared" si="10"/>
         <v>6.8273500000000001E-2</v>
       </c>
-      <c r="AY6" s="5">
+      <c r="BA6" s="5">
         <f t="shared" si="26"/>
         <v>-1.5629000000000004E-2</v>
       </c>
-      <c r="AZ6" s="5">
+      <c r="BB6" s="5">
         <f t="shared" si="27"/>
         <v>-7.0803999999999992E-2</v>
       </c>
-      <c r="BA6" s="5">
+      <c r="BC6" s="5">
         <f t="shared" si="28"/>
         <v>-9.9923999999999999E-2</v>
       </c>
-      <c r="BB6" s="5">
+      <c r="BD6" s="5">
         <f t="shared" si="29"/>
         <v>9.2560000000000142E-3</v>
       </c>
-      <c r="BC6" s="5">
+      <c r="BE6" s="5">
         <f t="shared" si="30"/>
         <v>-0.112691</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BF6" s="5">
         <f t="shared" si="31"/>
         <v>1.9980999999999999E-2</v>
       </c>
-      <c r="BE6" s="5">
+      <c r="BG6" s="5">
         <f t="shared" si="32"/>
         <v>-9.138099999999999E-2</v>
       </c>
-      <c r="BF6" s="5">
+      <c r="BH6" s="5">
         <f t="shared" si="33"/>
         <v>-2.3028999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>3848</v>
       </c>
-      <c r="D7" s="6">
+      <c r="F7" s="6">
         <v>9.8922949379999991</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>9.8196999999999992</v>
       </c>
-      <c r="F7" s="7">
+      <c r="H7" s="7">
         <v>9</v>
       </c>
-      <c r="G7" s="7">
+      <c r="I7" s="7">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="J7" s="7">
         <v>12</v>
       </c>
-      <c r="I7" s="7">
+      <c r="K7" s="7">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="J7" s="8">
+      <c r="L7" s="8">
         <v>28</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
         <v>-0.25829600000000003</v>
       </c>
-      <c r="L7" s="5">
+      <c r="N7" s="5">
         <v>-7.9472000000000001E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="O7" s="5">
         <f t="shared" si="12"/>
         <v>0.17882400000000004</v>
       </c>
-      <c r="N7" s="5">
+      <c r="P7" s="5">
         <v>-0.34565600000000002</v>
       </c>
-      <c r="O7" s="5">
+      <c r="Q7" s="5">
         <v>-0.21967800000000001</v>
       </c>
-      <c r="P7" s="5">
+      <c r="R7" s="5">
         <f t="shared" si="0"/>
         <v>0.12597800000000001</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="S7" s="5">
         <f t="shared" si="13"/>
         <v>-0.30197600000000002</v>
       </c>
-      <c r="R7" s="5">
+      <c r="T7" s="5">
         <f t="shared" si="14"/>
         <v>-0.14957500000000001</v>
       </c>
-      <c r="S7" s="5">
+      <c r="U7" s="5">
         <f t="shared" si="15"/>
         <v>0.15240100000000001</v>
       </c>
-      <c r="T7" s="5">
+      <c r="V7" s="5">
         <v>9.1269000000000003E-2</v>
       </c>
-      <c r="U7" s="5">
+      <c r="W7" s="5">
         <v>0.12825500000000001</v>
       </c>
-      <c r="V7" s="5">
+      <c r="X7" s="5">
         <f t="shared" si="1"/>
         <v>3.6986000000000005E-2</v>
       </c>
-      <c r="W7" s="5">
+      <c r="Y7" s="5">
         <v>0.118052</v>
       </c>
-      <c r="X7" s="5">
+      <c r="Z7" s="5">
         <v>0.17574200000000001</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="AA7" s="5">
         <f t="shared" si="2"/>
         <v>5.7690000000000005E-2</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AB7" s="5">
         <f t="shared" si="16"/>
         <v>0.1046605</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AC7" s="5">
         <f t="shared" si="17"/>
         <v>0.15199850000000001</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AD7" s="5">
         <f t="shared" si="18"/>
         <v>4.7338000000000005E-2</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AE7" s="5">
         <v>0.194524</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AF7" s="5">
         <v>0.210281</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AG7" s="5">
         <f t="shared" si="3"/>
         <v>1.5756999999999993E-2</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AH7" s="5">
         <v>0.154333</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AI7" s="5">
         <v>0.17183999999999999</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AJ7" s="5">
         <f t="shared" si="4"/>
         <v>1.7506999999999995E-2</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AK7" s="5">
         <f t="shared" si="19"/>
         <v>0.17442849999999999</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AL7" s="5">
         <f t="shared" si="20"/>
         <v>0.19106049999999999</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AM7" s="5">
         <f t="shared" si="21"/>
         <v>1.6631999999999994E-2</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AN7" s="5">
         <v>8.7134000000000003E-2</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AO7" s="5">
         <v>6.0614000000000001E-2</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="AP7" s="5">
         <f t="shared" si="5"/>
         <v>-2.6520000000000002E-2</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AQ7" s="5">
         <v>3.9179999999999996E-3</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AR7" s="5">
         <v>-1.4874999999999999E-2</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AS7" s="5">
         <f t="shared" si="22"/>
         <v>-1.8792999999999997E-2</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="AT7" s="5">
         <f t="shared" si="23"/>
         <v>4.5526000000000004E-2</v>
       </c>
-      <c r="AS7" s="5">
+      <c r="AU7" s="5">
         <f t="shared" si="24"/>
         <v>2.2869500000000001E-2</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="AV7" s="5">
         <f t="shared" si="25"/>
         <v>-2.26565E-2</v>
       </c>
-      <c r="AU7" s="5">
+      <c r="AW7" s="5">
         <f t="shared" si="7"/>
         <v>-2.3648800000000005E-2</v>
       </c>
-      <c r="AV7" s="5">
+      <c r="AX7" s="5">
         <f t="shared" si="8"/>
         <v>-6.7885000000000001E-2</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AY7" s="5">
         <f t="shared" si="9"/>
         <v>0.13813824999999999</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="AZ7" s="5">
         <f t="shared" si="10"/>
         <v>7.8803999999999985E-2</v>
       </c>
-      <c r="AY7" s="5">
+      <c r="BA7" s="5">
         <f t="shared" si="26"/>
         <v>0.34956500000000001</v>
       </c>
-      <c r="AZ7" s="5">
+      <c r="BB7" s="5">
         <f t="shared" si="27"/>
         <v>0.20772699999999999</v>
       </c>
-      <c r="BA7" s="5">
+      <c r="BC7" s="5">
         <f t="shared" si="28"/>
         <v>0.46370800000000001</v>
       </c>
-      <c r="BB7" s="5">
+      <c r="BD7" s="5">
         <f t="shared" si="29"/>
         <v>0.39541999999999999</v>
       </c>
-      <c r="BC7" s="5">
+      <c r="BE7" s="5">
         <f t="shared" si="30"/>
         <v>0.10739</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BF7" s="5">
         <f t="shared" si="31"/>
         <v>0.14966699999999999</v>
       </c>
-      <c r="BE7" s="5">
+      <c r="BG7" s="5">
         <f t="shared" si="32"/>
         <v>0.15041499999999999</v>
       </c>
-      <c r="BF7" s="5">
+      <c r="BH7" s="5">
         <f t="shared" si="33"/>
         <v>0.18671499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>3849</v>
       </c>
-      <c r="D8" s="6">
+      <c r="F8" s="6">
         <v>10.03014694</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>9.8634000000000004</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J8" s="8">
+      <c r="L8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M8" s="5">
         <v>-0.16339500000000001</v>
       </c>
-      <c r="L8" s="5">
+      <c r="N8" s="5">
         <v>6.6807000000000005E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="O8" s="5">
         <f t="shared" si="12"/>
         <v>0.23020200000000002</v>
       </c>
-      <c r="N8" s="5">
+      <c r="P8" s="5">
         <v>-0.192084</v>
       </c>
-      <c r="O8" s="5">
+      <c r="Q8" s="5">
         <v>-1.6109999999999999E-2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="R8" s="5">
         <f t="shared" si="0"/>
         <v>0.17597400000000002</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="S8" s="5">
         <f t="shared" si="13"/>
         <v>-0.17773949999999999</v>
       </c>
-      <c r="R8" s="5">
+      <c r="T8" s="5">
         <f t="shared" si="14"/>
         <v>2.5348500000000003E-2</v>
       </c>
-      <c r="S8" s="5">
+      <c r="U8" s="5">
         <f t="shared" si="15"/>
         <v>0.20308800000000002</v>
       </c>
-      <c r="T8" s="5">
+      <c r="V8" s="5">
         <v>-0.10992200000000001</v>
       </c>
-      <c r="U8" s="5">
+      <c r="W8" s="5">
         <v>-7.4576000000000003E-2</v>
       </c>
-      <c r="V8" s="5">
+      <c r="X8" s="5">
         <f t="shared" si="1"/>
         <v>3.5346000000000002E-2</v>
       </c>
-      <c r="W8" s="5">
+      <c r="Y8" s="5">
         <v>1.2394000000000001E-2</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Z8" s="5">
         <v>-1.1429E-2</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="AA8" s="5">
         <f t="shared" si="2"/>
         <v>-2.3823E-2</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AB8" s="5">
         <f t="shared" si="16"/>
         <v>-4.8764000000000002E-2</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AC8" s="5">
         <f t="shared" si="17"/>
         <v>-4.3002499999999999E-2</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AD8" s="5">
         <f t="shared" si="18"/>
         <v>5.761500000000001E-3</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AE8" s="5">
         <v>-7.0095000000000005E-2</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AF8" s="5">
         <v>-1.325E-2</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AG8" s="5">
         <f t="shared" si="3"/>
         <v>5.6845000000000007E-2</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AH8" s="5">
         <v>-6.8348000000000006E-2</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AI8" s="5">
         <v>-2.4538000000000001E-2</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AJ8" s="5">
         <f t="shared" si="4"/>
         <v>4.3810000000000002E-2</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AK8" s="5">
         <f t="shared" si="19"/>
         <v>-6.9221500000000005E-2</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AL8" s="5">
         <f t="shared" si="20"/>
         <v>-1.8894000000000001E-2</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AM8" s="5">
         <f t="shared" si="21"/>
         <v>5.0327500000000004E-2</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AN8" s="5">
         <v>-0.102829</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AO8" s="5">
         <v>-5.705E-3</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AP8" s="5">
         <f t="shared" si="5"/>
         <v>9.7124000000000002E-2</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="AQ8" s="5">
         <v>-9.2687000000000005E-2</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AR8" s="5">
         <v>7.8172000000000005E-2</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="AS8" s="5">
         <f t="shared" si="22"/>
         <v>0.17085900000000001</v>
       </c>
-      <c r="AR8" s="5">
+      <c r="AT8" s="5">
         <f t="shared" si="23"/>
         <v>-9.7758000000000012E-2</v>
       </c>
-      <c r="AS8" s="5">
+      <c r="AU8" s="5">
         <f t="shared" si="24"/>
         <v>3.6233500000000002E-2</v>
       </c>
-      <c r="AT8" s="5">
+      <c r="AV8" s="5">
         <f t="shared" si="25"/>
         <v>0.13399150000000001</v>
       </c>
-      <c r="AU8" s="5">
+      <c r="AW8" s="5">
         <f t="shared" si="7"/>
         <v>-5.6217200000000009E-2</v>
       </c>
-      <c r="AV8" s="5">
+      <c r="AX8" s="5">
         <f t="shared" si="8"/>
         <v>-5.1807249999999999E-2</v>
       </c>
-      <c r="AW8" s="5">
+      <c r="AY8" s="5">
         <f t="shared" si="9"/>
         <v>-4.7969749999999999E-2</v>
       </c>
-      <c r="AX8" s="5">
+      <c r="AZ8" s="5">
         <f t="shared" si="10"/>
         <v>-2.6850250000000003E-2</v>
       </c>
-      <c r="AY8" s="5">
+      <c r="BA8" s="5">
         <f t="shared" si="26"/>
         <v>5.3473000000000007E-2</v>
       </c>
-      <c r="AZ8" s="5">
+      <c r="BB8" s="5">
         <f t="shared" si="27"/>
         <v>-0.14138300000000001</v>
       </c>
-      <c r="BA8" s="5">
+      <c r="BC8" s="5">
         <f t="shared" si="28"/>
         <v>0.20447799999999999</v>
       </c>
-      <c r="BB8" s="5">
+      <c r="BD8" s="5">
         <f t="shared" si="29"/>
         <v>4.6809999999999994E-3</v>
       </c>
-      <c r="BC8" s="5">
+      <c r="BE8" s="5">
         <f t="shared" si="30"/>
         <v>3.2733999999999999E-2</v>
       </c>
-      <c r="BD8" s="5">
+      <c r="BF8" s="5">
         <f t="shared" si="31"/>
         <v>-7.5449999999999996E-3</v>
       </c>
-      <c r="BE8" s="5">
+      <c r="BG8" s="5">
         <f t="shared" si="32"/>
         <v>2.4339E-2</v>
       </c>
-      <c r="BF8" s="5">
+      <c r="BH8" s="5">
         <f t="shared" si="33"/>
         <v>-0.10271000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3851</v>
       </c>
-      <c r="D9" s="6">
+      <c r="F9" s="6">
         <v>6.3420774990000002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="5">
         <v>6.4911000000000003</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J9" s="8">
+      <c r="L9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="M9" s="5">
         <v>-0.13142100000000001</v>
       </c>
-      <c r="L9" s="5">
+      <c r="N9" s="5">
         <v>-4.9435E-2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="O9" s="5">
         <f t="shared" si="12"/>
         <v>8.1986000000000003E-2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="P9" s="5">
         <v>4.6022E-2</v>
       </c>
-      <c r="O9" s="5">
+      <c r="Q9" s="5">
         <v>0.102522</v>
       </c>
-      <c r="P9" s="5">
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="S9" s="5">
         <f t="shared" si="13"/>
         <v>-4.2699500000000001E-2</v>
       </c>
-      <c r="R9" s="5">
+      <c r="T9" s="5">
         <f t="shared" si="14"/>
         <v>2.6543500000000001E-2</v>
       </c>
-      <c r="S9" s="5">
+      <c r="U9" s="5">
         <f t="shared" si="15"/>
         <v>6.9242999999999999E-2</v>
       </c>
-      <c r="T9" s="5">
+      <c r="V9" s="5">
         <v>-5.646E-3</v>
       </c>
-      <c r="U9" s="5">
+      <c r="W9" s="5">
         <v>7.2881000000000001E-2</v>
       </c>
-      <c r="V9" s="5">
+      <c r="X9" s="5">
         <f t="shared" si="1"/>
         <v>7.8527E-2</v>
       </c>
-      <c r="W9" s="5">
+      <c r="Y9" s="5">
         <v>3.0953000000000001E-2</v>
       </c>
-      <c r="X9" s="5">
+      <c r="Z9" s="5">
         <v>0.19786000000000001</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="AA9" s="5">
         <f t="shared" si="2"/>
         <v>0.166907</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AB9" s="5">
         <f t="shared" si="16"/>
         <v>1.2653500000000002E-2</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AC9" s="5">
         <f t="shared" si="17"/>
         <v>0.1353705</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AD9" s="5">
         <f t="shared" si="18"/>
         <v>0.12271699999999999</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AE9" s="5">
         <v>-9.2638999999999999E-2</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AF9" s="5">
         <v>8.1949999999999995E-2</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AG9" s="5">
         <f t="shared" si="3"/>
         <v>0.17458899999999999</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AH9" s="5">
         <v>-7.9360000000000003E-3</v>
       </c>
-      <c r="AG9" s="5">
+      <c r="AI9" s="5">
         <v>0.132909</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AJ9" s="5">
         <f t="shared" si="4"/>
         <v>0.140845</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AK9" s="5">
         <f t="shared" si="19"/>
         <v>-5.0287499999999999E-2</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AL9" s="5">
         <f t="shared" si="20"/>
         <v>0.1074295</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AM9" s="5">
         <f t="shared" si="21"/>
         <v>0.157717</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AN9" s="5">
         <v>-2.4506E-2</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AO9" s="5">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="AN9" s="5">
+      <c r="AP9" s="5">
         <f t="shared" si="5"/>
         <v>2.7945999999999999E-2</v>
       </c>
-      <c r="AO9" s="5">
+      <c r="AQ9" s="5">
         <v>3.5227000000000001E-2</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AR9" s="5">
         <v>0.10079100000000001</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="AS9" s="5">
         <f t="shared" si="22"/>
         <v>6.5564000000000011E-2</v>
       </c>
-      <c r="AR9" s="5">
+      <c r="AT9" s="5">
         <f t="shared" si="23"/>
         <v>5.3605000000000007E-3</v>
       </c>
-      <c r="AS9" s="5">
+      <c r="AU9" s="5">
         <f t="shared" si="24"/>
         <v>5.2115500000000002E-2</v>
       </c>
-      <c r="AT9" s="5">
+      <c r="AV9" s="5">
         <f t="shared" si="25"/>
         <v>4.6755000000000005E-2</v>
       </c>
-      <c r="AU9" s="5">
+      <c r="AW9" s="5">
         <f t="shared" si="7"/>
         <v>-2.2724200000000007E-2</v>
       </c>
-      <c r="AV9" s="5">
+      <c r="AX9" s="5">
         <f t="shared" si="8"/>
         <v>9.4339250000000013E-2</v>
       </c>
-      <c r="AW9" s="5">
+      <c r="AY9" s="5">
         <f t="shared" si="9"/>
         <v>-7.9387500000000014E-3</v>
       </c>
-      <c r="AX9" s="5">
+      <c r="AZ9" s="5">
         <f t="shared" si="10"/>
         <v>6.5247750000000007E-2</v>
       </c>
-      <c r="AY9" s="5">
+      <c r="BA9" s="5">
         <f t="shared" si="26"/>
         <v>0.125775</v>
       </c>
-      <c r="AZ9" s="5">
+      <c r="BB9" s="5">
         <f t="shared" si="27"/>
         <v>0.12231600000000001</v>
       </c>
-      <c r="BA9" s="5">
+      <c r="BC9" s="5">
         <f t="shared" si="28"/>
         <v>-1.5068999999999999E-2</v>
       </c>
-      <c r="BB9" s="5">
+      <c r="BD9" s="5">
         <f t="shared" si="29"/>
         <v>9.5338000000000006E-2</v>
       </c>
-      <c r="BC9" s="5">
+      <c r="BE9" s="5">
         <f t="shared" si="30"/>
         <v>-6.8132999999999999E-2</v>
       </c>
-      <c r="BD9" s="5">
+      <c r="BF9" s="5">
         <f t="shared" si="31"/>
         <v>7.8509999999999996E-2</v>
       </c>
-      <c r="BE9" s="5">
+      <c r="BG9" s="5">
         <f t="shared" si="32"/>
         <v>-4.3163E-2</v>
       </c>
-      <c r="BF9" s="5">
+      <c r="BH9" s="5">
         <f t="shared" si="33"/>
         <v>3.2117999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3852</v>
       </c>
-      <c r="D10" s="6">
+      <c r="F10" s="6">
         <v>4.6882489380000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>3.8052999999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <v>13</v>
       </c>
-      <c r="G10" s="7">
+      <c r="I10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="J10" s="7">
         <v>12</v>
       </c>
-      <c r="I10" s="7">
+      <c r="K10" s="7">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="J10" s="8">
+      <c r="L10" s="8">
         <v>27</v>
       </c>
-      <c r="K10" s="5">
+      <c r="M10" s="5">
         <v>8.3090999999999998E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="N10" s="5">
         <v>5.3991999999999998E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="O10" s="5">
         <f t="shared" si="12"/>
         <v>-2.9099E-2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="P10" s="5">
         <v>-4.5204000000000001E-2</v>
       </c>
-      <c r="O10" s="5">
+      <c r="Q10" s="5">
         <v>1.8467000000000001E-2</v>
       </c>
-      <c r="P10" s="5">
+      <c r="R10" s="5">
         <f t="shared" si="0"/>
         <v>6.3671000000000005E-2</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="S10" s="5">
         <f t="shared" si="13"/>
         <v>1.8943499999999999E-2</v>
       </c>
-      <c r="R10" s="5">
+      <c r="T10" s="5">
         <f t="shared" si="14"/>
         <v>3.6229499999999998E-2</v>
       </c>
-      <c r="S10" s="5">
+      <c r="U10" s="5">
         <f t="shared" si="15"/>
         <v>1.7286000000000003E-2</v>
       </c>
-      <c r="T10" s="5">
+      <c r="V10" s="5">
         <v>-0.117303</v>
       </c>
-      <c r="U10" s="5">
+      <c r="W10" s="5">
         <v>6.9787000000000002E-2</v>
       </c>
-      <c r="V10" s="5">
+      <c r="X10" s="5">
         <f t="shared" si="1"/>
         <v>0.18709000000000001</v>
       </c>
-      <c r="W10" s="5">
+      <c r="Y10" s="5">
         <v>-3.5751999999999999E-2</v>
       </c>
-      <c r="X10" s="5">
+      <c r="Z10" s="5">
         <v>3.9681000000000001E-2</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="AA10" s="5">
         <f t="shared" si="2"/>
         <v>7.5433E-2</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AB10" s="5">
         <f t="shared" si="16"/>
         <v>-7.6527499999999998E-2</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AC10" s="5">
         <f t="shared" si="17"/>
         <v>5.4734000000000005E-2</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AD10" s="5">
         <f t="shared" si="18"/>
         <v>0.1312615</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AE10" s="5">
         <v>-3.4381000000000002E-2</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AF10" s="5">
         <v>4.0021000000000001E-2</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AG10" s="5">
         <f t="shared" si="3"/>
         <v>7.4401999999999996E-2</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AH10" s="5">
         <v>-4.823E-3</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AI10" s="5">
         <v>5.2283999999999997E-2</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AJ10" s="5">
         <f t="shared" si="4"/>
         <v>5.7106999999999998E-2</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AK10" s="5">
         <f t="shared" si="19"/>
         <v>-1.9602000000000001E-2</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AL10" s="5">
         <f t="shared" si="20"/>
         <v>4.6152499999999999E-2</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AM10" s="5">
         <f t="shared" si="21"/>
         <v>6.5754499999999994E-2</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AN10" s="5">
         <v>8.7328000000000003E-2</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AO10" s="5">
         <v>3.0273999999999999E-2</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AP10" s="5">
         <f t="shared" si="5"/>
         <v>-5.7054000000000007E-2</v>
       </c>
-      <c r="AO10" s="5">
+      <c r="AQ10" s="5">
         <v>4.4574000000000003E-2</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AR10" s="5">
         <v>7.3447999999999999E-2</v>
       </c>
-      <c r="AQ10" s="5">
+      <c r="AS10" s="5">
         <f t="shared" si="22"/>
         <v>2.8873999999999997E-2</v>
       </c>
-      <c r="AR10" s="5">
+      <c r="AT10" s="5">
         <f t="shared" si="23"/>
         <v>6.595100000000001E-2</v>
       </c>
-      <c r="AS10" s="5">
+      <c r="AU10" s="5">
         <f t="shared" si="24"/>
         <v>5.1860999999999997E-2</v>
       </c>
-      <c r="AT10" s="5">
+      <c r="AV10" s="5">
         <f t="shared" si="25"/>
         <v>-1.4090000000000005E-2</v>
       </c>
-      <c r="AU10" s="5">
+      <c r="AW10" s="5">
         <f t="shared" si="7"/>
         <v>1.7913400000000003E-2</v>
       </c>
-      <c r="AV10" s="5">
+      <c r="AX10" s="5">
         <f t="shared" si="8"/>
         <v>-5.7020000000000005E-3</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="AY10" s="5">
         <f t="shared" si="9"/>
         <v>3.0810499999999998E-2</v>
       </c>
-      <c r="AX10" s="5">
+      <c r="AZ10" s="5">
         <f t="shared" si="10"/>
         <v>4.1370749999999998E-2</v>
       </c>
-      <c r="AY10" s="5">
+      <c r="BA10" s="5">
         <f t="shared" si="26"/>
         <v>-0.20039400000000002</v>
       </c>
-      <c r="AZ10" s="5">
+      <c r="BB10" s="5">
         <f t="shared" si="27"/>
         <v>1.5795000000000003E-2</v>
       </c>
-      <c r="BA10" s="5">
+      <c r="BC10" s="5">
         <f t="shared" si="28"/>
         <v>9.4520000000000021E-3</v>
       </c>
-      <c r="BB10" s="5">
+      <c r="BD10" s="5">
         <f t="shared" si="29"/>
         <v>2.1214E-2</v>
       </c>
-      <c r="BC10" s="5">
+      <c r="BE10" s="5">
         <f t="shared" si="30"/>
         <v>-0.12170900000000001</v>
       </c>
-      <c r="BD10" s="5">
+      <c r="BF10" s="5">
         <f t="shared" si="31"/>
         <v>9.7470000000000022E-3</v>
       </c>
-      <c r="BE10" s="5">
+      <c r="BG10" s="5">
         <f t="shared" si="32"/>
         <v>-4.9397000000000003E-2</v>
       </c>
-      <c r="BF10" s="5">
+      <c r="BH10" s="5">
         <f t="shared" si="33"/>
         <v>-2.1164000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>3855</v>
       </c>
-      <c r="D11" s="6">
+      <c r="F11" s="6">
         <v>10.41813013</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G11" s="5">
         <v>8.9419000000000004</v>
       </c>
-      <c r="F11" s="7">
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="J11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
+      <c r="K11" s="7">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="L11" s="8">
         <v>2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="M11" s="5">
         <v>4.9106999999999998E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="N11" s="5">
         <v>2.8681000000000002E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="O11" s="5">
         <f t="shared" si="12"/>
         <v>-2.0425999999999996E-2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="P11" s="5">
         <v>-8.5933999999999996E-2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="Q11" s="5">
         <v>-0.18237999999999999</v>
       </c>
-      <c r="P11" s="5">
+      <c r="R11" s="5">
         <f t="shared" si="0"/>
         <v>-9.644599999999999E-2</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="S11" s="5">
         <f t="shared" si="13"/>
         <v>-1.8413499999999999E-2</v>
       </c>
-      <c r="R11" s="5">
+      <c r="T11" s="5">
         <f t="shared" si="14"/>
         <v>-7.6849499999999987E-2</v>
       </c>
-      <c r="S11" s="5">
+      <c r="U11" s="5">
         <f t="shared" si="15"/>
         <v>-5.8435999999999995E-2</v>
       </c>
-      <c r="T11" s="5">
+      <c r="V11" s="5">
         <v>-0.20017199999999999</v>
       </c>
-      <c r="U11" s="5">
+      <c r="W11" s="5">
         <v>-0.18756100000000001</v>
       </c>
-      <c r="V11" s="5">
+      <c r="X11" s="5">
         <f t="shared" si="1"/>
         <v>1.2610999999999983E-2</v>
       </c>
-      <c r="W11" s="5">
+      <c r="Y11" s="5">
         <v>-9.4769000000000006E-2</v>
       </c>
-      <c r="X11" s="5">
+      <c r="Z11" s="5">
         <v>3.3930000000000002E-2</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="AA11" s="5">
         <f t="shared" si="2"/>
         <v>0.12869900000000001</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AB11" s="5">
         <f t="shared" si="16"/>
         <v>-0.1474705</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AC11" s="5">
         <f t="shared" si="17"/>
         <v>-7.6815500000000009E-2</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AD11" s="5">
         <f t="shared" si="18"/>
         <v>7.0654999999999996E-2</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AE11" s="5">
         <v>-3.4209999999999997E-2</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AF11" s="5">
         <v>-8.2423999999999997E-2</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AG11" s="5">
         <f t="shared" si="3"/>
         <v>-4.8214E-2</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AH11" s="5">
         <v>-7.5482999999999995E-2</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AI11" s="5">
         <v>-5.8012000000000001E-2</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AJ11" s="5">
         <f t="shared" si="4"/>
         <v>1.7470999999999993E-2</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AK11" s="5">
         <f t="shared" si="19"/>
         <v>-5.4846499999999992E-2</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AL11" s="5">
         <f t="shared" si="20"/>
         <v>-7.0218000000000003E-2</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AM11" s="5">
         <f t="shared" si="21"/>
         <v>-1.5371500000000003E-2</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AN11" s="5">
         <v>8.7159999999999998E-3</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AO11" s="5">
         <v>1.0061E-2</v>
       </c>
-      <c r="AN11" s="5">
+      <c r="AP11" s="5">
         <f t="shared" si="5"/>
         <v>1.3450000000000007E-3</v>
       </c>
-      <c r="AO11" s="5">
+      <c r="AQ11" s="5">
         <v>6.5639000000000003E-2</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AR11" s="5">
         <v>3.0689999999999999E-2</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="AS11" s="5">
         <f t="shared" si="22"/>
         <v>-3.4949000000000008E-2</v>
       </c>
-      <c r="AR11" s="5">
+      <c r="AT11" s="5">
         <f t="shared" si="23"/>
         <v>3.7177500000000002E-2</v>
       </c>
-      <c r="AS11" s="5">
+      <c r="AU11" s="5">
         <f t="shared" si="24"/>
         <v>2.0375499999999998E-2</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AV11" s="5">
         <f t="shared" si="25"/>
         <v>-1.6802000000000004E-2</v>
       </c>
-      <c r="AU11" s="5">
+      <c r="AW11" s="5">
         <f t="shared" si="7"/>
         <v>-6.1989000000000002E-2</v>
       </c>
-      <c r="AV11" s="5">
+      <c r="AX11" s="5">
         <f t="shared" si="8"/>
         <v>-8.2288249999999993E-2</v>
       </c>
-      <c r="AW11" s="5">
+      <c r="AY11" s="5">
         <f t="shared" si="9"/>
         <v>-2.4464249999999996E-2</v>
       </c>
-      <c r="AX11" s="5">
+      <c r="AZ11" s="5">
         <f t="shared" si="10"/>
         <v>-9.2915000000000011E-3</v>
       </c>
-      <c r="AY11" s="5">
+      <c r="BA11" s="5">
         <f t="shared" si="26"/>
         <v>-0.24927899999999997</v>
       </c>
-      <c r="AZ11" s="5">
+      <c r="BB11" s="5">
         <f t="shared" si="27"/>
         <v>-0.21624200000000002</v>
       </c>
-      <c r="BA11" s="5">
+      <c r="BC11" s="5">
         <f t="shared" si="28"/>
         <v>-8.8350000000000095E-3</v>
       </c>
-      <c r="BB11" s="5">
+      <c r="BD11" s="5">
         <f t="shared" si="29"/>
         <v>0.21631</v>
       </c>
-      <c r="BC11" s="5">
+      <c r="BE11" s="5">
         <f t="shared" si="30"/>
         <v>-4.2925999999999999E-2</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BF11" s="5">
         <f t="shared" si="31"/>
         <v>-9.2484999999999998E-2</v>
       </c>
-      <c r="BE11" s="5">
+      <c r="BG11" s="5">
         <f t="shared" si="32"/>
         <v>-0.141122</v>
       </c>
-      <c r="BF11" s="5">
+      <c r="BH11" s="5">
         <f t="shared" si="33"/>
         <v>-8.8702000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>3864</v>
       </c>
-      <c r="D12" s="6">
+      <c r="F12" s="6">
         <v>8.2012861650000008</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="5">
         <v>7.8029000000000002</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>3</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="L12" s="8">
         <v>3</v>
       </c>
-      <c r="K12" s="5">
+      <c r="M12" s="5">
         <v>-5.5462999999999998E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="N12" s="5">
         <v>0.15373800000000001</v>
       </c>
-      <c r="M12" s="5">
+      <c r="O12" s="5">
         <f t="shared" si="12"/>
         <v>0.20920100000000003</v>
       </c>
-      <c r="N12" s="5">
+      <c r="P12" s="5">
         <v>-6.019E-3</v>
       </c>
-      <c r="O12" s="5">
+      <c r="Q12" s="5">
         <v>0.123721</v>
       </c>
-      <c r="P12" s="5">
+      <c r="R12" s="5">
         <f t="shared" si="0"/>
         <v>0.12973999999999999</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="S12" s="5">
         <f t="shared" si="13"/>
         <v>-3.0740999999999997E-2</v>
       </c>
-      <c r="R12" s="5">
+      <c r="T12" s="5">
         <f t="shared" si="14"/>
         <v>0.13872950000000001</v>
       </c>
-      <c r="S12" s="5">
+      <c r="U12" s="5">
         <f t="shared" si="15"/>
         <v>0.16947050000000002</v>
       </c>
-      <c r="T12" s="5">
+      <c r="V12" s="5">
         <v>-9.8692000000000002E-2</v>
       </c>
-      <c r="U12" s="5">
+      <c r="W12" s="5">
         <v>-5.2871000000000001E-2</v>
       </c>
-      <c r="V12" s="5">
+      <c r="X12" s="5">
         <f t="shared" si="1"/>
         <v>4.5821000000000001E-2</v>
       </c>
-      <c r="W12" s="5">
+      <c r="Y12" s="5">
         <v>6.7863000000000007E-2</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Z12" s="5">
         <v>0.12706000000000001</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="AA12" s="5">
         <f t="shared" si="2"/>
         <v>5.9197E-2</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AB12" s="5">
         <f t="shared" si="16"/>
         <v>-1.5414499999999998E-2</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AC12" s="5">
         <f t="shared" si="17"/>
         <v>3.7094500000000002E-2</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AD12" s="5">
         <f t="shared" si="18"/>
         <v>5.2509E-2</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AE12" s="5">
         <v>-1.6175999999999999E-2</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AF12" s="5">
         <v>0.117577</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AG12" s="5">
         <f t="shared" si="3"/>
         <v>0.13375300000000001</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AH12" s="5">
         <v>-4.3059E-2</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AI12" s="5">
         <v>9.4061000000000006E-2</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AJ12" s="5">
         <f t="shared" si="4"/>
         <v>0.13712000000000002</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AK12" s="5">
         <f t="shared" si="19"/>
         <v>-2.9617499999999998E-2</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AL12" s="5">
         <f t="shared" si="20"/>
         <v>0.105819</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AM12" s="5">
         <f t="shared" si="21"/>
         <v>0.13543650000000002</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AN12" s="5">
         <v>-0.31575900000000001</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AO12" s="5">
         <v>-5.3365000000000003E-2</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AP12" s="5">
         <f t="shared" si="5"/>
         <v>0.26239400000000002</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AQ12" s="5">
         <v>-0.15962899999999999</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AR12" s="5">
         <v>-2.0787E-2</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AS12" s="5">
         <f t="shared" si="22"/>
         <v>0.13884199999999999</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AT12" s="5">
         <f t="shared" si="23"/>
         <v>-0.23769400000000002</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AU12" s="5">
         <f t="shared" si="24"/>
         <v>-3.7075999999999998E-2</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AV12" s="5">
         <f t="shared" si="25"/>
         <v>0.20061800000000002</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AW12" s="5">
         <f t="shared" si="7"/>
         <v>-1.0657599999999998E-2</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AX12" s="5">
         <f t="shared" si="8"/>
         <v>7.815625000000001E-2</v>
       </c>
-      <c r="AW12" s="5">
+      <c r="AY12" s="5">
         <f t="shared" si="9"/>
         <v>-6.6930749999999997E-2</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="AZ12" s="5">
         <f t="shared" si="10"/>
         <v>-3.2353499999999993E-2</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="BA12" s="5">
         <f t="shared" si="26"/>
         <v>-4.3229000000000004E-2</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="BB12" s="5">
         <f t="shared" si="27"/>
         <v>-0.20660900000000001</v>
       </c>
-      <c r="BA12" s="5">
+      <c r="BC12" s="5">
         <f t="shared" si="28"/>
         <v>7.3882000000000003E-2</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BD12" s="5">
         <f t="shared" si="29"/>
         <v>3.3390000000000086E-3</v>
       </c>
-      <c r="BC12" s="5">
+      <c r="BE12" s="5">
         <f t="shared" si="30"/>
         <v>0.29958299999999999</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BF12" s="5">
         <f t="shared" si="31"/>
         <v>0.17094200000000001</v>
       </c>
-      <c r="BE12" s="5">
+      <c r="BG12" s="5">
         <f t="shared" si="32"/>
         <v>0.11656999999999999</v>
       </c>
-      <c r="BF12" s="5">
+      <c r="BH12" s="5">
         <f t="shared" si="33"/>
         <v>0.11484800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>3865</v>
       </c>
-      <c r="D13" s="6">
+      <c r="F13" s="6">
         <v>11.849809</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="5">
         <v>9.8434000000000008</v>
       </c>
-      <c r="F13" s="7">
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="7">
+      <c r="J13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="K13" s="7">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J13" s="8">
+      <c r="L13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="5">
+      <c r="M13" s="5">
         <v>-0.13824</v>
       </c>
-      <c r="L13" s="5">
+      <c r="N13" s="5">
         <v>-6.7613000000000006E-2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="O13" s="5">
         <f t="shared" si="12"/>
         <v>7.0626999999999995E-2</v>
       </c>
-      <c r="N13" s="5">
+      <c r="P13" s="5">
         <v>-0.33188800000000002</v>
       </c>
-      <c r="O13" s="5">
+      <c r="Q13" s="5">
         <v>-0.12595500000000001</v>
       </c>
-      <c r="P13" s="5">
+      <c r="R13" s="5">
         <f t="shared" si="0"/>
         <v>0.205933</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="S13" s="5">
         <f t="shared" si="13"/>
         <v>-0.235064</v>
       </c>
-      <c r="R13" s="5">
+      <c r="T13" s="5">
         <f t="shared" si="14"/>
         <v>-9.6784000000000009E-2</v>
       </c>
-      <c r="S13" s="5">
+      <c r="U13" s="5">
         <f t="shared" si="15"/>
         <v>0.13828000000000001</v>
       </c>
-      <c r="T13" s="5">
+      <c r="V13" s="5">
         <v>0.28608899999999998</v>
       </c>
-      <c r="U13" s="5">
+      <c r="W13" s="5">
         <v>0.128694</v>
       </c>
-      <c r="V13" s="5">
+      <c r="X13" s="5">
         <f t="shared" si="1"/>
         <v>-0.15739499999999998</v>
       </c>
-      <c r="W13" s="5">
+      <c r="Y13" s="5">
         <v>6.7775000000000002E-2</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Z13" s="5">
         <v>3.6677000000000001E-2</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="AA13" s="5">
         <f t="shared" si="2"/>
         <v>-3.1098000000000001E-2</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AB13" s="5">
         <f t="shared" si="16"/>
         <v>0.17693199999999998</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AC13" s="5">
         <f t="shared" si="17"/>
         <v>8.2685499999999995E-2</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AD13" s="5">
         <f t="shared" si="18"/>
         <v>-9.4246499999999983E-2</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AE13" s="5">
         <v>6.3053999999999999E-2</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AF13" s="5">
         <v>0.215258</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AG13" s="5">
         <f t="shared" si="3"/>
         <v>0.15220400000000001</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AH13" s="5">
         <v>4.6105E-2</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AI13" s="5">
         <v>0.137603</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AJ13" s="5">
         <f t="shared" si="4"/>
         <v>9.1497999999999996E-2</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AK13" s="5">
         <f t="shared" si="19"/>
         <v>5.4579500000000003E-2</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AL13" s="5">
         <f t="shared" si="20"/>
         <v>0.17643049999999999</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AM13" s="5">
         <f t="shared" si="21"/>
         <v>0.121851</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AN13" s="5">
         <v>-0.13494</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AO13" s="5">
         <v>-7.7329999999999996E-2</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AP13" s="5">
         <f t="shared" si="5"/>
         <v>5.7610000000000008E-2</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AQ13" s="5">
         <v>-0.138872</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AR13" s="5">
         <v>-2.4535000000000001E-2</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AS13" s="5">
         <f t="shared" si="22"/>
         <v>0.11433699999999999</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="AT13" s="5">
         <f t="shared" si="23"/>
         <v>-0.136906</v>
       </c>
-      <c r="AS13" s="5">
+      <c r="AU13" s="5">
         <f t="shared" si="24"/>
         <v>-5.0932499999999999E-2</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AV13" s="5">
         <f t="shared" si="25"/>
         <v>8.5973500000000008E-2</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="AW13" s="5">
         <f t="shared" si="7"/>
         <v>4.1785999999999997E-2</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="AX13" s="5">
         <f t="shared" si="8"/>
         <v>-8.8347749999999989E-2</v>
       </c>
-      <c r="AW13" s="5">
+      <c r="AY13" s="5">
         <f t="shared" si="9"/>
         <v>1.6510500000000001E-2</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AZ13" s="5">
         <f t="shared" si="10"/>
         <v>5.0752500000000034E-3</v>
       </c>
-      <c r="AY13" s="5">
+      <c r="BA13" s="5">
         <f t="shared" si="26"/>
         <v>0.42432899999999996</v>
       </c>
-      <c r="AZ13" s="5">
+      <c r="BB13" s="5">
         <f t="shared" si="27"/>
         <v>0.19630700000000001</v>
       </c>
-      <c r="BA13" s="5">
+      <c r="BC13" s="5">
         <f t="shared" si="28"/>
         <v>0.39966299999999999</v>
       </c>
-      <c r="BB13" s="5">
+      <c r="BD13" s="5">
         <f t="shared" si="29"/>
         <v>0.162632</v>
       </c>
-      <c r="BC13" s="5">
+      <c r="BE13" s="5">
         <f t="shared" si="30"/>
         <v>0.197994</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BF13" s="5">
         <f t="shared" si="31"/>
         <v>0.29258800000000001</v>
       </c>
-      <c r="BE13" s="5">
+      <c r="BG13" s="5">
         <f t="shared" si="32"/>
         <v>0.184977</v>
       </c>
-      <c r="BF13" s="5">
+      <c r="BH13" s="5">
         <f t="shared" si="33"/>
         <v>0.162138</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>3871</v>
       </c>
-      <c r="D14" s="6">
+      <c r="F14" s="6">
         <v>8.5473098879999991</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="5">
         <v>6.5369000000000002</v>
       </c>
-      <c r="F14" s="7">
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="I14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="J14" s="7">
         <v>10</v>
       </c>
-      <c r="I14" s="7">
+      <c r="K14" s="7">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="J14" s="8">
+      <c r="L14" s="8">
         <v>13</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="5">
         <v>-0.38839600000000002</v>
       </c>
-      <c r="L14" s="5">
+      <c r="N14" s="5">
         <v>0.12812999999999999</v>
       </c>
-      <c r="M14" s="5">
+      <c r="O14" s="5">
         <f t="shared" si="12"/>
         <v>0.51652600000000004</v>
       </c>
-      <c r="N14" s="5">
+      <c r="P14" s="5">
         <v>-0.15731800000000001</v>
       </c>
-      <c r="O14" s="5">
+      <c r="Q14" s="5">
         <v>0.20866000000000001</v>
       </c>
-      <c r="P14" s="5">
+      <c r="R14" s="5">
         <f t="shared" si="0"/>
         <v>0.36597800000000003</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="S14" s="5">
         <f t="shared" si="13"/>
         <v>-0.27285700000000002</v>
       </c>
-      <c r="R14" s="5">
+      <c r="T14" s="5">
         <f t="shared" si="14"/>
         <v>0.16839500000000002</v>
       </c>
-      <c r="S14" s="5">
+      <c r="U14" s="5">
         <f t="shared" si="15"/>
         <v>0.44125200000000003</v>
       </c>
-      <c r="T14" s="5">
+      <c r="V14" s="5">
         <v>-0.234845</v>
       </c>
-      <c r="U14" s="5">
+      <c r="W14" s="5">
         <v>7.8531000000000004E-2</v>
       </c>
-      <c r="V14" s="5">
+      <c r="X14" s="5">
         <f t="shared" si="1"/>
         <v>0.31337599999999999</v>
       </c>
-      <c r="W14" s="5">
+      <c r="Y14" s="5">
         <v>-0.13272600000000001</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Z14" s="5">
         <v>0.11221399999999999</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="AA14" s="5">
         <f t="shared" si="2"/>
         <v>0.24493999999999999</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AB14" s="5">
         <f t="shared" si="16"/>
         <v>-0.18378549999999999</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AC14" s="5">
         <f t="shared" si="17"/>
         <v>9.5372499999999999E-2</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AD14" s="5">
         <f t="shared" si="18"/>
         <v>0.27915800000000002</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AE14" s="5">
         <v>-0.33115699999999998</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AF14" s="5">
         <v>-0.11538</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AG14" s="5">
         <f t="shared" si="3"/>
         <v>0.215777</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AH14" s="5">
         <v>-0.25545400000000001</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AI14" s="5">
         <v>8.3829999999999998E-3</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AJ14" s="5">
         <f t="shared" si="4"/>
         <v>0.26383699999999999</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AK14" s="5">
         <f t="shared" si="19"/>
         <v>-0.2933055</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AL14" s="5">
         <f t="shared" si="20"/>
         <v>-5.3498499999999997E-2</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AM14" s="5">
         <f t="shared" si="21"/>
         <v>0.23980699999999999</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AN14" s="5">
         <v>-0.28307199999999999</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AO14" s="5">
         <v>9.3473000000000001E-2</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AP14" s="5">
         <f t="shared" si="5"/>
         <v>0.37654500000000002</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AQ14" s="5">
         <v>-0.17643600000000001</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AR14" s="5">
         <v>0.11176899999999999</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AS14" s="5">
         <f t="shared" si="22"/>
         <v>0.28820499999999999</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AT14" s="5">
         <f t="shared" si="23"/>
         <v>-0.22975400000000001</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="AU14" s="5">
         <f t="shared" si="24"/>
         <v>0.10262099999999999</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AV14" s="5">
         <f t="shared" si="25"/>
         <v>0.33237499999999998</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AW14" s="5">
         <f t="shared" si="7"/>
         <v>-8.3315999999999987E-2</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="AX14" s="5">
         <f t="shared" si="8"/>
         <v>7.7074999999999956E-3</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AY14" s="5">
         <f t="shared" si="9"/>
         <v>-0.15903399999999998</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AZ14" s="5">
         <f t="shared" si="10"/>
         <v>-7.7934500000000004E-2</v>
       </c>
-      <c r="AY14" s="5">
+      <c r="BA14" s="5">
         <f t="shared" si="26"/>
         <v>0.15355100000000002</v>
       </c>
-      <c r="AZ14" s="5">
+      <c r="BB14" s="5">
         <f t="shared" si="27"/>
         <v>-4.959899999999999E-2</v>
       </c>
-      <c r="BA14" s="5">
+      <c r="BC14" s="5">
         <f t="shared" si="28"/>
         <v>2.4592000000000003E-2</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BD14" s="5">
         <f t="shared" si="29"/>
         <v>-9.6446000000000018E-2</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BE14" s="5">
         <f t="shared" si="30"/>
         <v>-4.8084999999999989E-2</v>
       </c>
-      <c r="BD14" s="5">
+      <c r="BF14" s="5">
         <f t="shared" si="31"/>
         <v>-0.20885300000000001</v>
       </c>
-      <c r="BE14" s="5">
+      <c r="BG14" s="5">
         <f t="shared" si="32"/>
         <v>-7.9018000000000005E-2</v>
       </c>
-      <c r="BF14" s="5">
+      <c r="BH14" s="5">
         <f t="shared" si="33"/>
         <v>-0.10338599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>3877</v>
       </c>
-      <c r="D15" s="6">
+      <c r="F15" s="6">
         <v>8.8874420109999992</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>6.3827999999999996</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="J15" s="7">
         <v>8</v>
       </c>
-      <c r="I15" s="7">
+      <c r="K15" s="7">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J15" s="8">
+      <c r="L15" s="8">
         <v>8</v>
       </c>
-      <c r="K15" s="5">
+      <c r="M15" s="5">
         <v>-0.11112</v>
       </c>
-      <c r="L15" s="5">
+      <c r="N15" s="5">
         <v>9.7069000000000003E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="O15" s="5">
         <f t="shared" si="12"/>
         <v>0.20818900000000001</v>
       </c>
-      <c r="N15" s="5">
+      <c r="P15" s="5">
         <v>-5.3636000000000003E-2</v>
       </c>
-      <c r="O15" s="5">
+      <c r="Q15" s="5">
         <v>0.110414</v>
       </c>
-      <c r="P15" s="5">
+      <c r="R15" s="5">
         <f t="shared" si="0"/>
         <v>0.16405</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="S15" s="5">
         <f t="shared" si="13"/>
         <v>-8.2378000000000007E-2</v>
       </c>
-      <c r="R15" s="5">
+      <c r="T15" s="5">
         <f t="shared" si="14"/>
         <v>0.1037415</v>
       </c>
-      <c r="S15" s="5">
+      <c r="U15" s="5">
         <f t="shared" si="15"/>
         <v>0.18611949999999999</v>
       </c>
-      <c r="T15" s="5">
+      <c r="V15" s="5">
         <v>6.4426999999999998E-2</v>
       </c>
-      <c r="U15" s="5">
+      <c r="W15" s="5">
         <v>0.10111000000000001</v>
       </c>
-      <c r="V15" s="5">
+      <c r="X15" s="5">
         <f t="shared" si="1"/>
         <v>3.6683000000000007E-2</v>
       </c>
-      <c r="W15" s="5">
+      <c r="Y15" s="5">
         <v>2.0008000000000001E-2</v>
       </c>
-      <c r="X15" s="5">
+      <c r="Z15" s="5">
         <v>0.19539500000000001</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="AA15" s="5">
         <f t="shared" si="2"/>
         <v>0.17538700000000002</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AB15" s="5">
         <f t="shared" si="16"/>
         <v>4.2217499999999998E-2</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AC15" s="5">
         <f t="shared" si="17"/>
         <v>0.14825250000000001</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AD15" s="5">
         <f t="shared" si="18"/>
         <v>0.10603500000000002</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AE15" s="5">
         <v>1.7904E-2</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AF15" s="5">
         <v>3.7615000000000003E-2</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AG15" s="5">
         <f t="shared" si="3"/>
         <v>1.9711000000000003E-2</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AH15" s="5">
         <v>4.6669000000000002E-2</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AI15" s="5">
         <v>8.4153000000000006E-2</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AJ15" s="5">
         <f t="shared" si="4"/>
         <v>3.7484000000000003E-2</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AK15" s="5">
         <f t="shared" si="19"/>
         <v>3.2286500000000003E-2</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AL15" s="5">
         <f t="shared" si="20"/>
         <v>6.0884000000000008E-2</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AM15" s="5">
         <f t="shared" si="21"/>
         <v>2.8597500000000005E-2</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AN15" s="5">
         <v>-2.4698999999999999E-2</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AO15" s="5">
         <v>1.1417E-2</v>
       </c>
-      <c r="AN15" s="5">
+      <c r="AP15" s="5">
         <f t="shared" si="5"/>
         <v>3.6115999999999995E-2</v>
       </c>
-      <c r="AO15" s="5">
+      <c r="AQ15" s="5">
         <v>5.0214000000000002E-2</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AR15" s="5">
         <v>5.8465000000000003E-2</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AS15" s="5">
         <f t="shared" si="22"/>
         <v>8.2510000000000014E-3</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="AT15" s="5">
         <f t="shared" si="23"/>
         <v>1.2757500000000001E-2</v>
       </c>
-      <c r="AS15" s="5">
+      <c r="AU15" s="5">
         <f t="shared" si="24"/>
         <v>3.4941E-2</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AV15" s="5">
         <f t="shared" si="25"/>
         <v>2.2183499999999998E-2</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AW15" s="5">
         <f t="shared" si="7"/>
         <v>3.0297200000000003E-2</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="AX15" s="5">
         <f t="shared" si="8"/>
         <v>6.8045250000000002E-2</v>
       </c>
-      <c r="AW15" s="5">
+      <c r="AY15" s="5">
         <f t="shared" si="9"/>
         <v>1.0559249999999999E-2</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="AZ15" s="5">
         <f t="shared" si="10"/>
         <v>5.9875250000000005E-2</v>
       </c>
-      <c r="AY15" s="5">
+      <c r="BA15" s="5">
         <f t="shared" si="26"/>
         <v>0.17554700000000001</v>
       </c>
-      <c r="AZ15" s="5">
+      <c r="BB15" s="5">
         <f t="shared" si="27"/>
         <v>4.0410000000000029E-3</v>
       </c>
-      <c r="BA15" s="5">
+      <c r="BC15" s="5">
         <f t="shared" si="28"/>
         <v>7.3644000000000001E-2</v>
       </c>
-      <c r="BB15" s="5">
+      <c r="BD15" s="5">
         <f t="shared" si="29"/>
         <v>8.4981000000000015E-2</v>
       </c>
-      <c r="BC15" s="5">
+      <c r="BE15" s="5">
         <f t="shared" si="30"/>
         <v>4.2603000000000002E-2</v>
       </c>
-      <c r="BD15" s="5">
+      <c r="BF15" s="5">
         <f t="shared" si="31"/>
         <v>2.6198000000000003E-2</v>
       </c>
-      <c r="BE15" s="5">
+      <c r="BG15" s="5">
         <f t="shared" si="32"/>
         <v>-3.5449999999999995E-3</v>
       </c>
-      <c r="BF15" s="5">
+      <c r="BH15" s="5">
         <f t="shared" si="33"/>
         <v>2.5688000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3880</v>
       </c>
-      <c r="D16" s="6">
+      <c r="F16" s="6">
         <v>8.2229687370000004</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="5">
         <v>7.1338999999999997</v>
       </c>
-      <c r="F16" s="7">
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="J16" s="7">
         <v>8</v>
       </c>
-      <c r="I16" s="7">
+      <c r="K16" s="7">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J16" s="8">
+      <c r="L16" s="8">
         <v>8</v>
       </c>
-      <c r="K16" s="5">
+      <c r="M16" s="5">
         <v>9.8320000000000005E-3</v>
       </c>
-      <c r="L16" s="5">
+      <c r="N16" s="5">
         <v>6.0309000000000001E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="O16" s="5">
         <f t="shared" si="12"/>
         <v>5.0477000000000001E-2</v>
       </c>
-      <c r="N16" s="5">
+      <c r="P16" s="5">
         <v>0.18918499999999999</v>
       </c>
-      <c r="O16" s="5">
+      <c r="Q16" s="5">
         <v>0.11498899999999999</v>
       </c>
-      <c r="P16" s="5">
+      <c r="R16" s="5">
         <f t="shared" si="0"/>
         <v>-7.4195999999999998E-2</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="S16" s="5">
         <f t="shared" si="13"/>
         <v>9.95085E-2</v>
       </c>
-      <c r="R16" s="5">
+      <c r="T16" s="5">
         <f t="shared" si="14"/>
         <v>8.7649000000000005E-2</v>
       </c>
-      <c r="S16" s="5">
+      <c r="U16" s="5">
         <f t="shared" si="15"/>
         <v>-1.1859499999999999E-2</v>
       </c>
-      <c r="T16" s="5">
+      <c r="V16" s="5">
         <v>1.7017999999999998E-2</v>
       </c>
-      <c r="U16" s="5">
+      <c r="W16" s="5">
         <v>2.6889E-2</v>
       </c>
-      <c r="V16" s="5">
+      <c r="X16" s="5">
         <f t="shared" si="1"/>
         <v>9.8710000000000013E-3</v>
       </c>
-      <c r="W16" s="5">
+      <c r="Y16" s="5">
         <v>-9.9944000000000005E-2</v>
       </c>
-      <c r="X16" s="5">
+      <c r="Z16" s="5">
         <v>-4.7113000000000002E-2</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="AA16" s="5">
         <f t="shared" si="2"/>
         <v>5.2831000000000003E-2</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AB16" s="5">
         <f t="shared" si="16"/>
         <v>-4.1463E-2</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AC16" s="5">
         <f t="shared" si="17"/>
         <v>-1.0112000000000001E-2</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AD16" s="5">
         <f t="shared" si="18"/>
         <v>3.1351000000000004E-2</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AE16" s="5">
         <v>3.1689000000000002E-2</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AF16" s="5">
         <v>5.5965000000000001E-2</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AG16" s="5">
         <f t="shared" si="3"/>
         <v>2.4275999999999999E-2</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AH16" s="5">
         <v>8.5344000000000003E-2</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AI16" s="5">
         <v>0.13961200000000001</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AJ16" s="5">
         <f t="shared" si="4"/>
         <v>5.4268000000000011E-2</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AK16" s="5">
         <f t="shared" si="19"/>
         <v>5.8516499999999999E-2</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AL16" s="5">
         <f t="shared" si="20"/>
         <v>9.77885E-2</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AM16" s="5">
         <f t="shared" si="21"/>
         <v>3.9272000000000001E-2</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AN16" s="5">
         <v>6.3926999999999998E-2</v>
       </c>
-      <c r="AM16" s="5">
+      <c r="AO16" s="5">
         <v>0.22964499999999999</v>
       </c>
-      <c r="AN16" s="5">
+      <c r="AP16" s="5">
         <f t="shared" si="5"/>
         <v>0.16571799999999998</v>
       </c>
-      <c r="AO16" s="5">
+      <c r="AQ16" s="5">
         <v>6.3673999999999994E-2</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AR16" s="5">
         <v>0.23819199999999999</v>
       </c>
-      <c r="AQ16" s="5">
+      <c r="AS16" s="5">
         <f t="shared" si="22"/>
         <v>0.17451800000000001</v>
       </c>
-      <c r="AR16" s="5">
+      <c r="AT16" s="5">
         <f t="shared" si="23"/>
         <v>6.3800499999999996E-2</v>
       </c>
-      <c r="AS16" s="5">
+      <c r="AU16" s="5">
         <f t="shared" si="24"/>
         <v>0.23391849999999997</v>
       </c>
-      <c r="AT16" s="5">
+      <c r="AV16" s="5">
         <f t="shared" si="25"/>
         <v>0.17011799999999999</v>
       </c>
-      <c r="AU16" s="5">
+      <c r="AW16" s="5">
         <f t="shared" si="7"/>
         <v>2.2809600000000003E-2</v>
       </c>
-      <c r="AV16" s="5">
+      <c r="AX16" s="5">
         <f t="shared" si="8"/>
         <v>3.9279250000000002E-2</v>
       </c>
-      <c r="AW16" s="5">
+      <c r="AY16" s="5">
         <f t="shared" si="9"/>
         <v>9.5306500000000002E-2</v>
       </c>
-      <c r="AX16" s="5">
+      <c r="AZ16" s="5">
         <f t="shared" si="10"/>
         <v>0.1317055</v>
       </c>
-      <c r="AY16" s="5">
+      <c r="BA16" s="5">
         <f t="shared" si="26"/>
         <v>7.1859999999999979E-3</v>
       </c>
-      <c r="AZ16" s="5">
+      <c r="BB16" s="5">
         <f t="shared" si="27"/>
         <v>-3.3420000000000005E-2</v>
       </c>
-      <c r="BA16" s="5">
+      <c r="BC16" s="5">
         <f t="shared" si="28"/>
         <v>-0.28912899999999997</v>
       </c>
-      <c r="BB16" s="5">
+      <c r="BD16" s="5">
         <f t="shared" si="29"/>
         <v>-0.162102</v>
       </c>
-      <c r="BC16" s="5">
+      <c r="BE16" s="5">
         <f t="shared" si="30"/>
         <v>-3.2237999999999996E-2</v>
       </c>
-      <c r="BD16" s="5">
+      <c r="BF16" s="5">
         <f t="shared" si="31"/>
         <v>-0.17368</v>
       </c>
-      <c r="BE16" s="5">
+      <c r="BG16" s="5">
         <f t="shared" si="32"/>
         <v>2.1670000000000009E-2</v>
       </c>
-      <c r="BF16" s="5">
+      <c r="BH16" s="5">
         <f t="shared" si="33"/>
         <v>-9.8579999999999973E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>3882</v>
       </c>
-      <c r="D17" s="6">
+      <c r="F17" s="6">
         <v>9.3975206280000005</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="5">
         <v>9.2367000000000008</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J17" s="8">
+      <c r="L17" s="8">
         <v>3</v>
       </c>
-      <c r="K17" s="5">
+      <c r="M17" s="5">
         <v>-5.2725000000000001E-2</v>
       </c>
-      <c r="L17" s="5">
+      <c r="N17" s="5">
         <v>9.3939999999999996E-3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="O17" s="5">
         <f t="shared" si="12"/>
         <v>6.2119000000000001E-2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="P17" s="5">
         <v>-3.0328999999999998E-2</v>
       </c>
-      <c r="O17" s="5">
+      <c r="Q17" s="5">
         <v>0.116038</v>
       </c>
-      <c r="P17" s="5">
+      <c r="R17" s="5">
         <f t="shared" si="0"/>
         <v>0.146367</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="S17" s="5">
         <f t="shared" si="13"/>
         <v>-4.1527000000000001E-2</v>
       </c>
-      <c r="R17" s="5">
+      <c r="T17" s="5">
         <f t="shared" si="14"/>
         <v>6.2715999999999994E-2</v>
       </c>
-      <c r="S17" s="5">
+      <c r="U17" s="5">
         <f t="shared" si="15"/>
         <v>0.104243</v>
       </c>
-      <c r="T17" s="5">
+      <c r="V17" s="5">
         <v>3.5961E-2</v>
       </c>
-      <c r="U17" s="5">
+      <c r="W17" s="5">
         <v>0.21001400000000001</v>
       </c>
-      <c r="V17" s="5">
+      <c r="X17" s="5">
         <f t="shared" si="1"/>
         <v>0.17405300000000001</v>
       </c>
-      <c r="W17" s="5">
+      <c r="Y17" s="5">
         <v>9.8876000000000006E-2</v>
       </c>
-      <c r="X17" s="5">
+      <c r="Z17" s="5">
         <v>0.143349</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="AA17" s="5">
         <f t="shared" si="2"/>
         <v>4.4472999999999999E-2</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="AB17" s="5">
         <f t="shared" si="16"/>
         <v>6.7418500000000006E-2</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AC17" s="5">
         <f t="shared" si="17"/>
         <v>0.17668149999999999</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AD17" s="5">
         <f t="shared" si="18"/>
         <v>0.109263</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AE17" s="5">
         <v>9.1829999999999995E-2</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AF17" s="5">
         <v>6.5917000000000003E-2</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AG17" s="5">
         <f t="shared" si="3"/>
         <v>-2.5912999999999992E-2</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AH17" s="5">
         <v>4.2819000000000003E-2</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AI17" s="5">
         <v>7.9843999999999998E-2</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AJ17" s="5">
         <f t="shared" si="4"/>
         <v>3.7024999999999995E-2</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AK17" s="5">
         <f t="shared" si="19"/>
         <v>6.7324499999999995E-2</v>
       </c>
-      <c r="AJ17" s="5">
+      <c r="AL17" s="5">
         <f t="shared" si="20"/>
         <v>7.2880500000000001E-2</v>
       </c>
-      <c r="AK17" s="5">
+      <c r="AM17" s="5">
         <f t="shared" si="21"/>
         <v>5.5560000000000019E-3</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AN17" s="5">
         <v>-0.10734399999999999</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AO17" s="5">
         <v>-6.8446000000000007E-2</v>
       </c>
-      <c r="AN17" s="5">
+      <c r="AP17" s="5">
         <f t="shared" si="5"/>
         <v>3.8897999999999988E-2</v>
       </c>
-      <c r="AO17" s="5">
+      <c r="AQ17" s="5">
         <v>-5.1285999999999998E-2</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="AR17" s="5">
         <v>1.9552E-2</v>
       </c>
-      <c r="AQ17" s="5">
+      <c r="AS17" s="5">
         <f t="shared" si="22"/>
         <v>7.0837999999999998E-2</v>
       </c>
-      <c r="AR17" s="5">
+      <c r="AT17" s="5">
         <f t="shared" si="23"/>
         <v>-7.9314999999999997E-2</v>
       </c>
-      <c r="AS17" s="5">
+      <c r="AU17" s="5">
         <f t="shared" si="24"/>
         <v>-2.4447000000000003E-2</v>
       </c>
-      <c r="AT17" s="5">
+      <c r="AV17" s="5">
         <f t="shared" si="25"/>
         <v>5.4867999999999993E-2</v>
       </c>
-      <c r="AU17" s="5">
+      <c r="AW17" s="5">
         <f t="shared" si="7"/>
         <v>4.0528799999999997E-2</v>
       </c>
-      <c r="AV17" s="5">
+      <c r="AX17" s="5">
         <f t="shared" si="8"/>
         <v>8.1983500000000001E-2</v>
       </c>
-      <c r="AW17" s="5">
+      <c r="AY17" s="5">
         <f t="shared" si="9"/>
         <v>-4.5107500000000009E-3</v>
       </c>
-      <c r="AX17" s="5">
+      <c r="AZ17" s="5">
         <f t="shared" si="10"/>
         <v>2.2732249999999999E-2</v>
       </c>
-      <c r="AY17" s="5">
+      <c r="BA17" s="5">
         <f t="shared" si="26"/>
         <v>8.8686000000000001E-2</v>
       </c>
-      <c r="AZ17" s="5">
+      <c r="BB17" s="5">
         <f t="shared" si="27"/>
         <v>0.20062000000000002</v>
       </c>
-      <c r="BA17" s="5">
+      <c r="BC17" s="5">
         <f t="shared" si="28"/>
         <v>0.12920500000000001</v>
       </c>
-      <c r="BB17" s="5">
+      <c r="BD17" s="5">
         <f t="shared" si="29"/>
         <v>2.7311000000000002E-2</v>
       </c>
-      <c r="BC17" s="5">
+      <c r="BE17" s="5">
         <f t="shared" si="30"/>
         <v>0.19917399999999999</v>
       </c>
-      <c r="BD17" s="5">
+      <c r="BF17" s="5">
         <f t="shared" si="31"/>
         <v>0.13436300000000001</v>
       </c>
-      <c r="BE17" s="5">
+      <c r="BG17" s="5">
         <f t="shared" si="32"/>
         <v>9.4104999999999994E-2</v>
       </c>
-      <c r="BF17" s="5">
+      <c r="BH17" s="5">
         <f t="shared" si="33"/>
         <v>6.0291999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>3883</v>
       </c>
-      <c r="D18" s="6">
+      <c r="F18" s="6">
         <v>8.2672692869999995</v>
       </c>
-      <c r="E18" s="5">
+      <c r="G18" s="5">
         <v>7.0613999999999999</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J18" s="8">
+      <c r="L18" s="8">
         <v>0</v>
       </c>
-      <c r="K18" s="5">
+      <c r="M18" s="5">
         <v>-0.30178100000000002</v>
       </c>
-      <c r="L18" s="5">
+      <c r="N18" s="5">
         <v>-0.101994</v>
       </c>
-      <c r="M18" s="5">
+      <c r="O18" s="5">
         <f t="shared" si="12"/>
         <v>0.19978700000000002</v>
       </c>
-      <c r="N18" s="5">
+      <c r="P18" s="5">
         <v>-1.1540000000000001E-3</v>
       </c>
-      <c r="O18" s="5">
+      <c r="Q18" s="5">
         <v>-2.9968999999999999E-2</v>
       </c>
-      <c r="P18" s="5">
+      <c r="R18" s="5">
         <f t="shared" si="0"/>
         <v>-2.8815E-2</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="S18" s="5">
         <f t="shared" si="13"/>
         <v>-0.1514675</v>
       </c>
-      <c r="R18" s="5">
+      <c r="T18" s="5">
         <f t="shared" si="14"/>
         <v>-6.5981499999999998E-2</v>
       </c>
-      <c r="S18" s="5">
+      <c r="U18" s="5">
         <f t="shared" si="15"/>
         <v>8.5486000000000006E-2</v>
       </c>
-      <c r="T18" s="5">
+      <c r="V18" s="5">
         <v>-0.26075799999999999</v>
       </c>
-      <c r="U18" s="5">
+      <c r="W18" s="5">
         <v>-0.123182</v>
       </c>
-      <c r="V18" s="5">
+      <c r="X18" s="5">
         <f t="shared" si="1"/>
         <v>0.13757599999999998</v>
       </c>
-      <c r="W18" s="5">
+      <c r="Y18" s="5">
         <v>-9.4880999999999993E-2</v>
       </c>
-      <c r="X18" s="5">
+      <c r="Z18" s="5">
         <v>-8.4975999999999996E-2</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="AA18" s="5">
         <f t="shared" si="2"/>
         <v>9.9049999999999971E-3</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="AB18" s="5">
         <f t="shared" si="16"/>
         <v>-0.17781949999999999</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AC18" s="5">
         <f t="shared" si="17"/>
         <v>-0.104079</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AD18" s="5">
         <f t="shared" si="18"/>
         <v>7.3740499999999987E-2</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AE18" s="5">
         <v>-5.3668E-2</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AF18" s="5">
         <v>-0.140128</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AG18" s="5">
         <f t="shared" si="3"/>
         <v>-8.6460000000000009E-2</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AH18" s="5">
         <v>-6.9585999999999995E-2</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AI18" s="5">
         <v>-0.186363</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AJ18" s="5">
         <f t="shared" si="4"/>
         <v>-0.11677700000000001</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AK18" s="5">
         <f t="shared" si="19"/>
         <v>-6.1627000000000001E-2</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AL18" s="5">
         <f t="shared" si="20"/>
         <v>-0.16324549999999999</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AM18" s="5">
         <f t="shared" si="21"/>
         <v>-0.1016185</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AN18" s="5">
         <v>-9.3715999999999994E-2</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AO18" s="5">
         <v>-4.2680000000000003E-2</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AP18" s="5">
         <f t="shared" si="5"/>
         <v>5.1035999999999991E-2</v>
       </c>
-      <c r="AO18" s="5">
+      <c r="AQ18" s="5">
         <v>1.4598E-2</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AR18" s="5">
         <v>6.6969999999999998E-3</v>
       </c>
-      <c r="AQ18" s="5">
+      <c r="AS18" s="5">
         <f t="shared" si="22"/>
         <v>-7.901E-3</v>
       </c>
-      <c r="AR18" s="5">
+      <c r="AT18" s="5">
         <f t="shared" si="23"/>
         <v>-3.9558999999999997E-2</v>
       </c>
-      <c r="AS18" s="5">
+      <c r="AU18" s="5">
         <f t="shared" si="24"/>
         <v>-1.7991500000000001E-2</v>
       </c>
-      <c r="AT18" s="5">
+      <c r="AV18" s="5">
         <f t="shared" si="25"/>
         <v>2.1567499999999996E-2</v>
       </c>
-      <c r="AU18" s="5">
+      <c r="AW18" s="5">
         <f t="shared" si="7"/>
         <v>-0.15754300000000002</v>
       </c>
-      <c r="AV18" s="5">
+      <c r="AX18" s="5">
         <f t="shared" si="8"/>
         <v>-5.2745E-2</v>
       </c>
-      <c r="AW18" s="5">
+      <c r="AY18" s="5">
         <f t="shared" si="9"/>
         <v>-8.2547999999999996E-2</v>
       </c>
-      <c r="AX18" s="5">
+      <c r="AZ18" s="5">
         <f t="shared" si="10"/>
         <v>-5.8663499999999993E-2</v>
       </c>
-      <c r="AY18" s="5">
+      <c r="BA18" s="5">
         <f t="shared" si="26"/>
         <v>4.1023000000000032E-2</v>
       </c>
-      <c r="AZ18" s="5">
+      <c r="BB18" s="5">
         <f t="shared" si="27"/>
         <v>-2.1187999999999999E-2</v>
       </c>
-      <c r="BA18" s="5">
+      <c r="BC18" s="5">
         <f t="shared" si="28"/>
         <v>-9.3726999999999991E-2</v>
       </c>
-      <c r="BB18" s="5">
+      <c r="BD18" s="5">
         <f t="shared" si="29"/>
         <v>-5.5007E-2</v>
       </c>
-      <c r="BC18" s="5">
+      <c r="BE18" s="5">
         <f t="shared" si="30"/>
         <v>4.0047999999999993E-2</v>
       </c>
-      <c r="BD18" s="5">
+      <c r="BF18" s="5">
         <f t="shared" si="31"/>
         <v>-9.7448000000000007E-2</v>
       </c>
-      <c r="BE18" s="5">
+      <c r="BG18" s="5">
         <f t="shared" si="32"/>
         <v>-8.4183999999999995E-2</v>
       </c>
-      <c r="BF18" s="5">
+      <c r="BH18" s="5">
         <f t="shared" si="33"/>
         <v>-0.19306000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>3886</v>
       </c>
-      <c r="D19" s="6">
+      <c r="F19" s="6">
         <v>7.7223976429999999</v>
       </c>
-      <c r="E19" s="5">
+      <c r="G19" s="5">
         <v>6.7188999999999997</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>7</v>
       </c>
-      <c r="G19" s="7">
+      <c r="I19" s="7">
         <v>5</v>
       </c>
-      <c r="H19" s="7">
+      <c r="J19" s="7">
         <v>12</v>
       </c>
-      <c r="I19" s="7">
+      <c r="K19" s="7">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="J19" s="8">
+      <c r="L19" s="8">
         <v>24</v>
       </c>
-      <c r="K19" s="5">
+      <c r="M19" s="5">
         <v>5.2864000000000001E-2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="N19" s="5">
         <v>6.2269999999999999E-3</v>
       </c>
-      <c r="M19" s="5">
+      <c r="O19" s="5">
         <f t="shared" si="12"/>
         <v>-4.6636999999999998E-2</v>
       </c>
-      <c r="N19" s="5">
+      <c r="P19" s="5">
         <v>8.4306000000000006E-2</v>
       </c>
-      <c r="O19" s="5">
+      <c r="Q19" s="5">
         <v>-5.7305000000000002E-2</v>
       </c>
-      <c r="P19" s="5">
+      <c r="R19" s="5">
         <f t="shared" si="0"/>
         <v>-0.14161100000000001</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="S19" s="5">
         <f t="shared" si="13"/>
         <v>6.8585000000000007E-2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="T19" s="5">
         <f t="shared" si="14"/>
         <v>-2.5538999999999999E-2</v>
       </c>
-      <c r="S19" s="5">
+      <c r="U19" s="5">
         <f t="shared" si="15"/>
         <v>-9.4124000000000013E-2</v>
       </c>
-      <c r="T19" s="5">
+      <c r="V19" s="5">
         <v>4.3869999999999999E-2</v>
       </c>
-      <c r="U19" s="5">
+      <c r="W19" s="5">
         <v>0.22051399999999999</v>
       </c>
-      <c r="V19" s="5">
+      <c r="X19" s="5">
         <f t="shared" si="1"/>
         <v>0.176644</v>
       </c>
-      <c r="W19" s="5">
+      <c r="Y19" s="5">
         <v>8.4360000000000008E-3</v>
       </c>
-      <c r="X19" s="5">
+      <c r="Z19" s="5">
         <v>0.21227699999999999</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="AA19" s="5">
         <f t="shared" si="2"/>
         <v>0.20384099999999999</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="AB19" s="5">
         <f t="shared" si="16"/>
         <v>2.6152999999999999E-2</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AC19" s="5">
         <f t="shared" si="17"/>
         <v>0.21639549999999999</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AD19" s="5">
         <f t="shared" si="18"/>
         <v>0.19024249999999998</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AE19" s="5">
         <v>3.2371999999999998E-2</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AF19" s="5">
         <v>0.141262</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AG19" s="5">
         <f t="shared" si="3"/>
         <v>0.10889</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AH19" s="5">
         <v>3.6924999999999999E-2</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AI19" s="5">
         <v>0.131714</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AJ19" s="5">
         <f t="shared" si="4"/>
         <v>9.4788999999999998E-2</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AK19" s="5">
         <f t="shared" si="19"/>
         <v>3.4648499999999999E-2</v>
       </c>
-      <c r="AJ19" s="5">
+      <c r="AL19" s="5">
         <f t="shared" si="20"/>
         <v>0.136488</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AM19" s="5">
         <f t="shared" si="21"/>
         <v>0.1018395</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AN19" s="5">
         <v>6.8989999999999996E-2</v>
       </c>
-      <c r="AM19" s="5">
+      <c r="AO19" s="5">
         <v>-3.8386999999999998E-2</v>
       </c>
-      <c r="AN19" s="5">
+      <c r="AP19" s="5">
         <f t="shared" si="5"/>
         <v>-0.107377</v>
       </c>
-      <c r="AO19" s="5">
+      <c r="AQ19" s="5">
         <v>8.5816000000000003E-2</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AR19" s="5">
         <v>4.1669999999999997E-3</v>
       </c>
-      <c r="AQ19" s="5">
+      <c r="AS19" s="5">
         <f t="shared" si="22"/>
         <v>-8.1648999999999999E-2</v>
       </c>
-      <c r="AR19" s="5">
+      <c r="AT19" s="5">
         <f t="shared" si="23"/>
         <v>7.7403E-2</v>
       </c>
-      <c r="AS19" s="5">
+      <c r="AU19" s="5">
         <f t="shared" si="24"/>
         <v>-1.711E-2</v>
       </c>
-      <c r="AT19" s="5">
+      <c r="AV19" s="5">
         <f t="shared" si="25"/>
         <v>-9.4513E-2</v>
       </c>
-      <c r="AU19" s="5">
+      <c r="AW19" s="5">
         <f t="shared" si="7"/>
         <v>6.4694999999999989E-2</v>
       </c>
-      <c r="AV19" s="5">
+      <c r="AX19" s="5">
         <f t="shared" si="8"/>
         <v>6.1928499999999997E-2</v>
       </c>
-      <c r="AW19" s="5">
+      <c r="AY19" s="5">
         <f t="shared" si="9"/>
         <v>5.105925E-2</v>
       </c>
-      <c r="AX19" s="5">
+      <c r="AZ19" s="5">
         <f t="shared" si="10"/>
         <v>6.4655499999999991E-2</v>
       </c>
-      <c r="AY19" s="5">
+      <c r="BA19" s="5">
         <f t="shared" si="26"/>
         <v>-8.994000000000002E-3</v>
       </c>
-      <c r="AZ19" s="5">
+      <c r="BB19" s="5">
         <f t="shared" si="27"/>
         <v>0.21428699999999998</v>
       </c>
-      <c r="BA19" s="5">
+      <c r="BC19" s="5">
         <f t="shared" si="28"/>
         <v>-7.5870000000000007E-2</v>
       </c>
-      <c r="BB19" s="5">
+      <c r="BD19" s="5">
         <f t="shared" si="29"/>
         <v>0.26958199999999999</v>
       </c>
-      <c r="BC19" s="5">
+      <c r="BE19" s="5">
         <f t="shared" si="30"/>
         <v>-3.6617999999999998E-2</v>
       </c>
-      <c r="BD19" s="5">
+      <c r="BF19" s="5">
         <f t="shared" si="31"/>
         <v>0.179649</v>
       </c>
-      <c r="BE19" s="5">
+      <c r="BG19" s="5">
         <f t="shared" si="32"/>
         <v>-4.8891000000000004E-2</v>
       </c>
-      <c r="BF19" s="5">
+      <c r="BH19" s="5">
         <f t="shared" si="33"/>
         <v>0.12754699999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>3887</v>
       </c>
-      <c r="D20" s="6">
+      <c r="F20" s="6">
         <v>12.39948104</v>
       </c>
-      <c r="E20" s="5">
+      <c r="G20" s="5">
         <v>9.7673000000000005</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J20" s="8">
+      <c r="L20" s="8">
         <v>0</v>
       </c>
-      <c r="K20" s="5">
+      <c r="M20" s="5">
         <v>-8.3401000000000003E-2</v>
       </c>
-      <c r="L20" s="5">
+      <c r="N20" s="5">
         <v>-3.5672000000000002E-2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="O20" s="5">
         <f t="shared" si="12"/>
         <v>4.7729000000000001E-2</v>
       </c>
-      <c r="N20" s="5">
+      <c r="P20" s="5">
         <v>-3.5095000000000001E-2</v>
       </c>
-      <c r="O20" s="5">
+      <c r="Q20" s="5">
         <v>7.6295000000000002E-2</v>
       </c>
-      <c r="P20" s="5">
+      <c r="R20" s="5">
         <f t="shared" si="0"/>
         <v>0.11139</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="S20" s="5">
         <f t="shared" si="13"/>
         <v>-5.9248000000000002E-2</v>
       </c>
-      <c r="R20" s="5">
+      <c r="T20" s="5">
         <f t="shared" si="14"/>
         <v>2.03115E-2</v>
       </c>
-      <c r="S20" s="5">
+      <c r="U20" s="5">
         <f t="shared" si="15"/>
         <v>7.9559500000000005E-2</v>
       </c>
-      <c r="T20" s="5">
+      <c r="V20" s="5">
         <v>0.14959800000000001</v>
       </c>
-      <c r="U20" s="5">
+      <c r="W20" s="5">
         <v>0.110315</v>
       </c>
-      <c r="V20" s="5">
+      <c r="X20" s="5">
         <f t="shared" si="1"/>
         <v>-3.9283000000000012E-2</v>
       </c>
-      <c r="W20" s="5">
+      <c r="Y20" s="5">
         <v>0.27354899999999999</v>
       </c>
-      <c r="X20" s="5">
+      <c r="Z20" s="5">
         <v>9.5028000000000001E-2</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="AA20" s="5">
         <f t="shared" si="2"/>
         <v>-0.17852099999999999</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="AB20" s="5">
         <f t="shared" si="16"/>
         <v>0.2115735</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AC20" s="5">
         <f t="shared" si="17"/>
         <v>0.1026715</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AD20" s="5">
         <f t="shared" si="18"/>
         <v>-0.108902</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AE20" s="5">
         <v>9.8251000000000005E-2</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AF20" s="5">
         <v>4.7572000000000003E-2</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AG20" s="5">
         <f t="shared" si="3"/>
         <v>-5.0679000000000002E-2</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AH20" s="5">
         <v>0.15524299999999999</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AI20" s="5">
         <v>-3.0850000000000001E-3</v>
       </c>
-      <c r="AH20" s="5">
+      <c r="AJ20" s="5">
         <f t="shared" si="4"/>
         <v>-0.158328</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AK20" s="5">
         <f t="shared" si="19"/>
         <v>0.126747</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AL20" s="5">
         <f t="shared" si="20"/>
         <v>2.2243500000000003E-2</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AM20" s="5">
         <f t="shared" si="21"/>
         <v>-0.1045035</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AN20" s="5">
         <v>6.3425999999999996E-2</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AO20" s="5">
         <v>5.1610000000000003E-2</v>
       </c>
-      <c r="AN20" s="5">
+      <c r="AP20" s="5">
         <f t="shared" si="5"/>
         <v>-1.1815999999999993E-2</v>
       </c>
-      <c r="AO20" s="5">
+      <c r="AQ20" s="5">
         <v>2.6165999999999998E-2</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AR20" s="5">
         <v>8.0058000000000004E-2</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="AS20" s="5">
         <f t="shared" si="22"/>
         <v>5.3892000000000009E-2</v>
       </c>
-      <c r="AR20" s="5">
+      <c r="AT20" s="5">
         <f t="shared" si="23"/>
         <v>4.4795999999999996E-2</v>
       </c>
-      <c r="AS20" s="5">
+      <c r="AU20" s="5">
         <f t="shared" si="24"/>
         <v>6.5834000000000004E-2</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="AV20" s="5">
         <f t="shared" si="25"/>
         <v>2.1038000000000008E-2</v>
       </c>
-      <c r="AU20" s="5">
+      <c r="AW20" s="5">
         <f t="shared" si="7"/>
         <v>2.8167999999999999E-2</v>
       </c>
-      <c r="AV20" s="5">
+      <c r="AX20" s="5">
         <f t="shared" si="8"/>
         <v>0.10244425</v>
       </c>
-      <c r="AW20" s="5">
+      <c r="AY20" s="5">
         <f t="shared" si="9"/>
         <v>6.5214750000000002E-2</v>
       </c>
-      <c r="AX20" s="5">
+      <c r="AZ20" s="5">
         <f t="shared" si="10"/>
         <v>6.45955E-2</v>
       </c>
-      <c r="AY20" s="5">
+      <c r="BA20" s="5">
         <f t="shared" si="26"/>
         <v>0.23299900000000001</v>
       </c>
-      <c r="AZ20" s="5">
+      <c r="BB20" s="5">
         <f t="shared" si="27"/>
         <v>0.14598700000000001</v>
       </c>
-      <c r="BA20" s="5">
+      <c r="BC20" s="5">
         <f t="shared" si="28"/>
         <v>0.30864399999999997</v>
       </c>
-      <c r="BB20" s="5">
+      <c r="BD20" s="5">
         <f t="shared" si="29"/>
         <v>1.8733E-2</v>
       </c>
-      <c r="BC20" s="5">
+      <c r="BE20" s="5">
         <f t="shared" si="30"/>
         <v>3.4825000000000009E-2</v>
       </c>
-      <c r="BD20" s="5">
+      <c r="BF20" s="5">
         <f t="shared" si="31"/>
         <v>-4.0379999999999999E-3</v>
       </c>
-      <c r="BE20" s="5">
+      <c r="BG20" s="5">
         <f t="shared" si="32"/>
         <v>0.129077</v>
       </c>
-      <c r="BF20" s="5">
+      <c r="BH20" s="5">
         <f t="shared" si="33"/>
         <v>-8.3143000000000009E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>3889</v>
       </c>
-      <c r="D21" s="6">
+      <c r="F21" s="6">
         <v>8.4076809709999996</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="5">
         <v>8.6026000000000007</v>
       </c>
-      <c r="F21" s="7">
+      <c r="H21" s="7">
         <v>17</v>
       </c>
-      <c r="G21" s="7">
+      <c r="I21" s="7">
         <v>11</v>
       </c>
-      <c r="H21" s="7">
+      <c r="J21" s="7">
         <v>22</v>
       </c>
-      <c r="I21" s="7">
+      <c r="K21" s="7">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="J21" s="8">
+      <c r="L21" s="8">
         <v>62</v>
       </c>
-      <c r="K21" s="5">
+      <c r="M21" s="5">
         <v>-5.6569999999999997E-3</v>
       </c>
-      <c r="L21" s="5">
+      <c r="N21" s="5">
         <v>-1.4454E-2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="O21" s="5">
         <f t="shared" si="12"/>
         <v>-8.7969999999999993E-3</v>
       </c>
-      <c r="N21" s="5">
+      <c r="P21" s="5">
         <v>2.7300999999999999E-2</v>
       </c>
-      <c r="O21" s="5">
+      <c r="Q21" s="5">
         <v>5.6370999999999997E-2</v>
       </c>
-      <c r="P21" s="5">
+      <c r="R21" s="5">
         <f t="shared" si="0"/>
         <v>2.9069999999999999E-2</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="S21" s="5">
         <f t="shared" si="13"/>
         <v>1.0822E-2</v>
       </c>
-      <c r="R21" s="5">
+      <c r="T21" s="5">
         <f t="shared" si="14"/>
         <v>2.0958499999999998E-2</v>
       </c>
-      <c r="S21" s="5">
+      <c r="U21" s="5">
         <f t="shared" si="15"/>
         <v>1.01365E-2</v>
       </c>
-      <c r="T21" s="5">
+      <c r="V21" s="5">
         <v>-0.21440799999999999</v>
       </c>
-      <c r="U21" s="5">
+      <c r="W21" s="5">
         <v>-0.20683399999999999</v>
       </c>
-      <c r="V21" s="5">
+      <c r="X21" s="5">
         <f t="shared" si="1"/>
         <v>7.5739999999999974E-3</v>
       </c>
-      <c r="W21" s="5">
+      <c r="Y21" s="5">
         <v>-4.7932000000000002E-2</v>
       </c>
-      <c r="X21" s="5">
+      <c r="Z21" s="5">
         <v>-0.108635</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="AA21" s="5">
         <f t="shared" si="2"/>
         <v>-6.0702999999999993E-2</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="AB21" s="5">
         <f t="shared" si="16"/>
         <v>-0.13117000000000001</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AC21" s="5">
         <f t="shared" si="17"/>
         <v>-0.1577345</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AD21" s="5">
         <f t="shared" si="18"/>
         <v>-2.6564499999999998E-2</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AE21" s="5">
         <v>-0.19381599999999999</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AF21" s="5">
         <v>-0.22386500000000001</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AG21" s="5">
         <f t="shared" si="3"/>
         <v>-3.004900000000002E-2</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AH21" s="5">
         <v>-0.17955499999999999</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AI21" s="5">
         <v>-0.243644</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AJ21" s="5">
         <f t="shared" si="4"/>
         <v>-6.4089000000000007E-2</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AK21" s="5">
         <f t="shared" si="19"/>
         <v>-0.1866855</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AL21" s="5">
         <f t="shared" si="20"/>
         <v>-0.2337545</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AM21" s="5">
         <f t="shared" si="21"/>
         <v>-4.7069000000000014E-2</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AN21" s="5">
         <v>-6.2890000000000003E-3</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AO21" s="5">
         <v>5.4892999999999997E-2</v>
       </c>
-      <c r="AN21" s="5">
+      <c r="AP21" s="5">
         <f t="shared" si="5"/>
         <v>6.1182E-2</v>
       </c>
-      <c r="AO21" s="5">
+      <c r="AQ21" s="5">
         <v>-2.7833E-2</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AR21" s="5">
         <v>-2.7099999999999997E-4</v>
       </c>
-      <c r="AQ21" s="5">
+      <c r="AS21" s="5">
         <f t="shared" si="22"/>
         <v>2.7562E-2</v>
       </c>
-      <c r="AR21" s="5">
+      <c r="AT21" s="5">
         <f t="shared" si="23"/>
         <v>-1.7061E-2</v>
       </c>
-      <c r="AS21" s="5">
+      <c r="AU21" s="5">
         <f t="shared" si="24"/>
         <v>2.7310999999999998E-2</v>
       </c>
-      <c r="AT21" s="5">
+      <c r="AV21" s="5">
         <f t="shared" si="25"/>
         <v>4.4372000000000002E-2</v>
       </c>
-      <c r="AU21" s="5">
+      <c r="AW21" s="5">
         <f t="shared" si="7"/>
         <v>-8.8270600000000005E-2</v>
       </c>
-      <c r="AV21" s="5">
+      <c r="AX21" s="5">
         <f t="shared" si="8"/>
         <v>-1.822375E-2</v>
       </c>
-      <c r="AW21" s="5">
+      <c r="AY21" s="5">
         <f t="shared" si="9"/>
         <v>-9.2269249999999997E-2</v>
       </c>
-      <c r="AX21" s="5">
+      <c r="AZ21" s="5">
         <f t="shared" si="10"/>
         <v>-0.11282575</v>
       </c>
-      <c r="AY21" s="5">
+      <c r="BA21" s="5">
         <f t="shared" si="26"/>
         <v>-0.20875099999999999</v>
       </c>
-      <c r="AZ21" s="5">
+      <c r="BB21" s="5">
         <f t="shared" si="27"/>
         <v>-0.19238</v>
       </c>
-      <c r="BA21" s="5">
+      <c r="BC21" s="5">
         <f t="shared" si="28"/>
         <v>-7.5232999999999994E-2</v>
       </c>
-      <c r="BB21" s="5">
+      <c r="BD21" s="5">
         <f t="shared" si="29"/>
         <v>-0.16500599999999999</v>
       </c>
-      <c r="BC21" s="5">
+      <c r="BE21" s="5">
         <f t="shared" si="30"/>
         <v>-0.187527</v>
       </c>
-      <c r="BD21" s="5">
+      <c r="BF21" s="5">
         <f t="shared" si="31"/>
         <v>-0.27875800000000001</v>
       </c>
-      <c r="BE21" s="5">
+      <c r="BG21" s="5">
         <f t="shared" si="32"/>
         <v>-0.151722</v>
       </c>
-      <c r="BF21" s="5">
+      <c r="BH21" s="5">
         <f t="shared" si="33"/>
         <v>-0.24337300000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>3890</v>
       </c>
-      <c r="D22" s="6">
+      <c r="F22" s="6">
         <v>8.5382332059999992</v>
       </c>
-      <c r="E22" s="5">
+      <c r="G22" s="5">
         <v>7.6535000000000002</v>
       </c>
-      <c r="F22" s="7">
+      <c r="H22" s="7">
         <v>12</v>
       </c>
-      <c r="G22" s="7">
+      <c r="I22" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="7">
+      <c r="J22" s="7">
         <v>19</v>
       </c>
-      <c r="I22" s="7">
+      <c r="K22" s="7">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="J22" s="8">
+      <c r="L22" s="8">
         <v>29</v>
       </c>
-      <c r="K22" s="5">
+      <c r="M22" s="5">
         <v>0.14799699999999999</v>
       </c>
-      <c r="L22" s="5">
+      <c r="N22" s="5">
         <v>-3.7810000000000003E-2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="O22" s="5">
         <f t="shared" si="12"/>
         <v>-0.185807</v>
       </c>
-      <c r="N22" s="5">
+      <c r="P22" s="5">
         <v>9.4934000000000004E-2</v>
       </c>
-      <c r="O22" s="5">
+      <c r="Q22" s="5">
         <v>0.13406599999999999</v>
       </c>
-      <c r="P22" s="5">
+      <c r="R22" s="5">
         <f t="shared" si="0"/>
         <v>3.9131999999999986E-2</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="S22" s="5">
         <f t="shared" si="13"/>
         <v>0.1214655</v>
       </c>
-      <c r="R22" s="5">
+      <c r="T22" s="5">
         <f t="shared" si="14"/>
         <v>4.812799999999999E-2</v>
       </c>
-      <c r="S22" s="5">
+      <c r="U22" s="5">
         <f t="shared" si="15"/>
         <v>-7.33375E-2</v>
       </c>
-      <c r="T22" s="5">
+      <c r="V22" s="5">
         <v>-0.18335099999999999</v>
       </c>
-      <c r="U22" s="5">
+      <c r="W22" s="5">
         <v>4.7473000000000001E-2</v>
       </c>
-      <c r="V22" s="5">
+      <c r="X22" s="5">
         <f t="shared" si="1"/>
         <v>0.23082399999999997</v>
       </c>
-      <c r="W22" s="5">
+      <c r="Y22" s="5">
         <v>-4.718E-2</v>
       </c>
-      <c r="X22" s="5">
+      <c r="Z22" s="5">
         <v>0.28090999999999999</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="AA22" s="5">
         <f t="shared" si="2"/>
         <v>0.32808999999999999</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="AB22" s="5">
         <f t="shared" si="16"/>
         <v>-0.11526549999999999</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AC22" s="5">
         <f t="shared" si="17"/>
         <v>0.16419149999999999</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AD22" s="5">
         <f t="shared" si="18"/>
         <v>0.27945699999999996</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AE22" s="5">
         <v>-3.8438E-2</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AF22" s="5">
         <v>0.12843599999999999</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AG22" s="5">
         <f t="shared" si="3"/>
         <v>0.16687399999999999</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AH22" s="5">
         <v>-8.1141000000000005E-2</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AI22" s="5">
         <v>0.148115</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AJ22" s="5">
         <f t="shared" si="4"/>
         <v>0.22925600000000002</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AK22" s="5">
         <f t="shared" si="19"/>
         <v>-5.9789500000000002E-2</v>
       </c>
-      <c r="AJ22" s="5">
+      <c r="AL22" s="5">
         <f t="shared" si="20"/>
         <v>0.1382755</v>
       </c>
-      <c r="AK22" s="5">
+      <c r="AM22" s="5">
         <f t="shared" si="21"/>
         <v>0.19806499999999999</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AN22" s="5">
         <v>6.2327E-2</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AO22" s="5">
         <v>6.5765000000000004E-2</v>
       </c>
-      <c r="AN22" s="5">
+      <c r="AP22" s="5">
         <f t="shared" si="5"/>
         <v>3.4380000000000036E-3</v>
       </c>
-      <c r="AO22" s="5">
+      <c r="AQ22" s="5">
         <v>3.0948E-2</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AR22" s="5">
         <v>6.0911E-2</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AS22" s="5">
         <f t="shared" si="22"/>
         <v>2.9963E-2</v>
       </c>
-      <c r="AR22" s="5">
+      <c r="AT22" s="5">
         <f t="shared" si="23"/>
         <v>4.6637499999999998E-2</v>
       </c>
-      <c r="AS22" s="5">
+      <c r="AU22" s="5">
         <f t="shared" si="24"/>
         <v>6.3338000000000005E-2</v>
       </c>
-      <c r="AT22" s="5">
+      <c r="AV22" s="5">
         <f t="shared" si="25"/>
         <v>1.67005E-2</v>
       </c>
-      <c r="AU22" s="5">
+      <c r="AW22" s="5">
         <f t="shared" si="7"/>
         <v>-5.1382000000000008E-3</v>
       </c>
-      <c r="AV22" s="5">
+      <c r="AX22" s="5">
         <f t="shared" si="8"/>
         <v>0.11568249999999999</v>
       </c>
-      <c r="AW22" s="5">
+      <c r="AY22" s="5">
         <f t="shared" si="9"/>
         <v>5.4522500000000002E-2</v>
       </c>
-      <c r="AX22" s="5">
+      <c r="AZ22" s="5">
         <f t="shared" si="10"/>
         <v>3.970825E-2</v>
       </c>
-      <c r="AY22" s="5">
+      <c r="BA22" s="5">
         <f t="shared" si="26"/>
         <v>-0.33134799999999998</v>
       </c>
-      <c r="AZ22" s="5">
+      <c r="BB22" s="5">
         <f t="shared" si="27"/>
         <v>8.5282999999999998E-2</v>
       </c>
-      <c r="BA22" s="5">
+      <c r="BC22" s="5">
         <f t="shared" si="28"/>
         <v>-0.14211400000000002</v>
       </c>
-      <c r="BB22" s="5">
+      <c r="BD22" s="5">
         <f t="shared" si="29"/>
         <v>0.146844</v>
       </c>
-      <c r="BC22" s="5">
+      <c r="BE22" s="5">
         <f t="shared" si="30"/>
         <v>-0.10076499999999999</v>
       </c>
-      <c r="BD22" s="5">
+      <c r="BF22" s="5">
         <f t="shared" si="31"/>
         <v>6.2670999999999991E-2</v>
       </c>
-      <c r="BE22" s="5">
+      <c r="BG22" s="5">
         <f t="shared" si="32"/>
         <v>-0.11208900000000001</v>
       </c>
-      <c r="BF22" s="5">
+      <c r="BH22" s="5">
         <f t="shared" si="33"/>
         <v>8.7204000000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>3891</v>
       </c>
-      <c r="D23" s="6">
+      <c r="F23" s="6">
         <v>9.5472100649999998</v>
       </c>
-      <c r="E23" s="5">
+      <c r="G23" s="5">
         <v>7.0533000000000001</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J23" s="8">
+      <c r="L23" s="8">
         <v>0</v>
       </c>
-      <c r="K23" s="5">
+      <c r="M23" s="5">
         <v>-0.12661800000000001</v>
       </c>
-      <c r="L23" s="5">
+      <c r="N23" s="5">
         <v>3.5799999999999998E-3</v>
       </c>
-      <c r="M23" s="5">
+      <c r="O23" s="5">
         <f t="shared" si="12"/>
         <v>0.13019800000000001</v>
       </c>
-      <c r="N23" s="5">
+      <c r="P23" s="5">
         <v>-0.20003399999999999</v>
       </c>
-      <c r="O23" s="5">
+      <c r="Q23" s="5">
         <v>-7.4226E-2</v>
       </c>
-      <c r="P23" s="5">
+      <c r="R23" s="5">
         <f t="shared" si="0"/>
         <v>0.12580799999999998</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="S23" s="5">
         <f t="shared" si="13"/>
         <v>-0.163326</v>
       </c>
-      <c r="R23" s="5">
+      <c r="T23" s="5">
         <f t="shared" si="14"/>
         <v>-3.5323E-2</v>
       </c>
-      <c r="S23" s="5">
+      <c r="U23" s="5">
         <f t="shared" si="15"/>
         <v>0.12800299999999998</v>
       </c>
-      <c r="T23" s="5">
+      <c r="V23" s="5">
         <v>-0.16670099999999999</v>
       </c>
-      <c r="U23" s="5">
+      <c r="W23" s="5">
         <v>-0.195438</v>
       </c>
-      <c r="V23" s="5">
+      <c r="X23" s="5">
         <f t="shared" si="1"/>
         <v>-2.8737000000000013E-2</v>
       </c>
-      <c r="W23" s="5">
+      <c r="Y23" s="5">
         <v>-8.8109999999999994E-2</v>
       </c>
-      <c r="X23" s="5">
+      <c r="Z23" s="5">
         <v>-0.141933</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="AA23" s="5">
         <f t="shared" si="2"/>
         <v>-5.382300000000001E-2</v>
       </c>
-      <c r="Z23" s="5">
+      <c r="AB23" s="5">
         <f t="shared" si="16"/>
         <v>-0.1274055</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AC23" s="5">
         <f t="shared" si="17"/>
         <v>-0.16868549999999999</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AD23" s="5">
         <f t="shared" si="18"/>
         <v>-4.1280000000000011E-2</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AE23" s="5">
         <v>-0.19656100000000001</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AF23" s="5">
         <v>-0.16364600000000001</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AG23" s="5">
         <f t="shared" si="3"/>
         <v>3.2915E-2</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AH23" s="5">
         <v>-0.13891500000000001</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AI23" s="5">
         <v>-0.101881</v>
       </c>
-      <c r="AH23" s="5">
+      <c r="AJ23" s="5">
         <f t="shared" si="4"/>
         <v>3.7034000000000011E-2</v>
       </c>
-      <c r="AI23" s="5">
+      <c r="AK23" s="5">
         <f t="shared" si="19"/>
         <v>-0.167738</v>
       </c>
-      <c r="AJ23" s="5">
+      <c r="AL23" s="5">
         <f t="shared" si="20"/>
         <v>-0.13276350000000001</v>
       </c>
-      <c r="AK23" s="5">
+      <c r="AM23" s="5">
         <f t="shared" si="21"/>
         <v>3.4974500000000006E-2</v>
       </c>
-      <c r="AL23" s="5">
+      <c r="AN23" s="5">
         <v>-0.19371099999999999</v>
       </c>
-      <c r="AM23" s="5">
+      <c r="AO23" s="5">
         <v>-7.2621000000000005E-2</v>
       </c>
-      <c r="AN23" s="5">
+      <c r="AP23" s="5">
         <f t="shared" si="5"/>
         <v>0.12108999999999999</v>
       </c>
-      <c r="AO23" s="5">
+      <c r="AQ23" s="5">
         <v>-7.0663000000000004E-2</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AR23" s="5">
         <v>-7.2345000000000007E-2</v>
       </c>
-      <c r="AQ23" s="5">
+      <c r="AS23" s="5">
         <f t="shared" si="22"/>
         <v>-1.6820000000000029E-3</v>
       </c>
-      <c r="AR23" s="5">
+      <c r="AT23" s="5">
         <f t="shared" si="23"/>
         <v>-0.132187</v>
       </c>
-      <c r="AS23" s="5">
+      <c r="AU23" s="5">
         <f t="shared" si="24"/>
         <v>-7.2483000000000006E-2</v>
       </c>
-      <c r="AT23" s="5">
+      <c r="AV23" s="5">
         <f t="shared" si="25"/>
         <v>5.9703999999999993E-2</v>
       </c>
-      <c r="AU23" s="5">
+      <c r="AW23" s="5">
         <f t="shared" si="7"/>
         <v>-9.7035399999999994E-2</v>
       </c>
-      <c r="AV23" s="5">
+      <c r="AX23" s="5">
         <f t="shared" si="8"/>
         <v>-0.12607574999999999</v>
       </c>
-      <c r="AW23" s="5">
+      <c r="AY23" s="5">
         <f t="shared" si="9"/>
         <v>-0.15663475000000002</v>
       </c>
-      <c r="AX23" s="5">
+      <c r="AZ23" s="5">
         <f t="shared" si="10"/>
         <v>-9.5951000000000009E-2</v>
       </c>
-      <c r="AY23" s="5">
+      <c r="BA23" s="5">
         <f t="shared" si="26"/>
         <v>-4.008299999999998E-2</v>
       </c>
-      <c r="AZ23" s="5">
+      <c r="BB23" s="5">
         <f t="shared" si="27"/>
         <v>-0.199018</v>
       </c>
-      <c r="BA23" s="5">
+      <c r="BC23" s="5">
         <f t="shared" si="28"/>
         <v>0.111924</v>
       </c>
-      <c r="BB23" s="5">
+      <c r="BD23" s="5">
         <f t="shared" si="29"/>
         <v>-6.7707000000000003E-2</v>
       </c>
-      <c r="BC23" s="5">
+      <c r="BE23" s="5">
         <f t="shared" si="30"/>
         <v>-2.8500000000000192E-3</v>
       </c>
-      <c r="BD23" s="5">
+      <c r="BF23" s="5">
         <f t="shared" si="31"/>
         <v>-9.1025000000000009E-2</v>
       </c>
-      <c r="BE23" s="5">
+      <c r="BG23" s="5">
         <f t="shared" si="32"/>
         <v>-6.8252000000000007E-2</v>
       </c>
-      <c r="BF23" s="5">
+      <c r="BH23" s="5">
         <f t="shared" si="33"/>
         <v>-2.9535999999999993E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>3892</v>
       </c>
-      <c r="D24" s="6">
+      <c r="F24" s="6">
         <v>5.6497598370000004</v>
       </c>
-      <c r="E24" s="5">
+      <c r="G24" s="5">
         <v>5.4255000000000004</v>
       </c>
-      <c r="F24" s="7">
+      <c r="H24" s="7">
         <v>9</v>
       </c>
-      <c r="G24" s="7">
+      <c r="I24" s="7">
         <v>1</v>
       </c>
-      <c r="H24" s="7">
+      <c r="J24" s="7">
         <v>22</v>
       </c>
-      <c r="I24" s="7">
+      <c r="K24" s="7">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="J24" s="8">
+      <c r="L24" s="8">
         <v>33</v>
       </c>
-      <c r="K24" s="5">
+      <c r="M24" s="5">
         <v>-6.4061000000000007E-2</v>
       </c>
-      <c r="L24" s="5">
+      <c r="N24" s="5">
         <v>8.0751000000000003E-2</v>
       </c>
-      <c r="M24" s="5">
+      <c r="O24" s="5">
         <f t="shared" si="12"/>
         <v>0.144812</v>
       </c>
-      <c r="N24" s="5">
+      <c r="P24" s="5">
         <v>-7.7161999999999994E-2</v>
       </c>
-      <c r="O24" s="5">
+      <c r="Q24" s="5">
         <v>1.0193000000000001E-2</v>
       </c>
-      <c r="P24" s="5">
+      <c r="R24" s="5">
         <f t="shared" si="0"/>
         <v>8.7354999999999988E-2</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="S24" s="5">
         <f t="shared" si="13"/>
         <v>-7.0611499999999994E-2</v>
       </c>
-      <c r="R24" s="5">
+      <c r="T24" s="5">
         <f t="shared" si="14"/>
         <v>4.5471999999999999E-2</v>
       </c>
-      <c r="S24" s="5">
+      <c r="U24" s="5">
         <f t="shared" si="15"/>
         <v>0.11608349999999999</v>
       </c>
-      <c r="T24" s="5">
+      <c r="V24" s="5">
         <v>2.5676999999999998E-2</v>
       </c>
-      <c r="U24" s="5">
+      <c r="W24" s="5">
         <v>8.0515000000000003E-2</v>
       </c>
-      <c r="V24" s="5">
+      <c r="X24" s="5">
         <f t="shared" si="1"/>
         <v>5.4838000000000005E-2</v>
       </c>
-      <c r="W24" s="5">
+      <c r="Y24" s="5">
         <v>9.1490000000000002E-2</v>
       </c>
-      <c r="X24" s="5">
+      <c r="Z24" s="5">
         <v>0.136959</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="AA24" s="5">
         <f t="shared" si="2"/>
         <v>4.5468999999999996E-2</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="AB24" s="5">
         <f t="shared" si="16"/>
         <v>5.8583499999999997E-2</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AC24" s="5">
         <f t="shared" si="17"/>
         <v>0.108737</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AD24" s="5">
         <f t="shared" si="18"/>
         <v>5.0153500000000004E-2</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AE24" s="5">
         <v>5.3599000000000001E-2</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AF24" s="5">
         <v>7.3729000000000003E-2</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AG24" s="5">
         <f t="shared" si="3"/>
         <v>2.0130000000000002E-2</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AH24" s="5">
         <v>-1.0194999999999999E-2</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AI24" s="5">
         <v>-6.5180000000000004E-3</v>
       </c>
-      <c r="AH24" s="5">
+      <c r="AJ24" s="5">
         <f t="shared" si="4"/>
         <v>3.6769999999999988E-3</v>
       </c>
-      <c r="AI24" s="5">
+      <c r="AK24" s="5">
         <f t="shared" si="19"/>
         <v>2.1701999999999999E-2</v>
       </c>
-      <c r="AJ24" s="5">
+      <c r="AL24" s="5">
         <f t="shared" si="20"/>
         <v>3.3605500000000003E-2</v>
       </c>
-      <c r="AK24" s="5">
+      <c r="AM24" s="5">
         <f t="shared" si="21"/>
         <v>1.1903500000000001E-2</v>
       </c>
-      <c r="AL24" s="5">
+      <c r="AN24" s="5">
         <v>2.9855E-2</v>
       </c>
-      <c r="AM24" s="5">
+      <c r="AO24" s="5">
         <v>8.9883000000000005E-2</v>
       </c>
-      <c r="AN24" s="5">
+      <c r="AP24" s="5">
         <f t="shared" si="5"/>
         <v>6.0028000000000005E-2</v>
       </c>
-      <c r="AO24" s="5">
+      <c r="AQ24" s="5">
         <v>-1.7505E-2</v>
       </c>
-      <c r="AP24" s="5">
+      <c r="AR24" s="5">
         <v>4.8473000000000002E-2</v>
       </c>
-      <c r="AQ24" s="5">
+      <c r="AS24" s="5">
         <f t="shared" si="22"/>
         <v>6.5978000000000009E-2</v>
       </c>
-      <c r="AR24" s="5">
+      <c r="AT24" s="5">
         <f t="shared" si="23"/>
         <v>6.1749999999999999E-3</v>
       </c>
-      <c r="AS24" s="5">
+      <c r="AU24" s="5">
         <f t="shared" si="24"/>
         <v>6.9178000000000003E-2</v>
       </c>
-      <c r="AT24" s="5">
+      <c r="AV24" s="5">
         <f t="shared" si="25"/>
         <v>6.3003000000000003E-2</v>
       </c>
-      <c r="AU24" s="5">
+      <c r="AW24" s="5">
         <f t="shared" si="7"/>
         <v>2.4576399999999998E-2</v>
       </c>
-      <c r="AV24" s="5">
+      <c r="AX24" s="5">
         <f t="shared" si="8"/>
         <v>4.0370000000000003E-2</v>
       </c>
-      <c r="AW24" s="5">
+      <c r="AY24" s="5">
         <f t="shared" si="9"/>
         <v>6.1766500000000002E-2</v>
       </c>
-      <c r="AX24" s="5">
+      <c r="AZ24" s="5">
         <f t="shared" si="10"/>
         <v>3.5637500000000009E-3</v>
       </c>
-      <c r="AY24" s="5">
+      <c r="BA24" s="5">
         <f t="shared" si="26"/>
         <v>8.9738000000000012E-2</v>
       </c>
-      <c r="AZ24" s="5">
+      <c r="BB24" s="5">
         <f t="shared" si="27"/>
         <v>-2.360000000000001E-4</v>
       </c>
-      <c r="BA24" s="5">
+      <c r="BC24" s="5">
         <f t="shared" si="28"/>
         <v>0.168652</v>
       </c>
-      <c r="BB24" s="5">
+      <c r="BD24" s="5">
         <f t="shared" si="29"/>
         <v>0.12676599999999999</v>
       </c>
-      <c r="BC24" s="5">
+      <c r="BE24" s="5">
         <f t="shared" si="30"/>
         <v>2.3744000000000001E-2</v>
       </c>
-      <c r="BD24" s="5">
+      <c r="BF24" s="5">
         <f t="shared" si="31"/>
         <v>-1.6154000000000002E-2</v>
       </c>
-      <c r="BE24" s="5">
+      <c r="BG24" s="5">
         <f t="shared" si="32"/>
         <v>7.3100000000000005E-3</v>
       </c>
-      <c r="BF24" s="5">
+      <c r="BH24" s="5">
         <f t="shared" si="33"/>
         <v>-5.4991000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>3893</v>
       </c>
-      <c r="D25" s="6">
+      <c r="F25" s="6">
         <v>9.2220832700000006</v>
       </c>
-      <c r="E25" s="5">
+      <c r="G25" s="5">
         <v>7.1264000000000003</v>
-      </c>
-      <c r="F25" s="7">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7">
-        <v>6</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
       </c>
       <c r="I25" s="7">
+        <v>6</v>
+      </c>
+      <c r="J25" s="7">
+        <v>18</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="J25" s="8">
+      <c r="L25" s="8">
         <v>54</v>
       </c>
-      <c r="K25" s="5">
+      <c r="M25" s="5">
         <v>-0.134769</v>
       </c>
-      <c r="L25" s="5">
+      <c r="N25" s="5">
         <v>-4.9349999999999998E-2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="O25" s="5">
         <f t="shared" si="12"/>
         <v>8.5418999999999995E-2</v>
       </c>
-      <c r="N25" s="5">
+      <c r="P25" s="5">
         <v>-5.0312000000000003E-2</v>
       </c>
-      <c r="O25" s="5">
+      <c r="Q25" s="5">
         <v>8.9726E-2</v>
       </c>
-      <c r="P25" s="5">
+      <c r="R25" s="5">
         <f t="shared" si="0"/>
         <v>0.140038</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="S25" s="5">
         <f t="shared" si="13"/>
         <v>-9.2540499999999998E-2</v>
       </c>
-      <c r="R25" s="5">
+      <c r="T25" s="5">
         <f t="shared" si="14"/>
         <v>2.0188000000000001E-2</v>
       </c>
-      <c r="S25" s="5">
+      <c r="U25" s="5">
         <f t="shared" si="15"/>
         <v>0.1127285</v>
       </c>
-      <c r="T25" s="5">
+      <c r="V25" s="5">
         <v>-8.3612000000000006E-2</v>
       </c>
-      <c r="U25" s="5">
+      <c r="W25" s="5">
         <v>-7.6049999999999998E-3</v>
       </c>
-      <c r="V25" s="5">
+      <c r="X25" s="5">
         <f t="shared" si="1"/>
         <v>7.6007000000000005E-2</v>
       </c>
-      <c r="W25" s="5">
+      <c r="Y25" s="5">
         <v>-7.9240000000000005E-2</v>
       </c>
-      <c r="X25" s="5">
+      <c r="Z25" s="5">
         <v>9.1889999999999999E-2</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="AA25" s="5">
         <f t="shared" si="2"/>
         <v>0.17113</v>
       </c>
-      <c r="Z25" s="5">
+      <c r="AB25" s="5">
         <f t="shared" si="16"/>
         <v>-8.1425999999999998E-2</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AC25" s="5">
         <f t="shared" si="17"/>
         <v>4.2142499999999999E-2</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AD25" s="5">
         <f t="shared" si="18"/>
         <v>0.1235685</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AE25" s="5">
         <v>-0.32269999999999999</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AF25" s="5">
         <v>-0.120354</v>
       </c>
-      <c r="AE25" s="5">
+      <c r="AG25" s="5">
         <f t="shared" si="3"/>
         <v>0.20234599999999997</v>
       </c>
-      <c r="AF25" s="5">
+      <c r="AH25" s="5">
         <v>-0.180978</v>
       </c>
-      <c r="AG25" s="5">
+      <c r="AI25" s="5">
         <v>2.1330999999999999E-2</v>
       </c>
-      <c r="AH25" s="5">
+      <c r="AJ25" s="5">
         <f t="shared" si="4"/>
         <v>0.20230899999999999</v>
       </c>
-      <c r="AI25" s="5">
+      <c r="AK25" s="5">
         <f t="shared" si="19"/>
         <v>-0.25183899999999998</v>
       </c>
-      <c r="AJ25" s="5">
+      <c r="AL25" s="5">
         <f t="shared" si="20"/>
         <v>-4.95115E-2</v>
       </c>
-      <c r="AK25" s="5">
+      <c r="AM25" s="5">
         <f t="shared" si="21"/>
         <v>0.20232749999999999</v>
       </c>
-      <c r="AL25" s="5">
+      <c r="AN25" s="5">
         <v>-0.16256899999999999</v>
       </c>
-      <c r="AM25" s="5">
+      <c r="AO25" s="5">
         <v>-4.326E-2</v>
       </c>
-      <c r="AN25" s="5">
+      <c r="AP25" s="5">
         <f t="shared" si="5"/>
         <v>0.119309</v>
       </c>
-      <c r="AO25" s="5">
+      <c r="AQ25" s="5">
         <v>-4.0952000000000002E-2</v>
       </c>
-      <c r="AP25" s="5">
+      <c r="AR25" s="5">
         <v>1.6598999999999999E-2</v>
       </c>
-      <c r="AQ25" s="5">
+      <c r="AS25" s="5">
         <f t="shared" si="22"/>
         <v>5.7551000000000005E-2</v>
       </c>
-      <c r="AR25" s="5">
+      <c r="AT25" s="5">
         <f t="shared" si="23"/>
         <v>-0.1017605</v>
       </c>
-      <c r="AS25" s="5">
+      <c r="AU25" s="5">
         <f t="shared" si="24"/>
         <v>-1.33305E-2</v>
       </c>
-      <c r="AT25" s="5">
+      <c r="AV25" s="5">
         <f t="shared" si="25"/>
         <v>8.8430000000000009E-2</v>
       </c>
-      <c r="AU25" s="5">
+      <c r="AW25" s="5">
         <f t="shared" si="7"/>
         <v>-5.5067199999999997E-2</v>
       </c>
-      <c r="AV25" s="5">
+      <c r="AX25" s="5">
         <f t="shared" si="8"/>
         <v>1.3015999999999998E-2</v>
       </c>
-      <c r="AW25" s="5">
+      <c r="AY25" s="5">
         <f t="shared" si="9"/>
         <v>-0.16222075</v>
       </c>
-      <c r="AX25" s="5">
+      <c r="AZ25" s="5">
         <f t="shared" si="10"/>
         <v>-4.6000000000000006E-2</v>
       </c>
-      <c r="AY25" s="5">
+      <c r="BA25" s="5">
         <f t="shared" si="26"/>
         <v>5.1156999999999994E-2</v>
       </c>
-      <c r="AZ25" s="5">
+      <c r="BB25" s="5">
         <f t="shared" si="27"/>
         <v>4.1744999999999997E-2</v>
       </c>
-      <c r="BA25" s="5">
+      <c r="BC25" s="5">
         <f t="shared" si="28"/>
         <v>-2.8928000000000002E-2</v>
       </c>
-      <c r="BB25" s="5">
+      <c r="BD25" s="5">
         <f t="shared" si="29"/>
         <v>2.1639999999999993E-3</v>
       </c>
-      <c r="BC25" s="5">
+      <c r="BE25" s="5">
         <f t="shared" si="30"/>
         <v>-0.160131</v>
       </c>
-      <c r="BD25" s="5">
+      <c r="BF25" s="5">
         <f t="shared" si="31"/>
         <v>-7.7093999999999996E-2</v>
       </c>
-      <c r="BE25" s="5">
+      <c r="BG25" s="5">
         <f t="shared" si="32"/>
         <v>-0.14002599999999998</v>
       </c>
-      <c r="BF25" s="5">
+      <c r="BH25" s="5">
         <f t="shared" si="33"/>
         <v>4.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>3895</v>
       </c>
-      <c r="D26" s="6">
+      <c r="F26" s="6">
         <v>9.0754258770000007</v>
       </c>
-      <c r="E26" s="5">
+      <c r="G26" s="5">
         <v>8.3969000000000005</v>
       </c>
-      <c r="F26" s="7">
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="7">
+      <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="H26" s="7">
+      <c r="J26" s="7">
         <v>4</v>
       </c>
-      <c r="I26" s="7">
+      <c r="K26" s="7">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="J26" s="8">
+      <c r="L26" s="8">
         <v>4</v>
       </c>
-      <c r="K26" s="5">
+      <c r="M26" s="5">
         <v>-0.18016799999999999</v>
       </c>
-      <c r="L26" s="5">
+      <c r="N26" s="5">
         <v>7.5980000000000006E-2</v>
       </c>
-      <c r="M26" s="5">
+      <c r="O26" s="5">
         <f t="shared" si="12"/>
         <v>0.25614799999999999</v>
       </c>
-      <c r="N26" s="5">
+      <c r="P26" s="5">
         <v>-0.163575</v>
       </c>
-      <c r="O26" s="5">
+      <c r="Q26" s="5">
         <v>-0.12099799999999999</v>
       </c>
-      <c r="P26" s="5">
+      <c r="R26" s="5">
         <f t="shared" si="0"/>
         <v>4.2577000000000004E-2</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="S26" s="5">
         <f t="shared" si="13"/>
         <v>-0.17187150000000001</v>
       </c>
-      <c r="R26" s="5">
+      <c r="T26" s="5">
         <f t="shared" si="14"/>
         <v>-2.2508999999999994E-2</v>
       </c>
-      <c r="S26" s="5">
+      <c r="U26" s="5">
         <f t="shared" si="15"/>
         <v>0.14936250000000001</v>
       </c>
-      <c r="T26" s="5">
+      <c r="V26" s="5">
         <v>6.6763000000000003E-2</v>
       </c>
-      <c r="U26" s="5">
+      <c r="W26" s="5">
         <v>5.8187000000000003E-2</v>
       </c>
-      <c r="V26" s="5">
+      <c r="X26" s="5">
         <f t="shared" si="1"/>
         <v>-8.5760000000000003E-3</v>
       </c>
-      <c r="W26" s="5">
+      <c r="Y26" s="5">
         <v>0.109371</v>
       </c>
-      <c r="X26" s="5">
+      <c r="Z26" s="5">
         <v>8.9312000000000002E-2</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="AA26" s="5">
         <f t="shared" si="2"/>
         <v>-2.0058999999999994E-2</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="AB26" s="5">
         <f t="shared" si="16"/>
         <v>8.8067000000000006E-2</v>
       </c>
-      <c r="AA26" s="5">
+      <c r="AC26" s="5">
         <f t="shared" si="17"/>
         <v>7.3749499999999996E-2</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AD26" s="5">
         <f t="shared" si="18"/>
         <v>-1.4317499999999997E-2</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AE26" s="5">
         <v>1.3393E-2</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AF26" s="5">
         <v>0.151031</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AG26" s="5">
         <f t="shared" si="3"/>
         <v>0.13763800000000001</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AH26" s="5">
         <v>3.6181999999999999E-2</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AI26" s="5">
         <v>9.5702999999999996E-2</v>
       </c>
-      <c r="AH26" s="5">
+      <c r="AJ26" s="5">
         <f t="shared" si="4"/>
         <v>5.9520999999999998E-2</v>
       </c>
-      <c r="AI26" s="5">
+      <c r="AK26" s="5">
         <f t="shared" si="19"/>
         <v>2.4787500000000001E-2</v>
       </c>
-      <c r="AJ26" s="5">
+      <c r="AL26" s="5">
         <f t="shared" si="20"/>
         <v>0.123367</v>
       </c>
-      <c r="AK26" s="5">
+      <c r="AM26" s="5">
         <f t="shared" si="21"/>
         <v>9.85795E-2</v>
       </c>
-      <c r="AL26" s="5">
+      <c r="AN26" s="5">
         <v>-0.127494</v>
       </c>
-      <c r="AM26" s="5">
+      <c r="AO26" s="5">
         <v>-4.6290000000000003E-3</v>
       </c>
-      <c r="AN26" s="5">
+      <c r="AP26" s="5">
         <f t="shared" si="5"/>
         <v>0.122865</v>
       </c>
-      <c r="AO26" s="5">
+      <c r="AQ26" s="5">
         <v>-7.4638999999999997E-2</v>
       </c>
-      <c r="AP26" s="5">
+      <c r="AR26" s="5">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="AQ26" s="5">
+      <c r="AS26" s="5">
         <f t="shared" si="22"/>
         <v>0.11473899999999999</v>
       </c>
-      <c r="AR26" s="5">
+      <c r="AT26" s="5">
         <f t="shared" si="23"/>
         <v>-0.1010665</v>
       </c>
-      <c r="AS26" s="5">
+      <c r="AU26" s="5">
         <f t="shared" si="24"/>
         <v>1.7735499999999998E-2</v>
       </c>
-      <c r="AT26" s="5">
+      <c r="AV26" s="5">
         <f t="shared" si="25"/>
         <v>0.11880199999999999</v>
       </c>
-      <c r="AU26" s="5">
+      <c r="AW26" s="5">
         <f t="shared" si="7"/>
         <v>4.1524000000000031E-3</v>
       </c>
-      <c r="AV26" s="5">
+      <c r="AX26" s="5">
         <f t="shared" si="8"/>
         <v>-2.1472499999999992E-2</v>
       </c>
-      <c r="AW26" s="5">
+      <c r="AY26" s="5">
         <f t="shared" si="9"/>
         <v>8.0752499999999974E-3</v>
       </c>
-      <c r="AX26" s="5">
+      <c r="AZ26" s="5">
         <f t="shared" si="10"/>
         <v>2.43365E-2</v>
       </c>
-      <c r="AY26" s="5">
+      <c r="BA26" s="5">
         <f t="shared" si="26"/>
         <v>0.24693100000000001</v>
       </c>
-      <c r="AZ26" s="5">
+      <c r="BB26" s="5">
         <f t="shared" si="27"/>
         <v>-1.7793000000000003E-2</v>
       </c>
-      <c r="BA26" s="5">
+      <c r="BC26" s="5">
         <f t="shared" si="28"/>
         <v>0.27294600000000002</v>
       </c>
-      <c r="BB26" s="5">
+      <c r="BD26" s="5">
         <f t="shared" si="29"/>
         <v>0.21031</v>
       </c>
-      <c r="BC26" s="5">
+      <c r="BE26" s="5">
         <f t="shared" si="30"/>
         <v>0.14088699999999998</v>
       </c>
-      <c r="BD26" s="5">
+      <c r="BF26" s="5">
         <f t="shared" si="31"/>
         <v>0.15565999999999999</v>
       </c>
-      <c r="BE26" s="5">
+      <c r="BG26" s="5">
         <f t="shared" si="32"/>
         <v>0.110821</v>
       </c>
-      <c r="BF26" s="5">
+      <c r="BH26" s="5">
         <f t="shared" si="33"/>
         <v>5.5603E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>3896</v>
       </c>
-      <c r="D27" s="6">
+      <c r="F27" s="6">
         <v>12.455561510000001</v>
       </c>
-      <c r="E27" s="5">
+      <c r="G27" s="5">
         <v>10.875999999999999</v>
       </c>
-      <c r="F27" s="7">
+      <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="I27" s="7">
         <v>3</v>
       </c>
-      <c r="H27" s="7">
+      <c r="J27" s="7">
         <v>22</v>
       </c>
-      <c r="I27" s="7">
+      <c r="K27" s="7">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="J27" s="8">
+      <c r="L27" s="8">
         <v>34</v>
       </c>
-      <c r="K27" s="5">
+      <c r="M27" s="5">
         <v>-6.6739000000000007E-2</v>
       </c>
-      <c r="L27" s="5">
+      <c r="N27" s="5">
         <v>0.293433</v>
       </c>
-      <c r="M27" s="5">
+      <c r="O27" s="5">
         <f t="shared" si="12"/>
         <v>0.36017199999999999</v>
       </c>
-      <c r="N27" s="5">
+      <c r="P27" s="5">
         <v>3.3617000000000001E-2</v>
       </c>
-      <c r="O27" s="5">
+      <c r="Q27" s="5">
         <v>0.17433000000000001</v>
       </c>
-      <c r="P27" s="5">
+      <c r="R27" s="5">
         <f t="shared" si="0"/>
         <v>0.140713</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="S27" s="5">
         <f t="shared" si="13"/>
         <v>-1.6561000000000003E-2</v>
       </c>
-      <c r="R27" s="5">
+      <c r="T27" s="5">
         <f t="shared" si="14"/>
         <v>0.23388150000000002</v>
       </c>
-      <c r="S27" s="5">
+      <c r="U27" s="5">
         <f t="shared" si="15"/>
         <v>0.25044250000000001</v>
       </c>
-      <c r="T27" s="5">
+      <c r="V27" s="5">
         <v>5.9305999999999998E-2</v>
       </c>
-      <c r="U27" s="5">
+      <c r="W27" s="5">
         <v>0.16288</v>
       </c>
-      <c r="V27" s="5">
+      <c r="X27" s="5">
         <f t="shared" si="1"/>
         <v>0.103574</v>
       </c>
-      <c r="W27" s="5">
+      <c r="Y27" s="5">
         <v>-5.4826E-2</v>
       </c>
-      <c r="X27" s="5">
+      <c r="Z27" s="5">
         <v>1.7403999999999999E-2</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="AA27" s="5">
         <f t="shared" si="2"/>
         <v>7.2230000000000003E-2</v>
       </c>
-      <c r="Z27" s="5">
+      <c r="AB27" s="5">
         <f t="shared" si="16"/>
         <v>2.2399999999999989E-3</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="AC27" s="5">
         <f t="shared" si="17"/>
         <v>9.0142E-2</v>
       </c>
-      <c r="AB27" s="5">
+      <c r="AD27" s="5">
         <f t="shared" si="18"/>
         <v>8.7902000000000008E-2</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AE27" s="5">
         <v>4.9820999999999997E-2</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AF27" s="5">
         <v>0.13849800000000001</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AG27" s="5">
         <f t="shared" si="3"/>
         <v>8.8677000000000006E-2</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AH27" s="5">
         <v>3.1959000000000001E-2</v>
       </c>
-      <c r="AG27" s="5">
+      <c r="AI27" s="5">
         <v>0.161245</v>
       </c>
-      <c r="AH27" s="5">
+      <c r="AJ27" s="5">
         <f t="shared" si="4"/>
         <v>0.12928600000000001</v>
       </c>
-      <c r="AI27" s="5">
+      <c r="AK27" s="5">
         <f t="shared" si="19"/>
         <v>4.0889999999999996E-2</v>
       </c>
-      <c r="AJ27" s="5">
+      <c r="AL27" s="5">
         <f t="shared" si="20"/>
         <v>0.14987149999999999</v>
       </c>
-      <c r="AK27" s="5">
+      <c r="AM27" s="5">
         <f t="shared" si="21"/>
         <v>0.10898150000000001</v>
       </c>
-      <c r="AL27" s="5">
+      <c r="AN27" s="5">
         <v>2.0195000000000001E-2</v>
       </c>
-      <c r="AM27" s="5">
+      <c r="AO27" s="5">
         <v>8.8067000000000006E-2</v>
       </c>
-      <c r="AN27" s="5">
+      <c r="AP27" s="5">
         <f t="shared" si="5"/>
         <v>6.7872000000000002E-2</v>
       </c>
-      <c r="AO27" s="5">
+      <c r="AQ27" s="5">
         <v>8.3649000000000001E-2</v>
       </c>
-      <c r="AP27" s="5">
+      <c r="AR27" s="5">
         <v>0.19259299999999999</v>
       </c>
-      <c r="AQ27" s="5">
+      <c r="AS27" s="5">
         <f t="shared" si="22"/>
         <v>0.10894399999999999</v>
       </c>
-      <c r="AR27" s="5">
+      <c r="AT27" s="5">
         <f t="shared" si="23"/>
         <v>5.1922000000000003E-2</v>
       </c>
-      <c r="AS27" s="5">
+      <c r="AU27" s="5">
         <f t="shared" si="24"/>
         <v>0.14033000000000001</v>
       </c>
-      <c r="AT27" s="5">
+      <c r="AV27" s="5">
         <f t="shared" si="25"/>
         <v>8.8407999999999987E-2</v>
       </c>
-      <c r="AU27" s="5">
+      <c r="AW27" s="5">
         <f t="shared" si="7"/>
         <v>8.9776000000000009E-2</v>
       </c>
-      <c r="AV27" s="5">
+      <c r="AX27" s="5">
         <f t="shared" si="8"/>
         <v>4.2631250000000002E-2</v>
       </c>
-      <c r="AW27" s="5">
+      <c r="AY27" s="5">
         <f t="shared" si="9"/>
         <v>7.4145249999999996E-2</v>
       </c>
-      <c r="AX27" s="5">
+      <c r="AZ27" s="5">
         <f t="shared" si="10"/>
         <v>0.11736150000000001</v>
       </c>
-      <c r="AY27" s="5">
+      <c r="BA27" s="5">
         <f t="shared" si="26"/>
         <v>0.12604500000000002</v>
       </c>
-      <c r="AZ27" s="5">
+      <c r="BB27" s="5">
         <f t="shared" si="27"/>
         <v>-0.130553</v>
       </c>
-      <c r="BA27" s="5">
+      <c r="BC27" s="5">
         <f t="shared" si="28"/>
         <v>-8.8442999999999994E-2</v>
       </c>
-      <c r="BB27" s="5">
+      <c r="BD27" s="5">
         <f t="shared" si="29"/>
         <v>-0.15692600000000001</v>
       </c>
-      <c r="BC27" s="5">
+      <c r="BE27" s="5">
         <f t="shared" si="30"/>
         <v>2.9625999999999996E-2</v>
       </c>
-      <c r="BD27" s="5">
+      <c r="BF27" s="5">
         <f t="shared" si="31"/>
         <v>5.0431000000000004E-2</v>
       </c>
-      <c r="BE27" s="5">
+      <c r="BG27" s="5">
         <f t="shared" si="32"/>
         <v>-5.169E-2</v>
       </c>
-      <c r="BF27" s="5">
+      <c r="BH27" s="5">
         <f t="shared" si="33"/>
         <v>-3.1347999999999987E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>3910</v>
       </c>
-      <c r="D28" s="6">
+      <c r="F28" s="6">
         <v>9.5907081900000009</v>
       </c>
-      <c r="E28" s="5">
+      <c r="G28" s="5">
         <v>8.4403000000000006</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J28" s="8">
+      <c r="L28" s="8">
         <v>0</v>
       </c>
-      <c r="K28" s="5">
+      <c r="M28" s="5">
         <v>-0.123791</v>
       </c>
-      <c r="L28" s="5">
+      <c r="N28" s="5">
         <v>-6.2100000000000002E-4</v>
       </c>
-      <c r="M28" s="5">
+      <c r="O28" s="5">
         <f t="shared" si="12"/>
         <v>0.12317</v>
       </c>
-      <c r="N28" s="5">
+      <c r="P28" s="5">
         <v>-0.20208100000000001</v>
       </c>
-      <c r="O28" s="5">
+      <c r="Q28" s="5">
         <v>-5.6236000000000001E-2</v>
       </c>
-      <c r="P28" s="5">
+      <c r="R28" s="5">
         <f t="shared" si="0"/>
         <v>0.145845</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="S28" s="5">
         <f t="shared" si="13"/>
         <v>-0.162936</v>
       </c>
-      <c r="R28" s="5">
+      <c r="T28" s="5">
         <f t="shared" si="14"/>
         <v>-2.8428500000000002E-2</v>
       </c>
-      <c r="S28" s="5">
+      <c r="U28" s="5">
         <f t="shared" si="15"/>
         <v>0.1345075</v>
       </c>
-      <c r="T28" s="5">
+      <c r="V28" s="5">
         <v>-4.6586000000000002E-2</v>
       </c>
-      <c r="U28" s="5">
+      <c r="W28" s="5">
         <v>-0.114108</v>
       </c>
-      <c r="V28" s="5">
+      <c r="X28" s="5">
         <f t="shared" si="1"/>
         <v>-6.7521999999999999E-2</v>
       </c>
-      <c r="W28" s="5">
+      <c r="Y28" s="5">
         <v>-1.4815999999999999E-2</v>
       </c>
-      <c r="X28" s="5">
+      <c r="Z28" s="5">
         <v>-0.12833700000000001</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="AA28" s="5">
         <f t="shared" si="2"/>
         <v>-0.11352100000000001</v>
       </c>
-      <c r="Z28" s="5">
+      <c r="AB28" s="5">
         <f t="shared" si="16"/>
         <v>-3.0700999999999999E-2</v>
       </c>
-      <c r="AA28" s="5">
+      <c r="AC28" s="5">
         <f t="shared" si="17"/>
         <v>-0.12122250000000001</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AD28" s="5">
         <f t="shared" si="18"/>
         <v>-9.0521500000000005E-2</v>
       </c>
-      <c r="AC28" s="5">
+      <c r="AE28" s="5">
         <v>3.5944999999999998E-2</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AF28" s="5">
         <v>-6.9070999999999994E-2</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AG28" s="5">
         <f t="shared" si="3"/>
         <v>-0.105016</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AH28" s="5">
         <v>2.2284999999999999E-2</v>
       </c>
-      <c r="AG28" s="5">
+      <c r="AI28" s="5">
         <v>-0.123275</v>
       </c>
-      <c r="AH28" s="5">
+      <c r="AJ28" s="5">
         <f t="shared" si="4"/>
         <v>-0.14555999999999999</v>
       </c>
-      <c r="AI28" s="5">
+      <c r="AK28" s="5">
         <f t="shared" si="19"/>
         <v>2.9114999999999999E-2</v>
       </c>
-      <c r="AJ28" s="5">
+      <c r="AL28" s="5">
         <f t="shared" si="20"/>
         <v>-9.6172999999999995E-2</v>
       </c>
-      <c r="AK28" s="5">
+      <c r="AM28" s="5">
         <f t="shared" si="21"/>
         <v>-0.12528800000000001</v>
       </c>
-      <c r="AL28" s="5">
+      <c r="AN28" s="5">
         <v>-0.15120800000000001</v>
       </c>
-      <c r="AM28" s="5">
+      <c r="AO28" s="5">
         <v>-6.1436999999999999E-2</v>
       </c>
-      <c r="AN28" s="5">
+      <c r="AP28" s="5">
         <f t="shared" si="5"/>
         <v>8.9771000000000017E-2</v>
       </c>
-      <c r="AO28" s="5">
+      <c r="AQ28" s="5">
         <v>-0.13892099999999999</v>
       </c>
-      <c r="AP28" s="5">
+      <c r="AR28" s="5">
         <v>-6.5240999999999993E-2</v>
       </c>
-      <c r="AQ28" s="5">
+      <c r="AS28" s="5">
         <f t="shared" si="22"/>
         <v>7.3679999999999995E-2</v>
       </c>
-      <c r="AR28" s="5">
+      <c r="AT28" s="5">
         <f t="shared" si="23"/>
         <v>-0.14506449999999999</v>
       </c>
-      <c r="AS28" s="5">
+      <c r="AU28" s="5">
         <f t="shared" si="24"/>
         <v>-6.3338999999999993E-2</v>
       </c>
-      <c r="AT28" s="5">
+      <c r="AV28" s="5">
         <f t="shared" si="25"/>
         <v>8.1725500000000006E-2</v>
       </c>
-      <c r="AU28" s="5">
+      <c r="AW28" s="5">
         <f t="shared" si="7"/>
         <v>-5.7021199999999994E-2</v>
       </c>
-      <c r="AV28" s="5">
+      <c r="AX28" s="5">
         <f t="shared" si="8"/>
         <v>-0.1003675</v>
       </c>
-      <c r="AW28" s="5">
+      <c r="AY28" s="5">
         <f t="shared" si="9"/>
         <v>-6.1442749999999997E-2</v>
       </c>
-      <c r="AX28" s="5">
+      <c r="AZ28" s="5">
         <f t="shared" si="10"/>
         <v>-7.6287999999999995E-2</v>
       </c>
-      <c r="AY28" s="5">
+      <c r="BA28" s="5">
         <f t="shared" si="26"/>
         <v>7.7204999999999996E-2</v>
       </c>
-      <c r="AZ28" s="5">
+      <c r="BB28" s="5">
         <f t="shared" si="27"/>
         <v>-0.113487</v>
       </c>
-      <c r="BA28" s="5">
+      <c r="BC28" s="5">
         <f t="shared" si="28"/>
         <v>0.18726500000000001</v>
       </c>
-      <c r="BB28" s="5">
+      <c r="BD28" s="5">
         <f t="shared" si="29"/>
         <v>-7.2100999999999998E-2</v>
       </c>
-      <c r="BC28" s="5">
+      <c r="BE28" s="5">
         <f t="shared" si="30"/>
         <v>0.18715300000000001</v>
       </c>
-      <c r="BD28" s="5">
+      <c r="BF28" s="5">
         <f t="shared" si="31"/>
         <v>-7.633999999999995E-3</v>
       </c>
-      <c r="BE28" s="5">
+      <c r="BG28" s="5">
         <f t="shared" si="32"/>
         <v>0.16120599999999999</v>
       </c>
-      <c r="BF28" s="5">
+      <c r="BH28" s="5">
         <f t="shared" si="33"/>
         <v>-5.8034000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>3912</v>
       </c>
-      <c r="D29" s="6">
+      <c r="F29" s="6">
         <v>8.0717615449999993</v>
       </c>
-      <c r="E29" s="5">
+      <c r="G29" s="5">
         <v>6.7473000000000001</v>
       </c>
-      <c r="F29" s="7">
+      <c r="H29" s="7">
         <v>9</v>
       </c>
-      <c r="G29" s="7">
+      <c r="I29" s="7">
         <v>4</v>
       </c>
-      <c r="H29" s="7">
+      <c r="J29" s="7">
         <v>6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="K29" s="7">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="J29" s="8">
+      <c r="L29" s="8">
         <v>16</v>
       </c>
-      <c r="K29" s="5">
+      <c r="M29" s="5">
         <v>-8.9329000000000006E-2</v>
       </c>
-      <c r="L29" s="5">
+      <c r="N29" s="5">
         <v>3.9376000000000001E-2</v>
       </c>
-      <c r="M29" s="5">
+      <c r="O29" s="5">
         <f t="shared" si="12"/>
         <v>0.12870500000000001</v>
       </c>
-      <c r="N29" s="5">
+      <c r="P29" s="5">
         <v>-0.23002300000000001</v>
       </c>
-      <c r="O29" s="5">
+      <c r="Q29" s="5">
         <v>-0.102991</v>
       </c>
-      <c r="P29" s="5">
+      <c r="R29" s="5">
         <f t="shared" si="0"/>
         <v>0.12703200000000001</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="S29" s="5">
         <f t="shared" si="13"/>
         <v>-0.15967600000000001</v>
       </c>
-      <c r="R29" s="5">
+      <c r="T29" s="5">
         <f t="shared" si="14"/>
         <v>-3.1807500000000002E-2</v>
       </c>
-      <c r="S29" s="5">
+      <c r="U29" s="5">
         <f t="shared" si="15"/>
         <v>0.1278685</v>
       </c>
-      <c r="T29" s="5">
+      <c r="V29" s="5">
         <v>-0.14354800000000001</v>
       </c>
-      <c r="U29" s="5">
+      <c r="W29" s="5">
         <v>6.3961000000000004E-2</v>
       </c>
-      <c r="V29" s="5">
+      <c r="X29" s="5">
         <f t="shared" si="1"/>
         <v>0.207509</v>
       </c>
-      <c r="W29" s="5">
+      <c r="Y29" s="5">
         <v>-0.187551</v>
       </c>
-      <c r="X29" s="5">
+      <c r="Z29" s="5">
         <v>6.6267999999999994E-2</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="AA29" s="5">
         <f t="shared" si="2"/>
         <v>0.25381900000000002</v>
       </c>
-      <c r="Z29" s="5">
+      <c r="AB29" s="5">
         <f t="shared" si="16"/>
         <v>-0.16554950000000002</v>
       </c>
-      <c r="AA29" s="5">
+      <c r="AC29" s="5">
         <f t="shared" si="17"/>
         <v>6.5114499999999992E-2</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AD29" s="5">
         <f t="shared" si="18"/>
         <v>0.23066400000000001</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AE29" s="5">
         <v>1.6114E-2</v>
       </c>
-      <c r="AD29" s="5">
+      <c r="AF29" s="5">
         <v>0.11569400000000001</v>
       </c>
-      <c r="AE29" s="5">
+      <c r="AG29" s="5">
         <f t="shared" si="3"/>
         <v>9.9580000000000002E-2</v>
       </c>
-      <c r="AF29" s="5">
+      <c r="AH29" s="5">
         <v>0.13467999999999999</v>
       </c>
-      <c r="AG29" s="5">
+      <c r="AI29" s="5">
         <v>0.19463</v>
       </c>
-      <c r="AH29" s="5">
+      <c r="AJ29" s="5">
         <f t="shared" si="4"/>
         <v>5.9950000000000003E-2</v>
       </c>
-      <c r="AI29" s="5">
+      <c r="AK29" s="5">
         <f t="shared" si="19"/>
         <v>7.5396999999999992E-2</v>
       </c>
-      <c r="AJ29" s="5">
+      <c r="AL29" s="5">
         <f t="shared" si="20"/>
         <v>0.15516199999999999</v>
       </c>
-      <c r="AK29" s="5">
+      <c r="AM29" s="5">
         <f t="shared" si="21"/>
         <v>7.9765000000000003E-2</v>
       </c>
-      <c r="AL29" s="5">
+      <c r="AN29" s="5">
         <v>0.12603200000000001</v>
       </c>
-      <c r="AM29" s="5">
+      <c r="AO29" s="5">
         <v>2.8617E-2</v>
       </c>
-      <c r="AN29" s="5">
+      <c r="AP29" s="5">
         <f t="shared" si="5"/>
         <v>-9.7415000000000002E-2</v>
       </c>
-      <c r="AO29" s="5">
+      <c r="AQ29" s="5">
         <v>-3.3774999999999999E-2</v>
       </c>
-      <c r="AP29" s="5">
+      <c r="AR29" s="5">
         <v>-1.9386E-2</v>
       </c>
-      <c r="AQ29" s="5">
+      <c r="AS29" s="5">
         <f t="shared" si="22"/>
         <v>1.4388999999999999E-2</v>
       </c>
-      <c r="AR29" s="5">
+      <c r="AT29" s="5">
         <f t="shared" si="23"/>
         <v>4.6128500000000003E-2</v>
       </c>
-      <c r="AS29" s="5">
+      <c r="AU29" s="5">
         <f t="shared" si="24"/>
         <v>4.6154999999999998E-3</v>
       </c>
-      <c r="AT29" s="5">
+      <c r="AV29" s="5">
         <f t="shared" si="25"/>
         <v>-4.1513000000000001E-2</v>
       </c>
-      <c r="AU29" s="5">
+      <c r="AW29" s="5">
         <f t="shared" si="7"/>
         <v>-2.5907999999999997E-2</v>
       </c>
-      <c r="AV29" s="5">
+      <c r="AX29" s="5">
         <f t="shared" si="8"/>
         <v>-0.11357425000000002</v>
       </c>
-      <c r="AW29" s="5">
+      <c r="AY29" s="5">
         <f t="shared" si="9"/>
         <v>7.1614250000000004E-2</v>
       </c>
-      <c r="AX29" s="5">
+      <c r="AZ29" s="5">
         <f t="shared" si="10"/>
         <v>6.9037249999999994E-2</v>
       </c>
-      <c r="AY29" s="5">
+      <c r="BA29" s="5">
         <f t="shared" si="26"/>
         <v>-5.4219000000000003E-2</v>
       </c>
-      <c r="AZ29" s="5">
+      <c r="BB29" s="5">
         <f t="shared" si="27"/>
         <v>2.4585000000000003E-2</v>
       </c>
-      <c r="BA29" s="5">
+      <c r="BC29" s="5">
         <f t="shared" si="28"/>
         <v>4.247200000000001E-2</v>
       </c>
-      <c r="BB29" s="5">
+      <c r="BD29" s="5">
         <f t="shared" si="29"/>
         <v>0.16925899999999999</v>
       </c>
-      <c r="BC29" s="5">
+      <c r="BE29" s="5">
         <f t="shared" si="30"/>
         <v>-0.109918</v>
       </c>
-      <c r="BD29" s="5">
+      <c r="BF29" s="5">
         <f t="shared" si="31"/>
         <v>8.7077000000000002E-2</v>
       </c>
-      <c r="BE29" s="5">
+      <c r="BG29" s="5">
         <f t="shared" si="32"/>
         <v>0.16845499999999999</v>
       </c>
-      <c r="BF29" s="5">
+      <c r="BH29" s="5">
         <f t="shared" si="33"/>
         <v>0.21401599999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>3914</v>
       </c>
-      <c r="D30" s="6">
+      <c r="F30" s="6">
         <v>7.342681936</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="5">
         <v>5.7484999999999999</v>
       </c>
-      <c r="F30" s="7">
+      <c r="H30" s="7">
         <v>19</v>
       </c>
-      <c r="G30" s="7">
+      <c r="I30" s="7">
         <v>15</v>
       </c>
-      <c r="H30" s="7">
+      <c r="J30" s="7">
         <v>21</v>
       </c>
-      <c r="I30" s="7">
+      <c r="K30" s="7">
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
-      <c r="J30" s="8">
+      <c r="L30" s="8">
         <v>56</v>
       </c>
-      <c r="K30" s="5">
+      <c r="M30" s="5">
         <v>-0.11485099999999999</v>
       </c>
-      <c r="L30" s="5">
+      <c r="N30" s="5">
         <v>2.3073E-2</v>
       </c>
-      <c r="M30" s="5">
+      <c r="O30" s="5">
         <f t="shared" si="12"/>
         <v>0.13792399999999999</v>
       </c>
-      <c r="N30" s="5">
+      <c r="P30" s="5">
         <v>3.1149E-2</v>
       </c>
-      <c r="O30" s="5">
+      <c r="Q30" s="5">
         <v>0.18643399999999999</v>
       </c>
-      <c r="P30" s="5">
+      <c r="R30" s="5">
         <f t="shared" si="0"/>
         <v>0.15528499999999998</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="S30" s="5">
         <f t="shared" si="13"/>
         <v>-4.1850999999999999E-2</v>
       </c>
-      <c r="R30" s="5">
+      <c r="T30" s="5">
         <f t="shared" si="14"/>
         <v>0.1047535</v>
       </c>
-      <c r="S30" s="5">
+      <c r="U30" s="5">
         <f t="shared" si="15"/>
         <v>0.14660449999999997</v>
       </c>
-      <c r="T30" s="5">
+      <c r="V30" s="5">
         <v>-5.3199999999999997E-2</v>
       </c>
-      <c r="U30" s="5">
+      <c r="W30" s="5">
         <v>8.3458000000000004E-2</v>
       </c>
-      <c r="V30" s="5">
+      <c r="X30" s="5">
         <f t="shared" si="1"/>
         <v>0.136658</v>
       </c>
-      <c r="W30" s="5">
+      <c r="Y30" s="5">
         <v>0.119044</v>
       </c>
-      <c r="X30" s="5">
+      <c r="Z30" s="5">
         <v>0.19715199999999999</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="AA30" s="5">
         <f t="shared" si="2"/>
         <v>7.8107999999999997E-2</v>
       </c>
-      <c r="Z30" s="5">
+      <c r="AB30" s="5">
         <f t="shared" si="16"/>
         <v>3.2922E-2</v>
       </c>
-      <c r="AA30" s="5">
+      <c r="AC30" s="5">
         <f t="shared" si="17"/>
         <v>0.14030500000000001</v>
       </c>
-      <c r="AB30" s="5">
+      <c r="AD30" s="5">
         <f t="shared" si="18"/>
         <v>0.10738300000000001</v>
       </c>
-      <c r="AC30" s="5">
+      <c r="AE30" s="5">
         <v>-0.161076</v>
       </c>
-      <c r="AD30" s="5">
+      <c r="AF30" s="5">
         <v>-8.8548000000000002E-2</v>
       </c>
-      <c r="AE30" s="5">
+      <c r="AG30" s="5">
         <f t="shared" si="3"/>
         <v>7.2527999999999995E-2</v>
       </c>
-      <c r="AF30" s="5">
+      <c r="AH30" s="5">
         <v>-6.1520999999999999E-2</v>
       </c>
-      <c r="AG30" s="5">
+      <c r="AI30" s="5">
         <v>-4.7421999999999999E-2</v>
       </c>
-      <c r="AH30" s="5">
+      <c r="AJ30" s="5">
         <f t="shared" si="4"/>
         <v>1.4099E-2</v>
       </c>
-      <c r="AI30" s="5">
+      <c r="AK30" s="5">
         <f t="shared" si="19"/>
         <v>-0.11129849999999999</v>
       </c>
-      <c r="AJ30" s="5">
+      <c r="AL30" s="5">
         <f t="shared" si="20"/>
         <v>-6.7985000000000004E-2</v>
       </c>
-      <c r="AK30" s="5">
+      <c r="AM30" s="5">
         <f t="shared" si="21"/>
         <v>4.3313499999999998E-2</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AN30" s="5">
         <v>-0.15851899999999999</v>
       </c>
-      <c r="AM30" s="5">
+      <c r="AO30" s="5">
         <v>2.1512E-2</v>
       </c>
-      <c r="AN30" s="5">
+      <c r="AP30" s="5">
         <f t="shared" si="5"/>
         <v>0.180031</v>
       </c>
-      <c r="AO30" s="5">
+      <c r="AQ30" s="5">
         <v>-9.2040999999999998E-2</v>
       </c>
-      <c r="AP30" s="5">
+      <c r="AR30" s="5">
         <v>8.5773000000000002E-2</v>
       </c>
-      <c r="AQ30" s="5">
+      <c r="AS30" s="5">
         <f t="shared" si="22"/>
         <v>0.177814</v>
       </c>
-      <c r="AR30" s="5">
+      <c r="AT30" s="5">
         <f t="shared" si="23"/>
         <v>-0.12528</v>
       </c>
-      <c r="AS30" s="5">
+      <c r="AU30" s="5">
         <f t="shared" si="24"/>
         <v>5.3642500000000003E-2</v>
       </c>
-      <c r="AT30" s="5">
+      <c r="AV30" s="5">
         <f t="shared" si="25"/>
         <v>0.17892249999999998</v>
       </c>
-      <c r="AU30" s="5">
+      <c r="AW30" s="5">
         <f t="shared" si="7"/>
         <v>-1.2303999999999999E-2</v>
       </c>
-      <c r="AV30" s="5">
+      <c r="AX30" s="5">
         <f t="shared" si="8"/>
         <v>0.13344475</v>
       </c>
-      <c r="AW30" s="5">
+      <c r="AY30" s="5">
         <f t="shared" si="9"/>
         <v>-9.6657750000000014E-2</v>
       </c>
-      <c r="AX30" s="5">
+      <c r="AZ30" s="5">
         <f t="shared" si="10"/>
         <v>-2.8802749999999998E-2</v>
       </c>
-      <c r="AY30" s="5">
+      <c r="BA30" s="5">
         <f t="shared" si="26"/>
         <v>6.1650999999999997E-2</v>
       </c>
-      <c r="AZ30" s="5">
+      <c r="BB30" s="5">
         <f t="shared" si="27"/>
         <v>6.0385000000000008E-2</v>
       </c>
-      <c r="BA30" s="5">
+      <c r="BC30" s="5">
         <f t="shared" si="28"/>
         <v>8.7895000000000001E-2</v>
       </c>
-      <c r="BB30" s="5">
+      <c r="BD30" s="5">
         <f t="shared" si="29"/>
         <v>1.0718000000000005E-2</v>
       </c>
-      <c r="BC30" s="5">
+      <c r="BE30" s="5">
         <f t="shared" si="30"/>
         <v>-2.5570000000000037E-3</v>
       </c>
-      <c r="BD30" s="5">
+      <c r="BF30" s="5">
         <f t="shared" si="31"/>
         <v>-0.11006000000000001</v>
       </c>
-      <c r="BE30" s="5">
+      <c r="BG30" s="5">
         <f t="shared" si="32"/>
         <v>3.0519999999999999E-2</v>
       </c>
-      <c r="BF30" s="5">
+      <c r="BH30" s="5">
         <f t="shared" si="33"/>
         <v>-0.13319500000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>3920</v>
       </c>
-      <c r="D31" s="6">
+      <c r="F31" s="6">
         <v>6.4145326760000003</v>
       </c>
-      <c r="E31" s="5">
+      <c r="G31" s="5">
         <v>6.6740000000000004</v>
       </c>
-      <c r="F31" s="7">
+      <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="7">
+      <c r="I31" s="7">
         <v>0</v>
       </c>
-      <c r="H31" s="7">
+      <c r="J31" s="7">
         <v>3</v>
       </c>
-      <c r="I31" s="7">
+      <c r="K31" s="7">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="J31" s="8">
+      <c r="L31" s="8">
         <v>3</v>
       </c>
-      <c r="K31" s="5">
+      <c r="M31" s="5">
         <v>-0.217475</v>
       </c>
-      <c r="L31" s="5">
+      <c r="N31" s="5">
         <v>3.8468000000000002E-2</v>
       </c>
-      <c r="M31" s="5">
+      <c r="O31" s="5">
         <f t="shared" si="12"/>
         <v>0.25594300000000003</v>
       </c>
-      <c r="N31" s="5">
+      <c r="P31" s="5">
         <v>-0.178921</v>
       </c>
-      <c r="O31" s="5">
+      <c r="Q31" s="5">
         <v>2.212E-3</v>
       </c>
-      <c r="P31" s="5">
+      <c r="R31" s="5">
         <f t="shared" si="0"/>
         <v>0.18113299999999999</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="S31" s="5">
         <f t="shared" si="13"/>
         <v>-0.19819799999999999</v>
       </c>
-      <c r="R31" s="5">
+      <c r="T31" s="5">
         <f t="shared" si="14"/>
         <v>2.034E-2</v>
       </c>
-      <c r="S31" s="5">
+      <c r="U31" s="5">
         <f t="shared" si="15"/>
         <v>0.21853800000000001</v>
       </c>
-      <c r="T31" s="5">
+      <c r="V31" s="5">
         <v>0.17960000000000001</v>
       </c>
-      <c r="U31" s="5">
+      <c r="W31" s="5">
         <v>1.6688000000000001E-2</v>
       </c>
-      <c r="V31" s="5">
+      <c r="X31" s="5">
         <f t="shared" si="1"/>
         <v>-0.162912</v>
       </c>
-      <c r="W31" s="5">
+      <c r="Y31" s="5">
         <v>0.21753500000000001</v>
       </c>
-      <c r="X31" s="5">
+      <c r="Z31" s="5">
         <v>0.18332100000000001</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="AA31" s="5">
         <f t="shared" si="2"/>
         <v>-3.4213999999999994E-2</v>
       </c>
-      <c r="Z31" s="5">
+      <c r="AB31" s="5">
         <f t="shared" si="16"/>
         <v>0.19856750000000001</v>
       </c>
-      <c r="AA31" s="5">
+      <c r="AC31" s="5">
         <f t="shared" si="17"/>
         <v>0.10000450000000001</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AD31" s="5">
         <f t="shared" si="18"/>
         <v>-9.8562999999999998E-2</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AE31" s="5">
         <v>0.114172</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AF31" s="5">
         <v>0.136208</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AG31" s="5">
         <f t="shared" si="3"/>
         <v>2.2036E-2</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AH31" s="5">
         <v>0.13848099999999999</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AI31" s="5">
         <v>0.122512</v>
       </c>
-      <c r="AH31" s="5">
+      <c r="AJ31" s="5">
         <f t="shared" si="4"/>
         <v>-1.5968999999999997E-2</v>
       </c>
-      <c r="AI31" s="5">
+      <c r="AK31" s="5">
         <f t="shared" si="19"/>
         <v>0.12632650000000001</v>
       </c>
-      <c r="AJ31" s="5">
+      <c r="AL31" s="5">
         <f t="shared" si="20"/>
         <v>0.12936</v>
       </c>
-      <c r="AK31" s="5">
+      <c r="AM31" s="5">
         <f t="shared" si="21"/>
         <v>3.0335000000000015E-3</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AN31" s="5">
         <v>-8.1018000000000007E-2</v>
       </c>
-      <c r="AM31" s="5">
+      <c r="AO31" s="5">
         <v>2.7618E-2</v>
       </c>
-      <c r="AN31" s="5">
+      <c r="AP31" s="5">
         <f t="shared" si="5"/>
         <v>0.10863600000000001</v>
       </c>
-      <c r="AO31" s="5">
+      <c r="AQ31" s="5">
         <v>-6.9511000000000003E-2</v>
       </c>
-      <c r="AP31" s="5">
+      <c r="AR31" s="5">
         <v>6.8507999999999999E-2</v>
       </c>
-      <c r="AQ31" s="5">
+      <c r="AS31" s="5">
         <f t="shared" si="22"/>
         <v>0.138019</v>
       </c>
-      <c r="AR31" s="5">
+      <c r="AT31" s="5">
         <f t="shared" si="23"/>
         <v>-7.5264500000000012E-2</v>
       </c>
-      <c r="AS31" s="5">
+      <c r="AU31" s="5">
         <f t="shared" si="24"/>
         <v>4.8063000000000002E-2</v>
       </c>
-      <c r="AT31" s="5">
+      <c r="AV31" s="5">
         <f t="shared" si="25"/>
         <v>0.12332750000000001</v>
       </c>
-      <c r="AU31" s="5">
+      <c r="AW31" s="5">
         <f t="shared" si="7"/>
         <v>3.4562000000000022E-3</v>
       </c>
-      <c r="AV31" s="5">
+      <c r="AX31" s="5">
         <f t="shared" si="8"/>
         <v>5.6036750000000003E-2</v>
       </c>
-      <c r="AW31" s="5">
+      <c r="AY31" s="5">
         <f t="shared" si="9"/>
         <v>4.9244999999999997E-2</v>
       </c>
-      <c r="AX31" s="5">
+      <c r="AZ31" s="5">
         <f t="shared" si="10"/>
         <v>6.49975E-2</v>
       </c>
-      <c r="AY31" s="5">
+      <c r="BA31" s="5">
         <f t="shared" si="26"/>
         <v>0.39707500000000001</v>
       </c>
-      <c r="AZ31" s="5">
+      <c r="BB31" s="5">
         <f t="shared" si="27"/>
         <v>-2.1780000000000001E-2</v>
       </c>
-      <c r="BA31" s="5">
+      <c r="BC31" s="5">
         <f t="shared" si="28"/>
         <v>0.39645600000000003</v>
       </c>
-      <c r="BB31" s="5">
+      <c r="BD31" s="5">
         <f t="shared" si="29"/>
         <v>0.18110900000000002</v>
       </c>
-      <c r="BC31" s="5">
+      <c r="BE31" s="5">
         <f t="shared" si="30"/>
         <v>0.19519</v>
       </c>
-      <c r="BD31" s="5">
+      <c r="BF31" s="5">
         <f t="shared" si="31"/>
         <v>0.10858999999999999</v>
       </c>
-      <c r="BE31" s="5">
+      <c r="BG31" s="5">
         <f t="shared" si="32"/>
         <v>0.20799200000000001</v>
       </c>
-      <c r="BF31" s="5">
+      <c r="BH31" s="5">
         <f t="shared" si="33"/>
         <v>5.4003999999999996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>3967</v>
       </c>
-      <c r="D32" s="6">
+      <c r="F32" s="6">
         <v>7.5935271159999997</v>
       </c>
-      <c r="E32" s="5">
+      <c r="G32" s="5">
         <v>7.1413000000000002</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J32" s="8">
+      <c r="L32" s="8">
         <v>0</v>
       </c>
-      <c r="K32" s="5">
+      <c r="M32" s="5">
         <v>-0.27234599999999998</v>
       </c>
-      <c r="L32" s="5">
+      <c r="N32" s="5">
         <v>-4.3165000000000002E-2</v>
       </c>
-      <c r="M32" s="5">
+      <c r="O32" s="5">
         <f t="shared" si="12"/>
         <v>0.22918099999999997</v>
       </c>
-      <c r="N32" s="5">
+      <c r="P32" s="5">
         <v>-0.11481</v>
       </c>
-      <c r="O32" s="5">
+      <c r="Q32" s="5">
         <v>2.3671000000000001E-2</v>
       </c>
-      <c r="P32" s="5">
+      <c r="R32" s="5">
         <f t="shared" si="0"/>
         <v>0.13848099999999999</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="S32" s="5">
         <f t="shared" si="13"/>
         <v>-0.19357799999999997</v>
       </c>
-      <c r="R32" s="5">
+      <c r="T32" s="5">
         <f t="shared" si="14"/>
         <v>-9.7470000000000005E-3</v>
       </c>
-      <c r="S32" s="5">
+      <c r="U32" s="5">
         <f t="shared" si="15"/>
         <v>0.18383099999999997</v>
       </c>
-      <c r="T32" s="5">
+      <c r="V32" s="5">
         <v>-0.17371800000000001</v>
       </c>
-      <c r="U32" s="5">
+      <c r="W32" s="5">
         <v>0.151338</v>
       </c>
-      <c r="V32" s="5">
+      <c r="X32" s="5">
         <f t="shared" si="1"/>
         <v>0.32505600000000001</v>
       </c>
-      <c r="W32" s="5">
+      <c r="Y32" s="5">
         <v>-0.19462699999999999</v>
       </c>
-      <c r="X32" s="5">
+      <c r="Z32" s="5">
         <v>0.28891099999999997</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="AA32" s="5">
         <f t="shared" si="2"/>
         <v>0.48353799999999997</v>
       </c>
-      <c r="Z32" s="5">
+      <c r="AB32" s="5">
         <f t="shared" si="16"/>
         <v>-0.18417250000000002</v>
       </c>
-      <c r="AA32" s="5">
+      <c r="AC32" s="5">
         <f t="shared" si="17"/>
         <v>0.2201245</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AD32" s="5">
         <f t="shared" si="18"/>
         <v>0.40429700000000002</v>
       </c>
-      <c r="AC32" s="5">
+      <c r="AE32" s="5">
         <v>-0.19425000000000001</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AF32" s="5">
         <v>0.18018500000000001</v>
       </c>
-      <c r="AE32" s="5">
+      <c r="AG32" s="5">
         <f t="shared" si="3"/>
         <v>0.37443500000000002</v>
       </c>
-      <c r="AF32" s="5">
+      <c r="AH32" s="5">
         <v>-0.15457199999999999</v>
       </c>
-      <c r="AG32" s="5">
+      <c r="AI32" s="5">
         <v>0.156164</v>
       </c>
-      <c r="AH32" s="5">
+      <c r="AJ32" s="5">
         <f t="shared" si="4"/>
         <v>0.31073600000000001</v>
       </c>
-      <c r="AI32" s="5">
+      <c r="AK32" s="5">
         <f t="shared" si="19"/>
         <v>-0.17441099999999998</v>
       </c>
-      <c r="AJ32" s="5">
+      <c r="AL32" s="5">
         <f t="shared" si="20"/>
         <v>0.1681745</v>
       </c>
-      <c r="AK32" s="5">
+      <c r="AM32" s="5">
         <f t="shared" si="21"/>
         <v>0.34258549999999999</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AN32" s="5">
         <v>-1.0366999999999999E-2</v>
       </c>
-      <c r="AM32" s="5">
+      <c r="AO32" s="5">
         <v>5.2230000000000002E-3</v>
       </c>
-      <c r="AN32" s="5">
+      <c r="AP32" s="5">
         <f t="shared" si="5"/>
         <v>1.559E-2</v>
       </c>
-      <c r="AO32" s="5">
+      <c r="AQ32" s="5">
         <v>-2.3716999999999998E-2</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="AR32" s="5">
         <v>4.7199999999999998E-4</v>
       </c>
-      <c r="AQ32" s="5">
+      <c r="AS32" s="5">
         <f t="shared" si="22"/>
         <v>2.4188999999999999E-2</v>
       </c>
-      <c r="AR32" s="5">
+      <c r="AT32" s="5">
         <f t="shared" si="23"/>
         <v>-1.7041999999999998E-2</v>
       </c>
-      <c r="AS32" s="5">
+      <c r="AU32" s="5">
         <f t="shared" si="24"/>
         <v>2.8475000000000002E-3</v>
       </c>
-      <c r="AT32" s="5">
+      <c r="AV32" s="5">
         <f t="shared" si="25"/>
         <v>1.9889499999999997E-2</v>
       </c>
-      <c r="AU32" s="5">
+      <c r="AW32" s="5">
         <f t="shared" si="7"/>
         <v>-6.7578200000000005E-2</v>
       </c>
-      <c r="AV32" s="5">
+      <c r="AX32" s="5">
         <f t="shared" si="8"/>
         <v>7.8625000000000222E-4</v>
       </c>
-      <c r="AW32" s="5">
+      <c r="AY32" s="5">
         <f t="shared" si="9"/>
         <v>-4.8022499999999992E-3</v>
       </c>
-      <c r="AX32" s="5">
+      <c r="AZ32" s="5">
         <f t="shared" si="10"/>
         <v>-5.4132499999999971E-3</v>
       </c>
-      <c r="AY32" s="5">
+      <c r="BA32" s="5">
         <f t="shared" si="26"/>
         <v>9.8627999999999966E-2</v>
       </c>
-      <c r="AZ32" s="5">
+      <c r="BB32" s="5">
         <f t="shared" si="27"/>
         <v>0.19450300000000001</v>
       </c>
-      <c r="BA32" s="5">
+      <c r="BC32" s="5">
         <f t="shared" si="28"/>
         <v>-7.9816999999999999E-2</v>
       </c>
-      <c r="BB32" s="5">
+      <c r="BD32" s="5">
         <f t="shared" si="29"/>
         <v>0.26523999999999998</v>
       </c>
-      <c r="BC32" s="5">
+      <c r="BE32" s="5">
         <f t="shared" si="30"/>
         <v>-0.18388300000000002</v>
       </c>
-      <c r="BD32" s="5">
+      <c r="BF32" s="5">
         <f t="shared" si="31"/>
         <v>0.17496200000000001</v>
       </c>
-      <c r="BE32" s="5">
+      <c r="BG32" s="5">
         <f t="shared" si="32"/>
         <v>-0.130855</v>
       </c>
-      <c r="BF32" s="5">
+      <c r="BH32" s="5">
         <f t="shared" si="33"/>
         <v>0.155692</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>3992</v>
       </c>
-      <c r="D33" s="6">
+      <c r="F33" s="6">
         <v>6.0862399470000002</v>
       </c>
-      <c r="E33" s="5">
+      <c r="G33" s="5">
         <v>5.1193</v>
       </c>
-      <c r="F33" s="7">
+      <c r="H33" s="7">
         <v>9</v>
       </c>
-      <c r="G33" s="7">
+      <c r="I33" s="7">
         <v>11</v>
       </c>
-      <c r="H33" s="7">
+      <c r="J33" s="7">
         <v>23</v>
       </c>
-      <c r="I33" s="7">
+      <c r="K33" s="7">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
-      <c r="J33" s="8">
+      <c r="L33" s="8">
         <v>46</v>
       </c>
-      <c r="K33" s="5">
+      <c r="M33" s="5">
         <v>1.2302E-2</v>
       </c>
-      <c r="L33" s="5">
+      <c r="N33" s="5">
         <v>0.13015099999999999</v>
       </c>
-      <c r="M33" s="5">
+      <c r="O33" s="5">
         <f t="shared" si="12"/>
         <v>0.11784899999999998</v>
       </c>
-      <c r="N33" s="5">
+      <c r="P33" s="5">
         <v>3.4256000000000002E-2</v>
       </c>
-      <c r="O33" s="5">
+      <c r="Q33" s="5">
         <v>0.124375</v>
       </c>
-      <c r="P33" s="5">
+      <c r="R33" s="5">
         <f t="shared" si="0"/>
         <v>9.0119000000000005E-2</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="S33" s="5">
         <f t="shared" si="13"/>
         <v>2.3279000000000001E-2</v>
       </c>
-      <c r="R33" s="5">
+      <c r="T33" s="5">
         <f t="shared" si="14"/>
         <v>0.12726299999999999</v>
       </c>
-      <c r="S33" s="5">
+      <c r="U33" s="5">
         <f t="shared" si="15"/>
         <v>0.10398399999999999</v>
       </c>
-      <c r="T33" s="5">
+      <c r="V33" s="5">
         <v>4.0141999999999997E-2</v>
       </c>
-      <c r="U33" s="5">
+      <c r="W33" s="5">
         <v>2.6144000000000001E-2</v>
       </c>
-      <c r="V33" s="5">
+      <c r="X33" s="5">
         <f t="shared" si="1"/>
         <v>-1.3997999999999997E-2</v>
       </c>
-      <c r="W33" s="5">
+      <c r="Y33" s="5">
         <v>0.11580600000000001</v>
       </c>
-      <c r="X33" s="5">
+      <c r="Z33" s="5">
         <v>-4.6249999999999998E-3</v>
       </c>
-      <c r="Y33" s="5">
+      <c r="AA33" s="5">
         <f t="shared" si="2"/>
         <v>-0.12043100000000001</v>
       </c>
-      <c r="Z33" s="5">
+      <c r="AB33" s="5">
         <f t="shared" si="16"/>
         <v>7.7974000000000002E-2</v>
       </c>
-      <c r="AA33" s="5">
+      <c r="AC33" s="5">
         <f t="shared" si="17"/>
         <v>1.07595E-2</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AD33" s="5">
         <f t="shared" si="18"/>
         <v>-6.721450000000001E-2</v>
       </c>
-      <c r="AC33" s="5">
+      <c r="AE33" s="5">
         <v>2.0549000000000001E-2</v>
       </c>
-      <c r="AD33" s="5">
+      <c r="AF33" s="5">
         <v>7.8139999999999998E-3</v>
       </c>
-      <c r="AE33" s="5">
+      <c r="AG33" s="5">
         <f t="shared" si="3"/>
         <v>-1.2735000000000002E-2</v>
       </c>
-      <c r="AF33" s="5">
+      <c r="AH33" s="5">
         <v>-1.2631E-2</v>
       </c>
-      <c r="AG33" s="5">
+      <c r="AI33" s="5">
         <v>-4.5734999999999998E-2</v>
       </c>
-      <c r="AH33" s="5">
+      <c r="AJ33" s="5">
         <f t="shared" si="4"/>
         <v>-3.3103999999999995E-2</v>
       </c>
-      <c r="AI33" s="5">
+      <c r="AK33" s="5">
         <f t="shared" si="19"/>
         <v>3.9590000000000007E-3</v>
       </c>
-      <c r="AJ33" s="5">
+      <c r="AL33" s="5">
         <f t="shared" si="20"/>
         <v>-1.8960499999999998E-2</v>
       </c>
-      <c r="AK33" s="5">
+      <c r="AM33" s="5">
         <f t="shared" si="21"/>
         <v>-2.2919499999999999E-2</v>
       </c>
-      <c r="AL33" s="5">
+      <c r="AN33" s="5">
         <v>-3.3739999999999998E-3</v>
       </c>
-      <c r="AM33" s="5">
+      <c r="AO33" s="5">
         <v>5.6363000000000003E-2</v>
       </c>
-      <c r="AN33" s="5">
+      <c r="AP33" s="5">
         <f t="shared" si="5"/>
         <v>5.9737000000000005E-2</v>
       </c>
-      <c r="AO33" s="5">
+      <c r="AQ33" s="5">
         <v>-5.1005000000000002E-2</v>
       </c>
-      <c r="AP33" s="5">
+      <c r="AR33" s="5">
         <v>7.8109999999999999E-2</v>
       </c>
-      <c r="AQ33" s="5">
+      <c r="AS33" s="5">
         <f t="shared" si="22"/>
         <v>0.12911500000000001</v>
       </c>
-      <c r="AR33" s="5">
+      <c r="AT33" s="5">
         <f t="shared" si="23"/>
         <v>-2.7189500000000002E-2</v>
       </c>
-      <c r="AS33" s="5">
+      <c r="AU33" s="5">
         <f t="shared" si="24"/>
         <v>6.7236500000000005E-2</v>
       </c>
-      <c r="AT33" s="5">
+      <c r="AV33" s="5">
         <f t="shared" si="25"/>
         <v>9.442600000000001E-2</v>
       </c>
-      <c r="AU33" s="5">
+      <c r="AW33" s="5">
         <f t="shared" si="7"/>
         <v>4.1747800000000002E-2</v>
       </c>
-      <c r="AV33" s="5">
+      <c r="AX33" s="5">
         <f t="shared" si="8"/>
         <v>6.7452999999999999E-2</v>
       </c>
-      <c r="AW33" s="5">
+      <c r="AY33" s="5">
         <f t="shared" si="9"/>
         <v>2.0338000000000002E-2</v>
       </c>
-      <c r="AX33" s="5">
+      <c r="AZ33" s="5">
         <f t="shared" si="10"/>
         <v>-7.8152499999999993E-3</v>
       </c>
-      <c r="AY33" s="5">
+      <c r="BA33" s="5">
         <f t="shared" si="26"/>
         <v>2.7839999999999997E-2</v>
       </c>
-      <c r="AZ33" s="5">
+      <c r="BB33" s="5">
         <f t="shared" si="27"/>
         <v>-0.10400699999999999</v>
       </c>
-      <c r="BA33" s="5">
+      <c r="BC33" s="5">
         <f t="shared" si="28"/>
         <v>8.1550000000000011E-2</v>
       </c>
-      <c r="BB33" s="5">
+      <c r="BD33" s="5">
         <f t="shared" si="29"/>
         <v>-0.129</v>
       </c>
-      <c r="BC33" s="5">
+      <c r="BE33" s="5">
         <f t="shared" si="30"/>
         <v>2.3923E-2</v>
       </c>
-      <c r="BD33" s="5">
+      <c r="BF33" s="5">
         <f t="shared" si="31"/>
         <v>-4.8549000000000002E-2</v>
       </c>
-      <c r="BE33" s="5">
+      <c r="BG33" s="5">
         <f t="shared" si="32"/>
         <v>3.8374000000000005E-2</v>
       </c>
-      <c r="BF33" s="5">
+      <c r="BH33" s="5">
         <f t="shared" si="33"/>
         <v>-0.123845</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>4017</v>
       </c>
-      <c r="D34" s="6">
+      <c r="F34" s="6">
         <v>7.081494341</v>
       </c>
-      <c r="E34" s="5">
+      <c r="G34" s="5">
         <v>6.8760000000000003</v>
       </c>
-      <c r="F34" s="7">
+      <c r="H34" s="7">
         <v>15</v>
       </c>
-      <c r="G34" s="7">
+      <c r="I34" s="7">
         <v>11</v>
       </c>
-      <c r="H34" s="7">
+      <c r="J34" s="7">
         <v>16</v>
       </c>
-      <c r="I34" s="7">
+      <c r="K34" s="7">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="J34" s="8">
+      <c r="L34" s="8">
         <v>43</v>
       </c>
-      <c r="K34" s="5">
+      <c r="M34" s="5">
         <v>-0.123058</v>
       </c>
-      <c r="L34" s="5">
+      <c r="N34" s="5">
         <v>0.30115599999999998</v>
       </c>
-      <c r="M34" s="5">
+      <c r="O34" s="5">
         <f t="shared" si="12"/>
         <v>0.42421399999999998</v>
       </c>
-      <c r="N34" s="5">
+      <c r="P34" s="5">
         <v>-0.15879399999999999</v>
       </c>
-      <c r="O34" s="5">
+      <c r="Q34" s="5">
         <v>0.21249899999999999</v>
       </c>
-      <c r="P34" s="5">
+      <c r="R34" s="5">
         <f t="shared" si="0"/>
         <v>0.37129299999999998</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="S34" s="5">
         <f t="shared" si="13"/>
         <v>-0.140926</v>
       </c>
-      <c r="R34" s="5">
+      <c r="T34" s="5">
         <f t="shared" si="14"/>
         <v>0.25682749999999999</v>
       </c>
-      <c r="S34" s="5">
+      <c r="U34" s="5">
         <f t="shared" si="15"/>
         <v>0.39775349999999998</v>
       </c>
-      <c r="T34" s="5">
+      <c r="V34" s="5">
         <v>0.26120700000000002</v>
       </c>
-      <c r="U34" s="5">
+      <c r="W34" s="5">
         <v>-4.0544999999999998E-2</v>
       </c>
-      <c r="V34" s="5">
+      <c r="X34" s="5">
         <f t="shared" si="1"/>
         <v>-0.30175200000000002</v>
       </c>
-      <c r="W34" s="5">
+      <c r="Y34" s="5">
         <v>0.23862700000000001</v>
       </c>
-      <c r="X34" s="5">
+      <c r="Z34" s="5">
         <v>-7.2652999999999995E-2</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="AA34" s="5">
         <f t="shared" si="2"/>
         <v>-0.31128</v>
       </c>
-      <c r="Z34" s="5">
+      <c r="AB34" s="5">
         <f t="shared" si="16"/>
         <v>0.249917</v>
       </c>
-      <c r="AA34" s="5">
+      <c r="AC34" s="5">
         <f t="shared" si="17"/>
         <v>-5.6598999999999997E-2</v>
       </c>
-      <c r="AB34" s="5">
+      <c r="AD34" s="5">
         <f t="shared" si="18"/>
         <v>-0.30651600000000001</v>
       </c>
-      <c r="AC34" s="5">
+      <c r="AE34" s="5">
         <v>0.12012</v>
       </c>
-      <c r="AD34" s="5">
+      <c r="AF34" s="5">
         <v>0.16584499999999999</v>
       </c>
-      <c r="AE34" s="5">
+      <c r="AG34" s="5">
         <f t="shared" si="3"/>
         <v>4.5724999999999988E-2</v>
       </c>
-      <c r="AF34" s="5">
+      <c r="AH34" s="5">
         <v>0.13563500000000001</v>
       </c>
-      <c r="AG34" s="5">
+      <c r="AI34" s="5">
         <v>0.18754899999999999</v>
       </c>
-      <c r="AH34" s="5">
+      <c r="AJ34" s="5">
         <f t="shared" si="4"/>
         <v>5.1913999999999988E-2</v>
       </c>
-      <c r="AI34" s="5">
+      <c r="AK34" s="5">
         <f t="shared" si="19"/>
         <v>0.12787750000000001</v>
       </c>
-      <c r="AJ34" s="5">
+      <c r="AL34" s="5">
         <f t="shared" si="20"/>
         <v>0.17669699999999999</v>
       </c>
-      <c r="AK34" s="5">
+      <c r="AM34" s="5">
         <f t="shared" si="21"/>
         <v>4.8819499999999988E-2</v>
       </c>
-      <c r="AL34" s="5">
+      <c r="AN34" s="5">
         <v>-0.16443199999999999</v>
       </c>
-      <c r="AM34" s="5">
+      <c r="AO34" s="5">
         <v>-7.5204999999999994E-2</v>
       </c>
-      <c r="AN34" s="5">
+      <c r="AP34" s="5">
         <f t="shared" si="5"/>
         <v>8.9227000000000001E-2</v>
       </c>
-      <c r="AO34" s="5">
+      <c r="AQ34" s="5">
         <v>-0.10000299999999999</v>
       </c>
-      <c r="AP34" s="5">
+      <c r="AR34" s="5">
         <v>3.7670000000000002E-2</v>
       </c>
-      <c r="AQ34" s="5">
+      <c r="AS34" s="5">
         <f t="shared" si="22"/>
         <v>0.13767299999999999</v>
       </c>
-      <c r="AR34" s="5">
+      <c r="AT34" s="5">
         <f t="shared" si="23"/>
         <v>-0.13221749999999999</v>
       </c>
-      <c r="AS34" s="5">
+      <c r="AU34" s="5">
         <f t="shared" si="24"/>
         <v>-1.8767499999999996E-2</v>
       </c>
-      <c r="AT34" s="5">
+      <c r="AV34" s="5">
         <f t="shared" si="25"/>
         <v>0.11345</v>
       </c>
-      <c r="AU34" s="5">
+      <c r="AW34" s="5">
         <f t="shared" si="7"/>
         <v>7.9752000000000003E-2</v>
       </c>
-      <c r="AV34" s="5">
+      <c r="AX34" s="5">
         <f t="shared" si="8"/>
         <v>5.491975000000001E-2</v>
       </c>
-      <c r="AW34" s="5">
+      <c r="AY34" s="5">
         <f t="shared" si="9"/>
         <v>1.1582000000000009E-2</v>
       </c>
-      <c r="AX34" s="5">
+      <c r="AZ34" s="5">
         <f t="shared" si="10"/>
         <v>6.521275E-2</v>
       </c>
-      <c r="AY34" s="5">
+      <c r="BA34" s="5">
         <f t="shared" si="26"/>
         <v>0.38426500000000002</v>
       </c>
-      <c r="AZ34" s="5">
+      <c r="BB34" s="5">
         <f t="shared" si="27"/>
         <v>-0.34170099999999998</v>
       </c>
-      <c r="BA34" s="5">
+      <c r="BC34" s="5">
         <f t="shared" si="28"/>
         <v>0.39742100000000002</v>
       </c>
-      <c r="BB34" s="5">
+      <c r="BD34" s="5">
         <f t="shared" si="29"/>
         <v>-0.28515199999999996</v>
       </c>
-      <c r="BC34" s="5">
+      <c r="BE34" s="5">
         <f t="shared" si="30"/>
         <v>0.28455200000000003</v>
       </c>
-      <c r="BD34" s="5">
+      <c r="BF34" s="5">
         <f t="shared" si="31"/>
         <v>0.24104999999999999</v>
       </c>
-      <c r="BE34" s="5">
+      <c r="BG34" s="5">
         <f t="shared" si="32"/>
         <v>0.23563800000000001</v>
       </c>
-      <c r="BF34" s="5">
+      <c r="BH34" s="5">
         <f t="shared" si="33"/>
         <v>0.14987899999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>4018</v>
       </c>
-      <c r="D35" s="6">
+      <c r="F35" s="6">
         <v>10.586067829999999</v>
       </c>
-      <c r="E35" s="5">
+      <c r="G35" s="5">
         <v>10.682600000000001</v>
       </c>
-      <c r="F35" s="7">
+      <c r="H35" s="7">
         <v>12</v>
       </c>
-      <c r="G35" s="7">
+      <c r="I35" s="7">
         <v>5</v>
       </c>
-      <c r="H35" s="7">
+      <c r="J35" s="7">
         <v>18</v>
       </c>
-      <c r="I35" s="7">
+      <c r="K35" s="7">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="J35" s="8">
+      <c r="L35" s="8">
         <v>32</v>
       </c>
-      <c r="K35" s="5">
+      <c r="M35" s="5">
         <v>1.686E-2</v>
       </c>
-      <c r="L35" s="5">
+      <c r="N35" s="5">
         <v>-0.16614799999999999</v>
       </c>
-      <c r="M35" s="5">
+      <c r="O35" s="5">
         <f t="shared" si="12"/>
         <v>-0.183008</v>
       </c>
-      <c r="N35" s="5">
+      <c r="P35" s="5">
         <v>3.026E-3</v>
       </c>
-      <c r="O35" s="5">
+      <c r="Q35" s="5">
         <v>3.4047000000000001E-2</v>
       </c>
-      <c r="P35" s="5">
+      <c r="R35" s="5">
         <f t="shared" si="0"/>
         <v>3.1021E-2</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="S35" s="5">
         <f t="shared" si="13"/>
         <v>9.9430000000000004E-3</v>
       </c>
-      <c r="R35" s="5">
+      <c r="T35" s="5">
         <f t="shared" si="14"/>
         <v>-6.6050499999999998E-2</v>
       </c>
-      <c r="S35" s="5">
+      <c r="U35" s="5">
         <f t="shared" si="15"/>
         <v>-7.5993500000000005E-2</v>
       </c>
-      <c r="T35" s="5">
+      <c r="V35" s="5">
         <v>-0.1232</v>
       </c>
-      <c r="U35" s="5">
+      <c r="W35" s="5">
         <v>-6.8015999999999993E-2</v>
       </c>
-      <c r="V35" s="5">
+      <c r="X35" s="5">
         <f t="shared" si="1"/>
         <v>5.5184000000000011E-2</v>
       </c>
-      <c r="W35" s="5">
+      <c r="Y35" s="5">
         <v>-0.30429</v>
       </c>
-      <c r="X35" s="5">
+      <c r="Z35" s="5">
         <v>-8.6794999999999997E-2</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="AA35" s="5">
         <f t="shared" si="2"/>
         <v>0.21749499999999999</v>
       </c>
-      <c r="Z35" s="5">
+      <c r="AB35" s="5">
         <f t="shared" si="16"/>
         <v>-0.21374500000000002</v>
       </c>
-      <c r="AA35" s="5">
+      <c r="AC35" s="5">
         <f t="shared" si="17"/>
         <v>-7.7405499999999988E-2</v>
       </c>
-      <c r="AB35" s="5">
+      <c r="AD35" s="5">
         <f t="shared" si="18"/>
         <v>0.1363395</v>
       </c>
-      <c r="AC35" s="5">
+      <c r="AE35" s="5">
         <v>-6.1380999999999998E-2</v>
       </c>
-      <c r="AD35" s="5">
+      <c r="AF35" s="5">
         <v>-5.3992999999999999E-2</v>
       </c>
-      <c r="AE35" s="5">
+      <c r="AG35" s="5">
         <f t="shared" si="3"/>
         <v>7.3879999999999987E-3</v>
       </c>
-      <c r="AF35" s="5">
+      <c r="AH35" s="5">
         <v>-0.161796</v>
       </c>
-      <c r="AG35" s="5">
+      <c r="AI35" s="5">
         <v>-9.8267999999999994E-2</v>
       </c>
-      <c r="AH35" s="5">
+      <c r="AJ35" s="5">
         <f t="shared" si="4"/>
         <v>6.3528000000000001E-2</v>
       </c>
-      <c r="AI35" s="5">
+      <c r="AK35" s="5">
         <f t="shared" si="19"/>
         <v>-0.11158849999999999</v>
       </c>
-      <c r="AJ35" s="5">
+      <c r="AL35" s="5">
         <f t="shared" si="20"/>
         <v>-7.613049999999999E-2</v>
       </c>
-      <c r="AK35" s="5">
+      <c r="AM35" s="5">
         <f t="shared" si="21"/>
         <v>3.5458000000000003E-2</v>
       </c>
-      <c r="AL35" s="5">
+      <c r="AN35" s="5">
         <v>0.116092</v>
       </c>
-      <c r="AM35" s="5">
+      <c r="AO35" s="5">
         <v>-3.8662000000000002E-2</v>
       </c>
-      <c r="AN35" s="5">
+      <c r="AP35" s="5">
         <f t="shared" si="5"/>
         <v>-0.154754</v>
       </c>
-      <c r="AO35" s="5">
+      <c r="AQ35" s="5">
         <v>0.12664800000000001</v>
       </c>
-      <c r="AP35" s="5">
+      <c r="AR35" s="5">
         <v>6.2628000000000003E-2</v>
       </c>
-      <c r="AQ35" s="5">
+      <c r="AS35" s="5">
         <f t="shared" si="22"/>
         <v>-6.4020000000000007E-2</v>
       </c>
-      <c r="AR35" s="5">
+      <c r="AT35" s="5">
         <f t="shared" si="23"/>
         <v>0.12137000000000001</v>
       </c>
-      <c r="AS35" s="5">
+      <c r="AU35" s="5">
         <f t="shared" si="24"/>
         <v>1.1983000000000001E-2</v>
       </c>
-      <c r="AT35" s="5">
+      <c r="AV35" s="5">
         <f t="shared" si="25"/>
         <v>-0.10938700000000001</v>
       </c>
-      <c r="AU35" s="5">
+      <c r="AW35" s="5">
         <f t="shared" si="7"/>
         <v>-6.8100799999999989E-2</v>
       </c>
-      <c r="AV35" s="5">
+      <c r="AX35" s="5">
         <f t="shared" si="8"/>
         <v>-8.8502999999999998E-2</v>
       </c>
-      <c r="AW35" s="5">
+      <c r="AY35" s="5">
         <f t="shared" si="9"/>
         <v>-9.4860000000000014E-3</v>
       </c>
-      <c r="AX35" s="5">
+      <c r="AZ35" s="5">
         <f t="shared" si="10"/>
         <v>-1.7696999999999987E-2</v>
       </c>
-      <c r="AY35" s="5">
+      <c r="BA35" s="5">
         <f t="shared" si="26"/>
         <v>-0.14006000000000002</v>
       </c>
-      <c r="AZ35" s="5">
+      <c r="BB35" s="5">
         <f t="shared" si="27"/>
         <v>9.8131999999999997E-2</v>
       </c>
-      <c r="BA35" s="5">
+      <c r="BC35" s="5">
         <f t="shared" si="28"/>
         <v>-0.30731599999999998</v>
       </c>
-      <c r="BB35" s="5">
+      <c r="BD35" s="5">
         <f t="shared" si="29"/>
         <v>-0.120842</v>
       </c>
-      <c r="BC35" s="5">
+      <c r="BE35" s="5">
         <f t="shared" si="30"/>
         <v>-0.17747299999999999</v>
       </c>
-      <c r="BD35" s="5">
+      <c r="BF35" s="5">
         <f t="shared" si="31"/>
         <v>-1.5330999999999997E-2</v>
       </c>
-      <c r="BE35" s="5">
+      <c r="BG35" s="5">
         <f t="shared" si="32"/>
         <v>-0.28844400000000003</v>
       </c>
-      <c r="BF35" s="5">
+      <c r="BH35" s="5">
         <f t="shared" si="33"/>
         <v>-0.16089599999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>4019</v>
       </c>
-      <c r="D36" s="6">
+      <c r="F36" s="6">
         <v>11.05144366</v>
       </c>
-      <c r="E36" s="5">
+      <c r="G36" s="5">
         <v>9.7484000000000002</v>
       </c>
-      <c r="F36" s="7">
+      <c r="H36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="7">
+      <c r="I36" s="7">
         <v>3</v>
       </c>
-      <c r="H36" s="7">
+      <c r="J36" s="7">
         <v>6</v>
       </c>
-      <c r="I36" s="7">
+      <c r="K36" s="7">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="J36" s="8">
+      <c r="L36" s="8">
         <v>9</v>
       </c>
-      <c r="K36" s="5">
+      <c r="M36" s="5">
         <v>-0.20955199999999999</v>
       </c>
-      <c r="L36" s="5">
+      <c r="N36" s="5">
         <v>-0.26041500000000001</v>
       </c>
-      <c r="M36" s="5">
+      <c r="O36" s="5">
         <f t="shared" si="12"/>
         <v>-5.0863000000000019E-2</v>
       </c>
-      <c r="N36" s="5">
+      <c r="P36" s="5">
         <v>-0.119703</v>
       </c>
-      <c r="O36" s="5">
+      <c r="Q36" s="5">
         <v>-0.20413899999999999</v>
       </c>
-      <c r="P36" s="5">
+      <c r="R36" s="5">
         <f t="shared" si="0"/>
         <v>-8.4435999999999983E-2</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="S36" s="5">
         <f t="shared" si="13"/>
         <v>-0.16462749999999998</v>
       </c>
-      <c r="R36" s="5">
+      <c r="T36" s="5">
         <f t="shared" si="14"/>
         <v>-0.23227700000000001</v>
       </c>
-      <c r="S36" s="5">
+      <c r="U36" s="5">
         <f t="shared" si="15"/>
         <v>-6.7649500000000001E-2</v>
       </c>
-      <c r="T36" s="5">
+      <c r="V36" s="5">
         <v>3.8027999999999999E-2</v>
       </c>
-      <c r="U36" s="5">
+      <c r="W36" s="5">
         <v>1.6508999999999999E-2</v>
       </c>
-      <c r="V36" s="5">
+      <c r="X36" s="5">
         <f t="shared" si="1"/>
         <v>-2.1519E-2</v>
       </c>
-      <c r="W36" s="5">
+      <c r="Y36" s="5">
         <v>-3.3804000000000001E-2</v>
       </c>
-      <c r="X36" s="5">
+      <c r="Z36" s="5">
         <v>-0.11378000000000001</v>
       </c>
-      <c r="Y36" s="5">
+      <c r="AA36" s="5">
         <f t="shared" si="2"/>
         <v>-7.9976000000000005E-2</v>
       </c>
-      <c r="Z36" s="5">
+      <c r="AB36" s="5">
         <f t="shared" si="16"/>
         <v>2.1119999999999993E-3</v>
       </c>
-      <c r="AA36" s="5">
+      <c r="AC36" s="5">
         <f t="shared" si="17"/>
         <v>-4.8635500000000005E-2</v>
       </c>
-      <c r="AB36" s="5">
+      <c r="AD36" s="5">
         <f t="shared" si="18"/>
         <v>-5.0747500000000001E-2</v>
       </c>
-      <c r="AC36" s="5">
+      <c r="AE36" s="5">
         <v>1.89E-2</v>
       </c>
-      <c r="AD36" s="5">
+      <c r="AF36" s="5">
         <v>-7.9951999999999995E-2</v>
       </c>
-      <c r="AE36" s="5">
+      <c r="AG36" s="5">
         <f t="shared" si="3"/>
         <v>-9.8851999999999995E-2</v>
       </c>
-      <c r="AF36" s="5">
+      <c r="AH36" s="5">
         <v>7.5648000000000007E-2</v>
       </c>
-      <c r="AG36" s="5">
+      <c r="AI36" s="5">
         <v>2.2464000000000001E-2</v>
       </c>
-      <c r="AH36" s="5">
+      <c r="AJ36" s="5">
         <f t="shared" si="4"/>
         <v>-5.3184000000000009E-2</v>
       </c>
-      <c r="AI36" s="5">
+      <c r="AK36" s="5">
         <f t="shared" si="19"/>
         <v>4.7274000000000004E-2</v>
       </c>
-      <c r="AJ36" s="5">
+      <c r="AL36" s="5">
         <f t="shared" si="20"/>
         <v>-2.8743999999999999E-2</v>
       </c>
-      <c r="AK36" s="5">
+      <c r="AM36" s="5">
         <f t="shared" si="21"/>
         <v>-7.6018000000000002E-2</v>
       </c>
-      <c r="AL36" s="5">
+      <c r="AN36" s="5">
         <v>-0.19728599999999999</v>
       </c>
-      <c r="AM36" s="5">
+      <c r="AO36" s="5">
         <v>-0.16514200000000001</v>
       </c>
-      <c r="AN36" s="5">
+      <c r="AP36" s="5">
         <f t="shared" si="5"/>
         <v>3.2143999999999978E-2</v>
       </c>
-      <c r="AO36" s="5">
+      <c r="AQ36" s="5">
         <v>-8.1860000000000002E-2</v>
       </c>
-      <c r="AP36" s="5">
+      <c r="AR36" s="5">
         <v>-5.527E-2</v>
       </c>
-      <c r="AQ36" s="5">
+      <c r="AS36" s="5">
         <f t="shared" si="22"/>
         <v>2.6590000000000003E-2</v>
       </c>
-      <c r="AR36" s="5">
+      <c r="AT36" s="5">
         <f t="shared" si="23"/>
         <v>-0.139573</v>
       </c>
-      <c r="AS36" s="5">
+      <c r="AU36" s="5">
         <f t="shared" si="24"/>
         <v>-0.110206</v>
       </c>
-      <c r="AT36" s="5">
+      <c r="AV36" s="5">
         <f t="shared" si="25"/>
         <v>2.936699999999999E-2</v>
       </c>
-      <c r="AU36" s="5">
+      <c r="AW36" s="5">
         <f t="shared" si="7"/>
         <v>-8.3086000000000007E-2</v>
       </c>
-      <c r="AV36" s="5">
+      <c r="AX36" s="5">
         <f t="shared" si="8"/>
         <v>-0.11785649999999999</v>
       </c>
-      <c r="AW36" s="5">
+      <c r="AY36" s="5">
         <f t="shared" si="9"/>
         <v>-0.10586999999999999</v>
       </c>
-      <c r="AX36" s="5">
+      <c r="AZ36" s="5">
         <f t="shared" si="10"/>
         <v>-9.7544999999999993E-3</v>
       </c>
-      <c r="AY36" s="5">
+      <c r="BA36" s="5">
         <f t="shared" si="26"/>
         <v>0.24757999999999999</v>
       </c>
-      <c r="AZ36" s="5">
+      <c r="BB36" s="5">
         <f t="shared" si="27"/>
         <v>0.276924</v>
       </c>
-      <c r="BA36" s="5">
+      <c r="BC36" s="5">
         <f t="shared" si="28"/>
         <v>8.5899000000000003E-2</v>
       </c>
-      <c r="BB36" s="5">
+      <c r="BD36" s="5">
         <f t="shared" si="29"/>
         <v>9.0358999999999981E-2</v>
       </c>
-      <c r="BC36" s="5">
+      <c r="BE36" s="5">
         <f t="shared" si="30"/>
         <v>0.21618599999999999</v>
       </c>
-      <c r="BD36" s="5">
+      <c r="BF36" s="5">
         <f t="shared" si="31"/>
         <v>8.5190000000000016E-2</v>
       </c>
-      <c r="BE36" s="5">
+      <c r="BG36" s="5">
         <f t="shared" si="32"/>
         <v>0.15750800000000001</v>
       </c>
-      <c r="BF36" s="5">
+      <c r="BH36" s="5">
         <f t="shared" si="33"/>
         <v>7.7733999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>4020</v>
       </c>
-      <c r="D37" s="6">
+      <c r="F37" s="6">
         <v>6.4567896820000001</v>
       </c>
-      <c r="E37" s="5">
+      <c r="G37" s="5">
         <v>6.3623000000000003</v>
       </c>
-      <c r="F37" s="7">
+      <c r="H37" s="7">
         <v>5</v>
       </c>
-      <c r="G37" s="7">
+      <c r="I37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="7">
+      <c r="J37" s="7">
         <v>20</v>
       </c>
-      <c r="I37" s="7">
+      <c r="K37" s="7">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="J37" s="8">
+      <c r="L37" s="8">
         <v>28</v>
       </c>
-      <c r="K37" s="5">
+      <c r="M37" s="5">
         <v>0.1038</v>
       </c>
-      <c r="L37" s="5">
+      <c r="N37" s="5">
         <v>0.214334</v>
       </c>
-      <c r="M37" s="5">
+      <c r="O37" s="5">
         <f t="shared" si="12"/>
         <v>0.11053399999999999</v>
       </c>
-      <c r="N37" s="5">
+      <c r="P37" s="5">
         <v>1.358E-2</v>
       </c>
-      <c r="O37" s="5">
+      <c r="Q37" s="5">
         <v>0.114554</v>
       </c>
-      <c r="P37" s="5">
+      <c r="R37" s="5">
         <f t="shared" si="0"/>
         <v>0.10097400000000001</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="S37" s="5">
         <f t="shared" si="13"/>
         <v>5.8689999999999999E-2</v>
       </c>
-      <c r="R37" s="5">
+      <c r="T37" s="5">
         <f t="shared" si="14"/>
         <v>0.16444400000000001</v>
       </c>
-      <c r="S37" s="5">
+      <c r="U37" s="5">
         <f t="shared" si="15"/>
         <v>0.105754</v>
       </c>
-      <c r="T37" s="5">
+      <c r="V37" s="5">
         <v>-2.6162000000000001E-2</v>
       </c>
-      <c r="U37" s="5">
+      <c r="W37" s="5">
         <v>1.6882000000000001E-2</v>
       </c>
-      <c r="V37" s="5">
+      <c r="X37" s="5">
         <f t="shared" si="1"/>
         <v>4.3043999999999999E-2</v>
       </c>
-      <c r="W37" s="5">
+      <c r="Y37" s="5">
         <v>-6.1238000000000001E-2</v>
       </c>
-      <c r="X37" s="5">
+      <c r="Z37" s="5">
         <v>-3.3007000000000002E-2</v>
       </c>
-      <c r="Y37" s="5">
+      <c r="AA37" s="5">
         <f t="shared" si="2"/>
         <v>2.8230999999999999E-2</v>
       </c>
-      <c r="Z37" s="5">
+      <c r="AB37" s="5">
         <f t="shared" si="16"/>
         <v>-4.3700000000000003E-2</v>
       </c>
-      <c r="AA37" s="5">
+      <c r="AC37" s="5">
         <f t="shared" si="17"/>
         <v>-8.0625000000000002E-3</v>
       </c>
-      <c r="AB37" s="5">
+      <c r="AD37" s="5">
         <f t="shared" si="18"/>
         <v>3.5637500000000003E-2</v>
       </c>
-      <c r="AC37" s="5">
+      <c r="AE37" s="5">
         <v>3.5002999999999999E-2</v>
       </c>
-      <c r="AD37" s="5">
+      <c r="AF37" s="5">
         <v>2.9975999999999999E-2</v>
       </c>
-      <c r="AE37" s="5">
+      <c r="AG37" s="5">
         <f t="shared" si="3"/>
         <v>-5.0270000000000002E-3</v>
       </c>
-      <c r="AF37" s="5">
+      <c r="AH37" s="5">
         <v>2.5399999999999999E-4</v>
       </c>
-      <c r="AG37" s="5">
+      <c r="AI37" s="5">
         <v>-3.39E-4</v>
       </c>
-      <c r="AH37" s="5">
+      <c r="AJ37" s="5">
         <f t="shared" si="4"/>
         <v>-5.9299999999999999E-4</v>
       </c>
-      <c r="AI37" s="5">
+      <c r="AK37" s="5">
         <f t="shared" si="19"/>
         <v>1.7628499999999998E-2</v>
       </c>
-      <c r="AJ37" s="5">
+      <c r="AL37" s="5">
         <f t="shared" si="20"/>
         <v>1.48185E-2</v>
       </c>
-      <c r="AK37" s="5">
+      <c r="AM37" s="5">
         <f t="shared" si="21"/>
         <v>-2.81E-3</v>
       </c>
-      <c r="AL37" s="5">
+      <c r="AN37" s="5">
         <v>5.3415999999999998E-2</v>
       </c>
-      <c r="AM37" s="5">
+      <c r="AO37" s="5">
         <v>0.13294400000000001</v>
       </c>
-      <c r="AN37" s="5">
+      <c r="AP37" s="5">
         <f t="shared" si="5"/>
         <v>7.9528000000000015E-2</v>
       </c>
-      <c r="AO37" s="5">
+      <c r="AQ37" s="5">
         <v>6.8223000000000006E-2</v>
       </c>
-      <c r="AP37" s="5">
+      <c r="AR37" s="5">
         <v>0.190882</v>
       </c>
-      <c r="AQ37" s="5">
+      <c r="AS37" s="5">
         <f t="shared" si="22"/>
         <v>0.12265899999999999</v>
       </c>
-      <c r="AR37" s="5">
+      <c r="AT37" s="5">
         <f t="shared" si="23"/>
         <v>6.0819499999999999E-2</v>
       </c>
-      <c r="AS37" s="5">
+      <c r="AU37" s="5">
         <f t="shared" si="24"/>
         <v>0.161913</v>
       </c>
-      <c r="AT37" s="5">
+      <c r="AV37" s="5">
         <f t="shared" si="25"/>
         <v>0.1010935</v>
       </c>
-      <c r="AU37" s="5">
+      <c r="AW37" s="5">
         <f t="shared" si="7"/>
         <v>6.1770800000000001E-2</v>
       </c>
-      <c r="AV37" s="5">
+      <c r="AX37" s="5">
         <f t="shared" si="8"/>
         <v>8.4722499999999989E-3</v>
       </c>
-      <c r="AW37" s="5">
+      <c r="AY37" s="5">
         <f t="shared" si="9"/>
         <v>6.2834749999999995E-2</v>
       </c>
-      <c r="AX37" s="5">
+      <c r="AZ37" s="5">
         <f t="shared" si="10"/>
         <v>6.4755000000000007E-2</v>
       </c>
-      <c r="AY37" s="5">
+      <c r="BA37" s="5">
         <f t="shared" si="26"/>
         <v>-0.12996199999999999</v>
       </c>
-      <c r="AZ37" s="5">
+      <c r="BB37" s="5">
         <f t="shared" si="27"/>
         <v>-0.19745199999999999</v>
       </c>
-      <c r="BA37" s="5">
+      <c r="BC37" s="5">
         <f t="shared" si="28"/>
         <v>-7.4817999999999996E-2</v>
       </c>
-      <c r="BB37" s="5">
+      <c r="BD37" s="5">
         <f t="shared" si="29"/>
         <v>-0.147561</v>
       </c>
-      <c r="BC37" s="5">
+      <c r="BE37" s="5">
         <f t="shared" si="30"/>
         <v>-1.8412999999999999E-2</v>
       </c>
-      <c r="BD37" s="5">
+      <c r="BF37" s="5">
         <f t="shared" si="31"/>
         <v>-0.102968</v>
       </c>
-      <c r="BE37" s="5">
+      <c r="BG37" s="5">
         <f t="shared" si="32"/>
         <v>-6.7969000000000002E-2</v>
       </c>
-      <c r="BF37" s="5">
+      <c r="BH37" s="5">
         <f t="shared" si="33"/>
         <v>-0.191221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fMRI-anovas/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/fMRI-anovas/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/fMRI-anovas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833FAFA-199B-8D41-9DDF-5B5ADA4C0759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F160796E-39A7-E142-926B-EDB02F2FC7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>

--- a/fMRI-anovas/data/NMxPositiveAccuracy_maineffects.xlsx
+++ b/fMRI-anovas/data/NMxPositiveAccuracy_maineffects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/neuromelanin/fMRI-anovas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F160796E-39A7-E142-926B-EDB02F2FC7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E038E-4395-5441-86E7-12561CC98B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" xr2:uid="{9A9E18EA-999B-904D-9F6E-1C0F0C89A8CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>MVSL_Incorrect</t>
   </si>
@@ -132,30 +132,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>IVSL_Contrast</t>
-  </si>
-  <si>
-    <t>CVSL_Contrast</t>
-  </si>
-  <si>
-    <t>IVSR_Contrast</t>
-  </si>
-  <si>
-    <t>CVSR_Contrast</t>
-  </si>
-  <si>
-    <t>IDSL_Contrast</t>
-  </si>
-  <si>
-    <t>CDSL_Contrast</t>
-  </si>
-  <si>
-    <t>IDSR_Contrast</t>
-  </si>
-  <si>
-    <t>CDSR_Contrast</t>
-  </si>
-  <si>
     <t>MVS_Incorrect</t>
   </si>
   <si>
@@ -190,9 +166,6 @@
   </si>
   <si>
     <t>MDS_Contrast</t>
-  </si>
-  <si>
-    <t>Deceived?</t>
   </si>
   <si>
     <t>SessionLog_deception</t>
@@ -230,12 +203,69 @@
   <si>
     <t>Age</t>
   </si>
+  <si>
+    <t>Tentative?</t>
+  </si>
+  <si>
+    <t>0=not subject to change; 1=could possibly be impacted by free response</t>
+  </si>
+  <si>
+    <t>0=female</t>
+  </si>
+  <si>
+    <t>Deception rating via Deception QA Decision Tree (0=not deceived, 1=deceived)</t>
+  </si>
+  <si>
+    <t>MVSR = Monetary Ventral Striatum Right; Striatal Activation for Correct and Incorrect Trials for the doors task in the right ventral striatum. MVSR_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>MVS = Monetary Ventral Striatum averaged across both hemispheres; Striatal Activation for Correct and Incorrect Trials for the doors task. MVS_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>SVSL = Social Ventral Striatum Left; Striatal Activation for Correct and Incorrect Trials for the faces task in the left ventral striatum. SVSL_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>SVSR = Social Ventral Striatum Right; Striatal Activation for Correct and Incorrect Trials for the faces task in the right ventral striatum. SVSR_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>SVS = Social Ventral Striatum averaged across both hemispheres; Striatal Activation for Correct and Incorrect Trials for the faces task. SVS_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>SDSL = Social Dorsal Striatum Left; Striatal Activation for Correct and Incorrect Trials for the faces task in the left dorsal striatum. SDSL_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>SDSL = Social Dorsal Striatum Right; Striatal Activation for Correct and Incorrect Trials for the faces task in the right dorsal striatum. SDSR_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>SDS = Social Dorsal Striatum averaged across both hemispheres; Striatal Activation for Correct and Incorrect Trials for the faces task. SDS_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>MDSL = Monetary Dorsal Striatum Left; Striatal Activation for Correct and Incorrect Trials for the doors task in the left dorsal striatum. MDSL_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>MDSR = Monetary Dorsal Striatum Right; Striatal Activation for Correct and Incorrect Trials for the doors task in the right dorsal striatum. MDSR_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>MDS = Monetary Dorsal Striatum averaged across both hemispheres; Striatal Activation for Correct and Incorrect Trials for the doors task. MDS_Contrast = Correct - Incorrect</t>
+  </si>
+  <si>
+    <t>Averaging across domains in the left ventral striatum</t>
+  </si>
+  <si>
+    <t>Averaging across domains in the right ventral striatum</t>
+  </si>
+  <si>
+    <t>Averaging across domains in the left dorsal striatum</t>
+  </si>
+  <si>
+    <t>Averaging across domains in the right dorsal striatum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +291,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -287,11 +323,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -322,6 +429,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE6266C-C2C9-0545-A621-E0AD7AF2C0DA}">
-  <dimension ref="A1:BH37"/>
+  <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,45 +797,120 @@
     <col min="13" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="9"/>
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -732,14 +951,14 @@
       <c r="R2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>40</v>
+      <c r="S2" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>12</v>
@@ -759,14 +978,14 @@
       <c r="AA2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>43</v>
+      <c r="AB2" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>6</v>
@@ -786,14 +1005,14 @@
       <c r="AJ2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>46</v>
+      <c r="AK2" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="AN2" s="3" t="s">
         <v>18</v>
@@ -813,55 +1032,43 @@
       <c r="AS2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>49</v>
+      <c r="AT2" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>3836</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
       </c>
       <c r="F3" s="6">
         <v>7.0149834110000002</v>
@@ -905,7 +1112,7 @@
         <f t="shared" ref="R3:R37" si="0">Q3-P3</f>
         <v>2.6745000000000005E-2</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="20">
         <f>AVERAGE(M3,P3)</f>
         <v>-9.6953000000000011E-2</v>
       </c>
@@ -913,7 +1120,7 @@
         <f>AVERAGE(N3,Q3)</f>
         <v>-0.1300385</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="21">
         <f>AVERAGE(O3,R3)</f>
         <v>-3.308549999999999E-2</v>
       </c>
@@ -937,7 +1144,7 @@
         <f t="shared" ref="AA3:AA37" si="2">Z3-Y3</f>
         <v>-6.3333E-2</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="20">
         <f>AVERAGE(V3,Y3)</f>
         <v>2.6477000000000001E-2</v>
       </c>
@@ -945,7 +1152,7 @@
         <f>AVERAGE(W3,Z3)</f>
         <v>-2.8499E-2</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="21">
         <f>AVERAGE(X3,AA3)</f>
         <v>-5.4975999999999997E-2</v>
       </c>
@@ -969,7 +1176,7 @@
         <f t="shared" ref="AJ3:AJ37" si="4">AI3-AH3</f>
         <v>5.2434000000000001E-2</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AK3" s="20">
         <f>AVERAGE(AE3,AH3)</f>
         <v>7.9358499999999998E-2</v>
       </c>
@@ -977,7 +1184,7 @@
         <f>AVERAGE(AF3,AI3)</f>
         <v>9.0135999999999994E-2</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="21">
         <f>AVERAGE(AG3,AJ3)</f>
         <v>1.0777499999999999E-2</v>
       </c>
@@ -1001,7 +1208,7 @@
         <f>AR3-AQ3</f>
         <v>0.128222</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="AT3" s="20">
         <f>AVERAGE(AN3,AQ3)</f>
         <v>-6.6376999999999992E-2</v>
       </c>
@@ -1009,63 +1216,43 @@
         <f t="shared" ref="AU3:AV3" si="6">AVERAGE(AO3,AR3)</f>
         <v>4.3566000000000001E-2</v>
       </c>
-      <c r="AV3" s="5">
+      <c r="AV3" s="21">
         <f t="shared" si="6"/>
         <v>0.109943</v>
       </c>
       <c r="AW3" s="5">
-        <f t="shared" ref="AW3:AW37" si="7">AVERAGE(M3,N3,V3,W3,)</f>
+        <f>AVERAGE(M3,N3,V3,W3,)</f>
         <v>-3.9237799999999996E-2</v>
       </c>
       <c r="AX3" s="5">
-        <f t="shared" ref="AX3:AX37" si="8">AVERAGE(P3,Q3,Y3,Z3)</f>
+        <f t="shared" ref="AX3:AX37" si="7">AVERAGE(P3,Q3,Y3,Z3)</f>
         <v>-6.5459500000000004E-2</v>
       </c>
       <c r="AY3" s="5">
-        <f t="shared" ref="AY3:AY37" si="9">AVERAGE(AE3,AF3,AN3,AO3)</f>
+        <f t="shared" ref="AY3:AY37" si="8">AVERAGE(AE3,AF3,AN3,AO3)</f>
         <v>3.2294749999999997E-2</v>
       </c>
       <c r="AZ3" s="5">
-        <f t="shared" ref="AZ3:AZ37" si="10">AVERAGE(AH3,AI3,AQ3,AR3)</f>
+        <f t="shared" ref="AZ3:AZ37" si="9">AVERAGE(AH3,AI3,AQ3,AR3)</f>
         <v>4.1047E-2</v>
       </c>
-      <c r="BA3" s="5">
-        <f>V3-M3</f>
-        <v>0.104757</v>
-      </c>
-      <c r="BB3" s="5">
-        <f>W3-N3</f>
-        <v>0.15105399999999999</v>
-      </c>
-      <c r="BC3" s="5">
-        <f>Y3-P3</f>
-        <v>0.14210300000000001</v>
-      </c>
-      <c r="BD3" s="5">
-        <f>Z3-Q3</f>
-        <v>5.2025000000000002E-2</v>
-      </c>
-      <c r="BE3" s="5">
-        <f>AE3-AN3</f>
-        <v>0.181649</v>
-      </c>
-      <c r="BF3" s="5">
-        <f>AF3-AO3</f>
-        <v>5.9106000000000006E-2</v>
-      </c>
-      <c r="BG3" s="5">
-        <f>AH3-AQ3</f>
-        <v>0.109822</v>
-      </c>
-      <c r="BH3" s="5">
-        <f>AI3-AR3</f>
-        <v>3.4033999999999995E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3845</v>
       </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>23</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
       <c r="F4" s="6">
         <v>5.2837627459999998</v>
       </c>
@@ -1082,7 +1269,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K37" si="11">SUM(H4,I4,J4)</f>
+        <f t="shared" ref="K4:K37" si="10">SUM(H4,I4,J4)</f>
         <v>57</v>
       </c>
       <c r="L4" s="8">
@@ -1095,7 +1282,7 @@
         <v>0.220913</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" ref="O4:O37" si="12">N4-M4</f>
+        <f t="shared" ref="O4:O37" si="11">N4-M4</f>
         <v>0.26574199999999998</v>
       </c>
       <c r="P4" s="5">
@@ -1108,16 +1295,16 @@
         <f t="shared" si="0"/>
         <v>0.23267699999999999</v>
       </c>
-      <c r="S4" s="5">
-        <f t="shared" ref="S4:S37" si="13">AVERAGE(M4,P4)</f>
+      <c r="S4" s="20">
+        <f t="shared" ref="S4:S37" si="12">AVERAGE(M4,P4)</f>
         <v>-4.4757000000000005E-2</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" ref="T4:T37" si="14">AVERAGE(N4,Q4)</f>
+        <f t="shared" ref="T4:T37" si="13">AVERAGE(N4,Q4)</f>
         <v>0.20445249999999998</v>
       </c>
-      <c r="U4" s="5">
-        <f t="shared" ref="U4:U37" si="15">AVERAGE(O4,R4)</f>
+      <c r="U4" s="21">
+        <f t="shared" ref="U4:U37" si="14">AVERAGE(O4,R4)</f>
         <v>0.24920949999999997</v>
       </c>
       <c r="V4" s="5">
@@ -1140,16 +1327,16 @@
         <f t="shared" si="2"/>
         <v>-2.3959999999999815E-3</v>
       </c>
-      <c r="AB4" s="5">
-        <f t="shared" ref="AB4:AB37" si="16">AVERAGE(V4,Y4)</f>
+      <c r="AB4" s="20">
+        <f t="shared" ref="AB4:AB37" si="15">AVERAGE(V4,Y4)</f>
         <v>6.3779499999999989E-2</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" ref="AC4:AC37" si="17">AVERAGE(W4,Z4)</f>
+        <f t="shared" ref="AC4:AC37" si="16">AVERAGE(W4,Z4)</f>
         <v>0.10961900000000001</v>
       </c>
-      <c r="AD4" s="5">
-        <f t="shared" ref="AD4:AD37" si="18">AVERAGE(X4,AA4)</f>
+      <c r="AD4" s="21">
+        <f t="shared" ref="AD4:AD37" si="17">AVERAGE(X4,AA4)</f>
         <v>4.5839500000000012E-2</v>
       </c>
       <c r="AE4" s="5">
@@ -1172,16 +1359,16 @@
         <f t="shared" si="4"/>
         <v>8.654400000000001E-2</v>
       </c>
-      <c r="AK4" s="5">
-        <f t="shared" ref="AK4:AK37" si="19">AVERAGE(AE4,AH4)</f>
+      <c r="AK4" s="20">
+        <f t="shared" ref="AK4:AK37" si="18">AVERAGE(AE4,AH4)</f>
         <v>-3.3458500000000002E-2</v>
       </c>
       <c r="AL4" s="5">
-        <f t="shared" ref="AL4:AL37" si="20">AVERAGE(AF4,AI4)</f>
+        <f t="shared" ref="AL4:AL37" si="19">AVERAGE(AF4,AI4)</f>
         <v>7.9495999999999997E-2</v>
       </c>
-      <c r="AM4" s="5">
-        <f t="shared" ref="AM4:AM37" si="21">AVERAGE(AG4,AJ4)</f>
+      <c r="AM4" s="21">
+        <f t="shared" ref="AM4:AM37" si="20">AVERAGE(AG4,AJ4)</f>
         <v>0.1129545</v>
       </c>
       <c r="AN4" s="5">
@@ -1201,74 +1388,54 @@
         <v>9.2760999999999996E-2</v>
       </c>
       <c r="AS4" s="5">
-        <f t="shared" ref="AS4:AS37" si="22">AR4-AQ4</f>
+        <f t="shared" ref="AS4:AS37" si="21">AR4-AQ4</f>
         <v>0.116495</v>
       </c>
-      <c r="AT4" s="5">
-        <f t="shared" ref="AT4:AT37" si="23">AVERAGE(AN4,AQ4)</f>
+      <c r="AT4" s="20">
+        <f t="shared" ref="AT4:AT37" si="22">AVERAGE(AN4,AQ4)</f>
         <v>1.8258999999999997E-2</v>
       </c>
       <c r="AU4" s="5">
-        <f t="shared" ref="AU4:AU37" si="24">AVERAGE(AO4,AR4)</f>
+        <f t="shared" ref="AU4:AU37" si="23">AVERAGE(AO4,AR4)</f>
         <v>0.14322399999999999</v>
       </c>
-      <c r="AV4" s="5">
-        <f t="shared" ref="AV4:AV37" si="25">AVERAGE(AP4,AS4)</f>
+      <c r="AV4" s="21">
+        <f t="shared" ref="AV4:AV37" si="24">AVERAGE(AP4,AS4)</f>
         <v>0.12496499999999999</v>
       </c>
       <c r="AW4" s="5">
+        <f t="shared" ref="AW4:AW37" si="25">AVERAGE(M4,N4,V4,W4,)</f>
+        <v>4.7954199999999995E-2</v>
+      </c>
+      <c r="AX4" s="5">
         <f t="shared" si="7"/>
-        <v>4.7954199999999995E-2</v>
-      </c>
-      <c r="AX4" s="5">
+        <v>0.10660425</v>
+      </c>
+      <c r="AY4" s="5">
         <f t="shared" si="8"/>
-        <v>0.10660425</v>
-      </c>
-      <c r="AY4" s="5">
+        <v>5.5483999999999999E-2</v>
+      </c>
+      <c r="AZ4" s="5">
         <f t="shared" si="9"/>
-        <v>5.5483999999999999E-2</v>
-      </c>
-      <c r="AZ4" s="5">
-        <f t="shared" si="10"/>
         <v>4.8276249999999993E-2</v>
       </c>
-      <c r="BA4" s="5">
-        <f t="shared" ref="BA4:BA37" si="26">V4-M4</f>
-        <v>2.9635000000000002E-2</v>
-      </c>
-      <c r="BB4" s="5">
-        <f t="shared" ref="BB4:BB37" si="27">W4-N4</f>
-        <v>-0.14203199999999999</v>
-      </c>
-      <c r="BC4" s="5">
-        <f t="shared" ref="BC4:BC37" si="28">Y4-P4</f>
-        <v>0.18743799999999999</v>
-      </c>
-      <c r="BD4" s="5">
-        <f t="shared" ref="BD4:BD37" si="29">Z4-Q4</f>
-        <v>-4.7634999999999983E-2</v>
-      </c>
-      <c r="BE4" s="5">
-        <f t="shared" ref="BE4:BE37" si="30">AE4-AN4</f>
-        <v>-0.14593600000000001</v>
-      </c>
-      <c r="BF4" s="5">
-        <f t="shared" ref="BF4:BF37" si="31">AF4-AO4</f>
-        <v>-0.14000599999999999</v>
-      </c>
-      <c r="BG4" s="5">
-        <f t="shared" ref="BG4:BG37" si="32">AH4-AQ4</f>
-        <v>4.2500999999999997E-2</v>
-      </c>
-      <c r="BH4" s="5">
-        <f t="shared" ref="BH4:BH37" si="33">AI4-AR4</f>
-        <v>1.2550000000000006E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3846</v>
       </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
       <c r="F5" s="6">
         <v>11.89285005</v>
       </c>
@@ -1285,7 +1452,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="L5" s="8">
@@ -1298,7 +1465,7 @@
         <v>-0.22715299999999999</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.13248599999999999</v>
       </c>
       <c r="P5" s="5">
@@ -1311,16 +1478,16 @@
         <f t="shared" si="0"/>
         <v>-2.7556999999999998E-2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="20">
+        <f t="shared" si="12"/>
+        <v>-8.9199000000000001E-2</v>
+      </c>
+      <c r="T5" s="5">
         <f t="shared" si="13"/>
-        <v>-8.9199000000000001E-2</v>
-      </c>
-      <c r="T5" s="5">
+        <v>-0.1692205</v>
+      </c>
+      <c r="U5" s="21">
         <f t="shared" si="14"/>
-        <v>-0.1692205</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="15"/>
         <v>-8.0021499999999995E-2</v>
       </c>
       <c r="V5" s="5">
@@ -1343,16 +1510,16 @@
         <f t="shared" si="2"/>
         <v>0.38912199999999997</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.1249025</v>
+      </c>
+      <c r="AC5" s="5">
         <f t="shared" si="16"/>
-        <v>-0.1249025</v>
-      </c>
-      <c r="AC5" s="5">
+        <v>0.13337350000000001</v>
+      </c>
+      <c r="AD5" s="21">
         <f t="shared" si="17"/>
-        <v>0.13337350000000001</v>
-      </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="18"/>
         <v>0.25827599999999995</v>
       </c>
       <c r="AE5" s="5">
@@ -1375,16 +1542,16 @@
         <f t="shared" si="4"/>
         <v>0.21646699999999999</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" s="20">
+        <f t="shared" si="18"/>
+        <v>-9.7397499999999998E-2</v>
+      </c>
+      <c r="AL5" s="5">
         <f t="shared" si="19"/>
-        <v>-9.7397499999999998E-2</v>
-      </c>
-      <c r="AL5" s="5">
+        <v>0.12923599999999999</v>
+      </c>
+      <c r="AM5" s="21">
         <f t="shared" si="20"/>
-        <v>0.12923599999999999</v>
-      </c>
-      <c r="AM5" s="5">
-        <f t="shared" si="21"/>
         <v>0.22663349999999999</v>
       </c>
       <c r="AN5" s="5">
@@ -1404,74 +1571,54 @@
         <v>-6.4127000000000003E-2</v>
       </c>
       <c r="AS5" s="5">
+        <f t="shared" si="21"/>
+        <v>-2.7625000000000004E-2</v>
+      </c>
+      <c r="AT5" s="20">
         <f t="shared" si="22"/>
-        <v>-2.7625000000000004E-2</v>
-      </c>
-      <c r="AT5" s="5">
+        <v>-1.5273E-2</v>
+      </c>
+      <c r="AU5" s="5">
         <f t="shared" si="23"/>
-        <v>-1.5273E-2</v>
-      </c>
-      <c r="AU5" s="5">
+        <v>-4.1827500000000004E-2</v>
+      </c>
+      <c r="AV5" s="21">
         <f t="shared" si="24"/>
-        <v>-4.1827500000000004E-2</v>
-      </c>
-      <c r="AV5" s="5">
+        <v>-2.6554500000000002E-2</v>
+      </c>
+      <c r="AW5" s="5">
         <f t="shared" si="25"/>
-        <v>-2.6554500000000002E-2</v>
-      </c>
-      <c r="AW5" s="5">
+        <v>-6.6209599999999993E-2</v>
+      </c>
+      <c r="AX5" s="5">
         <f t="shared" si="7"/>
-        <v>-6.6209599999999993E-2</v>
-      </c>
-      <c r="AX5" s="5">
+        <v>-4.2212250000000007E-2</v>
+      </c>
+      <c r="AY5" s="5">
         <f t="shared" si="8"/>
-        <v>-4.2212250000000007E-2</v>
-      </c>
-      <c r="AY5" s="5">
+        <v>-7.7330000000000003E-3</v>
+      </c>
+      <c r="AZ5" s="5">
         <f t="shared" si="9"/>
-        <v>-7.7330000000000003E-3</v>
-      </c>
-      <c r="AZ5" s="5">
-        <f t="shared" si="10"/>
         <v>-4.8980000000000013E-3</v>
       </c>
-      <c r="BA5" s="5">
-        <f t="shared" si="26"/>
-        <v>2.6338E-2</v>
-      </c>
-      <c r="BB5" s="5">
-        <f t="shared" si="27"/>
-        <v>0.28625400000000001</v>
-      </c>
-      <c r="BC5" s="5">
-        <f t="shared" si="28"/>
-        <v>-9.7744999999999999E-2</v>
-      </c>
-      <c r="BD5" s="5">
-        <f t="shared" si="29"/>
-        <v>0.318934</v>
-      </c>
-      <c r="BE5" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.13303599999999999</v>
-      </c>
-      <c r="BF5" s="5">
-        <f t="shared" si="31"/>
-        <v>0.129248</v>
-      </c>
-      <c r="BG5" s="5">
-        <f t="shared" si="32"/>
-        <v>-3.1212999999999998E-2</v>
-      </c>
-      <c r="BH5" s="5">
-        <f t="shared" si="33"/>
-        <v>0.21287899999999998</v>
-      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3847</v>
       </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>34</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
       <c r="F6" s="6">
         <v>7.4700715549999996</v>
       </c>
@@ -1488,7 +1635,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="L6" s="8">
@@ -1501,7 +1648,7 @@
         <v>0.194741</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.27343000000000001</v>
       </c>
       <c r="P6" s="5">
@@ -1514,16 +1661,16 @@
         <f t="shared" si="0"/>
         <v>0.20227600000000001</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="20">
+        <f t="shared" si="12"/>
+        <v>-2.5585499999999997E-2</v>
+      </c>
+      <c r="T6" s="5">
         <f t="shared" si="13"/>
-        <v>-2.5585499999999997E-2</v>
-      </c>
-      <c r="T6" s="5">
+        <v>0.2122675</v>
+      </c>
+      <c r="U6" s="21">
         <f t="shared" si="14"/>
-        <v>0.2122675</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" si="15"/>
         <v>0.23785300000000001</v>
       </c>
       <c r="V6" s="5">
@@ -1546,16 +1693,16 @@
         <f t="shared" si="2"/>
         <v>0.31145600000000001</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="20">
+        <f t="shared" si="15"/>
+        <v>-8.3361999999999992E-2</v>
+      </c>
+      <c r="AC6" s="5">
         <f t="shared" si="16"/>
-        <v>-8.3361999999999992E-2</v>
-      </c>
-      <c r="AC6" s="5">
+        <v>0.1814935</v>
+      </c>
+      <c r="AD6" s="21">
         <f t="shared" si="17"/>
-        <v>0.1814935</v>
-      </c>
-      <c r="AD6" s="5">
-        <f t="shared" si="18"/>
         <v>0.26485550000000002</v>
       </c>
       <c r="AE6" s="5">
@@ -1578,16 +1725,16 @@
         <f t="shared" si="4"/>
         <v>6.2064000000000001E-2</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AK6" s="20">
+        <f t="shared" si="18"/>
+        <v>-2.4499E-2</v>
+      </c>
+      <c r="AL6" s="5">
         <f t="shared" si="19"/>
-        <v>-2.4499E-2</v>
-      </c>
-      <c r="AL6" s="5">
+        <v>8.39255E-2</v>
+      </c>
+      <c r="AM6" s="21">
         <f t="shared" si="20"/>
-        <v>8.39255E-2</v>
-      </c>
-      <c r="AM6" s="5">
-        <f t="shared" si="21"/>
         <v>0.10842450000000001</v>
       </c>
       <c r="AN6" s="5">
@@ -1607,74 +1754,54 @@
         <v>9.3731999999999996E-2</v>
       </c>
       <c r="AS6" s="5">
+        <f t="shared" si="21"/>
+        <v>-6.2880000000000019E-3</v>
+      </c>
+      <c r="AT6" s="20">
         <f t="shared" si="22"/>
-        <v>-6.2880000000000019E-3</v>
-      </c>
-      <c r="AT6" s="5">
+        <v>7.7536999999999995E-2</v>
+      </c>
+      <c r="AU6" s="5">
         <f t="shared" si="23"/>
-        <v>7.7536999999999995E-2</v>
-      </c>
-      <c r="AU6" s="5">
+        <v>8.5449499999999998E-2</v>
+      </c>
+      <c r="AV6" s="21">
         <f t="shared" si="24"/>
-        <v>8.5449499999999998E-2</v>
-      </c>
-      <c r="AV6" s="5">
+        <v>7.9124999999999994E-3</v>
+      </c>
+      <c r="AW6" s="5">
         <f t="shared" si="25"/>
-        <v>7.9124999999999994E-3</v>
-      </c>
-      <c r="AW6" s="5">
+        <v>2.9134199999999999E-2</v>
+      </c>
+      <c r="AX6" s="5">
         <f t="shared" si="7"/>
-        <v>2.9134199999999999E-2</v>
-      </c>
-      <c r="AX6" s="5">
+        <v>0.105989</v>
+      </c>
+      <c r="AY6" s="5">
         <f t="shared" si="8"/>
-        <v>0.105989</v>
-      </c>
-      <c r="AY6" s="5">
+        <v>4.2932999999999999E-2</v>
+      </c>
+      <c r="AZ6" s="5">
         <f t="shared" si="9"/>
-        <v>4.2932999999999999E-2</v>
-      </c>
-      <c r="AZ6" s="5">
-        <f t="shared" si="10"/>
         <v>6.8273500000000001E-2</v>
       </c>
-      <c r="BA6" s="5">
-        <f t="shared" si="26"/>
-        <v>-1.5629000000000004E-2</v>
-      </c>
-      <c r="BB6" s="5">
-        <f t="shared" si="27"/>
-        <v>-7.0803999999999992E-2</v>
-      </c>
-      <c r="BC6" s="5">
-        <f t="shared" si="28"/>
-        <v>-9.9923999999999999E-2</v>
-      </c>
-      <c r="BD6" s="5">
-        <f t="shared" si="29"/>
-        <v>9.2560000000000142E-3</v>
-      </c>
-      <c r="BE6" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.112691</v>
-      </c>
-      <c r="BF6" s="5">
-        <f t="shared" si="31"/>
-        <v>1.9980999999999999E-2</v>
-      </c>
-      <c r="BG6" s="5">
-        <f t="shared" si="32"/>
-        <v>-9.138099999999999E-2</v>
-      </c>
-      <c r="BH6" s="5">
-        <f t="shared" si="33"/>
-        <v>-2.3028999999999994E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>3848</v>
       </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
       <c r="F7" s="6">
         <v>9.8922949379999991</v>
       </c>
@@ -1691,7 +1818,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="L7" s="8">
@@ -1704,7 +1831,7 @@
         <v>-7.9472000000000001E-2</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.17882400000000004</v>
       </c>
       <c r="P7" s="5">
@@ -1717,16 +1844,16 @@
         <f t="shared" si="0"/>
         <v>0.12597800000000001</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.30197600000000002</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" si="13"/>
-        <v>-0.30197600000000002</v>
-      </c>
-      <c r="T7" s="5">
+        <v>-0.14957500000000001</v>
+      </c>
+      <c r="U7" s="21">
         <f t="shared" si="14"/>
-        <v>-0.14957500000000001</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" si="15"/>
         <v>0.15240100000000001</v>
       </c>
       <c r="V7" s="5">
@@ -1749,16 +1876,16 @@
         <f t="shared" si="2"/>
         <v>5.7690000000000005E-2</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="20">
+        <f t="shared" si="15"/>
+        <v>0.1046605</v>
+      </c>
+      <c r="AC7" s="5">
         <f t="shared" si="16"/>
-        <v>0.1046605</v>
-      </c>
-      <c r="AC7" s="5">
+        <v>0.15199850000000001</v>
+      </c>
+      <c r="AD7" s="21">
         <f t="shared" si="17"/>
-        <v>0.15199850000000001</v>
-      </c>
-      <c r="AD7" s="5">
-        <f t="shared" si="18"/>
         <v>4.7338000000000005E-2</v>
       </c>
       <c r="AE7" s="5">
@@ -1781,16 +1908,16 @@
         <f t="shared" si="4"/>
         <v>1.7506999999999995E-2</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7" s="20">
+        <f t="shared" si="18"/>
+        <v>0.17442849999999999</v>
+      </c>
+      <c r="AL7" s="5">
         <f t="shared" si="19"/>
-        <v>0.17442849999999999</v>
-      </c>
-      <c r="AL7" s="5">
+        <v>0.19106049999999999</v>
+      </c>
+      <c r="AM7" s="21">
         <f t="shared" si="20"/>
-        <v>0.19106049999999999</v>
-      </c>
-      <c r="AM7" s="5">
-        <f t="shared" si="21"/>
         <v>1.6631999999999994E-2</v>
       </c>
       <c r="AN7" s="5">
@@ -1810,74 +1937,54 @@
         <v>-1.4874999999999999E-2</v>
       </c>
       <c r="AS7" s="5">
+        <f t="shared" si="21"/>
+        <v>-1.8792999999999997E-2</v>
+      </c>
+      <c r="AT7" s="20">
         <f t="shared" si="22"/>
-        <v>-1.8792999999999997E-2</v>
-      </c>
-      <c r="AT7" s="5">
+        <v>4.5526000000000004E-2</v>
+      </c>
+      <c r="AU7" s="5">
         <f t="shared" si="23"/>
-        <v>4.5526000000000004E-2</v>
-      </c>
-      <c r="AU7" s="5">
+        <v>2.2869500000000001E-2</v>
+      </c>
+      <c r="AV7" s="21">
         <f t="shared" si="24"/>
-        <v>2.2869500000000001E-2</v>
-      </c>
-      <c r="AV7" s="5">
+        <v>-2.26565E-2</v>
+      </c>
+      <c r="AW7" s="5">
         <f t="shared" si="25"/>
-        <v>-2.26565E-2</v>
-      </c>
-      <c r="AW7" s="5">
+        <v>-2.3648800000000005E-2</v>
+      </c>
+      <c r="AX7" s="5">
         <f t="shared" si="7"/>
-        <v>-2.3648800000000005E-2</v>
-      </c>
-      <c r="AX7" s="5">
+        <v>-6.7885000000000001E-2</v>
+      </c>
+      <c r="AY7" s="5">
         <f t="shared" si="8"/>
-        <v>-6.7885000000000001E-2</v>
-      </c>
-      <c r="AY7" s="5">
+        <v>0.13813824999999999</v>
+      </c>
+      <c r="AZ7" s="5">
         <f t="shared" si="9"/>
-        <v>0.13813824999999999</v>
-      </c>
-      <c r="AZ7" s="5">
-        <f t="shared" si="10"/>
         <v>7.8803999999999985E-2</v>
       </c>
-      <c r="BA7" s="5">
-        <f t="shared" si="26"/>
-        <v>0.34956500000000001</v>
-      </c>
-      <c r="BB7" s="5">
-        <f t="shared" si="27"/>
-        <v>0.20772699999999999</v>
-      </c>
-      <c r="BC7" s="5">
-        <f t="shared" si="28"/>
-        <v>0.46370800000000001</v>
-      </c>
-      <c r="BD7" s="5">
-        <f t="shared" si="29"/>
-        <v>0.39541999999999999</v>
-      </c>
-      <c r="BE7" s="5">
-        <f t="shared" si="30"/>
-        <v>0.10739</v>
-      </c>
-      <c r="BF7" s="5">
-        <f t="shared" si="31"/>
-        <v>0.14966699999999999</v>
-      </c>
-      <c r="BG7" s="5">
-        <f t="shared" si="32"/>
-        <v>0.15041499999999999</v>
-      </c>
-      <c r="BH7" s="5">
-        <f t="shared" si="33"/>
-        <v>0.18671499999999999</v>
-      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>3849</v>
       </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
       <c r="F8" s="6">
         <v>10.03014694</v>
       </c>
@@ -1894,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L8" s="8">
@@ -1907,7 +2014,7 @@
         <v>6.6807000000000005E-2</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.23020200000000002</v>
       </c>
       <c r="P8" s="5">
@@ -1920,16 +2027,16 @@
         <f t="shared" si="0"/>
         <v>0.17597400000000002</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.17773949999999999</v>
+      </c>
+      <c r="T8" s="5">
         <f t="shared" si="13"/>
-        <v>-0.17773949999999999</v>
-      </c>
-      <c r="T8" s="5">
+        <v>2.5348500000000003E-2</v>
+      </c>
+      <c r="U8" s="21">
         <f t="shared" si="14"/>
-        <v>2.5348500000000003E-2</v>
-      </c>
-      <c r="U8" s="5">
-        <f t="shared" si="15"/>
         <v>0.20308800000000002</v>
       </c>
       <c r="V8" s="5">
@@ -1952,16 +2059,16 @@
         <f t="shared" si="2"/>
         <v>-2.3823E-2</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="20">
+        <f t="shared" si="15"/>
+        <v>-4.8764000000000002E-2</v>
+      </c>
+      <c r="AC8" s="5">
         <f t="shared" si="16"/>
-        <v>-4.8764000000000002E-2</v>
-      </c>
-      <c r="AC8" s="5">
+        <v>-4.3002499999999999E-2</v>
+      </c>
+      <c r="AD8" s="21">
         <f t="shared" si="17"/>
-        <v>-4.3002499999999999E-2</v>
-      </c>
-      <c r="AD8" s="5">
-        <f t="shared" si="18"/>
         <v>5.761500000000001E-3</v>
       </c>
       <c r="AE8" s="5">
@@ -1984,16 +2091,16 @@
         <f t="shared" si="4"/>
         <v>4.3810000000000002E-2</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AK8" s="20">
+        <f t="shared" si="18"/>
+        <v>-6.9221500000000005E-2</v>
+      </c>
+      <c r="AL8" s="5">
         <f t="shared" si="19"/>
-        <v>-6.9221500000000005E-2</v>
-      </c>
-      <c r="AL8" s="5">
+        <v>-1.8894000000000001E-2</v>
+      </c>
+      <c r="AM8" s="21">
         <f t="shared" si="20"/>
-        <v>-1.8894000000000001E-2</v>
-      </c>
-      <c r="AM8" s="5">
-        <f t="shared" si="21"/>
         <v>5.0327500000000004E-2</v>
       </c>
       <c r="AN8" s="5">
@@ -2013,74 +2120,54 @@
         <v>7.8172000000000005E-2</v>
       </c>
       <c r="AS8" s="5">
+        <f t="shared" si="21"/>
+        <v>0.17085900000000001</v>
+      </c>
+      <c r="AT8" s="20">
         <f t="shared" si="22"/>
-        <v>0.17085900000000001</v>
-      </c>
-      <c r="AT8" s="5">
+        <v>-9.7758000000000012E-2</v>
+      </c>
+      <c r="AU8" s="5">
         <f t="shared" si="23"/>
-        <v>-9.7758000000000012E-2</v>
-      </c>
-      <c r="AU8" s="5">
+        <v>3.6233500000000002E-2</v>
+      </c>
+      <c r="AV8" s="21">
         <f t="shared" si="24"/>
-        <v>3.6233500000000002E-2</v>
-      </c>
-      <c r="AV8" s="5">
+        <v>0.13399150000000001</v>
+      </c>
+      <c r="AW8" s="5">
         <f t="shared" si="25"/>
-        <v>0.13399150000000001</v>
-      </c>
-      <c r="AW8" s="5">
+        <v>-5.6217200000000009E-2</v>
+      </c>
+      <c r="AX8" s="5">
         <f t="shared" si="7"/>
-        <v>-5.6217200000000009E-2</v>
-      </c>
-      <c r="AX8" s="5">
+        <v>-5.1807249999999999E-2</v>
+      </c>
+      <c r="AY8" s="5">
         <f t="shared" si="8"/>
-        <v>-5.1807249999999999E-2</v>
-      </c>
-      <c r="AY8" s="5">
+        <v>-4.7969749999999999E-2</v>
+      </c>
+      <c r="AZ8" s="5">
         <f t="shared" si="9"/>
-        <v>-4.7969749999999999E-2</v>
-      </c>
-      <c r="AZ8" s="5">
-        <f t="shared" si="10"/>
         <v>-2.6850250000000003E-2</v>
       </c>
-      <c r="BA8" s="5">
-        <f t="shared" si="26"/>
-        <v>5.3473000000000007E-2</v>
-      </c>
-      <c r="BB8" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.14138300000000001</v>
-      </c>
-      <c r="BC8" s="5">
-        <f t="shared" si="28"/>
-        <v>0.20447799999999999</v>
-      </c>
-      <c r="BD8" s="5">
-        <f t="shared" si="29"/>
-        <v>4.6809999999999994E-3</v>
-      </c>
-      <c r="BE8" s="5">
-        <f t="shared" si="30"/>
-        <v>3.2733999999999999E-2</v>
-      </c>
-      <c r="BF8" s="5">
-        <f t="shared" si="31"/>
-        <v>-7.5449999999999996E-3</v>
-      </c>
-      <c r="BG8" s="5">
-        <f t="shared" si="32"/>
-        <v>2.4339E-2</v>
-      </c>
-      <c r="BH8" s="5">
-        <f t="shared" si="33"/>
-        <v>-0.10271000000000001</v>
-      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3851</v>
       </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>23</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
       <c r="F9" s="6">
         <v>6.3420774990000002</v>
       </c>
@@ -2097,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L9" s="8">
@@ -2110,7 +2197,7 @@
         <v>-4.9435E-2</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.1986000000000003E-2</v>
       </c>
       <c r="P9" s="5">
@@ -2123,16 +2210,16 @@
         <f t="shared" si="0"/>
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="20">
+        <f t="shared" si="12"/>
+        <v>-4.2699500000000001E-2</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="13"/>
-        <v>-4.2699500000000001E-2</v>
-      </c>
-      <c r="T9" s="5">
+        <v>2.6543500000000001E-2</v>
+      </c>
+      <c r="U9" s="21">
         <f t="shared" si="14"/>
-        <v>2.6543500000000001E-2</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" si="15"/>
         <v>6.9242999999999999E-2</v>
       </c>
       <c r="V9" s="5">
@@ -2155,16 +2242,16 @@
         <f t="shared" si="2"/>
         <v>0.166907</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="20">
+        <f t="shared" si="15"/>
+        <v>1.2653500000000002E-2</v>
+      </c>
+      <c r="AC9" s="5">
         <f t="shared" si="16"/>
-        <v>1.2653500000000002E-2</v>
-      </c>
-      <c r="AC9" s="5">
+        <v>0.1353705</v>
+      </c>
+      <c r="AD9" s="21">
         <f t="shared" si="17"/>
-        <v>0.1353705</v>
-      </c>
-      <c r="AD9" s="5">
-        <f t="shared" si="18"/>
         <v>0.12271699999999999</v>
       </c>
       <c r="AE9" s="5">
@@ -2187,16 +2274,16 @@
         <f t="shared" si="4"/>
         <v>0.140845</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AK9" s="20">
+        <f t="shared" si="18"/>
+        <v>-5.0287499999999999E-2</v>
+      </c>
+      <c r="AL9" s="5">
         <f t="shared" si="19"/>
-        <v>-5.0287499999999999E-2</v>
-      </c>
-      <c r="AL9" s="5">
+        <v>0.1074295</v>
+      </c>
+      <c r="AM9" s="21">
         <f t="shared" si="20"/>
-        <v>0.1074295</v>
-      </c>
-      <c r="AM9" s="5">
-        <f t="shared" si="21"/>
         <v>0.157717</v>
       </c>
       <c r="AN9" s="5">
@@ -2216,74 +2303,54 @@
         <v>0.10079100000000001</v>
       </c>
       <c r="AS9" s="5">
+        <f t="shared" si="21"/>
+        <v>6.5564000000000011E-2</v>
+      </c>
+      <c r="AT9" s="20">
         <f t="shared" si="22"/>
-        <v>6.5564000000000011E-2</v>
-      </c>
-      <c r="AT9" s="5">
+        <v>5.3605000000000007E-3</v>
+      </c>
+      <c r="AU9" s="5">
         <f t="shared" si="23"/>
-        <v>5.3605000000000007E-3</v>
-      </c>
-      <c r="AU9" s="5">
+        <v>5.2115500000000002E-2</v>
+      </c>
+      <c r="AV9" s="21">
         <f t="shared" si="24"/>
-        <v>5.2115500000000002E-2</v>
-      </c>
-      <c r="AV9" s="5">
+        <v>4.6755000000000005E-2</v>
+      </c>
+      <c r="AW9" s="5">
         <f t="shared" si="25"/>
-        <v>4.6755000000000005E-2</v>
-      </c>
-      <c r="AW9" s="5">
+        <v>-2.2724200000000007E-2</v>
+      </c>
+      <c r="AX9" s="5">
         <f t="shared" si="7"/>
-        <v>-2.2724200000000007E-2</v>
-      </c>
-      <c r="AX9" s="5">
+        <v>9.4339250000000013E-2</v>
+      </c>
+      <c r="AY9" s="5">
         <f t="shared" si="8"/>
-        <v>9.4339250000000013E-2</v>
-      </c>
-      <c r="AY9" s="5">
+        <v>-7.9387500000000014E-3</v>
+      </c>
+      <c r="AZ9" s="5">
         <f t="shared" si="9"/>
-        <v>-7.9387500000000014E-3</v>
-      </c>
-      <c r="AZ9" s="5">
-        <f t="shared" si="10"/>
         <v>6.5247750000000007E-2</v>
       </c>
-      <c r="BA9" s="5">
-        <f t="shared" si="26"/>
-        <v>0.125775</v>
-      </c>
-      <c r="BB9" s="5">
-        <f t="shared" si="27"/>
-        <v>0.12231600000000001</v>
-      </c>
-      <c r="BC9" s="5">
-        <f t="shared" si="28"/>
-        <v>-1.5068999999999999E-2</v>
-      </c>
-      <c r="BD9" s="5">
-        <f t="shared" si="29"/>
-        <v>9.5338000000000006E-2</v>
-      </c>
-      <c r="BE9" s="5">
-        <f t="shared" si="30"/>
-        <v>-6.8132999999999999E-2</v>
-      </c>
-      <c r="BF9" s="5">
-        <f t="shared" si="31"/>
-        <v>7.8509999999999996E-2</v>
-      </c>
-      <c r="BG9" s="5">
-        <f t="shared" si="32"/>
-        <v>-4.3163E-2</v>
-      </c>
-      <c r="BH9" s="5">
-        <f t="shared" si="33"/>
-        <v>3.2117999999999994E-2</v>
-      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3852</v>
       </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
       <c r="F10" s="6">
         <v>4.6882489380000001</v>
       </c>
@@ -2300,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="L10" s="8">
@@ -2313,7 +2380,7 @@
         <v>5.3991999999999998E-2</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.9099E-2</v>
       </c>
       <c r="P10" s="5">
@@ -2326,16 +2393,16 @@
         <f t="shared" si="0"/>
         <v>6.3671000000000005E-2</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="20">
+        <f t="shared" si="12"/>
+        <v>1.8943499999999999E-2</v>
+      </c>
+      <c r="T10" s="5">
         <f t="shared" si="13"/>
-        <v>1.8943499999999999E-2</v>
-      </c>
-      <c r="T10" s="5">
+        <v>3.6229499999999998E-2</v>
+      </c>
+      <c r="U10" s="21">
         <f t="shared" si="14"/>
-        <v>3.6229499999999998E-2</v>
-      </c>
-      <c r="U10" s="5">
-        <f t="shared" si="15"/>
         <v>1.7286000000000003E-2</v>
       </c>
       <c r="V10" s="5">
@@ -2358,16 +2425,16 @@
         <f t="shared" si="2"/>
         <v>7.5433E-2</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="20">
+        <f t="shared" si="15"/>
+        <v>-7.6527499999999998E-2</v>
+      </c>
+      <c r="AC10" s="5">
         <f t="shared" si="16"/>
-        <v>-7.6527499999999998E-2</v>
-      </c>
-      <c r="AC10" s="5">
+        <v>5.4734000000000005E-2</v>
+      </c>
+      <c r="AD10" s="21">
         <f t="shared" si="17"/>
-        <v>5.4734000000000005E-2</v>
-      </c>
-      <c r="AD10" s="5">
-        <f t="shared" si="18"/>
         <v>0.1312615</v>
       </c>
       <c r="AE10" s="5">
@@ -2390,16 +2457,16 @@
         <f t="shared" si="4"/>
         <v>5.7106999999999998E-2</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AK10" s="20">
+        <f t="shared" si="18"/>
+        <v>-1.9602000000000001E-2</v>
+      </c>
+      <c r="AL10" s="5">
         <f t="shared" si="19"/>
-        <v>-1.9602000000000001E-2</v>
-      </c>
-      <c r="AL10" s="5">
+        <v>4.6152499999999999E-2</v>
+      </c>
+      <c r="AM10" s="21">
         <f t="shared" si="20"/>
-        <v>4.6152499999999999E-2</v>
-      </c>
-      <c r="AM10" s="5">
-        <f t="shared" si="21"/>
         <v>6.5754499999999994E-2</v>
       </c>
       <c r="AN10" s="5">
@@ -2419,74 +2486,54 @@
         <v>7.3447999999999999E-2</v>
       </c>
       <c r="AS10" s="5">
+        <f t="shared" si="21"/>
+        <v>2.8873999999999997E-2</v>
+      </c>
+      <c r="AT10" s="20">
         <f t="shared" si="22"/>
-        <v>2.8873999999999997E-2</v>
-      </c>
-      <c r="AT10" s="5">
+        <v>6.595100000000001E-2</v>
+      </c>
+      <c r="AU10" s="5">
         <f t="shared" si="23"/>
-        <v>6.595100000000001E-2</v>
-      </c>
-      <c r="AU10" s="5">
+        <v>5.1860999999999997E-2</v>
+      </c>
+      <c r="AV10" s="21">
         <f t="shared" si="24"/>
-        <v>5.1860999999999997E-2</v>
-      </c>
-      <c r="AV10" s="5">
+        <v>-1.4090000000000005E-2</v>
+      </c>
+      <c r="AW10" s="5">
         <f t="shared" si="25"/>
-        <v>-1.4090000000000005E-2</v>
-      </c>
-      <c r="AW10" s="5">
+        <v>1.7913400000000003E-2</v>
+      </c>
+      <c r="AX10" s="5">
         <f t="shared" si="7"/>
-        <v>1.7913400000000003E-2</v>
-      </c>
-      <c r="AX10" s="5">
+        <v>-5.7020000000000005E-3</v>
+      </c>
+      <c r="AY10" s="5">
         <f t="shared" si="8"/>
-        <v>-5.7020000000000005E-3</v>
-      </c>
-      <c r="AY10" s="5">
+        <v>3.0810499999999998E-2</v>
+      </c>
+      <c r="AZ10" s="5">
         <f t="shared" si="9"/>
-        <v>3.0810499999999998E-2</v>
-      </c>
-      <c r="AZ10" s="5">
-        <f t="shared" si="10"/>
         <v>4.1370749999999998E-2</v>
       </c>
-      <c r="BA10" s="5">
-        <f t="shared" si="26"/>
-        <v>-0.20039400000000002</v>
-      </c>
-      <c r="BB10" s="5">
-        <f t="shared" si="27"/>
-        <v>1.5795000000000003E-2</v>
-      </c>
-      <c r="BC10" s="5">
-        <f t="shared" si="28"/>
-        <v>9.4520000000000021E-3</v>
-      </c>
-      <c r="BD10" s="5">
-        <f t="shared" si="29"/>
-        <v>2.1214E-2</v>
-      </c>
-      <c r="BE10" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.12170900000000001</v>
-      </c>
-      <c r="BF10" s="5">
-        <f t="shared" si="31"/>
-        <v>9.7470000000000022E-3</v>
-      </c>
-      <c r="BG10" s="5">
-        <f t="shared" si="32"/>
-        <v>-4.9397000000000003E-2</v>
-      </c>
-      <c r="BH10" s="5">
-        <f t="shared" si="33"/>
-        <v>-2.1164000000000002E-2</v>
-      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>3855</v>
       </c>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
       <c r="F11" s="6">
         <v>10.41813013</v>
       </c>
@@ -2503,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="L11" s="8">
@@ -2516,7 +2563,7 @@
         <v>2.8681000000000002E-2</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.0425999999999996E-2</v>
       </c>
       <c r="P11" s="5">
@@ -2529,16 +2576,16 @@
         <f t="shared" si="0"/>
         <v>-9.644599999999999E-2</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="20">
+        <f t="shared" si="12"/>
+        <v>-1.8413499999999999E-2</v>
+      </c>
+      <c r="T11" s="5">
         <f t="shared" si="13"/>
-        <v>-1.8413499999999999E-2</v>
-      </c>
-      <c r="T11" s="5">
+        <v>-7.6849499999999987E-2</v>
+      </c>
+      <c r="U11" s="21">
         <f t="shared" si="14"/>
-        <v>-7.6849499999999987E-2</v>
-      </c>
-      <c r="U11" s="5">
-        <f t="shared" si="15"/>
         <v>-5.8435999999999995E-2</v>
       </c>
       <c r="V11" s="5">
@@ -2561,16 +2608,16 @@
         <f t="shared" si="2"/>
         <v>0.12869900000000001</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.1474705</v>
+      </c>
+      <c r="AC11" s="5">
         <f t="shared" si="16"/>
-        <v>-0.1474705</v>
-      </c>
-      <c r="AC11" s="5">
+        <v>-7.6815500000000009E-2</v>
+      </c>
+      <c r="AD11" s="21">
         <f t="shared" si="17"/>
-        <v>-7.6815500000000009E-2</v>
-      </c>
-      <c r="AD11" s="5">
-        <f t="shared" si="18"/>
         <v>7.0654999999999996E-2</v>
       </c>
       <c r="AE11" s="5">
@@ -2593,16 +2640,16 @@
         <f t="shared" si="4"/>
         <v>1.7470999999999993E-2</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AK11" s="20">
+        <f t="shared" si="18"/>
+        <v>-5.4846499999999992E-2</v>
+      </c>
+      <c r="AL11" s="5">
         <f t="shared" si="19"/>
-        <v>-5.4846499999999992E-2</v>
-      </c>
-      <c r="AL11" s="5">
+        <v>-7.0218000000000003E-2</v>
+      </c>
+      <c r="AM11" s="21">
         <f t="shared" si="20"/>
-        <v>-7.0218000000000003E-2</v>
-      </c>
-      <c r="AM11" s="5">
-        <f t="shared" si="21"/>
         <v>-1.5371500000000003E-2</v>
       </c>
       <c r="AN11" s="5">
@@ -2622,74 +2669,54 @@
         <v>3.0689999999999999E-2</v>
       </c>
       <c r="AS11" s="5">
+        <f t="shared" si="21"/>
+        <v>-3.4949000000000008E-2</v>
+      </c>
+      <c r="AT11" s="20">
         <f t="shared" si="22"/>
-        <v>-3.4949000000000008E-2</v>
-      </c>
-      <c r="AT11" s="5">
+        <v>3.7177500000000002E-2</v>
+      </c>
+      <c r="AU11" s="5">
         <f t="shared" si="23"/>
-        <v>3.7177500000000002E-2</v>
-      </c>
-      <c r="AU11" s="5">
+        <v>2.0375499999999998E-2</v>
+      </c>
+      <c r="AV11" s="21">
         <f t="shared" si="24"/>
-        <v>2.0375499999999998E-2</v>
-      </c>
-      <c r="AV11" s="5">
+        <v>-1.6802000000000004E-2</v>
+      </c>
+      <c r="AW11" s="5">
         <f t="shared" si="25"/>
-        <v>-1.6802000000000004E-2</v>
-      </c>
-      <c r="AW11" s="5">
+        <v>-6.1989000000000002E-2</v>
+      </c>
+      <c r="AX11" s="5">
         <f t="shared" si="7"/>
-        <v>-6.1989000000000002E-2</v>
-      </c>
-      <c r="AX11" s="5">
+        <v>-8.2288249999999993E-2</v>
+      </c>
+      <c r="AY11" s="5">
         <f t="shared" si="8"/>
-        <v>-8.2288249999999993E-2</v>
-      </c>
-      <c r="AY11" s="5">
+        <v>-2.4464249999999996E-2</v>
+      </c>
+      <c r="AZ11" s="5">
         <f t="shared" si="9"/>
-        <v>-2.4464249999999996E-2</v>
-      </c>
-      <c r="AZ11" s="5">
-        <f t="shared" si="10"/>
         <v>-9.2915000000000011E-3</v>
       </c>
-      <c r="BA11" s="5">
-        <f t="shared" si="26"/>
-        <v>-0.24927899999999997</v>
-      </c>
-      <c r="BB11" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.21624200000000002</v>
-      </c>
-      <c r="BC11" s="5">
-        <f t="shared" si="28"/>
-        <v>-8.8350000000000095E-3</v>
-      </c>
-      <c r="BD11" s="5">
-        <f t="shared" si="29"/>
-        <v>0.21631</v>
-      </c>
-      <c r="BE11" s="5">
-        <f t="shared" si="30"/>
-        <v>-4.2925999999999999E-2</v>
-      </c>
-      <c r="BF11" s="5">
-        <f t="shared" si="31"/>
-        <v>-9.2484999999999998E-2</v>
-      </c>
-      <c r="BG11" s="5">
-        <f t="shared" si="32"/>
-        <v>-0.141122</v>
-      </c>
-      <c r="BH11" s="5">
-        <f t="shared" si="33"/>
-        <v>-8.8702000000000003E-2</v>
-      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>3864</v>
       </c>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
       <c r="F12" s="6">
         <v>8.2012861650000008</v>
       </c>
@@ -2706,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="L12" s="8">
@@ -2719,7 +2746,7 @@
         <v>0.15373800000000001</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.20920100000000003</v>
       </c>
       <c r="P12" s="5">
@@ -2732,16 +2759,16 @@
         <f t="shared" si="0"/>
         <v>0.12973999999999999</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="20">
+        <f t="shared" si="12"/>
+        <v>-3.0740999999999997E-2</v>
+      </c>
+      <c r="T12" s="5">
         <f t="shared" si="13"/>
-        <v>-3.0740999999999997E-2</v>
-      </c>
-      <c r="T12" s="5">
+        <v>0.13872950000000001</v>
+      </c>
+      <c r="U12" s="21">
         <f t="shared" si="14"/>
-        <v>0.13872950000000001</v>
-      </c>
-      <c r="U12" s="5">
-        <f t="shared" si="15"/>
         <v>0.16947050000000002</v>
       </c>
       <c r="V12" s="5">
@@ -2764,16 +2791,16 @@
         <f t="shared" si="2"/>
         <v>5.9197E-2</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" s="20">
+        <f t="shared" si="15"/>
+        <v>-1.5414499999999998E-2</v>
+      </c>
+      <c r="AC12" s="5">
         <f t="shared" si="16"/>
-        <v>-1.5414499999999998E-2</v>
-      </c>
-      <c r="AC12" s="5">
+        <v>3.7094500000000002E-2</v>
+      </c>
+      <c r="AD12" s="21">
         <f t="shared" si="17"/>
-        <v>3.7094500000000002E-2</v>
-      </c>
-      <c r="AD12" s="5">
-        <f t="shared" si="18"/>
         <v>5.2509E-2</v>
       </c>
       <c r="AE12" s="5">
@@ -2796,16 +2823,16 @@
         <f t="shared" si="4"/>
         <v>0.13712000000000002</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AK12" s="20">
+        <f t="shared" si="18"/>
+        <v>-2.9617499999999998E-2</v>
+      </c>
+      <c r="AL12" s="5">
         <f t="shared" si="19"/>
-        <v>-2.9617499999999998E-2</v>
-      </c>
-      <c r="AL12" s="5">
+        <v>0.105819</v>
+      </c>
+      <c r="AM12" s="21">
         <f t="shared" si="20"/>
-        <v>0.105819</v>
-      </c>
-      <c r="AM12" s="5">
-        <f t="shared" si="21"/>
         <v>0.13543650000000002</v>
       </c>
       <c r="AN12" s="5">
@@ -2825,74 +2852,54 @@
         <v>-2.0787E-2</v>
       </c>
       <c r="AS12" s="5">
+        <f t="shared" si="21"/>
+        <v>0.13884199999999999</v>
+      </c>
+      <c r="AT12" s="20">
         <f t="shared" si="22"/>
-        <v>0.13884199999999999</v>
-      </c>
-      <c r="AT12" s="5">
+        <v>-0.23769400000000002</v>
+      </c>
+      <c r="AU12" s="5">
         <f t="shared" si="23"/>
-        <v>-0.23769400000000002</v>
-      </c>
-      <c r="AU12" s="5">
+        <v>-3.7075999999999998E-2</v>
+      </c>
+      <c r="AV12" s="21">
         <f t="shared" si="24"/>
-        <v>-3.7075999999999998E-2</v>
-      </c>
-      <c r="AV12" s="5">
+        <v>0.20061800000000002</v>
+      </c>
+      <c r="AW12" s="5">
         <f t="shared" si="25"/>
-        <v>0.20061800000000002</v>
-      </c>
-      <c r="AW12" s="5">
+        <v>-1.0657599999999998E-2</v>
+      </c>
+      <c r="AX12" s="5">
         <f t="shared" si="7"/>
-        <v>-1.0657599999999998E-2</v>
-      </c>
-      <c r="AX12" s="5">
+        <v>7.815625000000001E-2</v>
+      </c>
+      <c r="AY12" s="5">
         <f t="shared" si="8"/>
-        <v>7.815625000000001E-2</v>
-      </c>
-      <c r="AY12" s="5">
+        <v>-6.6930749999999997E-2</v>
+      </c>
+      <c r="AZ12" s="5">
         <f t="shared" si="9"/>
-        <v>-6.6930749999999997E-2</v>
-      </c>
-      <c r="AZ12" s="5">
-        <f t="shared" si="10"/>
         <v>-3.2353499999999993E-2</v>
       </c>
-      <c r="BA12" s="5">
-        <f t="shared" si="26"/>
-        <v>-4.3229000000000004E-2</v>
-      </c>
-      <c r="BB12" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.20660900000000001</v>
-      </c>
-      <c r="BC12" s="5">
-        <f t="shared" si="28"/>
-        <v>7.3882000000000003E-2</v>
-      </c>
-      <c r="BD12" s="5">
-        <f t="shared" si="29"/>
-        <v>3.3390000000000086E-3</v>
-      </c>
-      <c r="BE12" s="5">
-        <f t="shared" si="30"/>
-        <v>0.29958299999999999</v>
-      </c>
-      <c r="BF12" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17094200000000001</v>
-      </c>
-      <c r="BG12" s="5">
-        <f t="shared" si="32"/>
-        <v>0.11656999999999999</v>
-      </c>
-      <c r="BH12" s="5">
-        <f t="shared" si="33"/>
-        <v>0.11484800000000001</v>
-      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>3865</v>
       </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>21</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
       <c r="F13" s="6">
         <v>11.849809</v>
       </c>
@@ -2909,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L13" s="8">
@@ -2922,7 +2929,7 @@
         <v>-6.7613000000000006E-2</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.0626999999999995E-2</v>
       </c>
       <c r="P13" s="5">
@@ -2935,16 +2942,16 @@
         <f t="shared" si="0"/>
         <v>0.205933</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.235064</v>
+      </c>
+      <c r="T13" s="5">
         <f t="shared" si="13"/>
-        <v>-0.235064</v>
-      </c>
-      <c r="T13" s="5">
+        <v>-9.6784000000000009E-2</v>
+      </c>
+      <c r="U13" s="21">
         <f t="shared" si="14"/>
-        <v>-9.6784000000000009E-2</v>
-      </c>
-      <c r="U13" s="5">
-        <f t="shared" si="15"/>
         <v>0.13828000000000001</v>
       </c>
       <c r="V13" s="5">
@@ -2967,16 +2974,16 @@
         <f t="shared" si="2"/>
         <v>-3.1098000000000001E-2</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AB13" s="20">
+        <f t="shared" si="15"/>
+        <v>0.17693199999999998</v>
+      </c>
+      <c r="AC13" s="5">
         <f t="shared" si="16"/>
-        <v>0.17693199999999998</v>
-      </c>
-      <c r="AC13" s="5">
+        <v>8.2685499999999995E-2</v>
+      </c>
+      <c r="AD13" s="21">
         <f t="shared" si="17"/>
-        <v>8.2685499999999995E-2</v>
-      </c>
-      <c r="AD13" s="5">
-        <f t="shared" si="18"/>
         <v>-9.4246499999999983E-2</v>
       </c>
       <c r="AE13" s="5">
@@ -2999,16 +3006,16 @@
         <f t="shared" si="4"/>
         <v>9.1497999999999996E-2</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AK13" s="20">
+        <f t="shared" si="18"/>
+        <v>5.4579500000000003E-2</v>
+      </c>
+      <c r="AL13" s="5">
         <f t="shared" si="19"/>
-        <v>5.4579500000000003E-2</v>
-      </c>
-      <c r="AL13" s="5">
+        <v>0.17643049999999999</v>
+      </c>
+      <c r="AM13" s="21">
         <f t="shared" si="20"/>
-        <v>0.17643049999999999</v>
-      </c>
-      <c r="AM13" s="5">
-        <f t="shared" si="21"/>
         <v>0.121851</v>
       </c>
       <c r="AN13" s="5">
@@ -3028,74 +3035,54 @@
         <v>-2.4535000000000001E-2</v>
       </c>
       <c r="AS13" s="5">
+        <f t="shared" si="21"/>
+        <v>0.11433699999999999</v>
+      </c>
+      <c r="AT13" s="20">
         <f t="shared" si="22"/>
-        <v>0.11433699999999999</v>
-      </c>
-      <c r="AT13" s="5">
+        <v>-0.136906</v>
+      </c>
+      <c r="AU13" s="5">
         <f t="shared" si="23"/>
-        <v>-0.136906</v>
-      </c>
-      <c r="AU13" s="5">
+        <v>-5.0932499999999999E-2</v>
+      </c>
+      <c r="AV13" s="21">
         <f t="shared" si="24"/>
-        <v>-5.0932499999999999E-2</v>
-      </c>
-      <c r="AV13" s="5">
+        <v>8.5973500000000008E-2</v>
+      </c>
+      <c r="AW13" s="5">
         <f t="shared" si="25"/>
-        <v>8.5973500000000008E-2</v>
-      </c>
-      <c r="AW13" s="5">
+        <v>4.1785999999999997E-2</v>
+      </c>
+      <c r="AX13" s="5">
         <f t="shared" si="7"/>
-        <v>4.1785999999999997E-2</v>
-      </c>
-      <c r="AX13" s="5">
+        <v>-8.8347749999999989E-2</v>
+      </c>
+      <c r="AY13" s="5">
         <f t="shared" si="8"/>
-        <v>-8.8347749999999989E-2</v>
-      </c>
-      <c r="AY13" s="5">
+        <v>1.6510500000000001E-2</v>
+      </c>
+      <c r="AZ13" s="5">
         <f t="shared" si="9"/>
-        <v>1.6510500000000001E-2</v>
-      </c>
-      <c r="AZ13" s="5">
-        <f t="shared" si="10"/>
         <v>5.0752500000000034E-3</v>
       </c>
-      <c r="BA13" s="5">
-        <f t="shared" si="26"/>
-        <v>0.42432899999999996</v>
-      </c>
-      <c r="BB13" s="5">
-        <f t="shared" si="27"/>
-        <v>0.19630700000000001</v>
-      </c>
-      <c r="BC13" s="5">
-        <f t="shared" si="28"/>
-        <v>0.39966299999999999</v>
-      </c>
-      <c r="BD13" s="5">
-        <f t="shared" si="29"/>
-        <v>0.162632</v>
-      </c>
-      <c r="BE13" s="5">
-        <f t="shared" si="30"/>
-        <v>0.197994</v>
-      </c>
-      <c r="BF13" s="5">
-        <f t="shared" si="31"/>
-        <v>0.29258800000000001</v>
-      </c>
-      <c r="BG13" s="5">
-        <f t="shared" si="32"/>
-        <v>0.184977</v>
-      </c>
-      <c r="BH13" s="5">
-        <f t="shared" si="33"/>
-        <v>0.162138</v>
-      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>3871</v>
       </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>21</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
       <c r="F14" s="6">
         <v>8.5473098879999991</v>
       </c>
@@ -3112,7 +3099,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L14" s="8">
@@ -3125,7 +3112,7 @@
         <v>0.12812999999999999</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.51652600000000004</v>
       </c>
       <c r="P14" s="5">
@@ -3138,16 +3125,16 @@
         <f t="shared" si="0"/>
         <v>0.36597800000000003</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.27285700000000002</v>
+      </c>
+      <c r="T14" s="5">
         <f t="shared" si="13"/>
-        <v>-0.27285700000000002</v>
-      </c>
-      <c r="T14" s="5">
+        <v>0.16839500000000002</v>
+      </c>
+      <c r="U14" s="21">
         <f t="shared" si="14"/>
-        <v>0.16839500000000002</v>
-      </c>
-      <c r="U14" s="5">
-        <f t="shared" si="15"/>
         <v>0.44125200000000003</v>
       </c>
       <c r="V14" s="5">
@@ -3170,16 +3157,16 @@
         <f t="shared" si="2"/>
         <v>0.24493999999999999</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.18378549999999999</v>
+      </c>
+      <c r="AC14" s="5">
         <f t="shared" si="16"/>
-        <v>-0.18378549999999999</v>
-      </c>
-      <c r="AC14" s="5">
+        <v>9.5372499999999999E-2</v>
+      </c>
+      <c r="AD14" s="21">
         <f t="shared" si="17"/>
-        <v>9.5372499999999999E-2</v>
-      </c>
-      <c r="AD14" s="5">
-        <f t="shared" si="18"/>
         <v>0.27915800000000002</v>
       </c>
       <c r="AE14" s="5">
@@ -3202,16 +3189,16 @@
         <f t="shared" si="4"/>
         <v>0.26383699999999999</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AK14" s="20">
+        <f t="shared" si="18"/>
+        <v>-0.2933055</v>
+      </c>
+      <c r="AL14" s="5">
         <f t="shared" si="19"/>
-        <v>-0.2933055</v>
-      </c>
-      <c r="AL14" s="5">
+        <v>-5.3498499999999997E-2</v>
+      </c>
+      <c r="AM14" s="21">
         <f t="shared" si="20"/>
-        <v>-5.3498499999999997E-2</v>
-      </c>
-      <c r="AM14" s="5">
-        <f t="shared" si="21"/>
         <v>0.23980699999999999</v>
       </c>
       <c r="AN14" s="5">
@@ -3231,74 +3218,54 @@
         <v>0.11176899999999999</v>
       </c>
       <c r="AS14" s="5">
+        <f t="shared" si="21"/>
+        <v>0.28820499999999999</v>
+      </c>
+      <c r="AT14" s="20">
         <f t="shared" si="22"/>
-        <v>0.28820499999999999</v>
-      </c>
-      <c r="AT14" s="5">
+        <v>-0.22975400000000001</v>
+      </c>
+      <c r="AU14" s="5">
         <f t="shared" si="23"/>
-        <v>-0.22975400000000001</v>
-      </c>
-      <c r="AU14" s="5">
+        <v>0.10262099999999999</v>
+      </c>
+      <c r="AV14" s="21">
         <f t="shared" si="24"/>
-        <v>0.10262099999999999</v>
-      </c>
-      <c r="AV14" s="5">
+        <v>0.33237499999999998</v>
+      </c>
+      <c r="AW14" s="5">
         <f t="shared" si="25"/>
-        <v>0.33237499999999998</v>
-      </c>
-      <c r="AW14" s="5">
+        <v>-8.3315999999999987E-2</v>
+      </c>
+      <c r="AX14" s="5">
         <f t="shared" si="7"/>
-        <v>-8.3315999999999987E-2</v>
-      </c>
-      <c r="AX14" s="5">
+        <v>7.7074999999999956E-3</v>
+      </c>
+      <c r="AY14" s="5">
         <f t="shared" si="8"/>
-        <v>7.7074999999999956E-3</v>
-      </c>
-      <c r="AY14" s="5">
+        <v>-0.15903399999999998</v>
+      </c>
+      <c r="AZ14" s="5">
         <f t="shared" si="9"/>
-        <v>-0.15903399999999998</v>
-      </c>
-      <c r="AZ14" s="5">
-        <f t="shared" si="10"/>
         <v>-7.7934500000000004E-2</v>
       </c>
-      <c r="BA14" s="5">
-        <f t="shared" si="26"/>
-        <v>0.15355100000000002</v>
-      </c>
-      <c r="BB14" s="5">
-        <f t="shared" si="27"/>
-        <v>-4.959899999999999E-2</v>
-      </c>
-      <c r="BC14" s="5">
-        <f t="shared" si="28"/>
-        <v>2.4592000000000003E-2</v>
-      </c>
-      <c r="BD14" s="5">
-        <f t="shared" si="29"/>
-        <v>-9.6446000000000018E-2</v>
-      </c>
-      <c r="BE14" s="5">
-        <f t="shared" si="30"/>
-        <v>-4.8084999999999989E-2</v>
-      </c>
-      <c r="BF14" s="5">
-        <f t="shared" si="31"/>
-        <v>-0.20885300000000001</v>
-      </c>
-      <c r="BG14" s="5">
-        <f t="shared" si="32"/>
-        <v>-7.9018000000000005E-2</v>
-      </c>
-      <c r="BH14" s="5">
-        <f t="shared" si="33"/>
-        <v>-0.10338599999999999</v>
-      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>3877</v>
       </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
       <c r="F15" s="6">
         <v>8.8874420109999992</v>
       </c>
@@ -3315,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L15" s="8">
@@ -3328,7 +3295,7 @@
         <v>9.7069000000000003E-2</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.20818900000000001</v>
       </c>
       <c r="P15" s="5">
@@ -3341,16 +3308,16 @@
         <f t="shared" si="0"/>
         <v>0.16405</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="20">
+        <f t="shared" si="12"/>
+        <v>-8.2378000000000007E-2</v>
+      </c>
+      <c r="T15" s="5">
         <f t="shared" si="13"/>
-        <v>-8.2378000000000007E-2</v>
-      </c>
-      <c r="T15" s="5">
+        <v>0.1037415</v>
+      </c>
+      <c r="U15" s="21">
         <f t="shared" si="14"/>
-        <v>0.1037415</v>
-      </c>
-      <c r="U15" s="5">
-        <f t="shared" si="15"/>
         <v>0.18611949999999999</v>
       </c>
       <c r="V15" s="5">
@@ -3373,16 +3340,16 @@
         <f t="shared" si="2"/>
         <v>0.17538700000000002</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="20">
+        <f t="shared" si="15"/>
+        <v>4.2217499999999998E-2</v>
+      </c>
+      <c r="AC15" s="5">
         <f t="shared" si="16"/>
-        <v>4.2217499999999998E-2</v>
-      </c>
-      <c r="AC15" s="5">
+        <v>0.14825250000000001</v>
+      </c>
+      <c r="AD15" s="21">
         <f t="shared" si="17"/>
-        <v>0.14825250000000001</v>
-      </c>
-      <c r="AD15" s="5">
-        <f t="shared" si="18"/>
         <v>0.10603500000000002</v>
       </c>
       <c r="AE15" s="5">
@@ -3405,16 +3372,16 @@
         <f t="shared" si="4"/>
         <v>3.7484000000000003E-2</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AK15" s="20">
+        <f t="shared" si="18"/>
+        <v>3.2286500000000003E-2</v>
+      </c>
+      <c r="AL15" s="5">
         <f t="shared" si="19"/>
-        <v>3.2286500000000003E-2</v>
-      </c>
-      <c r="AL15" s="5">
+        <v>6.0884000000000008E-2</v>
+      </c>
+      <c r="AM15" s="21">
         <f t="shared" si="20"/>
-        <v>6.0884000000000008E-2</v>
-      </c>
-      <c r="AM15" s="5">
-        <f t="shared" si="21"/>
         <v>2.8597500000000005E-2</v>
       </c>
       <c r="AN15" s="5">
@@ -3434,74 +3401,54 @@
         <v>5.8465000000000003E-2</v>
       </c>
       <c r="AS15" s="5">
+        <f t="shared" si="21"/>
+        <v>8.2510000000000014E-3</v>
+      </c>
+      <c r="AT15" s="20">
         <f t="shared" si="22"/>
-        <v>8.2510000000000014E-3</v>
-      </c>
-      <c r="AT15" s="5">
+        <v>1.2757500000000001E-2</v>
+      </c>
+      <c r="AU15" s="5">
         <f t="shared" si="23"/>
-        <v>1.2757500000000001E-2</v>
-      </c>
-      <c r="AU15" s="5">
+        <v>3.4941E-2</v>
+      </c>
+      <c r="AV15" s="21">
         <f t="shared" si="24"/>
-        <v>3.4941E-2</v>
-      </c>
-      <c r="AV15" s="5">
+        <v>2.2183499999999998E-2</v>
+      </c>
+      <c r="AW15" s="5">
         <f t="shared" si="25"/>
-        <v>2.2183499999999998E-2</v>
-      </c>
-      <c r="AW15" s="5">
+        <v>3.0297200000000003E-2</v>
+      </c>
+      <c r="AX15" s="5">
         <f t="shared" si="7"/>
-        <v>3.0297200000000003E-2</v>
-      </c>
-      <c r="AX15" s="5">
+        <v>6.8045250000000002E-2</v>
+      </c>
+      <c r="AY15" s="5">
         <f t="shared" si="8"/>
-        <v>6.8045250000000002E-2</v>
-      </c>
-      <c r="AY15" s="5">
+        <v>1.0559249999999999E-2</v>
+      </c>
+      <c r="AZ15" s="5">
         <f t="shared" si="9"/>
-        <v>1.0559249999999999E-2</v>
-      </c>
-      <c r="AZ15" s="5">
-        <f t="shared" si="10"/>
         <v>5.9875250000000005E-2</v>
       </c>
-      <c r="BA15" s="5">
-        <f t="shared" si="26"/>
-        <v>0.17554700000000001</v>
-      </c>
-      <c r="BB15" s="5">
-        <f t="shared" si="27"/>
-        <v>4.0410000000000029E-3</v>
-      </c>
-      <c r="BC15" s="5">
-        <f t="shared" si="28"/>
-        <v>7.3644000000000001E-2</v>
-      </c>
-      <c r="BD15" s="5">
-        <f t="shared" si="29"/>
-        <v>8.4981000000000015E-2</v>
-      </c>
-      <c r="BE15" s="5">
-        <f t="shared" si="30"/>
-        <v>4.2603000000000002E-2</v>
-      </c>
-      <c r="BF15" s="5">
-        <f t="shared" si="31"/>
-        <v>2.6198000000000003E-2</v>
-      </c>
-      <c r="BG15" s="5">
-        <f t="shared" si="32"/>
-        <v>-3.5449999999999995E-3</v>
-      </c>
-      <c r="BH15" s="5">
-        <f t="shared" si="33"/>
-        <v>2.5688000000000002E-2</v>
-      </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3880</v>
       </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>19</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
       <c r="F16" s="6">
         <v>8.2229687370000004</v>
       </c>
@@ -3518,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L16" s="8">
@@ -3531,7 +3478,7 @@
         <v>6.0309000000000001E-2</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.0477000000000001E-2</v>
       </c>
       <c r="P16" s="5">
@@ -3544,16 +3491,16 @@
         <f t="shared" si="0"/>
         <v>-7.4195999999999998E-2</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="20">
+        <f t="shared" si="12"/>
+        <v>9.95085E-2</v>
+      </c>
+      <c r="T16" s="5">
         <f t="shared" si="13"/>
-        <v>9.95085E-2</v>
-      </c>
-      <c r="T16" s="5">
+        <v>8.7649000000000005E-2</v>
+      </c>
+      <c r="U16" s="21">
         <f t="shared" si="14"/>
-        <v>8.7649000000000005E-2</v>
-      </c>
-      <c r="U16" s="5">
-        <f t="shared" si="15"/>
         <v>-1.1859499999999999E-2</v>
       </c>
       <c r="V16" s="5">
@@ -3576,16 +3523,16 @@
         <f t="shared" si="2"/>
         <v>5.2831000000000003E-2</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="20">
+        <f t="shared" si="15"/>
+        <v>-4.1463E-2</v>
+      </c>
+      <c r="AC16" s="5">
         <f t="shared" si="16"/>
-        <v>-4.1463E-2</v>
-      </c>
-      <c r="AC16" s="5">
+        <v>-1.0112000000000001E-2</v>
+      </c>
+      <c r="AD16" s="21">
         <f t="shared" si="17"/>
-        <v>-1.0112000000000001E-2</v>
-      </c>
-      <c r="AD16" s="5">
-        <f t="shared" si="18"/>
         <v>3.1351000000000004E-2</v>
       </c>
       <c r="AE16" s="5">
@@ -3608,16 +3555,16 @@
         <f t="shared" si="4"/>
         <v>5.4268000000000011E-2</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AK16" s="20">
+        <f t="shared" si="18"/>
+        <v>5.8516499999999999E-2</v>
+      </c>
+      <c r="AL16" s="5">
         <f t="shared" si="19"/>
-        <v>5.8516499999999999E-2</v>
-      </c>
-      <c r="AL16" s="5">
+        <v>9.77885E-2</v>
+      </c>
+      <c r="AM16" s="21">
         <f t="shared" si="20"/>
-        <v>9.77885E-2</v>
-      </c>
-      <c r="AM16" s="5">
-        <f t="shared" si="21"/>
         <v>3.9272000000000001E-2</v>
       </c>
       <c r="AN16" s="5">
@@ -3637,74 +3584,54 @@
         <v>0.23819199999999999</v>
       </c>
       <c r="AS16" s="5">
+        <f t="shared" si="21"/>
+        <v>0.17451800000000001</v>
+      </c>
+      <c r="AT16" s="20">
         <f t="shared" si="22"/>
-        <v>0.17451800000000001</v>
-      </c>
-      <c r="AT16" s="5">
+        <v>6.3800499999999996E-2</v>
+      </c>
+      <c r="AU16" s="5">
         <f t="shared" si="23"/>
-        <v>6.3800499999999996E-2</v>
-      </c>
-      <c r="AU16" s="5">
+        <v>0.23391849999999997</v>
+      </c>
+      <c r="AV16" s="21">
         <f t="shared" si="24"/>
-        <v>0.23391849999999997</v>
-      </c>
-      <c r="AV16" s="5">
+        <v>0.17011799999999999</v>
+      </c>
+      <c r="AW16" s="5">
         <f t="shared" si="25"/>
-        <v>0.17011799999999999</v>
-      </c>
-      <c r="AW16" s="5">
+        <v>2.2809600000000003E-2</v>
+      </c>
+      <c r="AX16" s="5">
         <f t="shared" si="7"/>
-        <v>2.2809600000000003E-2</v>
-      </c>
-      <c r="AX16" s="5">
+        <v>3.9279250000000002E-2</v>
+      </c>
+      <c r="AY16" s="5">
         <f t="shared" si="8"/>
-        <v>3.9279250000000002E-2</v>
-      </c>
-      <c r="AY16" s="5">
+        <v>9.5306500000000002E-2</v>
+      </c>
+      <c r="AZ16" s="5">
         <f t="shared" si="9"/>
-        <v>9.5306500000000002E-2</v>
-      </c>
-      <c r="AZ16" s="5">
-        <f t="shared" si="10"/>
         <v>0.1317055</v>
       </c>
-      <c r="BA16" s="5">
-        <f t="shared" si="26"/>
-        <v>7.1859999999999979E-3</v>
-      </c>
-      <c r="BB16" s="5">
-        <f t="shared" si="27"/>
-        <v>-3.3420000000000005E-2</v>
-      </c>
-      <c r="BC16" s="5">
-        <f t="shared" si="28"/>
-        <v>-0.28912899999999997</v>
-      </c>
-      <c r="BD16" s="5">
-        <f t="shared" si="29"/>
-        <v>-0.162102</v>
-      </c>
-      <c r="BE16" s="5">
-        <f t="shared" si="30"/>
-        <v>-3.2237999999999996E-2</v>
-      </c>
-      <c r="BF16" s="5">
-        <f t="shared" si="31"/>
-        <v>-0.17368</v>
-      </c>
-      <c r="BG16" s="5">
-        <f t="shared" si="32"/>
-        <v>2.1670000000000009E-2</v>
-      </c>
-      <c r="BH16" s="5">
-        <f t="shared" si="33"/>
-        <v>-9.8579999999999973E-2</v>
-      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>3882</v>
       </c>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
       <c r="F17" s="6">
         <v>9.3975206280000005</v>
       </c>
@@ -3721,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L17" s="8">
@@ -3734,7 +3661,7 @@
         <v>9.3939999999999996E-3</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6.2119000000000001E-2</v>
       </c>
       <c r="P17" s="5">
@@ -3747,16 +3674,16 @@
         <f t="shared" si="0"/>
         <v>0.146367</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="20">
+        <f t="shared" si="12"/>
+        <v>-4.1527000000000001E-2</v>
+      </c>
+      <c r="T17" s="5">
         <f t="shared" si="13"/>
-        <v>-4.1527000000000001E-2</v>
-      </c>
-      <c r="T17" s="5">
+        <v>6.2715999999999994E-2</v>
+      </c>
+      <c r="U17" s="21">
         <f t="shared" si="14"/>
-        <v>6.2715999999999994E-2</v>
-      </c>
-      <c r="U17" s="5">
-        <f t="shared" si="15"/>
         <v>0.104243</v>
       </c>
       <c r="V17" s="5">
@@ -3779,16 +3706,16 @@
         <f t="shared" si="2"/>
         <v>4.4472999999999999E-2</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="20">
+        <f t="shared" si="15"/>
+        <v>6.7418500000000006E-2</v>
+      </c>
+      <c r="AC17" s="5">
         <f t="shared" si="16"/>
-        <v>6.7418500000000006E-2</v>
-      </c>
-      <c r="AC17" s="5">
+        <v>0.17668149999999999</v>
+      </c>
+      <c r="AD17" s="21">
         <f t="shared" si="17"/>
-        <v>0.17668149999999999</v>
-      </c>
-      <c r="AD17" s="5">
-        <f t="shared" si="18"/>
         <v>0.109263</v>
       </c>
       <c r="AE17" s="5">
@@ -3811,16 +3738,16 @@
         <f t="shared" si="4"/>
         <v>3.7024999999999995E-2</v>
       </c>
-      <c r="AK17" s="5">
+      <c r="AK17" s="20">
+        <f t="shared" si="18"/>
+        <v>6.7324499999999995E-2</v>
+      </c>
+      <c r="AL17" s="5">
         <f t="shared" si="19"/>
-        <v>6.7324499999999995E-2</v>
-      </c>
-      <c r="AL17" s="5">
+        <v>7.2880500000000001E-2</v>
+      </c>
+      <c r="AM17" s="21">
         <f t="shared" si="20"/>
-        <v>7.2880500000000001E-2</v>
-      </c>
-      <c r="AM17" s="5">
-        <f t="shared" si="21"/>
         <v>5.5560000000000019E-3</v>
       </c>
       <c r="AN17" s="5">
@@ -3840,74 +3767,54 @@
         <v>1.9552E-2</v>
       </c>
       <c r="AS17" s="5">
+        <f t="shared" si="21"/>
+        <v>7.0837999999999998E-2</v>
+      </c>
+      <c r="AT17" s="20">
         <f t="shared" si="22"/>
-        <v>7.0837999999999998E-2</v>
-      </c>
-      <c r="AT17" s="5">
+        <v>-7.9314999999999997E-2</v>
+      </c>
+      <c r="AU17" s="5">
         <f t="shared" si="23"/>
-        <v>-7.9314999999999997E-2</v>
-      </c>
-      <c r="AU17" s="5">
+        <v>-2.4447000000000003E-2</v>
+      </c>
+      <c r="AV17" s="21">
         <f t="shared" si="24"/>
-        <v>-2.4447000000000003E-2</v>
-      </c>
-      <c r="AV17" s="5">
+        <v>5.4867999999999993E-2</v>
+      </c>
+      <c r="AW17" s="5">
         <f t="shared" si="25"/>
-        <v>5.4867999999999993E-2</v>
-      </c>
-      <c r="AW17" s="5">
+        <v>4.0528799999999997E-2</v>
+      </c>
+      <c r="AX17" s="5">
         <f t="shared" si="7"/>
-        <v>4.0528799999999997E-2</v>
-      </c>
-      <c r="AX17" s="5">
+        <v>8.1983500000000001E-2</v>
+      </c>
+      <c r="AY17" s="5">
         <f t="shared" si="8"/>
-        <v>8.1983500000000001E-2</v>
-      </c>
-      <c r="AY17" s="5">
+        <v>-4.5107500000000009E-3</v>
+      </c>
+      <c r="AZ17" s="5">
         <f t="shared" si="9"/>
-        <v>-4.5107500000000009E-3</v>
-      </c>
-      <c r="AZ17" s="5">
-        <f t="shared" si="10"/>
         <v>2.2732249999999999E-2</v>
       </c>
-      <c r="BA17" s="5">
-        <f t="shared" si="26"/>
-        <v>8.8686000000000001E-2</v>
-      </c>
-      <c r="BB17" s="5">
-        <f t="shared" si="27"/>
-        <v>0.20062000000000002</v>
-      </c>
-      <c r="BC17" s="5">
-        <f t="shared" si="28"/>
-        <v>0.12920500000000001</v>
-      </c>
-      <c r="BD17" s="5">
-        <f t="shared" si="29"/>
-        <v>2.7311000000000002E-2</v>
-      </c>
-      <c r="BE17" s="5">
-        <f t="shared" si="30"/>
-        <v>0.19917399999999999</v>
-      </c>
-      <c r="BF17" s="5">
-        <f t="shared" si="31"/>
-        <v>0.13436300000000001</v>
-      </c>
-      <c r="BG17" s="5">
-        <f t="shared" si="32"/>
-        <v>9.4104999999999994E-2</v>
-      </c>
-      <c r="BH17" s="5">
-        <f t="shared" si="33"/>
-        <v>6.0291999999999998E-2</v>
-      </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>3883</v>
       </c>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
       <c r="F18" s="6">
         <v>8.2672692869999995</v>
       </c>
@@ -3924,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L18" s="8">
@@ -3937,7 +3844,7 @@
         <v>-0.101994</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.19978700000000002</v>
       </c>
       <c r="P18" s="5">
@@ -3950,16 +3857,16 @@
         <f t="shared" si="0"/>
         <v>-2.8815E-2</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.1514675</v>
+      </c>
+      <c r="T18" s="5">
         <f t="shared" si="13"/>
-        <v>-0.1514675</v>
-      </c>
-      <c r="T18" s="5">
+        <v>-6.5981499999999998E-2</v>
+      </c>
+      <c r="U18" s="21">
         <f t="shared" si="14"/>
-        <v>-6.5981499999999998E-2</v>
-      </c>
-      <c r="U18" s="5">
-        <f t="shared" si="15"/>
         <v>8.5486000000000006E-2</v>
       </c>
       <c r="V18" s="5">
@@ -3982,16 +3889,16 @@
         <f t="shared" si="2"/>
         <v>9.9049999999999971E-3</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.17781949999999999</v>
+      </c>
+      <c r="AC18" s="5">
         <f t="shared" si="16"/>
-        <v>-0.17781949999999999</v>
-      </c>
-      <c r="AC18" s="5">
+        <v>-0.104079</v>
+      </c>
+      <c r="AD18" s="21">
         <f t="shared" si="17"/>
-        <v>-0.104079</v>
-      </c>
-      <c r="AD18" s="5">
-        <f t="shared" si="18"/>
         <v>7.3740499999999987E-2</v>
       </c>
       <c r="AE18" s="5">
@@ -4014,16 +3921,16 @@
         <f t="shared" si="4"/>
         <v>-0.11677700000000001</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AK18" s="20">
+        <f t="shared" si="18"/>
+        <v>-6.1627000000000001E-2</v>
+      </c>
+      <c r="AL18" s="5">
         <f t="shared" si="19"/>
-        <v>-6.1627000000000001E-2</v>
-      </c>
-      <c r="AL18" s="5">
+        <v>-0.16324549999999999</v>
+      </c>
+      <c r="AM18" s="21">
         <f t="shared" si="20"/>
-        <v>-0.16324549999999999</v>
-      </c>
-      <c r="AM18" s="5">
-        <f t="shared" si="21"/>
         <v>-0.1016185</v>
       </c>
       <c r="AN18" s="5">
@@ -4043,74 +3950,54 @@
         <v>6.6969999999999998E-3</v>
       </c>
       <c r="AS18" s="5">
+        <f t="shared" si="21"/>
+        <v>-7.901E-3</v>
+      </c>
+      <c r="AT18" s="20">
         <f t="shared" si="22"/>
-        <v>-7.901E-3</v>
-      </c>
-      <c r="AT18" s="5">
+        <v>-3.9558999999999997E-2</v>
+      </c>
+      <c r="AU18" s="5">
         <f t="shared" si="23"/>
-        <v>-3.9558999999999997E-2</v>
-      </c>
-      <c r="AU18" s="5">
+        <v>-1.7991500000000001E-2</v>
+      </c>
+      <c r="AV18" s="21">
         <f t="shared" si="24"/>
-        <v>-1.7991500000000001E-2</v>
-      </c>
-      <c r="AV18" s="5">
+        <v>2.1567499999999996E-2</v>
+      </c>
+      <c r="AW18" s="5">
         <f t="shared" si="25"/>
-        <v>2.1567499999999996E-2</v>
-      </c>
-      <c r="AW18" s="5">
+        <v>-0.15754300000000002</v>
+      </c>
+      <c r="AX18" s="5">
         <f t="shared" si="7"/>
-        <v>-0.15754300000000002</v>
-      </c>
-      <c r="AX18" s="5">
+        <v>-5.2745E-2</v>
+      </c>
+      <c r="AY18" s="5">
         <f t="shared" si="8"/>
-        <v>-5.2745E-2</v>
-      </c>
-      <c r="AY18" s="5">
+        <v>-8.2547999999999996E-2</v>
+      </c>
+      <c r="AZ18" s="5">
         <f t="shared" si="9"/>
-        <v>-8.2547999999999996E-2</v>
-      </c>
-      <c r="AZ18" s="5">
-        <f t="shared" si="10"/>
         <v>-5.8663499999999993E-2</v>
       </c>
-      <c r="BA18" s="5">
-        <f t="shared" si="26"/>
-        <v>4.1023000000000032E-2</v>
-      </c>
-      <c r="BB18" s="5">
-        <f t="shared" si="27"/>
-        <v>-2.1187999999999999E-2</v>
-      </c>
-      <c r="BC18" s="5">
-        <f t="shared" si="28"/>
-        <v>-9.3726999999999991E-2</v>
-      </c>
-      <c r="BD18" s="5">
-        <f t="shared" si="29"/>
-        <v>-5.5007E-2</v>
-      </c>
-      <c r="BE18" s="5">
-        <f t="shared" si="30"/>
-        <v>4.0047999999999993E-2</v>
-      </c>
-      <c r="BF18" s="5">
-        <f t="shared" si="31"/>
-        <v>-9.7448000000000007E-2</v>
-      </c>
-      <c r="BG18" s="5">
-        <f t="shared" si="32"/>
-        <v>-8.4183999999999995E-2</v>
-      </c>
-      <c r="BH18" s="5">
-        <f t="shared" si="33"/>
-        <v>-0.19306000000000001</v>
-      </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>3886</v>
       </c>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
+        <v>20</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
       <c r="F19" s="6">
         <v>7.7223976429999999</v>
       </c>
@@ -4127,7 +4014,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L19" s="8">
@@ -4140,7 +4027,7 @@
         <v>6.2269999999999999E-3</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.6636999999999998E-2</v>
       </c>
       <c r="P19" s="5">
@@ -4153,16 +4040,16 @@
         <f t="shared" si="0"/>
         <v>-0.14161100000000001</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="20">
+        <f t="shared" si="12"/>
+        <v>6.8585000000000007E-2</v>
+      </c>
+      <c r="T19" s="5">
         <f t="shared" si="13"/>
-        <v>6.8585000000000007E-2</v>
-      </c>
-      <c r="T19" s="5">
+        <v>-2.5538999999999999E-2</v>
+      </c>
+      <c r="U19" s="21">
         <f t="shared" si="14"/>
-        <v>-2.5538999999999999E-2</v>
-      </c>
-      <c r="U19" s="5">
-        <f t="shared" si="15"/>
         <v>-9.4124000000000013E-2</v>
       </c>
       <c r="V19" s="5">
@@ -4185,16 +4072,16 @@
         <f t="shared" si="2"/>
         <v>0.20384099999999999</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="20">
+        <f t="shared" si="15"/>
+        <v>2.6152999999999999E-2</v>
+      </c>
+      <c r="AC19" s="5">
         <f t="shared" si="16"/>
-        <v>2.6152999999999999E-2</v>
-      </c>
-      <c r="AC19" s="5">
+        <v>0.21639549999999999</v>
+      </c>
+      <c r="AD19" s="21">
         <f t="shared" si="17"/>
-        <v>0.21639549999999999</v>
-      </c>
-      <c r="AD19" s="5">
-        <f t="shared" si="18"/>
         <v>0.19024249999999998</v>
       </c>
       <c r="AE19" s="5">
@@ -4217,16 +4104,16 @@
         <f t="shared" si="4"/>
         <v>9.4788999999999998E-2</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AK19" s="20">
+        <f t="shared" si="18"/>
+        <v>3.4648499999999999E-2</v>
+      </c>
+      <c r="AL19" s="5">
         <f t="shared" si="19"/>
-        <v>3.4648499999999999E-2</v>
-      </c>
-      <c r="AL19" s="5">
+        <v>0.136488</v>
+      </c>
+      <c r="AM19" s="21">
         <f t="shared" si="20"/>
-        <v>0.136488</v>
-      </c>
-      <c r="AM19" s="5">
-        <f t="shared" si="21"/>
         <v>0.1018395</v>
       </c>
       <c r="AN19" s="5">
@@ -4246,74 +4133,54 @@
         <v>4.1669999999999997E-3</v>
       </c>
       <c r="AS19" s="5">
+        <f t="shared" si="21"/>
+        <v>-8.1648999999999999E-2</v>
+      </c>
+      <c r="AT19" s="20">
         <f t="shared" si="22"/>
-        <v>-8.1648999999999999E-2</v>
-      </c>
-      <c r="AT19" s="5">
+        <v>7.7403E-2</v>
+      </c>
+      <c r="AU19" s="5">
         <f t="shared" si="23"/>
-        <v>7.7403E-2</v>
-      </c>
-      <c r="AU19" s="5">
+        <v>-1.711E-2</v>
+      </c>
+      <c r="AV19" s="21">
         <f t="shared" si="24"/>
-        <v>-1.711E-2</v>
-      </c>
-      <c r="AV19" s="5">
+        <v>-9.4513E-2</v>
+      </c>
+      <c r="AW19" s="5">
         <f t="shared" si="25"/>
-        <v>-9.4513E-2</v>
-      </c>
-      <c r="AW19" s="5">
+        <v>6.4694999999999989E-2</v>
+      </c>
+      <c r="AX19" s="5">
         <f t="shared" si="7"/>
-        <v>6.4694999999999989E-2</v>
-      </c>
-      <c r="AX19" s="5">
+        <v>6.1928499999999997E-2</v>
+      </c>
+      <c r="AY19" s="5">
         <f t="shared" si="8"/>
-        <v>6.1928499999999997E-2</v>
-      </c>
-      <c r="AY19" s="5">
+        <v>5.105925E-2</v>
+      </c>
+      <c r="AZ19" s="5">
         <f t="shared" si="9"/>
-        <v>5.105925E-2</v>
-      </c>
-      <c r="AZ19" s="5">
-        <f t="shared" si="10"/>
         <v>6.4655499999999991E-2</v>
       </c>
-      <c r="BA19" s="5">
-        <f t="shared" si="26"/>
-        <v>-8.994000000000002E-3</v>
-      </c>
-      <c r="BB19" s="5">
-        <f t="shared" si="27"/>
-        <v>0.21428699999999998</v>
-      </c>
-      <c r="BC19" s="5">
-        <f t="shared" si="28"/>
-        <v>-7.5870000000000007E-2</v>
-      </c>
-      <c r="BD19" s="5">
-        <f t="shared" si="29"/>
-        <v>0.26958199999999999</v>
-      </c>
-      <c r="BE19" s="5">
-        <f t="shared" si="30"/>
-        <v>-3.6617999999999998E-2</v>
-      </c>
-      <c r="BF19" s="5">
-        <f t="shared" si="31"/>
-        <v>0.179649</v>
-      </c>
-      <c r="BG19" s="5">
-        <f t="shared" si="32"/>
-        <v>-4.8891000000000004E-2</v>
-      </c>
-      <c r="BH19" s="5">
-        <f t="shared" si="33"/>
-        <v>0.12754699999999999</v>
-      </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>3887</v>
       </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
       <c r="F20" s="6">
         <v>12.39948104</v>
       </c>
@@ -4330,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L20" s="8">
@@ -4343,7 +4210,7 @@
         <v>-3.5672000000000002E-2</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.7729000000000001E-2</v>
       </c>
       <c r="P20" s="5">
@@ -4356,16 +4223,16 @@
         <f t="shared" si="0"/>
         <v>0.11139</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="20">
+        <f t="shared" si="12"/>
+        <v>-5.9248000000000002E-2</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="13"/>
-        <v>-5.9248000000000002E-2</v>
-      </c>
-      <c r="T20" s="5">
+        <v>2.03115E-2</v>
+      </c>
+      <c r="U20" s="21">
         <f t="shared" si="14"/>
-        <v>2.03115E-2</v>
-      </c>
-      <c r="U20" s="5">
-        <f t="shared" si="15"/>
         <v>7.9559500000000005E-2</v>
       </c>
       <c r="V20" s="5">
@@ -4388,16 +4255,16 @@
         <f t="shared" si="2"/>
         <v>-0.17852099999999999</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" s="20">
+        <f t="shared" si="15"/>
+        <v>0.2115735</v>
+      </c>
+      <c r="AC20" s="5">
         <f t="shared" si="16"/>
-        <v>0.2115735</v>
-      </c>
-      <c r="AC20" s="5">
+        <v>0.1026715</v>
+      </c>
+      <c r="AD20" s="21">
         <f t="shared" si="17"/>
-        <v>0.1026715</v>
-      </c>
-      <c r="AD20" s="5">
-        <f t="shared" si="18"/>
         <v>-0.108902</v>
       </c>
       <c r="AE20" s="5">
@@ -4420,16 +4287,16 @@
         <f t="shared" si="4"/>
         <v>-0.158328</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AK20" s="20">
+        <f t="shared" si="18"/>
+        <v>0.126747</v>
+      </c>
+      <c r="AL20" s="5">
         <f t="shared" si="19"/>
-        <v>0.126747</v>
-      </c>
-      <c r="AL20" s="5">
+        <v>2.2243500000000003E-2</v>
+      </c>
+      <c r="AM20" s="21">
         <f t="shared" si="20"/>
-        <v>2.2243500000000003E-2</v>
-      </c>
-      <c r="AM20" s="5">
-        <f t="shared" si="21"/>
         <v>-0.1045035</v>
       </c>
       <c r="AN20" s="5">
@@ -4449,74 +4316,54 @@
         <v>8.0058000000000004E-2</v>
       </c>
       <c r="AS20" s="5">
+        <f t="shared" si="21"/>
+        <v>5.3892000000000009E-2</v>
+      </c>
+      <c r="AT20" s="20">
         <f t="shared" si="22"/>
-        <v>5.3892000000000009E-2</v>
-      </c>
-      <c r="AT20" s="5">
+        <v>4.4795999999999996E-2</v>
+      </c>
+      <c r="AU20" s="5">
         <f t="shared" si="23"/>
-        <v>4.4795999999999996E-2</v>
-      </c>
-      <c r="AU20" s="5">
+        <v>6.5834000000000004E-2</v>
+      </c>
+      <c r="AV20" s="21">
         <f t="shared" si="24"/>
-        <v>6.5834000000000004E-2</v>
-      </c>
-      <c r="AV20" s="5">
+        <v>2.1038000000000008E-2</v>
+      </c>
+      <c r="AW20" s="5">
         <f t="shared" si="25"/>
-        <v>2.1038000000000008E-2</v>
-      </c>
-      <c r="AW20" s="5">
+        <v>2.8167999999999999E-2</v>
+      </c>
+      <c r="AX20" s="5">
         <f t="shared" si="7"/>
-        <v>2.8167999999999999E-2</v>
-      </c>
-      <c r="AX20" s="5">
+        <v>0.10244425</v>
+      </c>
+      <c r="AY20" s="5">
         <f t="shared" si="8"/>
-        <v>0.10244425</v>
-      </c>
-      <c r="AY20" s="5">
+        <v>6.5214750000000002E-2</v>
+      </c>
+      <c r="AZ20" s="5">
         <f t="shared" si="9"/>
-        <v>6.5214750000000002E-2</v>
-      </c>
-      <c r="AZ20" s="5">
-        <f t="shared" si="10"/>
         <v>6.45955E-2</v>
       </c>
-      <c r="BA20" s="5">
-        <f t="shared" si="26"/>
-        <v>0.23299900000000001</v>
-      </c>
-      <c r="BB20" s="5">
-        <f t="shared" si="27"/>
-        <v>0.14598700000000001</v>
-      </c>
-      <c r="BC20" s="5">
-        <f t="shared" si="28"/>
-        <v>0.30864399999999997</v>
-      </c>
-      <c r="BD20" s="5">
-        <f t="shared" si="29"/>
-        <v>1.8733E-2</v>
-      </c>
-      <c r="BE20" s="5">
-        <f t="shared" si="30"/>
-        <v>3.4825000000000009E-2</v>
-      </c>
-      <c r="BF20" s="5">
-        <f t="shared" si="31"/>
-        <v>-4.0379999999999999E-3</v>
-      </c>
-      <c r="BG20" s="5">
-        <f t="shared" si="32"/>
-        <v>0.129077</v>
-      </c>
-      <c r="BH20" s="5">
-        <f t="shared" si="33"/>
-        <v>-8.3143000000000009E-2</v>
-      </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>3889</v>
       </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
       <c r="F21" s="6">
         <v>8.4076809709999996</v>
       </c>
@@ -4533,7 +4380,7 @@
         <v>22</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="L21" s="8">
@@ -4546,7 +4393,7 @@
         <v>-1.4454E-2</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-8.7969999999999993E-3</v>
       </c>
       <c r="P21" s="5">
@@ -4559,16 +4406,16 @@
         <f t="shared" si="0"/>
         <v>2.9069999999999999E-2</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="20">
+        <f t="shared" si="12"/>
+        <v>1.0822E-2</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="13"/>
-        <v>1.0822E-2</v>
-      </c>
-      <c r="T21" s="5">
+        <v>2.0958499999999998E-2</v>
+      </c>
+      <c r="U21" s="21">
         <f t="shared" si="14"/>
-        <v>2.0958499999999998E-2</v>
-      </c>
-      <c r="U21" s="5">
-        <f t="shared" si="15"/>
         <v>1.01365E-2</v>
       </c>
       <c r="V21" s="5">
@@ -4591,16 +4438,16 @@
         <f t="shared" si="2"/>
         <v>-6.0702999999999993E-2</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AB21" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.13117000000000001</v>
+      </c>
+      <c r="AC21" s="5">
         <f t="shared" si="16"/>
-        <v>-0.13117000000000001</v>
-      </c>
-      <c r="AC21" s="5">
+        <v>-0.1577345</v>
+      </c>
+      <c r="AD21" s="21">
         <f t="shared" si="17"/>
-        <v>-0.1577345</v>
-      </c>
-      <c r="AD21" s="5">
-        <f t="shared" si="18"/>
         <v>-2.6564499999999998E-2</v>
       </c>
       <c r="AE21" s="5">
@@ -4623,16 +4470,16 @@
         <f t="shared" si="4"/>
         <v>-6.4089000000000007E-2</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AK21" s="20">
+        <f t="shared" si="18"/>
+        <v>-0.1866855</v>
+      </c>
+      <c r="AL21" s="5">
         <f t="shared" si="19"/>
-        <v>-0.1866855</v>
-      </c>
-      <c r="AL21" s="5">
+        <v>-0.2337545</v>
+      </c>
+      <c r="AM21" s="21">
         <f t="shared" si="20"/>
-        <v>-0.2337545</v>
-      </c>
-      <c r="AM21" s="5">
-        <f t="shared" si="21"/>
         <v>-4.7069000000000014E-2</v>
       </c>
       <c r="AN21" s="5">
@@ -4652,74 +4499,54 @@
         <v>-2.7099999999999997E-4</v>
       </c>
       <c r="AS21" s="5">
+        <f t="shared" si="21"/>
+        <v>2.7562E-2</v>
+      </c>
+      <c r="AT21" s="20">
         <f t="shared" si="22"/>
-        <v>2.7562E-2</v>
-      </c>
-      <c r="AT21" s="5">
+        <v>-1.7061E-2</v>
+      </c>
+      <c r="AU21" s="5">
         <f t="shared" si="23"/>
-        <v>-1.7061E-2</v>
-      </c>
-      <c r="AU21" s="5">
+        <v>2.7310999999999998E-2</v>
+      </c>
+      <c r="AV21" s="21">
         <f t="shared" si="24"/>
-        <v>2.7310999999999998E-2</v>
-      </c>
-      <c r="AV21" s="5">
+        <v>4.4372000000000002E-2</v>
+      </c>
+      <c r="AW21" s="5">
         <f t="shared" si="25"/>
-        <v>4.4372000000000002E-2</v>
-      </c>
-      <c r="AW21" s="5">
+        <v>-8.8270600000000005E-2</v>
+      </c>
+      <c r="AX21" s="5">
         <f t="shared" si="7"/>
-        <v>-8.8270600000000005E-2</v>
-      </c>
-      <c r="AX21" s="5">
+        <v>-1.822375E-2</v>
+      </c>
+      <c r="AY21" s="5">
         <f t="shared" si="8"/>
-        <v>-1.822375E-2</v>
-      </c>
-      <c r="AY21" s="5">
+        <v>-9.2269249999999997E-2</v>
+      </c>
+      <c r="AZ21" s="5">
         <f t="shared" si="9"/>
-        <v>-9.2269249999999997E-2</v>
-      </c>
-      <c r="AZ21" s="5">
-        <f t="shared" si="10"/>
         <v>-0.11282575</v>
       </c>
-      <c r="BA21" s="5">
-        <f t="shared" si="26"/>
-        <v>-0.20875099999999999</v>
-      </c>
-      <c r="BB21" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.19238</v>
-      </c>
-      <c r="BC21" s="5">
-        <f t="shared" si="28"/>
-        <v>-7.5232999999999994E-2</v>
-      </c>
-      <c r="BD21" s="5">
-        <f t="shared" si="29"/>
-        <v>-0.16500599999999999</v>
-      </c>
-      <c r="BE21" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.187527</v>
-      </c>
-      <c r="BF21" s="5">
-        <f t="shared" si="31"/>
-        <v>-0.27875800000000001</v>
-      </c>
-      <c r="BG21" s="5">
-        <f t="shared" si="32"/>
-        <v>-0.151722</v>
-      </c>
-      <c r="BH21" s="5">
-        <f t="shared" si="33"/>
-        <v>-0.24337300000000001</v>
-      </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>3890</v>
       </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>19</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
       <c r="F22" s="6">
         <v>8.5382332059999992</v>
       </c>
@@ -4736,7 +4563,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="L22" s="8">
@@ -4749,7 +4576,7 @@
         <v>-3.7810000000000003E-2</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.185807</v>
       </c>
       <c r="P22" s="5">
@@ -4762,16 +4589,16 @@
         <f t="shared" si="0"/>
         <v>3.9131999999999986E-2</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="20">
+        <f t="shared" si="12"/>
+        <v>0.1214655</v>
+      </c>
+      <c r="T22" s="5">
         <f t="shared" si="13"/>
-        <v>0.1214655</v>
-      </c>
-      <c r="T22" s="5">
+        <v>4.812799999999999E-2</v>
+      </c>
+      <c r="U22" s="21">
         <f t="shared" si="14"/>
-        <v>4.812799999999999E-2</v>
-      </c>
-      <c r="U22" s="5">
-        <f t="shared" si="15"/>
         <v>-7.33375E-2</v>
       </c>
       <c r="V22" s="5">
@@ -4794,16 +4621,16 @@
         <f t="shared" si="2"/>
         <v>0.32808999999999999</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.11526549999999999</v>
+      </c>
+      <c r="AC22" s="5">
         <f t="shared" si="16"/>
-        <v>-0.11526549999999999</v>
-      </c>
-      <c r="AC22" s="5">
+        <v>0.16419149999999999</v>
+      </c>
+      <c r="AD22" s="21">
         <f t="shared" si="17"/>
-        <v>0.16419149999999999</v>
-      </c>
-      <c r="AD22" s="5">
-        <f t="shared" si="18"/>
         <v>0.27945699999999996</v>
       </c>
       <c r="AE22" s="5">
@@ -4826,16 +4653,16 @@
         <f t="shared" si="4"/>
         <v>0.22925600000000002</v>
       </c>
-      <c r="AK22" s="5">
+      <c r="AK22" s="20">
+        <f t="shared" si="18"/>
+        <v>-5.9789500000000002E-2</v>
+      </c>
+      <c r="AL22" s="5">
         <f t="shared" si="19"/>
-        <v>-5.9789500000000002E-2</v>
-      </c>
-      <c r="AL22" s="5">
+        <v>0.1382755</v>
+      </c>
+      <c r="AM22" s="21">
         <f t="shared" si="20"/>
-        <v>0.1382755</v>
-      </c>
-      <c r="AM22" s="5">
-        <f t="shared" si="21"/>
         <v>0.19806499999999999</v>
       </c>
       <c r="AN22" s="5">
@@ -4855,74 +4682,54 @@
         <v>6.0911E-2</v>
       </c>
       <c r="AS22" s="5">
+        <f t="shared" si="21"/>
+        <v>2.9963E-2</v>
+      </c>
+      <c r="AT22" s="20">
         <f t="shared" si="22"/>
-        <v>2.9963E-2</v>
-      </c>
-      <c r="AT22" s="5">
+        <v>4.6637499999999998E-2</v>
+      </c>
+      <c r="AU22" s="5">
         <f t="shared" si="23"/>
-        <v>4.6637499999999998E-2</v>
-      </c>
-      <c r="AU22" s="5">
+        <v>6.3338000000000005E-2</v>
+      </c>
+      <c r="AV22" s="21">
         <f t="shared" si="24"/>
-        <v>6.3338000000000005E-2</v>
-      </c>
-      <c r="AV22" s="5">
+        <v>1.67005E-2</v>
+      </c>
+      <c r="AW22" s="5">
         <f t="shared" si="25"/>
-        <v>1.67005E-2</v>
-      </c>
-      <c r="AW22" s="5">
+        <v>-5.1382000000000008E-3</v>
+      </c>
+      <c r="AX22" s="5">
         <f t="shared" si="7"/>
-        <v>-5.1382000000000008E-3</v>
-      </c>
-      <c r="AX22" s="5">
+        <v>0.11568249999999999</v>
+      </c>
+      <c r="AY22" s="5">
         <f t="shared" si="8"/>
-        <v>0.11568249999999999</v>
-      </c>
-      <c r="AY22" s="5">
+        <v>5.4522500000000002E-2</v>
+      </c>
+      <c r="AZ22" s="5">
         <f t="shared" si="9"/>
-        <v>5.4522500000000002E-2</v>
-      </c>
-      <c r="AZ22" s="5">
-        <f t="shared" si="10"/>
         <v>3.970825E-2</v>
       </c>
-      <c r="BA22" s="5">
-        <f t="shared" si="26"/>
-        <v>-0.33134799999999998</v>
-      </c>
-      <c r="BB22" s="5">
-        <f t="shared" si="27"/>
-        <v>8.5282999999999998E-2</v>
-      </c>
-      <c r="BC22" s="5">
-        <f t="shared" si="28"/>
-        <v>-0.14211400000000002</v>
-      </c>
-      <c r="BD22" s="5">
-        <f t="shared" si="29"/>
-        <v>0.146844</v>
-      </c>
-      <c r="BE22" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.10076499999999999</v>
-      </c>
-      <c r="BF22" s="5">
-        <f t="shared" si="31"/>
-        <v>6.2670999999999991E-2</v>
-      </c>
-      <c r="BG22" s="5">
-        <f t="shared" si="32"/>
-        <v>-0.11208900000000001</v>
-      </c>
-      <c r="BH22" s="5">
-        <f t="shared" si="33"/>
-        <v>8.7204000000000004E-2</v>
-      </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>3891</v>
       </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>19</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
       <c r="F23" s="6">
         <v>9.5472100649999998</v>
       </c>
@@ -4939,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="8">
@@ -4952,7 +4759,7 @@
         <v>3.5799999999999998E-3</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.13019800000000001</v>
       </c>
       <c r="P23" s="5">
@@ -4965,16 +4772,16 @@
         <f t="shared" si="0"/>
         <v>0.12580799999999998</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.163326</v>
+      </c>
+      <c r="T23" s="5">
         <f t="shared" si="13"/>
-        <v>-0.163326</v>
-      </c>
-      <c r="T23" s="5">
+        <v>-3.5323E-2</v>
+      </c>
+      <c r="U23" s="21">
         <f t="shared" si="14"/>
-        <v>-3.5323E-2</v>
-      </c>
-      <c r="U23" s="5">
-        <f t="shared" si="15"/>
         <v>0.12800299999999998</v>
       </c>
       <c r="V23" s="5">
@@ -4997,16 +4804,16 @@
         <f t="shared" si="2"/>
         <v>-5.382300000000001E-2</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AB23" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.1274055</v>
+      </c>
+      <c r="AC23" s="5">
         <f t="shared" si="16"/>
-        <v>-0.1274055</v>
-      </c>
-      <c r="AC23" s="5">
+        <v>-0.16868549999999999</v>
+      </c>
+      <c r="AD23" s="21">
         <f t="shared" si="17"/>
-        <v>-0.16868549999999999</v>
-      </c>
-      <c r="AD23" s="5">
-        <f t="shared" si="18"/>
         <v>-4.1280000000000011E-2</v>
       </c>
       <c r="AE23" s="5">
@@ -5029,16 +4836,16 @@
         <f t="shared" si="4"/>
         <v>3.7034000000000011E-2</v>
       </c>
-      <c r="AK23" s="5">
+      <c r="AK23" s="20">
+        <f t="shared" si="18"/>
+        <v>-0.167738</v>
+      </c>
+      <c r="AL23" s="5">
         <f t="shared" si="19"/>
-        <v>-0.167738</v>
-      </c>
-      <c r="AL23" s="5">
+        <v>-0.13276350000000001</v>
+      </c>
+      <c r="AM23" s="21">
         <f t="shared" si="20"/>
-        <v>-0.13276350000000001</v>
-      </c>
-      <c r="AM23" s="5">
-        <f t="shared" si="21"/>
         <v>3.4974500000000006E-2</v>
       </c>
       <c r="AN23" s="5">
@@ -5058,74 +4865,54 @@
         <v>-7.2345000000000007E-2</v>
       </c>
       <c r="AS23" s="5">
+        <f t="shared" si="21"/>
+        <v>-1.6820000000000029E-3</v>
+      </c>
+      <c r="AT23" s="20">
         <f t="shared" si="22"/>
-        <v>-1.6820000000000029E-3</v>
-      </c>
-      <c r="AT23" s="5">
+        <v>-0.132187</v>
+      </c>
+      <c r="AU23" s="5">
         <f t="shared" si="23"/>
-        <v>-0.132187</v>
-      </c>
-      <c r="AU23" s="5">
+        <v>-7.2483000000000006E-2</v>
+      </c>
+      <c r="AV23" s="21">
         <f t="shared" si="24"/>
-        <v>-7.2483000000000006E-2</v>
-      </c>
-      <c r="AV23" s="5">
+        <v>5.9703999999999993E-2</v>
+      </c>
+      <c r="AW23" s="5">
         <f t="shared" si="25"/>
-        <v>5.9703999999999993E-2</v>
-      </c>
-      <c r="AW23" s="5">
+        <v>-9.7035399999999994E-2</v>
+      </c>
+      <c r="AX23" s="5">
         <f t="shared" si="7"/>
-        <v>-9.7035399999999994E-2</v>
-      </c>
-      <c r="AX23" s="5">
+        <v>-0.12607574999999999</v>
+      </c>
+      <c r="AY23" s="5">
         <f t="shared" si="8"/>
-        <v>-0.12607574999999999</v>
-      </c>
-      <c r="AY23" s="5">
+        <v>-0.15663475000000002</v>
+      </c>
+      <c r="AZ23" s="5">
         <f t="shared" si="9"/>
-        <v>-0.15663475000000002</v>
-      </c>
-      <c r="AZ23" s="5">
-        <f t="shared" si="10"/>
         <v>-9.5951000000000009E-2</v>
       </c>
-      <c r="BA23" s="5">
-        <f t="shared" si="26"/>
-        <v>-4.008299999999998E-2</v>
-      </c>
-      <c r="BB23" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.199018</v>
-      </c>
-      <c r="BC23" s="5">
-        <f t="shared" si="28"/>
-        <v>0.111924</v>
-      </c>
-      <c r="BD23" s="5">
-        <f t="shared" si="29"/>
-        <v>-6.7707000000000003E-2</v>
-      </c>
-      <c r="BE23" s="5">
-        <f t="shared" si="30"/>
-        <v>-2.8500000000000192E-3</v>
-      </c>
-      <c r="BF23" s="5">
-        <f t="shared" si="31"/>
-        <v>-9.1025000000000009E-2</v>
-      </c>
-      <c r="BG23" s="5">
-        <f t="shared" si="32"/>
-        <v>-6.8252000000000007E-2</v>
-      </c>
-      <c r="BH23" s="5">
-        <f t="shared" si="33"/>
-        <v>-2.9535999999999993E-2</v>
-      </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>3892</v>
       </c>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
+        <v>20</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
       <c r="F24" s="6">
         <v>5.6497598370000004</v>
       </c>
@@ -5142,7 +4929,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="L24" s="8">
@@ -5155,7 +4942,7 @@
         <v>8.0751000000000003E-2</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.144812</v>
       </c>
       <c r="P24" s="5">
@@ -5168,16 +4955,16 @@
         <f t="shared" si="0"/>
         <v>8.7354999999999988E-2</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="20">
+        <f t="shared" si="12"/>
+        <v>-7.0611499999999994E-2</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="13"/>
-        <v>-7.0611499999999994E-2</v>
-      </c>
-      <c r="T24" s="5">
+        <v>4.5471999999999999E-2</v>
+      </c>
+      <c r="U24" s="21">
         <f t="shared" si="14"/>
-        <v>4.5471999999999999E-2</v>
-      </c>
-      <c r="U24" s="5">
-        <f t="shared" si="15"/>
         <v>0.11608349999999999</v>
       </c>
       <c r="V24" s="5">
@@ -5200,16 +4987,16 @@
         <f t="shared" si="2"/>
         <v>4.5468999999999996E-2</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AB24" s="20">
+        <f t="shared" si="15"/>
+        <v>5.8583499999999997E-2</v>
+      </c>
+      <c r="AC24" s="5">
         <f t="shared" si="16"/>
-        <v>5.8583499999999997E-2</v>
-      </c>
-      <c r="AC24" s="5">
+        <v>0.108737</v>
+      </c>
+      <c r="AD24" s="21">
         <f t="shared" si="17"/>
-        <v>0.108737</v>
-      </c>
-      <c r="AD24" s="5">
-        <f t="shared" si="18"/>
         <v>5.0153500000000004E-2</v>
       </c>
       <c r="AE24" s="5">
@@ -5232,16 +5019,16 @@
         <f t="shared" si="4"/>
         <v>3.6769999999999988E-3</v>
       </c>
-      <c r="AK24" s="5">
+      <c r="AK24" s="20">
+        <f t="shared" si="18"/>
+        <v>2.1701999999999999E-2</v>
+      </c>
+      <c r="AL24" s="5">
         <f t="shared" si="19"/>
-        <v>2.1701999999999999E-2</v>
-      </c>
-      <c r="AL24" s="5">
+        <v>3.3605500000000003E-2</v>
+      </c>
+      <c r="AM24" s="21">
         <f t="shared" si="20"/>
-        <v>3.3605500000000003E-2</v>
-      </c>
-      <c r="AM24" s="5">
-        <f t="shared" si="21"/>
         <v>1.1903500000000001E-2</v>
       </c>
       <c r="AN24" s="5">
@@ -5261,74 +5048,54 @@
         <v>4.8473000000000002E-2</v>
       </c>
       <c r="AS24" s="5">
+        <f t="shared" si="21"/>
+        <v>6.5978000000000009E-2</v>
+      </c>
+      <c r="AT24" s="20">
         <f t="shared" si="22"/>
-        <v>6.5978000000000009E-2</v>
-      </c>
-      <c r="AT24" s="5">
+        <v>6.1749999999999999E-3</v>
+      </c>
+      <c r="AU24" s="5">
         <f t="shared" si="23"/>
-        <v>6.1749999999999999E-3</v>
-      </c>
-      <c r="AU24" s="5">
+        <v>6.9178000000000003E-2</v>
+      </c>
+      <c r="AV24" s="21">
         <f t="shared" si="24"/>
-        <v>6.9178000000000003E-2</v>
-      </c>
-      <c r="AV24" s="5">
+        <v>6.3003000000000003E-2</v>
+      </c>
+      <c r="AW24" s="5">
         <f t="shared" si="25"/>
-        <v>6.3003000000000003E-2</v>
-      </c>
-      <c r="AW24" s="5">
+        <v>2.4576399999999998E-2</v>
+      </c>
+      <c r="AX24" s="5">
         <f t="shared" si="7"/>
-        <v>2.4576399999999998E-2</v>
-      </c>
-      <c r="AX24" s="5">
+        <v>4.0370000000000003E-2</v>
+      </c>
+      <c r="AY24" s="5">
         <f t="shared" si="8"/>
-        <v>4.0370000000000003E-2</v>
-      </c>
-      <c r="AY24" s="5">
+        <v>6.1766500000000002E-2</v>
+      </c>
+      <c r="AZ24" s="5">
         <f t="shared" si="9"/>
-        <v>6.1766500000000002E-2</v>
-      </c>
-      <c r="AZ24" s="5">
-        <f t="shared" si="10"/>
         <v>3.5637500000000009E-3</v>
       </c>
-      <c r="BA24" s="5">
-        <f t="shared" si="26"/>
-        <v>8.9738000000000012E-2</v>
-      </c>
-      <c r="BB24" s="5">
-        <f t="shared" si="27"/>
-        <v>-2.360000000000001E-4</v>
-      </c>
-      <c r="BC24" s="5">
-        <f t="shared" si="28"/>
-        <v>0.168652</v>
-      </c>
-      <c r="BD24" s="5">
-        <f t="shared" si="29"/>
-        <v>0.12676599999999999</v>
-      </c>
-      <c r="BE24" s="5">
-        <f t="shared" si="30"/>
-        <v>2.3744000000000001E-2</v>
-      </c>
-      <c r="BF24" s="5">
-        <f t="shared" si="31"/>
-        <v>-1.6154000000000002E-2</v>
-      </c>
-      <c r="BG24" s="5">
-        <f t="shared" si="32"/>
-        <v>7.3100000000000005E-3</v>
-      </c>
-      <c r="BH24" s="5">
-        <f t="shared" si="33"/>
-        <v>-5.4991000000000005E-2</v>
-      </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>3893</v>
       </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
+        <v>19</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
       <c r="F25" s="6">
         <v>9.2220832700000006</v>
       </c>
@@ -5345,7 +5112,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="L25" s="8">
@@ -5358,7 +5125,7 @@
         <v>-4.9349999999999998E-2</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.5418999999999995E-2</v>
       </c>
       <c r="P25" s="5">
@@ -5371,16 +5138,16 @@
         <f t="shared" si="0"/>
         <v>0.140038</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="20">
+        <f t="shared" si="12"/>
+        <v>-9.2540499999999998E-2</v>
+      </c>
+      <c r="T25" s="5">
         <f t="shared" si="13"/>
-        <v>-9.2540499999999998E-2</v>
-      </c>
-      <c r="T25" s="5">
+        <v>2.0188000000000001E-2</v>
+      </c>
+      <c r="U25" s="21">
         <f t="shared" si="14"/>
-        <v>2.0188000000000001E-2</v>
-      </c>
-      <c r="U25" s="5">
-        <f t="shared" si="15"/>
         <v>0.1127285</v>
       </c>
       <c r="V25" s="5">
@@ -5403,16 +5170,16 @@
         <f t="shared" si="2"/>
         <v>0.17113</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AB25" s="20">
+        <f t="shared" si="15"/>
+        <v>-8.1425999999999998E-2</v>
+      </c>
+      <c r="AC25" s="5">
         <f t="shared" si="16"/>
-        <v>-8.1425999999999998E-2</v>
-      </c>
-      <c r="AC25" s="5">
+        <v>4.2142499999999999E-2</v>
+      </c>
+      <c r="AD25" s="21">
         <f t="shared" si="17"/>
-        <v>4.2142499999999999E-2</v>
-      </c>
-      <c r="AD25" s="5">
-        <f t="shared" si="18"/>
         <v>0.1235685</v>
       </c>
       <c r="AE25" s="5">
@@ -5435,16 +5202,16 @@
         <f t="shared" si="4"/>
         <v>0.20230899999999999</v>
       </c>
-      <c r="AK25" s="5">
+      <c r="AK25" s="20">
+        <f t="shared" si="18"/>
+        <v>-0.25183899999999998</v>
+      </c>
+      <c r="AL25" s="5">
         <f t="shared" si="19"/>
-        <v>-0.25183899999999998</v>
-      </c>
-      <c r="AL25" s="5">
+        <v>-4.95115E-2</v>
+      </c>
+      <c r="AM25" s="21">
         <f t="shared" si="20"/>
-        <v>-4.95115E-2</v>
-      </c>
-      <c r="AM25" s="5">
-        <f t="shared" si="21"/>
         <v>0.20232749999999999</v>
       </c>
       <c r="AN25" s="5">
@@ -5464,74 +5231,54 @@
         <v>1.6598999999999999E-2</v>
       </c>
       <c r="AS25" s="5">
+        <f t="shared" si="21"/>
+        <v>5.7551000000000005E-2</v>
+      </c>
+      <c r="AT25" s="20">
         <f t="shared" si="22"/>
-        <v>5.7551000000000005E-2</v>
-      </c>
-      <c r="AT25" s="5">
+        <v>-0.1017605</v>
+      </c>
+      <c r="AU25" s="5">
         <f t="shared" si="23"/>
-        <v>-0.1017605</v>
-      </c>
-      <c r="AU25" s="5">
+        <v>-1.33305E-2</v>
+      </c>
+      <c r="AV25" s="21">
         <f t="shared" si="24"/>
-        <v>-1.33305E-2</v>
-      </c>
-      <c r="AV25" s="5">
+        <v>8.8430000000000009E-2</v>
+      </c>
+      <c r="AW25" s="5">
         <f t="shared" si="25"/>
-        <v>8.8430000000000009E-2</v>
-      </c>
-      <c r="AW25" s="5">
+        <v>-5.5067199999999997E-2</v>
+      </c>
+      <c r="AX25" s="5">
         <f t="shared" si="7"/>
-        <v>-5.5067199999999997E-2</v>
-      </c>
-      <c r="AX25" s="5">
+        <v>1.3015999999999998E-2</v>
+      </c>
+      <c r="AY25" s="5">
         <f t="shared" si="8"/>
-        <v>1.3015999999999998E-2</v>
-      </c>
-      <c r="AY25" s="5">
+        <v>-0.16222075</v>
+      </c>
+      <c r="AZ25" s="5">
         <f t="shared" si="9"/>
-        <v>-0.16222075</v>
-      </c>
-      <c r="AZ25" s="5">
-        <f t="shared" si="10"/>
         <v>-4.6000000000000006E-2</v>
       </c>
-      <c r="BA25" s="5">
-        <f t="shared" si="26"/>
-        <v>5.1156999999999994E-2</v>
-      </c>
-      <c r="BB25" s="5">
-        <f t="shared" si="27"/>
-        <v>4.1744999999999997E-2</v>
-      </c>
-      <c r="BC25" s="5">
-        <f t="shared" si="28"/>
-        <v>-2.8928000000000002E-2</v>
-      </c>
-      <c r="BD25" s="5">
-        <f t="shared" si="29"/>
-        <v>2.1639999999999993E-3</v>
-      </c>
-      <c r="BE25" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.160131</v>
-      </c>
-      <c r="BF25" s="5">
-        <f t="shared" si="31"/>
-        <v>-7.7093999999999996E-2</v>
-      </c>
-      <c r="BG25" s="5">
-        <f t="shared" si="32"/>
-        <v>-0.14002599999999998</v>
-      </c>
-      <c r="BH25" s="5">
-        <f t="shared" si="33"/>
-        <v>4.7320000000000001E-3</v>
-      </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>3895</v>
       </c>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>22</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
       <c r="F26" s="6">
         <v>9.0754258770000007</v>
       </c>
@@ -5548,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="L26" s="8">
@@ -5561,7 +5308,7 @@
         <v>7.5980000000000006E-2</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.25614799999999999</v>
       </c>
       <c r="P26" s="5">
@@ -5574,16 +5321,16 @@
         <f t="shared" si="0"/>
         <v>4.2577000000000004E-2</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.17187150000000001</v>
+      </c>
+      <c r="T26" s="5">
         <f t="shared" si="13"/>
-        <v>-0.17187150000000001</v>
-      </c>
-      <c r="T26" s="5">
+        <v>-2.2508999999999994E-2</v>
+      </c>
+      <c r="U26" s="21">
         <f t="shared" si="14"/>
-        <v>-2.2508999999999994E-2</v>
-      </c>
-      <c r="U26" s="5">
-        <f t="shared" si="15"/>
         <v>0.14936250000000001</v>
       </c>
       <c r="V26" s="5">
@@ -5606,16 +5353,16 @@
         <f t="shared" si="2"/>
         <v>-2.0058999999999994E-2</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AB26" s="20">
+        <f t="shared" si="15"/>
+        <v>8.8067000000000006E-2</v>
+      </c>
+      <c r="AC26" s="5">
         <f t="shared" si="16"/>
-        <v>8.8067000000000006E-2</v>
-      </c>
-      <c r="AC26" s="5">
+        <v>7.3749499999999996E-2</v>
+      </c>
+      <c r="AD26" s="21">
         <f t="shared" si="17"/>
-        <v>7.3749499999999996E-2</v>
-      </c>
-      <c r="AD26" s="5">
-        <f t="shared" si="18"/>
         <v>-1.4317499999999997E-2</v>
       </c>
       <c r="AE26" s="5">
@@ -5638,16 +5385,16 @@
         <f t="shared" si="4"/>
         <v>5.9520999999999998E-2</v>
       </c>
-      <c r="AK26" s="5">
+      <c r="AK26" s="20">
+        <f t="shared" si="18"/>
+        <v>2.4787500000000001E-2</v>
+      </c>
+      <c r="AL26" s="5">
         <f t="shared" si="19"/>
-        <v>2.4787500000000001E-2</v>
-      </c>
-      <c r="AL26" s="5">
+        <v>0.123367</v>
+      </c>
+      <c r="AM26" s="21">
         <f t="shared" si="20"/>
-        <v>0.123367</v>
-      </c>
-      <c r="AM26" s="5">
-        <f t="shared" si="21"/>
         <v>9.85795E-2</v>
       </c>
       <c r="AN26" s="5">
@@ -5667,74 +5414,54 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="AS26" s="5">
+        <f t="shared" si="21"/>
+        <v>0.11473899999999999</v>
+      </c>
+      <c r="AT26" s="20">
         <f t="shared" si="22"/>
-        <v>0.11473899999999999</v>
-      </c>
-      <c r="AT26" s="5">
+        <v>-0.1010665</v>
+      </c>
+      <c r="AU26" s="5">
         <f t="shared" si="23"/>
-        <v>-0.1010665</v>
-      </c>
-      <c r="AU26" s="5">
+        <v>1.7735499999999998E-2</v>
+      </c>
+      <c r="AV26" s="21">
         <f t="shared" si="24"/>
-        <v>1.7735499999999998E-2</v>
-      </c>
-      <c r="AV26" s="5">
+        <v>0.11880199999999999</v>
+      </c>
+      <c r="AW26" s="5">
         <f t="shared" si="25"/>
-        <v>0.11880199999999999</v>
-      </c>
-      <c r="AW26" s="5">
+        <v>4.1524000000000031E-3</v>
+      </c>
+      <c r="AX26" s="5">
         <f t="shared" si="7"/>
-        <v>4.1524000000000031E-3</v>
-      </c>
-      <c r="AX26" s="5">
+        <v>-2.1472499999999992E-2</v>
+      </c>
+      <c r="AY26" s="5">
         <f t="shared" si="8"/>
-        <v>-2.1472499999999992E-2</v>
-      </c>
-      <c r="AY26" s="5">
+        <v>8.0752499999999974E-3</v>
+      </c>
+      <c r="AZ26" s="5">
         <f t="shared" si="9"/>
-        <v>8.0752499999999974E-3</v>
-      </c>
-      <c r="AZ26" s="5">
-        <f t="shared" si="10"/>
         <v>2.43365E-2</v>
       </c>
-      <c r="BA26" s="5">
-        <f t="shared" si="26"/>
-        <v>0.24693100000000001</v>
-      </c>
-      <c r="BB26" s="5">
-        <f t="shared" si="27"/>
-        <v>-1.7793000000000003E-2</v>
-      </c>
-      <c r="BC26" s="5">
-        <f t="shared" si="28"/>
-        <v>0.27294600000000002</v>
-      </c>
-      <c r="BD26" s="5">
-        <f t="shared" si="29"/>
-        <v>0.21031</v>
-      </c>
-      <c r="BE26" s="5">
-        <f t="shared" si="30"/>
-        <v>0.14088699999999998</v>
-      </c>
-      <c r="BF26" s="5">
-        <f t="shared" si="31"/>
-        <v>0.15565999999999999</v>
-      </c>
-      <c r="BG26" s="5">
-        <f t="shared" si="32"/>
-        <v>0.110821</v>
-      </c>
-      <c r="BH26" s="5">
-        <f t="shared" si="33"/>
-        <v>5.5603E-2</v>
-      </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>3896</v>
       </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
+        <v>18</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
       <c r="F27" s="6">
         <v>12.455561510000001</v>
       </c>
@@ -5751,7 +5478,7 @@
         <v>22</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="L27" s="8">
@@ -5764,7 +5491,7 @@
         <v>0.293433</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.36017199999999999</v>
       </c>
       <c r="P27" s="5">
@@ -5777,16 +5504,16 @@
         <f t="shared" si="0"/>
         <v>0.140713</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="20">
+        <f t="shared" si="12"/>
+        <v>-1.6561000000000003E-2</v>
+      </c>
+      <c r="T27" s="5">
         <f t="shared" si="13"/>
-        <v>-1.6561000000000003E-2</v>
-      </c>
-      <c r="T27" s="5">
+        <v>0.23388150000000002</v>
+      </c>
+      <c r="U27" s="21">
         <f t="shared" si="14"/>
-        <v>0.23388150000000002</v>
-      </c>
-      <c r="U27" s="5">
-        <f t="shared" si="15"/>
         <v>0.25044250000000001</v>
       </c>
       <c r="V27" s="5">
@@ -5809,16 +5536,16 @@
         <f t="shared" si="2"/>
         <v>7.2230000000000003E-2</v>
       </c>
-      <c r="AB27" s="5">
+      <c r="AB27" s="20">
+        <f t="shared" si="15"/>
+        <v>2.2399999999999989E-3</v>
+      </c>
+      <c r="AC27" s="5">
         <f t="shared" si="16"/>
-        <v>2.2399999999999989E-3</v>
-      </c>
-      <c r="AC27" s="5">
+        <v>9.0142E-2</v>
+      </c>
+      <c r="AD27" s="21">
         <f t="shared" si="17"/>
-        <v>9.0142E-2</v>
-      </c>
-      <c r="AD27" s="5">
-        <f t="shared" si="18"/>
         <v>8.7902000000000008E-2</v>
       </c>
       <c r="AE27" s="5">
@@ -5841,16 +5568,16 @@
         <f t="shared" si="4"/>
         <v>0.12928600000000001</v>
       </c>
-      <c r="AK27" s="5">
+      <c r="AK27" s="20">
+        <f t="shared" si="18"/>
+        <v>4.0889999999999996E-2</v>
+      </c>
+      <c r="AL27" s="5">
         <f t="shared" si="19"/>
-        <v>4.0889999999999996E-2</v>
-      </c>
-      <c r="AL27" s="5">
+        <v>0.14987149999999999</v>
+      </c>
+      <c r="AM27" s="21">
         <f t="shared" si="20"/>
-        <v>0.14987149999999999</v>
-      </c>
-      <c r="AM27" s="5">
-        <f t="shared" si="21"/>
         <v>0.10898150000000001</v>
       </c>
       <c r="AN27" s="5">
@@ -5870,74 +5597,54 @@
         <v>0.19259299999999999</v>
       </c>
       <c r="AS27" s="5">
+        <f t="shared" si="21"/>
+        <v>0.10894399999999999</v>
+      </c>
+      <c r="AT27" s="20">
         <f t="shared" si="22"/>
-        <v>0.10894399999999999</v>
-      </c>
-      <c r="AT27" s="5">
+        <v>5.1922000000000003E-2</v>
+      </c>
+      <c r="AU27" s="5">
         <f t="shared" si="23"/>
-        <v>5.1922000000000003E-2</v>
-      </c>
-      <c r="AU27" s="5">
+        <v>0.14033000000000001</v>
+      </c>
+      <c r="AV27" s="21">
         <f t="shared" si="24"/>
-        <v>0.14033000000000001</v>
-      </c>
-      <c r="AV27" s="5">
+        <v>8.8407999999999987E-2</v>
+      </c>
+      <c r="AW27" s="5">
         <f t="shared" si="25"/>
-        <v>8.8407999999999987E-2</v>
-      </c>
-      <c r="AW27" s="5">
+        <v>8.9776000000000009E-2</v>
+      </c>
+      <c r="AX27" s="5">
         <f t="shared" si="7"/>
-        <v>8.9776000000000009E-2</v>
-      </c>
-      <c r="AX27" s="5">
+        <v>4.2631250000000002E-2</v>
+      </c>
+      <c r="AY27" s="5">
         <f t="shared" si="8"/>
-        <v>4.2631250000000002E-2</v>
-      </c>
-      <c r="AY27" s="5">
+        <v>7.4145249999999996E-2</v>
+      </c>
+      <c r="AZ27" s="5">
         <f t="shared" si="9"/>
-        <v>7.4145249999999996E-2</v>
-      </c>
-      <c r="AZ27" s="5">
-        <f t="shared" si="10"/>
         <v>0.11736150000000001</v>
       </c>
-      <c r="BA27" s="5">
-        <f t="shared" si="26"/>
-        <v>0.12604500000000002</v>
-      </c>
-      <c r="BB27" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.130553</v>
-      </c>
-      <c r="BC27" s="5">
-        <f t="shared" si="28"/>
-        <v>-8.8442999999999994E-2</v>
-      </c>
-      <c r="BD27" s="5">
-        <f t="shared" si="29"/>
-        <v>-0.15692600000000001</v>
-      </c>
-      <c r="BE27" s="5">
-        <f t="shared" si="30"/>
-        <v>2.9625999999999996E-2</v>
-      </c>
-      <c r="BF27" s="5">
-        <f t="shared" si="31"/>
-        <v>5.0431000000000004E-2</v>
-      </c>
-      <c r="BG27" s="5">
-        <f t="shared" si="32"/>
-        <v>-5.169E-2</v>
-      </c>
-      <c r="BH27" s="5">
-        <f t="shared" si="33"/>
-        <v>-3.1347999999999987E-2</v>
-      </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>3910</v>
       </c>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
+        <v>32</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
       <c r="F28" s="6">
         <v>9.5907081900000009</v>
       </c>
@@ -5954,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L28" s="8">
@@ -5967,7 +5674,7 @@
         <v>-6.2100000000000002E-4</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12317</v>
       </c>
       <c r="P28" s="5">
@@ -5980,16 +5687,16 @@
         <f t="shared" si="0"/>
         <v>0.145845</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.162936</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="13"/>
-        <v>-0.162936</v>
-      </c>
-      <c r="T28" s="5">
+        <v>-2.8428500000000002E-2</v>
+      </c>
+      <c r="U28" s="21">
         <f t="shared" si="14"/>
-        <v>-2.8428500000000002E-2</v>
-      </c>
-      <c r="U28" s="5">
-        <f t="shared" si="15"/>
         <v>0.1345075</v>
       </c>
       <c r="V28" s="5">
@@ -6012,16 +5719,16 @@
         <f t="shared" si="2"/>
         <v>-0.11352100000000001</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AB28" s="20">
+        <f t="shared" si="15"/>
+        <v>-3.0700999999999999E-2</v>
+      </c>
+      <c r="AC28" s="5">
         <f t="shared" si="16"/>
-        <v>-3.0700999999999999E-2</v>
-      </c>
-      <c r="AC28" s="5">
+        <v>-0.12122250000000001</v>
+      </c>
+      <c r="AD28" s="21">
         <f t="shared" si="17"/>
-        <v>-0.12122250000000001</v>
-      </c>
-      <c r="AD28" s="5">
-        <f t="shared" si="18"/>
         <v>-9.0521500000000005E-2</v>
       </c>
       <c r="AE28" s="5">
@@ -6044,16 +5751,16 @@
         <f t="shared" si="4"/>
         <v>-0.14555999999999999</v>
       </c>
-      <c r="AK28" s="5">
+      <c r="AK28" s="20">
+        <f t="shared" si="18"/>
+        <v>2.9114999999999999E-2</v>
+      </c>
+      <c r="AL28" s="5">
         <f t="shared" si="19"/>
-        <v>2.9114999999999999E-2</v>
-      </c>
-      <c r="AL28" s="5">
+        <v>-9.6172999999999995E-2</v>
+      </c>
+      <c r="AM28" s="21">
         <f t="shared" si="20"/>
-        <v>-9.6172999999999995E-2</v>
-      </c>
-      <c r="AM28" s="5">
-        <f t="shared" si="21"/>
         <v>-0.12528800000000001</v>
       </c>
       <c r="AN28" s="5">
@@ -6073,74 +5780,54 @@
         <v>-6.5240999999999993E-2</v>
       </c>
       <c r="AS28" s="5">
+        <f t="shared" si="21"/>
+        <v>7.3679999999999995E-2</v>
+      </c>
+      <c r="AT28" s="20">
         <f t="shared" si="22"/>
-        <v>7.3679999999999995E-2</v>
-      </c>
-      <c r="AT28" s="5">
+        <v>-0.14506449999999999</v>
+      </c>
+      <c r="AU28" s="5">
         <f t="shared" si="23"/>
-        <v>-0.14506449999999999</v>
-      </c>
-      <c r="AU28" s="5">
+        <v>-6.3338999999999993E-2</v>
+      </c>
+      <c r="AV28" s="21">
         <f t="shared" si="24"/>
-        <v>-6.3338999999999993E-2</v>
-      </c>
-      <c r="AV28" s="5">
+        <v>8.1725500000000006E-2</v>
+      </c>
+      <c r="AW28" s="5">
         <f t="shared" si="25"/>
-        <v>8.1725500000000006E-2</v>
-      </c>
-      <c r="AW28" s="5">
+        <v>-5.7021199999999994E-2</v>
+      </c>
+      <c r="AX28" s="5">
         <f t="shared" si="7"/>
-        <v>-5.7021199999999994E-2</v>
-      </c>
-      <c r="AX28" s="5">
+        <v>-0.1003675</v>
+      </c>
+      <c r="AY28" s="5">
         <f t="shared" si="8"/>
-        <v>-0.1003675</v>
-      </c>
-      <c r="AY28" s="5">
+        <v>-6.1442749999999997E-2</v>
+      </c>
+      <c r="AZ28" s="5">
         <f t="shared" si="9"/>
-        <v>-6.1442749999999997E-2</v>
-      </c>
-      <c r="AZ28" s="5">
-        <f t="shared" si="10"/>
         <v>-7.6287999999999995E-2</v>
       </c>
-      <c r="BA28" s="5">
-        <f t="shared" si="26"/>
-        <v>7.7204999999999996E-2</v>
-      </c>
-      <c r="BB28" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.113487</v>
-      </c>
-      <c r="BC28" s="5">
-        <f t="shared" si="28"/>
-        <v>0.18726500000000001</v>
-      </c>
-      <c r="BD28" s="5">
-        <f t="shared" si="29"/>
-        <v>-7.2100999999999998E-2</v>
-      </c>
-      <c r="BE28" s="5">
-        <f t="shared" si="30"/>
-        <v>0.18715300000000001</v>
-      </c>
-      <c r="BF28" s="5">
-        <f t="shared" si="31"/>
-        <v>-7.633999999999995E-3</v>
-      </c>
-      <c r="BG28" s="5">
-        <f t="shared" si="32"/>
-        <v>0.16120599999999999</v>
-      </c>
-      <c r="BH28" s="5">
-        <f t="shared" si="33"/>
-        <v>-5.8034000000000002E-2</v>
-      </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>3912</v>
       </c>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
       <c r="F29" s="6">
         <v>8.0717615449999993</v>
       </c>
@@ -6157,7 +5844,7 @@
         <v>6</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="L29" s="8">
@@ -6170,7 +5857,7 @@
         <v>3.9376000000000001E-2</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.12870500000000001</v>
       </c>
       <c r="P29" s="5">
@@ -6183,16 +5870,16 @@
         <f t="shared" si="0"/>
         <v>0.12703200000000001</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.15967600000000001</v>
+      </c>
+      <c r="T29" s="5">
         <f t="shared" si="13"/>
-        <v>-0.15967600000000001</v>
-      </c>
-      <c r="T29" s="5">
+        <v>-3.1807500000000002E-2</v>
+      </c>
+      <c r="U29" s="21">
         <f t="shared" si="14"/>
-        <v>-3.1807500000000002E-2</v>
-      </c>
-      <c r="U29" s="5">
-        <f t="shared" si="15"/>
         <v>0.1278685</v>
       </c>
       <c r="V29" s="5">
@@ -6215,16 +5902,16 @@
         <f t="shared" si="2"/>
         <v>0.25381900000000002</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AB29" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.16554950000000002</v>
+      </c>
+      <c r="AC29" s="5">
         <f t="shared" si="16"/>
-        <v>-0.16554950000000002</v>
-      </c>
-      <c r="AC29" s="5">
+        <v>6.5114499999999992E-2</v>
+      </c>
+      <c r="AD29" s="21">
         <f t="shared" si="17"/>
-        <v>6.5114499999999992E-2</v>
-      </c>
-      <c r="AD29" s="5">
-        <f t="shared" si="18"/>
         <v>0.23066400000000001</v>
       </c>
       <c r="AE29" s="5">
@@ -6247,16 +5934,16 @@
         <f t="shared" si="4"/>
         <v>5.9950000000000003E-2</v>
       </c>
-      <c r="AK29" s="5">
+      <c r="AK29" s="20">
+        <f t="shared" si="18"/>
+        <v>7.5396999999999992E-2</v>
+      </c>
+      <c r="AL29" s="5">
         <f t="shared" si="19"/>
-        <v>7.5396999999999992E-2</v>
-      </c>
-      <c r="AL29" s="5">
+        <v>0.15516199999999999</v>
+      </c>
+      <c r="AM29" s="21">
         <f t="shared" si="20"/>
-        <v>0.15516199999999999</v>
-      </c>
-      <c r="AM29" s="5">
-        <f t="shared" si="21"/>
         <v>7.9765000000000003E-2</v>
       </c>
       <c r="AN29" s="5">
@@ -6276,74 +5963,54 @@
         <v>-1.9386E-2</v>
       </c>
       <c r="AS29" s="5">
+        <f t="shared" si="21"/>
+        <v>1.4388999999999999E-2</v>
+      </c>
+      <c r="AT29" s="20">
         <f t="shared" si="22"/>
-        <v>1.4388999999999999E-2</v>
-      </c>
-      <c r="AT29" s="5">
+        <v>4.6128500000000003E-2</v>
+      </c>
+      <c r="AU29" s="5">
         <f t="shared" si="23"/>
-        <v>4.6128500000000003E-2</v>
-      </c>
-      <c r="AU29" s="5">
+        <v>4.6154999999999998E-3</v>
+      </c>
+      <c r="AV29" s="21">
         <f t="shared" si="24"/>
-        <v>4.6154999999999998E-3</v>
-      </c>
-      <c r="AV29" s="5">
+        <v>-4.1513000000000001E-2</v>
+      </c>
+      <c r="AW29" s="5">
         <f t="shared" si="25"/>
-        <v>-4.1513000000000001E-2</v>
-      </c>
-      <c r="AW29" s="5">
+        <v>-2.5907999999999997E-2</v>
+      </c>
+      <c r="AX29" s="5">
         <f t="shared" si="7"/>
-        <v>-2.5907999999999997E-2</v>
-      </c>
-      <c r="AX29" s="5">
+        <v>-0.11357425000000002</v>
+      </c>
+      <c r="AY29" s="5">
         <f t="shared" si="8"/>
-        <v>-0.11357425000000002</v>
-      </c>
-      <c r="AY29" s="5">
+        <v>7.1614250000000004E-2</v>
+      </c>
+      <c r="AZ29" s="5">
         <f t="shared" si="9"/>
-        <v>7.1614250000000004E-2</v>
-      </c>
-      <c r="AZ29" s="5">
-        <f t="shared" si="10"/>
         <v>6.9037249999999994E-2</v>
       </c>
-      <c r="BA29" s="5">
-        <f t="shared" si="26"/>
-        <v>-5.4219000000000003E-2</v>
-      </c>
-      <c r="BB29" s="5">
-        <f t="shared" si="27"/>
-        <v>2.4585000000000003E-2</v>
-      </c>
-      <c r="BC29" s="5">
-        <f t="shared" si="28"/>
-        <v>4.247200000000001E-2</v>
-      </c>
-      <c r="BD29" s="5">
-        <f t="shared" si="29"/>
-        <v>0.16925899999999999</v>
-      </c>
-      <c r="BE29" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.109918</v>
-      </c>
-      <c r="BF29" s="5">
-        <f t="shared" si="31"/>
-        <v>8.7077000000000002E-2</v>
-      </c>
-      <c r="BG29" s="5">
-        <f t="shared" si="32"/>
-        <v>0.16845499999999999</v>
-      </c>
-      <c r="BH29" s="5">
-        <f t="shared" si="33"/>
-        <v>0.21401599999999998</v>
-      </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>3914</v>
       </c>
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13">
+        <v>20</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
       <c r="F30" s="6">
         <v>7.342681936</v>
       </c>
@@ -6360,7 +6027,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="L30" s="8">
@@ -6373,7 +6040,7 @@
         <v>2.3073E-2</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.13792399999999999</v>
       </c>
       <c r="P30" s="5">
@@ -6386,16 +6053,16 @@
         <f t="shared" si="0"/>
         <v>0.15528499999999998</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="20">
+        <f t="shared" si="12"/>
+        <v>-4.1850999999999999E-2</v>
+      </c>
+      <c r="T30" s="5">
         <f t="shared" si="13"/>
-        <v>-4.1850999999999999E-2</v>
-      </c>
-      <c r="T30" s="5">
+        <v>0.1047535</v>
+      </c>
+      <c r="U30" s="21">
         <f t="shared" si="14"/>
-        <v>0.1047535</v>
-      </c>
-      <c r="U30" s="5">
-        <f t="shared" si="15"/>
         <v>0.14660449999999997</v>
       </c>
       <c r="V30" s="5">
@@ -6418,16 +6085,16 @@
         <f t="shared" si="2"/>
         <v>7.8107999999999997E-2</v>
       </c>
-      <c r="AB30" s="5">
+      <c r="AB30" s="20">
+        <f t="shared" si="15"/>
+        <v>3.2922E-2</v>
+      </c>
+      <c r="AC30" s="5">
         <f t="shared" si="16"/>
-        <v>3.2922E-2</v>
-      </c>
-      <c r="AC30" s="5">
+        <v>0.14030500000000001</v>
+      </c>
+      <c r="AD30" s="21">
         <f t="shared" si="17"/>
-        <v>0.14030500000000001</v>
-      </c>
-      <c r="AD30" s="5">
-        <f t="shared" si="18"/>
         <v>0.10738300000000001</v>
       </c>
       <c r="AE30" s="5">
@@ -6450,16 +6117,16 @@
         <f t="shared" si="4"/>
         <v>1.4099E-2</v>
       </c>
-      <c r="AK30" s="5">
+      <c r="AK30" s="20">
+        <f t="shared" si="18"/>
+        <v>-0.11129849999999999</v>
+      </c>
+      <c r="AL30" s="5">
         <f t="shared" si="19"/>
-        <v>-0.11129849999999999</v>
-      </c>
-      <c r="AL30" s="5">
+        <v>-6.7985000000000004E-2</v>
+      </c>
+      <c r="AM30" s="21">
         <f t="shared" si="20"/>
-        <v>-6.7985000000000004E-2</v>
-      </c>
-      <c r="AM30" s="5">
-        <f t="shared" si="21"/>
         <v>4.3313499999999998E-2</v>
       </c>
       <c r="AN30" s="5">
@@ -6479,74 +6146,54 @@
         <v>8.5773000000000002E-2</v>
       </c>
       <c r="AS30" s="5">
+        <f t="shared" si="21"/>
+        <v>0.177814</v>
+      </c>
+      <c r="AT30" s="20">
         <f t="shared" si="22"/>
-        <v>0.177814</v>
-      </c>
-      <c r="AT30" s="5">
+        <v>-0.12528</v>
+      </c>
+      <c r="AU30" s="5">
         <f t="shared" si="23"/>
-        <v>-0.12528</v>
-      </c>
-      <c r="AU30" s="5">
+        <v>5.3642500000000003E-2</v>
+      </c>
+      <c r="AV30" s="21">
         <f t="shared" si="24"/>
-        <v>5.3642500000000003E-2</v>
-      </c>
-      <c r="AV30" s="5">
+        <v>0.17892249999999998</v>
+      </c>
+      <c r="AW30" s="5">
         <f t="shared" si="25"/>
-        <v>0.17892249999999998</v>
-      </c>
-      <c r="AW30" s="5">
+        <v>-1.2303999999999999E-2</v>
+      </c>
+      <c r="AX30" s="5">
         <f t="shared" si="7"/>
-        <v>-1.2303999999999999E-2</v>
-      </c>
-      <c r="AX30" s="5">
+        <v>0.13344475</v>
+      </c>
+      <c r="AY30" s="5">
         <f t="shared" si="8"/>
-        <v>0.13344475</v>
-      </c>
-      <c r="AY30" s="5">
+        <v>-9.6657750000000014E-2</v>
+      </c>
+      <c r="AZ30" s="5">
         <f t="shared" si="9"/>
-        <v>-9.6657750000000014E-2</v>
-      </c>
-      <c r="AZ30" s="5">
-        <f t="shared" si="10"/>
         <v>-2.8802749999999998E-2</v>
       </c>
-      <c r="BA30" s="5">
-        <f t="shared" si="26"/>
-        <v>6.1650999999999997E-2</v>
-      </c>
-      <c r="BB30" s="5">
-        <f t="shared" si="27"/>
-        <v>6.0385000000000008E-2</v>
-      </c>
-      <c r="BC30" s="5">
-        <f t="shared" si="28"/>
-        <v>8.7895000000000001E-2</v>
-      </c>
-      <c r="BD30" s="5">
-        <f t="shared" si="29"/>
-        <v>1.0718000000000005E-2</v>
-      </c>
-      <c r="BE30" s="5">
-        <f t="shared" si="30"/>
-        <v>-2.5570000000000037E-3</v>
-      </c>
-      <c r="BF30" s="5">
-        <f t="shared" si="31"/>
-        <v>-0.11006000000000001</v>
-      </c>
-      <c r="BG30" s="5">
-        <f t="shared" si="32"/>
-        <v>3.0519999999999999E-2</v>
-      </c>
-      <c r="BH30" s="5">
-        <f t="shared" si="33"/>
-        <v>-0.13319500000000001</v>
-      </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>3920</v>
       </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
       <c r="F31" s="6">
         <v>6.4145326760000003</v>
       </c>
@@ -6563,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="L31" s="8">
@@ -6576,7 +6223,7 @@
         <v>3.8468000000000002E-2</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.25594300000000003</v>
       </c>
       <c r="P31" s="5">
@@ -6589,16 +6236,16 @@
         <f t="shared" si="0"/>
         <v>0.18113299999999999</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.19819799999999999</v>
+      </c>
+      <c r="T31" s="5">
         <f t="shared" si="13"/>
-        <v>-0.19819799999999999</v>
-      </c>
-      <c r="T31" s="5">
+        <v>2.034E-2</v>
+      </c>
+      <c r="U31" s="21">
         <f t="shared" si="14"/>
-        <v>2.034E-2</v>
-      </c>
-      <c r="U31" s="5">
-        <f t="shared" si="15"/>
         <v>0.21853800000000001</v>
       </c>
       <c r="V31" s="5">
@@ -6621,16 +6268,16 @@
         <f t="shared" si="2"/>
         <v>-3.4213999999999994E-2</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AB31" s="20">
+        <f t="shared" si="15"/>
+        <v>0.19856750000000001</v>
+      </c>
+      <c r="AC31" s="5">
         <f t="shared" si="16"/>
-        <v>0.19856750000000001</v>
-      </c>
-      <c r="AC31" s="5">
+        <v>0.10000450000000001</v>
+      </c>
+      <c r="AD31" s="21">
         <f t="shared" si="17"/>
-        <v>0.10000450000000001</v>
-      </c>
-      <c r="AD31" s="5">
-        <f t="shared" si="18"/>
         <v>-9.8562999999999998E-2</v>
       </c>
       <c r="AE31" s="5">
@@ -6653,16 +6300,16 @@
         <f t="shared" si="4"/>
         <v>-1.5968999999999997E-2</v>
       </c>
-      <c r="AK31" s="5">
+      <c r="AK31" s="20">
+        <f t="shared" si="18"/>
+        <v>0.12632650000000001</v>
+      </c>
+      <c r="AL31" s="5">
         <f t="shared" si="19"/>
-        <v>0.12632650000000001</v>
-      </c>
-      <c r="AL31" s="5">
+        <v>0.12936</v>
+      </c>
+      <c r="AM31" s="21">
         <f t="shared" si="20"/>
-        <v>0.12936</v>
-      </c>
-      <c r="AM31" s="5">
-        <f t="shared" si="21"/>
         <v>3.0335000000000015E-3</v>
       </c>
       <c r="AN31" s="5">
@@ -6682,74 +6329,54 @@
         <v>6.8507999999999999E-2</v>
       </c>
       <c r="AS31" s="5">
+        <f t="shared" si="21"/>
+        <v>0.138019</v>
+      </c>
+      <c r="AT31" s="20">
         <f t="shared" si="22"/>
-        <v>0.138019</v>
-      </c>
-      <c r="AT31" s="5">
+        <v>-7.5264500000000012E-2</v>
+      </c>
+      <c r="AU31" s="5">
         <f t="shared" si="23"/>
-        <v>-7.5264500000000012E-2</v>
-      </c>
-      <c r="AU31" s="5">
+        <v>4.8063000000000002E-2</v>
+      </c>
+      <c r="AV31" s="21">
         <f t="shared" si="24"/>
-        <v>4.8063000000000002E-2</v>
-      </c>
-      <c r="AV31" s="5">
+        <v>0.12332750000000001</v>
+      </c>
+      <c r="AW31" s="5">
         <f t="shared" si="25"/>
-        <v>0.12332750000000001</v>
-      </c>
-      <c r="AW31" s="5">
+        <v>3.4562000000000022E-3</v>
+      </c>
+      <c r="AX31" s="5">
         <f t="shared" si="7"/>
-        <v>3.4562000000000022E-3</v>
-      </c>
-      <c r="AX31" s="5">
+        <v>5.6036750000000003E-2</v>
+      </c>
+      <c r="AY31" s="5">
         <f t="shared" si="8"/>
-        <v>5.6036750000000003E-2</v>
-      </c>
-      <c r="AY31" s="5">
+        <v>4.9244999999999997E-2</v>
+      </c>
+      <c r="AZ31" s="5">
         <f t="shared" si="9"/>
-        <v>4.9244999999999997E-2</v>
-      </c>
-      <c r="AZ31" s="5">
-        <f t="shared" si="10"/>
         <v>6.49975E-2</v>
       </c>
-      <c r="BA31" s="5">
-        <f t="shared" si="26"/>
-        <v>0.39707500000000001</v>
-      </c>
-      <c r="BB31" s="5">
-        <f t="shared" si="27"/>
-        <v>-2.1780000000000001E-2</v>
-      </c>
-      <c r="BC31" s="5">
-        <f t="shared" si="28"/>
-        <v>0.39645600000000003</v>
-      </c>
-      <c r="BD31" s="5">
-        <f t="shared" si="29"/>
-        <v>0.18110900000000002</v>
-      </c>
-      <c r="BE31" s="5">
-        <f t="shared" si="30"/>
-        <v>0.19519</v>
-      </c>
-      <c r="BF31" s="5">
-        <f t="shared" si="31"/>
-        <v>0.10858999999999999</v>
-      </c>
-      <c r="BG31" s="5">
-        <f t="shared" si="32"/>
-        <v>0.20799200000000001</v>
-      </c>
-      <c r="BH31" s="5">
-        <f t="shared" si="33"/>
-        <v>5.4003999999999996E-2</v>
-      </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>3967</v>
       </c>
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>35</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
       <c r="F32" s="6">
         <v>7.5935271159999997</v>
       </c>
@@ -6766,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L32" s="8">
@@ -6779,7 +6406,7 @@
         <v>-4.3165000000000002E-2</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.22918099999999997</v>
       </c>
       <c r="P32" s="5">
@@ -6792,16 +6419,16 @@
         <f t="shared" si="0"/>
         <v>0.13848099999999999</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.19357799999999997</v>
+      </c>
+      <c r="T32" s="5">
         <f t="shared" si="13"/>
-        <v>-0.19357799999999997</v>
-      </c>
-      <c r="T32" s="5">
+        <v>-9.7470000000000005E-3</v>
+      </c>
+      <c r="U32" s="21">
         <f t="shared" si="14"/>
-        <v>-9.7470000000000005E-3</v>
-      </c>
-      <c r="U32" s="5">
-        <f t="shared" si="15"/>
         <v>0.18383099999999997</v>
       </c>
       <c r="V32" s="5">
@@ -6824,16 +6451,16 @@
         <f t="shared" si="2"/>
         <v>0.48353799999999997</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AB32" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.18417250000000002</v>
+      </c>
+      <c r="AC32" s="5">
         <f t="shared" si="16"/>
-        <v>-0.18417250000000002</v>
-      </c>
-      <c r="AC32" s="5">
+        <v>0.2201245</v>
+      </c>
+      <c r="AD32" s="21">
         <f t="shared" si="17"/>
-        <v>0.2201245</v>
-      </c>
-      <c r="AD32" s="5">
-        <f t="shared" si="18"/>
         <v>0.40429700000000002</v>
       </c>
       <c r="AE32" s="5">
@@ -6856,16 +6483,16 @@
         <f t="shared" si="4"/>
         <v>0.31073600000000001</v>
       </c>
-      <c r="AK32" s="5">
+      <c r="AK32" s="20">
+        <f t="shared" si="18"/>
+        <v>-0.17441099999999998</v>
+      </c>
+      <c r="AL32" s="5">
         <f t="shared" si="19"/>
-        <v>-0.17441099999999998</v>
-      </c>
-      <c r="AL32" s="5">
+        <v>0.1681745</v>
+      </c>
+      <c r="AM32" s="21">
         <f t="shared" si="20"/>
-        <v>0.1681745</v>
-      </c>
-      <c r="AM32" s="5">
-        <f t="shared" si="21"/>
         <v>0.34258549999999999</v>
       </c>
       <c r="AN32" s="5">
@@ -6885,74 +6512,54 @@
         <v>4.7199999999999998E-4</v>
       </c>
       <c r="AS32" s="5">
+        <f t="shared" si="21"/>
+        <v>2.4188999999999999E-2</v>
+      </c>
+      <c r="AT32" s="20">
         <f t="shared" si="22"/>
-        <v>2.4188999999999999E-2</v>
-      </c>
-      <c r="AT32" s="5">
+        <v>-1.7041999999999998E-2</v>
+      </c>
+      <c r="AU32" s="5">
         <f t="shared" si="23"/>
-        <v>-1.7041999999999998E-2</v>
-      </c>
-      <c r="AU32" s="5">
+        <v>2.8475000000000002E-3</v>
+      </c>
+      <c r="AV32" s="21">
         <f t="shared" si="24"/>
-        <v>2.8475000000000002E-3</v>
-      </c>
-      <c r="AV32" s="5">
+        <v>1.9889499999999997E-2</v>
+      </c>
+      <c r="AW32" s="5">
         <f t="shared" si="25"/>
-        <v>1.9889499999999997E-2</v>
-      </c>
-      <c r="AW32" s="5">
+        <v>-6.7578200000000005E-2</v>
+      </c>
+      <c r="AX32" s="5">
         <f t="shared" si="7"/>
-        <v>-6.7578200000000005E-2</v>
-      </c>
-      <c r="AX32" s="5">
+        <v>7.8625000000000222E-4</v>
+      </c>
+      <c r="AY32" s="5">
         <f t="shared" si="8"/>
-        <v>7.8625000000000222E-4</v>
-      </c>
-      <c r="AY32" s="5">
+        <v>-4.8022499999999992E-3</v>
+      </c>
+      <c r="AZ32" s="5">
         <f t="shared" si="9"/>
-        <v>-4.8022499999999992E-3</v>
-      </c>
-      <c r="AZ32" s="5">
-        <f t="shared" si="10"/>
         <v>-5.4132499999999971E-3</v>
       </c>
-      <c r="BA32" s="5">
-        <f t="shared" si="26"/>
-        <v>9.8627999999999966E-2</v>
-      </c>
-      <c r="BB32" s="5">
-        <f t="shared" si="27"/>
-        <v>0.19450300000000001</v>
-      </c>
-      <c r="BC32" s="5">
-        <f t="shared" si="28"/>
-        <v>-7.9816999999999999E-2</v>
-      </c>
-      <c r="BD32" s="5">
-        <f t="shared" si="29"/>
-        <v>0.26523999999999998</v>
-      </c>
-      <c r="BE32" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.18388300000000002</v>
-      </c>
-      <c r="BF32" s="5">
-        <f t="shared" si="31"/>
-        <v>0.17496200000000001</v>
-      </c>
-      <c r="BG32" s="5">
-        <f t="shared" si="32"/>
-        <v>-0.130855</v>
-      </c>
-      <c r="BH32" s="5">
-        <f t="shared" si="33"/>
-        <v>0.155692</v>
-      </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>3992</v>
       </c>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>27</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
       <c r="F33" s="6">
         <v>6.0862399470000002</v>
       </c>
@@ -6969,7 +6576,7 @@
         <v>23</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="L33" s="8">
@@ -6982,7 +6589,7 @@
         <v>0.13015099999999999</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.11784899999999998</v>
       </c>
       <c r="P33" s="5">
@@ -6995,16 +6602,16 @@
         <f t="shared" si="0"/>
         <v>9.0119000000000005E-2</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="20">
+        <f t="shared" si="12"/>
+        <v>2.3279000000000001E-2</v>
+      </c>
+      <c r="T33" s="5">
         <f t="shared" si="13"/>
-        <v>2.3279000000000001E-2</v>
-      </c>
-      <c r="T33" s="5">
+        <v>0.12726299999999999</v>
+      </c>
+      <c r="U33" s="21">
         <f t="shared" si="14"/>
-        <v>0.12726299999999999</v>
-      </c>
-      <c r="U33" s="5">
-        <f t="shared" si="15"/>
         <v>0.10398399999999999</v>
       </c>
       <c r="V33" s="5">
@@ -7027,16 +6634,16 @@
         <f t="shared" si="2"/>
         <v>-0.12043100000000001</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AB33" s="20">
+        <f t="shared" si="15"/>
+        <v>7.7974000000000002E-2</v>
+      </c>
+      <c r="AC33" s="5">
         <f t="shared" si="16"/>
-        <v>7.7974000000000002E-2</v>
-      </c>
-      <c r="AC33" s="5">
+        <v>1.07595E-2</v>
+      </c>
+      <c r="AD33" s="21">
         <f t="shared" si="17"/>
-        <v>1.07595E-2</v>
-      </c>
-      <c r="AD33" s="5">
-        <f t="shared" si="18"/>
         <v>-6.721450000000001E-2</v>
       </c>
       <c r="AE33" s="5">
@@ -7059,16 +6666,16 @@
         <f t="shared" si="4"/>
         <v>-3.3103999999999995E-2</v>
       </c>
-      <c r="AK33" s="5">
+      <c r="AK33" s="20">
+        <f t="shared" si="18"/>
+        <v>3.9590000000000007E-3</v>
+      </c>
+      <c r="AL33" s="5">
         <f t="shared" si="19"/>
-        <v>3.9590000000000007E-3</v>
-      </c>
-      <c r="AL33" s="5">
+        <v>-1.8960499999999998E-2</v>
+      </c>
+      <c r="AM33" s="21">
         <f t="shared" si="20"/>
-        <v>-1.8960499999999998E-2</v>
-      </c>
-      <c r="AM33" s="5">
-        <f t="shared" si="21"/>
         <v>-2.2919499999999999E-2</v>
       </c>
       <c r="AN33" s="5">
@@ -7088,74 +6695,54 @@
         <v>7.8109999999999999E-2</v>
       </c>
       <c r="AS33" s="5">
+        <f t="shared" si="21"/>
+        <v>0.12911500000000001</v>
+      </c>
+      <c r="AT33" s="20">
         <f t="shared" si="22"/>
-        <v>0.12911500000000001</v>
-      </c>
-      <c r="AT33" s="5">
+        <v>-2.7189500000000002E-2</v>
+      </c>
+      <c r="AU33" s="5">
         <f t="shared" si="23"/>
-        <v>-2.7189500000000002E-2</v>
-      </c>
-      <c r="AU33" s="5">
+        <v>6.7236500000000005E-2</v>
+      </c>
+      <c r="AV33" s="21">
         <f t="shared" si="24"/>
-        <v>6.7236500000000005E-2</v>
-      </c>
-      <c r="AV33" s="5">
+        <v>9.442600000000001E-2</v>
+      </c>
+      <c r="AW33" s="5">
         <f t="shared" si="25"/>
-        <v>9.442600000000001E-2</v>
-      </c>
-      <c r="AW33" s="5">
+        <v>4.1747800000000002E-2</v>
+      </c>
+      <c r="AX33" s="5">
         <f t="shared" si="7"/>
-        <v>4.1747800000000002E-2</v>
-      </c>
-      <c r="AX33" s="5">
+        <v>6.7452999999999999E-2</v>
+      </c>
+      <c r="AY33" s="5">
         <f t="shared" si="8"/>
-        <v>6.7452999999999999E-2</v>
-      </c>
-      <c r="AY33" s="5">
+        <v>2.0338000000000002E-2</v>
+      </c>
+      <c r="AZ33" s="5">
         <f t="shared" si="9"/>
-        <v>2.0338000000000002E-2</v>
-      </c>
-      <c r="AZ33" s="5">
-        <f t="shared" si="10"/>
         <v>-7.8152499999999993E-3</v>
       </c>
-      <c r="BA33" s="5">
-        <f t="shared" si="26"/>
-        <v>2.7839999999999997E-2</v>
-      </c>
-      <c r="BB33" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.10400699999999999</v>
-      </c>
-      <c r="BC33" s="5">
-        <f t="shared" si="28"/>
-        <v>8.1550000000000011E-2</v>
-      </c>
-      <c r="BD33" s="5">
-        <f t="shared" si="29"/>
-        <v>-0.129</v>
-      </c>
-      <c r="BE33" s="5">
-        <f t="shared" si="30"/>
-        <v>2.3923E-2</v>
-      </c>
-      <c r="BF33" s="5">
-        <f t="shared" si="31"/>
-        <v>-4.8549000000000002E-2</v>
-      </c>
-      <c r="BG33" s="5">
-        <f t="shared" si="32"/>
-        <v>3.8374000000000005E-2</v>
-      </c>
-      <c r="BH33" s="5">
-        <f t="shared" si="33"/>
-        <v>-0.123845</v>
-      </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>4017</v>
       </c>
+      <c r="B34" s="13">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13">
+        <v>21</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
       <c r="F34" s="6">
         <v>7.081494341</v>
       </c>
@@ -7172,7 +6759,7 @@
         <v>16</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="L34" s="8">
@@ -7185,7 +6772,7 @@
         <v>0.30115599999999998</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.42421399999999998</v>
       </c>
       <c r="P34" s="5">
@@ -7198,16 +6785,16 @@
         <f t="shared" si="0"/>
         <v>0.37129299999999998</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.140926</v>
+      </c>
+      <c r="T34" s="5">
         <f t="shared" si="13"/>
-        <v>-0.140926</v>
-      </c>
-      <c r="T34" s="5">
+        <v>0.25682749999999999</v>
+      </c>
+      <c r="U34" s="21">
         <f t="shared" si="14"/>
-        <v>0.25682749999999999</v>
-      </c>
-      <c r="U34" s="5">
-        <f t="shared" si="15"/>
         <v>0.39775349999999998</v>
       </c>
       <c r="V34" s="5">
@@ -7230,16 +6817,16 @@
         <f t="shared" si="2"/>
         <v>-0.31128</v>
       </c>
-      <c r="AB34" s="5">
+      <c r="AB34" s="20">
+        <f t="shared" si="15"/>
+        <v>0.249917</v>
+      </c>
+      <c r="AC34" s="5">
         <f t="shared" si="16"/>
-        <v>0.249917</v>
-      </c>
-      <c r="AC34" s="5">
+        <v>-5.6598999999999997E-2</v>
+      </c>
+      <c r="AD34" s="21">
         <f t="shared" si="17"/>
-        <v>-5.6598999999999997E-2</v>
-      </c>
-      <c r="AD34" s="5">
-        <f t="shared" si="18"/>
         <v>-0.30651600000000001</v>
       </c>
       <c r="AE34" s="5">
@@ -7262,16 +6849,16 @@
         <f t="shared" si="4"/>
         <v>5.1913999999999988E-2</v>
       </c>
-      <c r="AK34" s="5">
+      <c r="AK34" s="20">
+        <f t="shared" si="18"/>
+        <v>0.12787750000000001</v>
+      </c>
+      <c r="AL34" s="5">
         <f t="shared" si="19"/>
-        <v>0.12787750000000001</v>
-      </c>
-      <c r="AL34" s="5">
+        <v>0.17669699999999999</v>
+      </c>
+      <c r="AM34" s="21">
         <f t="shared" si="20"/>
-        <v>0.17669699999999999</v>
-      </c>
-      <c r="AM34" s="5">
-        <f t="shared" si="21"/>
         <v>4.8819499999999988E-2</v>
       </c>
       <c r="AN34" s="5">
@@ -7291,74 +6878,54 @@
         <v>3.7670000000000002E-2</v>
       </c>
       <c r="AS34" s="5">
+        <f t="shared" si="21"/>
+        <v>0.13767299999999999</v>
+      </c>
+      <c r="AT34" s="20">
         <f t="shared" si="22"/>
-        <v>0.13767299999999999</v>
-      </c>
-      <c r="AT34" s="5">
+        <v>-0.13221749999999999</v>
+      </c>
+      <c r="AU34" s="5">
         <f t="shared" si="23"/>
-        <v>-0.13221749999999999</v>
-      </c>
-      <c r="AU34" s="5">
+        <v>-1.8767499999999996E-2</v>
+      </c>
+      <c r="AV34" s="21">
         <f t="shared" si="24"/>
-        <v>-1.8767499999999996E-2</v>
-      </c>
-      <c r="AV34" s="5">
+        <v>0.11345</v>
+      </c>
+      <c r="AW34" s="5">
         <f t="shared" si="25"/>
-        <v>0.11345</v>
-      </c>
-      <c r="AW34" s="5">
+        <v>7.9752000000000003E-2</v>
+      </c>
+      <c r="AX34" s="5">
         <f t="shared" si="7"/>
-        <v>7.9752000000000003E-2</v>
-      </c>
-      <c r="AX34" s="5">
+        <v>5.491975000000001E-2</v>
+      </c>
+      <c r="AY34" s="5">
         <f t="shared" si="8"/>
-        <v>5.491975000000001E-2</v>
-      </c>
-      <c r="AY34" s="5">
+        <v>1.1582000000000009E-2</v>
+      </c>
+      <c r="AZ34" s="5">
         <f t="shared" si="9"/>
-        <v>1.1582000000000009E-2</v>
-      </c>
-      <c r="AZ34" s="5">
-        <f t="shared" si="10"/>
         <v>6.521275E-2</v>
       </c>
-      <c r="BA34" s="5">
-        <f t="shared" si="26"/>
-        <v>0.38426500000000002</v>
-      </c>
-      <c r="BB34" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.34170099999999998</v>
-      </c>
-      <c r="BC34" s="5">
-        <f t="shared" si="28"/>
-        <v>0.39742100000000002</v>
-      </c>
-      <c r="BD34" s="5">
-        <f t="shared" si="29"/>
-        <v>-0.28515199999999996</v>
-      </c>
-      <c r="BE34" s="5">
-        <f t="shared" si="30"/>
-        <v>0.28455200000000003</v>
-      </c>
-      <c r="BF34" s="5">
-        <f t="shared" si="31"/>
-        <v>0.24104999999999999</v>
-      </c>
-      <c r="BG34" s="5">
-        <f t="shared" si="32"/>
-        <v>0.23563800000000001</v>
-      </c>
-      <c r="BH34" s="5">
-        <f t="shared" si="33"/>
-        <v>0.14987899999999998</v>
-      </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>4018</v>
       </c>
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
+        <v>22</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
       <c r="F35" s="6">
         <v>10.586067829999999</v>
       </c>
@@ -7375,7 +6942,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="L35" s="8">
@@ -7388,7 +6955,7 @@
         <v>-0.16614799999999999</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.183008</v>
       </c>
       <c r="P35" s="5">
@@ -7401,16 +6968,16 @@
         <f t="shared" si="0"/>
         <v>3.1021E-2</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="20">
+        <f t="shared" si="12"/>
+        <v>9.9430000000000004E-3</v>
+      </c>
+      <c r="T35" s="5">
         <f t="shared" si="13"/>
-        <v>9.9430000000000004E-3</v>
-      </c>
-      <c r="T35" s="5">
+        <v>-6.6050499999999998E-2</v>
+      </c>
+      <c r="U35" s="21">
         <f t="shared" si="14"/>
-        <v>-6.6050499999999998E-2</v>
-      </c>
-      <c r="U35" s="5">
-        <f t="shared" si="15"/>
         <v>-7.5993500000000005E-2</v>
       </c>
       <c r="V35" s="5">
@@ -7433,16 +7000,16 @@
         <f t="shared" si="2"/>
         <v>0.21749499999999999</v>
       </c>
-      <c r="AB35" s="5">
+      <c r="AB35" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.21374500000000002</v>
+      </c>
+      <c r="AC35" s="5">
         <f t="shared" si="16"/>
-        <v>-0.21374500000000002</v>
-      </c>
-      <c r="AC35" s="5">
+        <v>-7.7405499999999988E-2</v>
+      </c>
+      <c r="AD35" s="21">
         <f t="shared" si="17"/>
-        <v>-7.7405499999999988E-2</v>
-      </c>
-      <c r="AD35" s="5">
-        <f t="shared" si="18"/>
         <v>0.1363395</v>
       </c>
       <c r="AE35" s="5">
@@ -7465,16 +7032,16 @@
         <f t="shared" si="4"/>
         <v>6.3528000000000001E-2</v>
       </c>
-      <c r="AK35" s="5">
+      <c r="AK35" s="20">
+        <f t="shared" si="18"/>
+        <v>-0.11158849999999999</v>
+      </c>
+      <c r="AL35" s="5">
         <f t="shared" si="19"/>
-        <v>-0.11158849999999999</v>
-      </c>
-      <c r="AL35" s="5">
+        <v>-7.613049999999999E-2</v>
+      </c>
+      <c r="AM35" s="21">
         <f t="shared" si="20"/>
-        <v>-7.613049999999999E-2</v>
-      </c>
-      <c r="AM35" s="5">
-        <f t="shared" si="21"/>
         <v>3.5458000000000003E-2</v>
       </c>
       <c r="AN35" s="5">
@@ -7494,74 +7061,54 @@
         <v>6.2628000000000003E-2</v>
       </c>
       <c r="AS35" s="5">
+        <f t="shared" si="21"/>
+        <v>-6.4020000000000007E-2</v>
+      </c>
+      <c r="AT35" s="20">
         <f t="shared" si="22"/>
-        <v>-6.4020000000000007E-2</v>
-      </c>
-      <c r="AT35" s="5">
+        <v>0.12137000000000001</v>
+      </c>
+      <c r="AU35" s="5">
         <f t="shared" si="23"/>
-        <v>0.12137000000000001</v>
-      </c>
-      <c r="AU35" s="5">
+        <v>1.1983000000000001E-2</v>
+      </c>
+      <c r="AV35" s="21">
         <f t="shared" si="24"/>
-        <v>1.1983000000000001E-2</v>
-      </c>
-      <c r="AV35" s="5">
+        <v>-0.10938700000000001</v>
+      </c>
+      <c r="AW35" s="5">
         <f t="shared" si="25"/>
-        <v>-0.10938700000000001</v>
-      </c>
-      <c r="AW35" s="5">
+        <v>-6.8100799999999989E-2</v>
+      </c>
+      <c r="AX35" s="5">
         <f t="shared" si="7"/>
-        <v>-6.8100799999999989E-2</v>
-      </c>
-      <c r="AX35" s="5">
+        <v>-8.8502999999999998E-2</v>
+      </c>
+      <c r="AY35" s="5">
         <f t="shared" si="8"/>
-        <v>-8.8502999999999998E-2</v>
-      </c>
-      <c r="AY35" s="5">
+        <v>-9.4860000000000014E-3</v>
+      </c>
+      <c r="AZ35" s="5">
         <f t="shared" si="9"/>
-        <v>-9.4860000000000014E-3</v>
-      </c>
-      <c r="AZ35" s="5">
-        <f t="shared" si="10"/>
         <v>-1.7696999999999987E-2</v>
       </c>
-      <c r="BA35" s="5">
-        <f t="shared" si="26"/>
-        <v>-0.14006000000000002</v>
-      </c>
-      <c r="BB35" s="5">
-        <f t="shared" si="27"/>
-        <v>9.8131999999999997E-2</v>
-      </c>
-      <c r="BC35" s="5">
-        <f t="shared" si="28"/>
-        <v>-0.30731599999999998</v>
-      </c>
-      <c r="BD35" s="5">
-        <f t="shared" si="29"/>
-        <v>-0.120842</v>
-      </c>
-      <c r="BE35" s="5">
-        <f t="shared" si="30"/>
-        <v>-0.17747299999999999</v>
-      </c>
-      <c r="BF35" s="5">
-        <f t="shared" si="31"/>
-        <v>-1.5330999999999997E-2</v>
-      </c>
-      <c r="BG35" s="5">
-        <f t="shared" si="32"/>
-        <v>-0.28844400000000003</v>
-      </c>
-      <c r="BH35" s="5">
-        <f t="shared" si="33"/>
-        <v>-0.16089599999999998</v>
-      </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>4019</v>
       </c>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13">
+        <v>23</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
       <c r="F36" s="6">
         <v>11.05144366</v>
       </c>
@@ -7578,7 +7125,7 @@
         <v>6</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L36" s="8">
@@ -7591,7 +7138,7 @@
         <v>-0.26041500000000001</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-5.0863000000000019E-2</v>
       </c>
       <c r="P36" s="5">
@@ -7604,16 +7151,16 @@
         <f t="shared" si="0"/>
         <v>-8.4435999999999983E-2</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="20">
+        <f t="shared" si="12"/>
+        <v>-0.16462749999999998</v>
+      </c>
+      <c r="T36" s="5">
         <f t="shared" si="13"/>
-        <v>-0.16462749999999998</v>
-      </c>
-      <c r="T36" s="5">
+        <v>-0.23227700000000001</v>
+      </c>
+      <c r="U36" s="21">
         <f t="shared" si="14"/>
-        <v>-0.23227700000000001</v>
-      </c>
-      <c r="U36" s="5">
-        <f t="shared" si="15"/>
         <v>-6.7649500000000001E-2</v>
       </c>
       <c r="V36" s="5">
@@ -7636,16 +7183,16 @@
         <f t="shared" si="2"/>
         <v>-7.9976000000000005E-2</v>
       </c>
-      <c r="AB36" s="5">
+      <c r="AB36" s="20">
+        <f t="shared" si="15"/>
+        <v>2.1119999999999993E-3</v>
+      </c>
+      <c r="AC36" s="5">
         <f t="shared" si="16"/>
-        <v>2.1119999999999993E-3</v>
-      </c>
-      <c r="AC36" s="5">
+        <v>-4.8635500000000005E-2</v>
+      </c>
+      <c r="AD36" s="21">
         <f t="shared" si="17"/>
-        <v>-4.8635500000000005E-2</v>
-      </c>
-      <c r="AD36" s="5">
-        <f t="shared" si="18"/>
         <v>-5.0747500000000001E-2</v>
       </c>
       <c r="AE36" s="5">
@@ -7668,16 +7215,16 @@
         <f t="shared" si="4"/>
         <v>-5.3184000000000009E-2</v>
       </c>
-      <c r="AK36" s="5">
+      <c r="AK36" s="20">
+        <f t="shared" si="18"/>
+        <v>4.7274000000000004E-2</v>
+      </c>
+      <c r="AL36" s="5">
         <f t="shared" si="19"/>
-        <v>4.7274000000000004E-2</v>
-      </c>
-      <c r="AL36" s="5">
+        <v>-2.8743999999999999E-2</v>
+      </c>
+      <c r="AM36" s="21">
         <f t="shared" si="20"/>
-        <v>-2.8743999999999999E-2</v>
-      </c>
-      <c r="AM36" s="5">
-        <f t="shared" si="21"/>
         <v>-7.6018000000000002E-2</v>
       </c>
       <c r="AN36" s="5">
@@ -7697,74 +7244,54 @@
         <v>-5.527E-2</v>
       </c>
       <c r="AS36" s="5">
+        <f t="shared" si="21"/>
+        <v>2.6590000000000003E-2</v>
+      </c>
+      <c r="AT36" s="20">
         <f t="shared" si="22"/>
-        <v>2.6590000000000003E-2</v>
-      </c>
-      <c r="AT36" s="5">
+        <v>-0.139573</v>
+      </c>
+      <c r="AU36" s="5">
         <f t="shared" si="23"/>
-        <v>-0.139573</v>
-      </c>
-      <c r="AU36" s="5">
+        <v>-0.110206</v>
+      </c>
+      <c r="AV36" s="21">
         <f t="shared" si="24"/>
-        <v>-0.110206</v>
-      </c>
-      <c r="AV36" s="5">
+        <v>2.936699999999999E-2</v>
+      </c>
+      <c r="AW36" s="5">
         <f t="shared" si="25"/>
-        <v>2.936699999999999E-2</v>
-      </c>
-      <c r="AW36" s="5">
+        <v>-8.3086000000000007E-2</v>
+      </c>
+      <c r="AX36" s="5">
         <f t="shared" si="7"/>
-        <v>-8.3086000000000007E-2</v>
-      </c>
-      <c r="AX36" s="5">
+        <v>-0.11785649999999999</v>
+      </c>
+      <c r="AY36" s="5">
         <f t="shared" si="8"/>
-        <v>-0.11785649999999999</v>
-      </c>
-      <c r="AY36" s="5">
+        <v>-0.10586999999999999</v>
+      </c>
+      <c r="AZ36" s="5">
         <f t="shared" si="9"/>
-        <v>-0.10586999999999999</v>
-      </c>
-      <c r="AZ36" s="5">
-        <f t="shared" si="10"/>
         <v>-9.7544999999999993E-3</v>
       </c>
-      <c r="BA36" s="5">
-        <f t="shared" si="26"/>
-        <v>0.24757999999999999</v>
-      </c>
-      <c r="BB36" s="5">
-        <f t="shared" si="27"/>
-        <v>0.276924</v>
-      </c>
-      <c r="BC36" s="5">
-        <f t="shared" si="28"/>
-        <v>8.5899000000000003E-2</v>
-      </c>
-      <c r="BD36" s="5">
-        <f t="shared" si="29"/>
-        <v>9.0358999999999981E-2</v>
-      </c>
-      <c r="BE36" s="5">
-        <f t="shared" si="30"/>
-        <v>0.21618599999999999</v>
-      </c>
-      <c r="BF36" s="5">
-        <f t="shared" si="31"/>
-        <v>8.5190000000000016E-2</v>
-      </c>
-      <c r="BG36" s="5">
-        <f t="shared" si="32"/>
-        <v>0.15750800000000001</v>
-      </c>
-      <c r="BH36" s="5">
-        <f t="shared" si="33"/>
-        <v>7.7733999999999998E-2</v>
-      </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>4020</v>
       </c>
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
+        <v>19</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
       <c r="F37" s="6">
         <v>6.4567896820000001</v>
       </c>
@@ -7781,7 +7308,7 @@
         <v>20</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="L37" s="8">
@@ -7794,7 +7321,7 @@
         <v>0.214334</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.11053399999999999</v>
       </c>
       <c r="P37" s="5">
@@ -7807,16 +7334,16 @@
         <f t="shared" si="0"/>
         <v>0.10097400000000001</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="22">
+        <f t="shared" si="12"/>
+        <v>5.8689999999999999E-2</v>
+      </c>
+      <c r="T37" s="4">
         <f t="shared" si="13"/>
-        <v>5.8689999999999999E-2</v>
-      </c>
-      <c r="T37" s="5">
+        <v>0.16444400000000001</v>
+      </c>
+      <c r="U37" s="23">
         <f t="shared" si="14"/>
-        <v>0.16444400000000001</v>
-      </c>
-      <c r="U37" s="5">
-        <f t="shared" si="15"/>
         <v>0.105754</v>
       </c>
       <c r="V37" s="5">
@@ -7839,16 +7366,16 @@
         <f t="shared" si="2"/>
         <v>2.8230999999999999E-2</v>
       </c>
-      <c r="AB37" s="5">
+      <c r="AB37" s="22">
+        <f t="shared" si="15"/>
+        <v>-4.3700000000000003E-2</v>
+      </c>
+      <c r="AC37" s="4">
         <f t="shared" si="16"/>
-        <v>-4.3700000000000003E-2</v>
-      </c>
-      <c r="AC37" s="5">
+        <v>-8.0625000000000002E-3</v>
+      </c>
+      <c r="AD37" s="23">
         <f t="shared" si="17"/>
-        <v>-8.0625000000000002E-3</v>
-      </c>
-      <c r="AD37" s="5">
-        <f t="shared" si="18"/>
         <v>3.5637500000000003E-2</v>
       </c>
       <c r="AE37" s="5">
@@ -7871,16 +7398,16 @@
         <f t="shared" si="4"/>
         <v>-5.9299999999999999E-4</v>
       </c>
-      <c r="AK37" s="5">
+      <c r="AK37" s="22">
+        <f t="shared" si="18"/>
+        <v>1.7628499999999998E-2</v>
+      </c>
+      <c r="AL37" s="4">
         <f t="shared" si="19"/>
-        <v>1.7628499999999998E-2</v>
-      </c>
-      <c r="AL37" s="5">
+        <v>1.48185E-2</v>
+      </c>
+      <c r="AM37" s="23">
         <f t="shared" si="20"/>
-        <v>1.48185E-2</v>
-      </c>
-      <c r="AM37" s="5">
-        <f t="shared" si="21"/>
         <v>-2.81E-3</v>
       </c>
       <c r="AN37" s="5">
@@ -7900,75 +7427,57 @@
         <v>0.190882</v>
       </c>
       <c r="AS37" s="5">
+        <f t="shared" si="21"/>
+        <v>0.12265899999999999</v>
+      </c>
+      <c r="AT37" s="22">
         <f t="shared" si="22"/>
-        <v>0.12265899999999999</v>
-      </c>
-      <c r="AT37" s="5">
+        <v>6.0819499999999999E-2</v>
+      </c>
+      <c r="AU37" s="4">
         <f t="shared" si="23"/>
-        <v>6.0819499999999999E-2</v>
-      </c>
-      <c r="AU37" s="5">
+        <v>0.161913</v>
+      </c>
+      <c r="AV37" s="23">
         <f t="shared" si="24"/>
-        <v>0.161913</v>
-      </c>
-      <c r="AV37" s="5">
+        <v>0.1010935</v>
+      </c>
+      <c r="AW37" s="5">
         <f t="shared" si="25"/>
-        <v>0.1010935</v>
-      </c>
-      <c r="AW37" s="5">
+        <v>6.1770800000000001E-2</v>
+      </c>
+      <c r="AX37" s="5">
         <f t="shared" si="7"/>
-        <v>6.1770800000000001E-2</v>
-      </c>
-      <c r="AX37" s="5">
+        <v>8.4722499999999989E-3</v>
+      </c>
+      <c r="AY37" s="5">
         <f t="shared" si="8"/>
-        <v>8.4722499999999989E-3</v>
-      </c>
-      <c r="AY37" s="5">
+        <v>6.2834749999999995E-2</v>
+      </c>
+      <c r="AZ37" s="5">
         <f t="shared" si="9"/>
-        <v>6.2834749999999995E-2</v>
-      </c>
-      <c r="AZ37" s="5">
-        <f t="shared" si="10"/>
         <v>6.4755000000000007E-2</v>
       </c>
-      <c r="BA37" s="5">
-        <f t="shared" si="26"/>
-        <v>-0.12996199999999999</v>
-      </c>
-      <c r="BB37" s="5">
-        <f t="shared" si="27"/>
-        <v>-0.19745199999999999</v>
-      </c>
-      <c r="BC37" s="5">
-        <f t="shared" si="28"/>
-        <v>-7.4817999999999996E-2</v>
-      </c>
-      <c r="BD37" s="5">
-        <f t="shared" si="29"/>
-        <v>-0.147561</v>
-      </c>
-      <c r="BE37" s="5">
-        <f t="shared" si="30"/>
-        <v>-1.8412999999999999E-2</v>
-      </c>
-      <c r="BF37" s="5">
-        <f t="shared" si="31"/>
-        <v>-0.102968</v>
-      </c>
-      <c r="BG37" s="5">
-        <f t="shared" si="32"/>
-        <v>-6.7969000000000002E-2</v>
-      </c>
-      <c r="BH37" s="5">
-        <f t="shared" si="33"/>
-        <v>-0.191221</v>
-      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="D38" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
